--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -2067,7 +2067,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="588">
   <si>
     <t>no</t>
     <phoneticPr fontId="4"/>
@@ -9364,7 +9364,258 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>20220901</t>
+    <r>
+      <t># bork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예측한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>..   bork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>없었던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기간의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흑자범위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예측해보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20220601</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>r1-12x</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bork_25</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arff_2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>clf_2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>363</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>363</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -9372,8 +9623,32 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t># bork</t>
+    <t>cf_lgbm-6_py</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t># class_weight=balanced</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20221106</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#99201</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#99301</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20221130</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t># 7</t>
     </r>
     <r>
       <rPr>
@@ -9384,7 +9659,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>로</t>
+      <t>년전부터</t>
     </r>
     <r>
       <rPr>
@@ -9394,7 +9669,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> rork</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -9405,7 +9680,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>를</t>
+      <t>시작해서</t>
     </r>
     <r>
       <rPr>
@@ -9426,7 +9701,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>예측한다</t>
+      <t>데이터</t>
     </r>
     <r>
       <rPr>
@@ -9436,7 +9711,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>..   bork</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -9447,7 +9722,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>가</t>
+      <t>누적</t>
     </r>
     <r>
       <rPr>
@@ -9457,7 +9732,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>. 1</t>
     </r>
     <r>
       <rPr>
@@ -9468,7 +9743,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>없었던</t>
+      <t>년단위</t>
     </r>
     <r>
       <rPr>
@@ -9489,157 +9764,20 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>기간의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>데이터의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rork</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bork</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>흑자범위를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>예측해보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>위해</t>
+      <t>갱신</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>20220601</t>
+    <t>no</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>r1-12x</t>
+    <t>2555</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>bork_25</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>arff_2</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>clf_2</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>363</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>363</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>20221031</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>20180601</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>cf_lgbm-6_py</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t># class_weight=balanced</t>
+    <t>90</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -12941,11 +13079,11 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:V278"/>
+  <dimension ref="A1:V284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175:C178"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T181" sqref="T181:T184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20650,10 +20788,10 @@
         <v>99100</v>
       </c>
       <c r="B165" s="121" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C165" s="121" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D165" s="117" t="s">
         <v>23</v>
@@ -20712,10 +20850,10 @@
         <v>99080</v>
       </c>
       <c r="B166" s="121" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C166" s="121" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D166" s="117" t="s">
         <v>23</v>
@@ -20774,10 +20912,10 @@
         <v>99083</v>
       </c>
       <c r="B167" s="121" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C167" s="121" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D167" s="117" t="s">
         <v>23</v>
@@ -20836,10 +20974,10 @@
         <v>99102</v>
       </c>
       <c r="B168" s="121" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C168" s="121" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D168" s="53" t="s">
         <v>119</v>
@@ -20898,10 +21036,10 @@
         <v>99103</v>
       </c>
       <c r="B169" s="121" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C169" s="121" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D169" s="53" t="s">
         <v>245</v>
@@ -20957,7 +21095,7 @@
     </row>
     <row r="170" spans="1:20" s="119" customFormat="1" hidden="1">
       <c r="A170" s="123" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B170" s="121"/>
       <c r="C170" s="121"/>
@@ -20980,8 +21118,8 @@
       <c r="T170" s="117"/>
     </row>
     <row r="171" spans="1:20" s="119" customFormat="1">
-      <c r="A171" s="123">
-        <v>99201</v>
+      <c r="A171" s="123" t="s">
+        <v>581</v>
       </c>
       <c r="B171" s="121" t="s">
         <v>567</v>
@@ -21032,27 +21170,27 @@
         <v>0</v>
       </c>
       <c r="R171" s="117" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S171" s="117" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T171" s="117" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:20" s="119" customFormat="1">
-      <c r="A172" s="123">
-        <v>99301</v>
+      <c r="A172" s="123" t="s">
+        <v>582</v>
       </c>
       <c r="B172" s="121" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C172" s="121" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D172" s="121" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E172" s="117" t="s">
         <v>31</v>
@@ -21070,7 +21208,7 @@
         <v>31</v>
       </c>
       <c r="J172" s="121" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K172" s="117" t="s">
         <v>31</v>
@@ -21079,10 +21217,10 @@
         <v>31</v>
       </c>
       <c r="M172" s="117" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N172" s="121" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O172" s="120" t="s">
         <v>48</v>
@@ -21097,7 +21235,7 @@
         <v>1</v>
       </c>
       <c r="S172" s="117" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T172" s="117" t="s">
         <v>25</v>
@@ -21105,7 +21243,7 @@
     </row>
     <row r="173" spans="1:20" s="119" customFormat="1">
       <c r="A173" s="123" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B173" s="121"/>
       <c r="C173" s="121"/>
@@ -21135,7 +21273,7 @@
         <v>580</v>
       </c>
       <c r="C174" s="121" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D174" s="117" t="s">
         <v>23</v>
@@ -21147,13 +21285,13 @@
         <v>111</v>
       </c>
       <c r="G174" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H174" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I174" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J174" s="121" t="s">
         <v>557</v>
@@ -21197,7 +21335,7 @@
         <v>580</v>
       </c>
       <c r="C175" s="121" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D175" s="117" t="s">
         <v>23</v>
@@ -21209,13 +21347,13 @@
         <v>111</v>
       </c>
       <c r="G175" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H175" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I175" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J175" s="117" t="s">
         <v>77</v>
@@ -21259,7 +21397,7 @@
         <v>580</v>
       </c>
       <c r="C176" s="121" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D176" s="117" t="s">
         <v>23</v>
@@ -21271,13 +21409,13 @@
         <v>111</v>
       </c>
       <c r="G176" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H176" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I176" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J176" s="117" t="s">
         <v>78</v>
@@ -21321,7 +21459,7 @@
         <v>580</v>
       </c>
       <c r="C177" s="121" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D177" s="53" t="s">
         <v>119</v>
@@ -21333,7 +21471,7 @@
         <v>31</v>
       </c>
       <c r="G177" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H177" s="117" t="s">
         <v>31</v>
@@ -21383,7 +21521,7 @@
         <v>580</v>
       </c>
       <c r="C178" s="121" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D178" s="53" t="s">
         <v>245</v>
@@ -21395,7 +21533,7 @@
         <v>31</v>
       </c>
       <c r="G178" s="117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H178" s="117" t="s">
         <v>31</v>
@@ -21438,7 +21576,9 @@
       </c>
     </row>
     <row r="179" spans="1:20" s="119" customFormat="1">
-      <c r="A179" s="123"/>
+      <c r="A179" s="123" t="s">
+        <v>584</v>
+      </c>
       <c r="B179" s="121"/>
       <c r="C179" s="121"/>
       <c r="D179" s="121"/>
@@ -21460,147 +21600,341 @@
       <c r="T179" s="121"/>
     </row>
     <row r="180" spans="1:20" s="119" customFormat="1">
-      <c r="A180" s="134" t="s">
-        <v>560</v>
-      </c>
-      <c r="B180" s="121"/>
-      <c r="C180" s="121"/>
-      <c r="D180" s="121"/>
-      <c r="E180" s="121"/>
-      <c r="F180" s="121"/>
-      <c r="G180" s="121"/>
-      <c r="H180" s="121"/>
-      <c r="I180" s="121"/>
-      <c r="J180" s="121"/>
-      <c r="K180" s="121"/>
-      <c r="L180" s="121"/>
-      <c r="M180" s="121"/>
-      <c r="N180" s="121"/>
-      <c r="O180" s="121"/>
-      <c r="P180" s="121"/>
-      <c r="Q180" s="121"/>
-      <c r="R180" s="121"/>
-      <c r="S180" s="121"/>
-      <c r="T180" s="121"/>
+      <c r="A180" s="133">
+        <v>97100</v>
+      </c>
+      <c r="B180" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C180" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="D180" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F180" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G180" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J180" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K180" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L180" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="M180" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N180" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O180" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P180" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q180" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R180" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S180" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="T180" s="117" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="181" spans="1:20" s="119" customFormat="1">
-      <c r="A181" s="123" t="s">
-        <v>559</v>
+      <c r="A181" s="133">
+        <v>97080</v>
       </c>
       <c r="B181" s="121" t="s">
         <v>71</v>
       </c>
       <c r="C181" s="121" t="s">
-        <v>554</v>
-      </c>
-      <c r="D181" s="121"/>
-      <c r="E181" s="121"/>
-      <c r="F181" s="121"/>
-      <c r="G181" s="121"/>
-      <c r="H181" s="121"/>
-      <c r="I181" s="121"/>
-      <c r="J181" s="121"/>
-      <c r="K181" s="121"/>
-      <c r="L181" s="121"/>
-      <c r="M181" s="121"/>
-      <c r="N181" s="121"/>
-      <c r="O181" s="121"/>
-      <c r="P181" s="121"/>
-      <c r="Q181" s="121"/>
-      <c r="R181" s="121"/>
-      <c r="S181" s="121"/>
-      <c r="T181" s="121"/>
+        <v>583</v>
+      </c>
+      <c r="D181" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F181" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G181" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I181" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="K181" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="L181" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="M181" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O181" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P181" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q181" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R181" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S181" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="T181" s="117" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="182" spans="1:20" s="119" customFormat="1">
-      <c r="A182" s="123"/>
-      <c r="B182" s="121"/>
-      <c r="C182" s="121"/>
-      <c r="D182" s="121"/>
-      <c r="E182" s="121"/>
-      <c r="F182" s="121"/>
-      <c r="G182" s="121"/>
-      <c r="H182" s="121"/>
-      <c r="I182" s="121"/>
-      <c r="J182" s="121"/>
-      <c r="K182" s="121"/>
-      <c r="L182" s="121"/>
-      <c r="M182" s="121"/>
-      <c r="N182" s="121"/>
-      <c r="O182" s="121"/>
-      <c r="P182" s="121"/>
-      <c r="Q182" s="121"/>
-      <c r="R182" s="121"/>
-      <c r="S182" s="121"/>
-      <c r="T182" s="121"/>
+      <c r="A182" s="133">
+        <v>97083</v>
+      </c>
+      <c r="B182" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C182" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="D182" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F182" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G182" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H182" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J182" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="K182" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="L182" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="M182" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N182" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O182" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P182" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q182" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R182" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S182" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="T182" s="117" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="183" spans="1:20" s="119" customFormat="1">
-      <c r="A183" s="123"/>
-      <c r="B183" s="121"/>
-      <c r="C183" s="121"/>
-      <c r="D183" s="121"/>
-      <c r="E183" s="121"/>
-      <c r="F183" s="121"/>
-      <c r="G183" s="121"/>
-      <c r="H183" s="121"/>
-      <c r="I183" s="121"/>
-      <c r="J183" s="121"/>
-      <c r="K183" s="121"/>
-      <c r="L183" s="121"/>
-      <c r="M183" s="121"/>
-      <c r="N183" s="121"/>
-      <c r="O183" s="121"/>
-      <c r="P183" s="121"/>
-      <c r="Q183" s="121"/>
-      <c r="R183" s="121"/>
-      <c r="S183" s="121"/>
-      <c r="T183" s="121"/>
+      <c r="A183" s="133">
+        <v>97102</v>
+      </c>
+      <c r="B183" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C183" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="D183" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E183" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="G183" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="I183" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K183" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L183" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="M183" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N183" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O183" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P183" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q183" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R183" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S183" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="T183" s="117" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="184" spans="1:20" s="119" customFormat="1">
-      <c r="A184" s="123"/>
-      <c r="B184" s="121"/>
-      <c r="C184" s="121"/>
-      <c r="D184" s="121"/>
-      <c r="E184" s="121"/>
-      <c r="F184" s="121"/>
-      <c r="G184" s="121"/>
-      <c r="H184" s="121"/>
-      <c r="I184" s="121"/>
-      <c r="J184" s="121"/>
-      <c r="K184" s="121"/>
-      <c r="L184" s="121"/>
-      <c r="M184" s="121"/>
-      <c r="N184" s="121"/>
-      <c r="O184" s="121"/>
-      <c r="P184" s="121"/>
-      <c r="Q184" s="121"/>
-      <c r="R184" s="121"/>
-      <c r="S184" s="121"/>
-      <c r="T184" s="121"/>
-    </row>
-    <row r="185" spans="1:20">
-      <c r="A185" s="123"/>
+      <c r="A184" s="133">
+        <v>97103</v>
+      </c>
+      <c r="B184" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C184" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="D184" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E184" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H184" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="I184" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="J184" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K184" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L184" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="M184" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N184" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O184" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P184" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q184" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R184" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S184" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="T184" s="117" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" s="119" customFormat="1">
+      <c r="A185" s="121"/>
       <c r="B185" s="121"/>
       <c r="C185" s="121"/>
-      <c r="D185" s="121"/>
-      <c r="E185" s="121"/>
-      <c r="F185" s="121"/>
-      <c r="G185" s="121"/>
-      <c r="H185" s="121"/>
-      <c r="I185" s="121"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="117"/>
+      <c r="F185" s="117"/>
+      <c r="G185" s="117"/>
+      <c r="H185" s="117"/>
+      <c r="I185" s="117"/>
       <c r="J185" s="121"/>
-      <c r="K185" s="121"/>
-      <c r="L185" s="121"/>
-      <c r="M185" s="121"/>
-      <c r="N185" s="121"/>
-      <c r="O185" s="121"/>
-      <c r="P185" s="121"/>
-      <c r="Q185" s="121"/>
-      <c r="R185" s="121"/>
-      <c r="S185" s="121"/>
-      <c r="T185" s="121"/>
-    </row>
-    <row r="186" spans="1:20">
-      <c r="A186" s="123"/>
+      <c r="K185" s="117"/>
+      <c r="L185" s="117"/>
+      <c r="M185" s="117"/>
+      <c r="N185" s="117"/>
+      <c r="O185" s="120"/>
+      <c r="P185" s="117"/>
+      <c r="Q185" s="117"/>
+      <c r="R185" s="117"/>
+      <c r="S185" s="117"/>
+      <c r="T185" s="117"/>
+    </row>
+    <row r="186" spans="1:20" s="119" customFormat="1">
+      <c r="A186" s="134" t="s">
+        <v>560</v>
+      </c>
       <c r="B186" s="121"/>
       <c r="C186" s="121"/>
       <c r="D186" s="121"/>
@@ -21622,9 +21956,15 @@
       <c r="T186" s="121"/>
     </row>
     <row r="187" spans="1:20" s="119" customFormat="1">
-      <c r="A187" s="123"/>
-      <c r="B187" s="121"/>
-      <c r="C187" s="121"/>
+      <c r="A187" s="123" t="s">
+        <v>559</v>
+      </c>
+      <c r="B187" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" s="121" t="s">
+        <v>554</v>
+      </c>
       <c r="D187" s="121"/>
       <c r="E187" s="121"/>
       <c r="F187" s="121"/>
@@ -21643,7 +21983,7 @@
       <c r="S187" s="121"/>
       <c r="T187" s="121"/>
     </row>
-    <row r="188" spans="1:20" s="77" customFormat="1">
+    <row r="188" spans="1:20" s="119" customFormat="1">
       <c r="A188" s="123"/>
       <c r="B188" s="121"/>
       <c r="C188" s="121"/>
@@ -21688,50 +22028,50 @@
       <c r="T189" s="121"/>
     </row>
     <row r="190" spans="1:20" s="119" customFormat="1">
-      <c r="A190" s="9"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
-    </row>
-    <row r="191" spans="1:20" s="119" customFormat="1">
-      <c r="A191" s="9"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
-    </row>
-    <row r="192" spans="1:20" s="119" customFormat="1">
+      <c r="A190" s="123"/>
+      <c r="B190" s="121"/>
+      <c r="C190" s="121"/>
+      <c r="D190" s="121"/>
+      <c r="E190" s="121"/>
+      <c r="F190" s="121"/>
+      <c r="G190" s="121"/>
+      <c r="H190" s="121"/>
+      <c r="I190" s="121"/>
+      <c r="J190" s="121"/>
+      <c r="K190" s="121"/>
+      <c r="L190" s="121"/>
+      <c r="M190" s="121"/>
+      <c r="N190" s="121"/>
+      <c r="O190" s="121"/>
+      <c r="P190" s="121"/>
+      <c r="Q190" s="121"/>
+      <c r="R190" s="121"/>
+      <c r="S190" s="121"/>
+      <c r="T190" s="121"/>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" s="123"/>
+      <c r="B191" s="121"/>
+      <c r="C191" s="121"/>
+      <c r="D191" s="121"/>
+      <c r="E191" s="121"/>
+      <c r="F191" s="121"/>
+      <c r="G191" s="121"/>
+      <c r="H191" s="121"/>
+      <c r="I191" s="121"/>
+      <c r="J191" s="121"/>
+      <c r="K191" s="121"/>
+      <c r="L191" s="121"/>
+      <c r="M191" s="121"/>
+      <c r="N191" s="121"/>
+      <c r="O191" s="121"/>
+      <c r="P191" s="121"/>
+      <c r="Q191" s="121"/>
+      <c r="R191" s="121"/>
+      <c r="S191" s="121"/>
+      <c r="T191" s="121"/>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="123"/>
       <c r="B192" s="121"/>
       <c r="C192" s="121"/>
@@ -21754,14 +22094,12 @@
       <c r="T192" s="121"/>
     </row>
     <row r="193" spans="1:20" s="119" customFormat="1">
-      <c r="A193" s="130" t="s">
-        <v>528</v>
-      </c>
-      <c r="B193" s="80"/>
-      <c r="C193" s="80"/>
-      <c r="D193" s="80"/>
-      <c r="E193" s="80"/>
-      <c r="F193" s="80"/>
+      <c r="A193" s="123"/>
+      <c r="B193" s="121"/>
+      <c r="C193" s="121"/>
+      <c r="D193" s="121"/>
+      <c r="E193" s="121"/>
+      <c r="F193" s="121"/>
       <c r="G193" s="121"/>
       <c r="H193" s="121"/>
       <c r="I193" s="121"/>
@@ -21769,389 +22107,151 @@
       <c r="K193" s="121"/>
       <c r="L193" s="121"/>
       <c r="M193" s="121"/>
-      <c r="N193" s="80"/>
-      <c r="O193" s="80"/>
-      <c r="P193" s="80"/>
-      <c r="Q193" s="80"/>
-      <c r="R193" s="80"/>
-      <c r="S193" s="80"/>
-      <c r="T193" s="80"/>
-    </row>
-    <row r="194" spans="1:20" s="119" customFormat="1">
-      <c r="A194" s="8">
+      <c r="N193" s="121"/>
+      <c r="O193" s="121"/>
+      <c r="P193" s="121"/>
+      <c r="Q193" s="121"/>
+      <c r="R193" s="121"/>
+      <c r="S193" s="121"/>
+      <c r="T193" s="121"/>
+    </row>
+    <row r="194" spans="1:20" s="77" customFormat="1">
+      <c r="A194" s="123"/>
+      <c r="B194" s="121"/>
+      <c r="C194" s="121"/>
+      <c r="D194" s="121"/>
+      <c r="E194" s="121"/>
+      <c r="F194" s="121"/>
+      <c r="G194" s="121"/>
+      <c r="H194" s="121"/>
+      <c r="I194" s="121"/>
+      <c r="J194" s="121"/>
+      <c r="K194" s="121"/>
+      <c r="L194" s="121"/>
+      <c r="M194" s="121"/>
+      <c r="N194" s="121"/>
+      <c r="O194" s="121"/>
+      <c r="P194" s="121"/>
+      <c r="Q194" s="121"/>
+      <c r="R194" s="121"/>
+      <c r="S194" s="121"/>
+      <c r="T194" s="121"/>
+    </row>
+    <row r="195" spans="1:20" s="119" customFormat="1">
+      <c r="A195" s="123"/>
+      <c r="B195" s="121"/>
+      <c r="C195" s="121"/>
+      <c r="D195" s="121"/>
+      <c r="E195" s="121"/>
+      <c r="F195" s="121"/>
+      <c r="G195" s="121"/>
+      <c r="H195" s="121"/>
+      <c r="I195" s="121"/>
+      <c r="J195" s="121"/>
+      <c r="K195" s="121"/>
+      <c r="L195" s="121"/>
+      <c r="M195" s="121"/>
+      <c r="N195" s="121"/>
+      <c r="O195" s="121"/>
+      <c r="P195" s="121"/>
+      <c r="Q195" s="121"/>
+      <c r="R195" s="121"/>
+      <c r="S195" s="121"/>
+      <c r="T195" s="121"/>
+    </row>
+    <row r="196" spans="1:20" s="119" customFormat="1">
+      <c r="A196" s="9"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+    </row>
+    <row r="197" spans="1:20" s="119" customFormat="1">
+      <c r="A197" s="9"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+    </row>
+    <row r="198" spans="1:20" s="119" customFormat="1">
+      <c r="A198" s="123"/>
+      <c r="B198" s="121"/>
+      <c r="C198" s="121"/>
+      <c r="D198" s="121"/>
+      <c r="E198" s="121"/>
+      <c r="F198" s="121"/>
+      <c r="G198" s="121"/>
+      <c r="H198" s="121"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="121"/>
+      <c r="K198" s="121"/>
+      <c r="L198" s="121"/>
+      <c r="M198" s="121"/>
+      <c r="N198" s="121"/>
+      <c r="O198" s="121"/>
+      <c r="P198" s="121"/>
+      <c r="Q198" s="121"/>
+      <c r="R198" s="121"/>
+      <c r="S198" s="121"/>
+      <c r="T198" s="121"/>
+    </row>
+    <row r="199" spans="1:20" s="119" customFormat="1">
+      <c r="A199" s="130" t="s">
+        <v>528</v>
+      </c>
+      <c r="B199" s="80"/>
+      <c r="C199" s="80"/>
+      <c r="D199" s="80"/>
+      <c r="E199" s="80"/>
+      <c r="F199" s="80"/>
+      <c r="G199" s="121"/>
+      <c r="H199" s="121"/>
+      <c r="I199" s="121"/>
+      <c r="J199" s="121"/>
+      <c r="K199" s="121"/>
+      <c r="L199" s="121"/>
+      <c r="M199" s="121"/>
+      <c r="N199" s="80"/>
+      <c r="O199" s="80"/>
+      <c r="P199" s="80"/>
+      <c r="Q199" s="80"/>
+      <c r="R199" s="80"/>
+      <c r="S199" s="80"/>
+      <c r="T199" s="80"/>
+    </row>
+    <row r="200" spans="1:20" s="119" customFormat="1">
+      <c r="A200" s="8">
         <v>99069</v>
-      </c>
-      <c r="B194" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C194" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D194" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F194" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G194" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H194" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I194" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J194" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="K194" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="L194" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="M194" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N194" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O194" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P194" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q194" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R194" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S194" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T194" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" s="119" customFormat="1">
-      <c r="A195" s="8">
-        <v>99072</v>
-      </c>
-      <c r="B195" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C195" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F195" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G195" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="H195" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="I195" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="J195" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="K195" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="L195" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="M195" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N195" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O195" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P195" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q195" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R195" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S195" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T195" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" s="119" customFormat="1">
-      <c r="A196" s="123">
-        <v>99081</v>
-      </c>
-      <c r="B196" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C196" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D196" s="121" t="s">
-        <v>440</v>
-      </c>
-      <c r="E196" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F196" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G196" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H196" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I196" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J196" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K196" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L196" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="M196" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N196" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O196" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P196" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q196" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R196" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S196" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T196" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" s="119" customFormat="1">
-      <c r="A197" s="123">
-        <v>99082</v>
-      </c>
-      <c r="B197" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C197" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D197" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E197" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F197" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G197" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H197" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I197" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="J197" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K197" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L197" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="M197" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N197" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O197" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P197" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q197" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R197" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S197" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T197" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" s="119" customFormat="1">
-      <c r="A198" s="123">
-        <v>99084</v>
-      </c>
-      <c r="B198" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C198" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D198" s="121" t="s">
-        <v>442</v>
-      </c>
-      <c r="E198" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F198" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G198" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H198" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I198" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J198" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="K198" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="L198" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="M198" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N198" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O198" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P198" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q198" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R198" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S198" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T198" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" s="119" customFormat="1">
-      <c r="A199" s="123">
-        <v>99085</v>
-      </c>
-      <c r="B199" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C199" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D199" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E199" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F199" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G199" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H199" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I199" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="J199" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="K199" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="L199" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="M199" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N199" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O199" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P199" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q199" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R199" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S199" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T199" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" s="119" customFormat="1">
-      <c r="A200" s="123">
-        <v>99087</v>
       </c>
       <c r="B200" s="121" t="s">
         <v>71</v>
@@ -22177,14 +22277,14 @@
       <c r="I200" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J200" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="K200" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="L200" s="117" t="s">
-        <v>447</v>
+      <c r="J200" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K200" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L200" s="121" t="s">
+        <v>431</v>
       </c>
       <c r="M200" s="117" t="s">
         <v>22</v>
@@ -22211,9 +22311,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
-      <c r="A201" s="123">
-        <v>99088</v>
+    <row r="201" spans="1:20" s="119" customFormat="1">
+      <c r="A201" s="8">
+        <v>99072</v>
       </c>
       <c r="B201" s="121" t="s">
         <v>71</v>
@@ -22230,23 +22330,23 @@
       <c r="F201" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G201" s="119" t="s">
+      <c r="G201" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="H201" s="119" t="s">
+      <c r="H201" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="I201" s="119" t="s">
+      <c r="I201" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="J201" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="K201" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="L201" s="117" t="s">
-        <v>447</v>
+      <c r="J201" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K201" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L201" s="121" t="s">
+        <v>431</v>
       </c>
       <c r="M201" s="117" t="s">
         <v>22</v>
@@ -22273,9 +22373,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" s="119" customFormat="1">
       <c r="A202" s="123">
-        <v>99090</v>
+        <v>99081</v>
       </c>
       <c r="B202" s="121" t="s">
         <v>71</v>
@@ -22284,7 +22384,7 @@
         <v>55</v>
       </c>
       <c r="D202" s="121" t="s">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="E202" s="121" t="s">
         <v>110</v>
@@ -22302,13 +22402,13 @@
         <v>34</v>
       </c>
       <c r="J202" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="K202" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="L202" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="M202" s="117" t="s">
         <v>22</v>
@@ -22335,9 +22435,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" s="119" customFormat="1">
       <c r="A203" s="123">
-        <v>99091</v>
+        <v>99082</v>
       </c>
       <c r="B203" s="121" t="s">
         <v>71</v>
@@ -22364,13 +22464,13 @@
         <v>433</v>
       </c>
       <c r="J203" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="K203" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="L203" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="M203" s="117" t="s">
         <v>22</v>
@@ -22397,9 +22497,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" s="119" customFormat="1">
       <c r="A204" s="123">
-        <v>99095</v>
+        <v>99084</v>
       </c>
       <c r="B204" s="121" t="s">
         <v>71</v>
@@ -22408,7 +22508,7 @@
         <v>55</v>
       </c>
       <c r="D204" s="121" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="E204" s="121" t="s">
         <v>110</v>
@@ -22426,13 +22526,13 @@
         <v>34</v>
       </c>
       <c r="J204" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="K204" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="L204" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="M204" s="117" t="s">
         <v>22</v>
@@ -22459,9 +22559,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" s="119" customFormat="1">
       <c r="A205" s="123">
-        <v>99096</v>
+        <v>99085</v>
       </c>
       <c r="B205" s="121" t="s">
         <v>71</v>
@@ -22488,13 +22588,13 @@
         <v>433</v>
       </c>
       <c r="J205" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="K205" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="L205" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="M205" s="117" t="s">
         <v>22</v>
@@ -22521,247 +22621,487 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="119" customFormat="1">
-      <c r="A210" s="9"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
-      <c r="R210" s="3"/>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
-    </row>
-    <row r="211" spans="1:20" s="119" customFormat="1">
-      <c r="A211" s="9"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
-      <c r="Q211" s="3"/>
-      <c r="R211" s="3"/>
-      <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
-    </row>
-    <row r="212" spans="1:20" s="119" customFormat="1">
-      <c r="A212" s="9"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-      <c r="Q212" s="3"/>
-      <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
-    </row>
-    <row r="213" spans="1:20" s="119" customFormat="1">
-      <c r="A213" s="9"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-    </row>
-    <row r="214" spans="1:20" s="119" customFormat="1">
-      <c r="A214" s="9"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-    </row>
-    <row r="215" spans="1:20" s="119" customFormat="1">
-      <c r="A215" s="123"/>
-      <c r="B215" s="121"/>
-      <c r="C215" s="121"/>
-      <c r="D215" s="121"/>
-      <c r="E215" s="121"/>
-      <c r="F215" s="121"/>
-      <c r="G215" s="121"/>
-      <c r="H215" s="121"/>
-      <c r="I215" s="121"/>
-      <c r="J215" s="121"/>
-      <c r="K215" s="121"/>
-      <c r="L215" s="121"/>
-      <c r="M215" s="121"/>
-      <c r="N215" s="121"/>
-      <c r="O215" s="121"/>
-      <c r="P215" s="121"/>
-      <c r="Q215" s="121"/>
-      <c r="R215" s="121"/>
-      <c r="S215" s="121"/>
-      <c r="T215" s="121"/>
+    <row r="206" spans="1:20" s="119" customFormat="1">
+      <c r="A206" s="123">
+        <v>99087</v>
+      </c>
+      <c r="B206" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C206" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D206" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F206" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G206" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H206" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I206" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J206" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="K206" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="L206" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="M206" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N206" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O206" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P206" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q206" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R206" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S206" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T206" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" s="123">
+        <v>99088</v>
+      </c>
+      <c r="B207" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C207" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D207" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F207" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G207" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H207" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I207" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J207" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="K207" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="L207" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="M207" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O207" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P207" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q207" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R207" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S207" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T207" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="123">
+        <v>99090</v>
+      </c>
+      <c r="B208" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D208" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F208" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G208" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H208" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I208" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J208" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="K208" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="L208" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="M208" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N208" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O208" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P208" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q208" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R208" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S208" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T208" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" s="123">
+        <v>99091</v>
+      </c>
+      <c r="B209" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C209" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D209" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F209" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G209" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H209" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I209" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J209" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="K209" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="L209" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="M209" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O209" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P209" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q209" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R209" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S209" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T209" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" s="123">
+        <v>99095</v>
+      </c>
+      <c r="B210" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C210" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D210" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F210" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G210" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H210" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J210" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K210" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L210" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M210" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O210" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P210" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q210" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R210" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S210" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T210" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" s="123">
+        <v>99096</v>
+      </c>
+      <c r="B211" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C211" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D211" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F211" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G211" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H211" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I211" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J211" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K211" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L211" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M211" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N211" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O211" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P211" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q211" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R211" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S211" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T211" s="117" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="216" spans="1:20" s="119" customFormat="1">
-      <c r="A216" s="123"/>
-      <c r="B216" s="121"/>
-      <c r="C216" s="121"/>
-      <c r="D216" s="121"/>
-      <c r="E216" s="121"/>
-      <c r="F216" s="121"/>
-      <c r="G216" s="121"/>
-      <c r="H216" s="121"/>
-      <c r="I216" s="121"/>
-      <c r="J216" s="121"/>
-      <c r="K216" s="121"/>
-      <c r="L216" s="121"/>
-      <c r="M216" s="121"/>
-      <c r="N216" s="121"/>
-      <c r="O216" s="121"/>
-      <c r="P216" s="121"/>
-      <c r="Q216" s="121"/>
-      <c r="R216" s="121"/>
-      <c r="S216" s="121"/>
-      <c r="T216" s="121"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
     </row>
     <row r="217" spans="1:20" s="119" customFormat="1">
-      <c r="A217" s="123"/>
-      <c r="B217" s="121"/>
-      <c r="C217" s="121"/>
-      <c r="D217" s="121"/>
-      <c r="E217" s="121"/>
-      <c r="F217" s="121"/>
-      <c r="G217" s="121"/>
-      <c r="H217" s="121"/>
-      <c r="I217" s="121"/>
-      <c r="J217" s="121"/>
-      <c r="K217" s="121"/>
-      <c r="L217" s="121"/>
-      <c r="M217" s="121"/>
-      <c r="N217" s="121"/>
-      <c r="O217" s="121"/>
-      <c r="P217" s="121"/>
-      <c r="Q217" s="121"/>
-      <c r="R217" s="121"/>
-      <c r="S217" s="121"/>
-      <c r="T217" s="121"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
     </row>
     <row r="218" spans="1:20" s="119" customFormat="1">
-      <c r="A218" s="123"/>
-      <c r="B218" s="121"/>
-      <c r="C218" s="121"/>
-      <c r="D218" s="121"/>
-      <c r="E218" s="121"/>
-      <c r="F218" s="121"/>
-      <c r="G218" s="121"/>
-      <c r="H218" s="121"/>
-      <c r="I218" s="121"/>
-      <c r="J218" s="121"/>
-      <c r="K218" s="121"/>
-      <c r="L218" s="121"/>
-      <c r="M218" s="121"/>
-      <c r="N218" s="121"/>
-      <c r="O218" s="121"/>
-      <c r="P218" s="121"/>
-      <c r="Q218" s="121"/>
-      <c r="R218" s="121"/>
-      <c r="S218" s="121"/>
-      <c r="T218" s="121"/>
+      <c r="A218" s="9"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
     </row>
     <row r="219" spans="1:20" s="119" customFormat="1">
-      <c r="A219" s="123"/>
-      <c r="B219" s="121"/>
-      <c r="C219" s="121"/>
-      <c r="D219" s="121"/>
-      <c r="E219" s="121"/>
-      <c r="F219" s="121"/>
-      <c r="G219" s="121"/>
-      <c r="H219" s="121"/>
-      <c r="I219" s="121"/>
-      <c r="J219" s="121"/>
-      <c r="K219" s="121"/>
-      <c r="L219" s="121"/>
-      <c r="M219" s="121"/>
-      <c r="N219" s="121"/>
-      <c r="O219" s="121"/>
-      <c r="P219" s="121"/>
-      <c r="Q219" s="121"/>
-      <c r="R219" s="121"/>
-      <c r="S219" s="121"/>
-      <c r="T219" s="121"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
     </row>
     <row r="220" spans="1:20" s="119" customFormat="1">
-      <c r="A220" s="123"/>
-      <c r="B220" s="121"/>
-      <c r="C220" s="121"/>
-      <c r="D220" s="121"/>
-      <c r="E220" s="121"/>
-      <c r="F220" s="121"/>
-      <c r="G220" s="121"/>
-      <c r="H220" s="121"/>
-      <c r="I220" s="121"/>
-      <c r="J220" s="121"/>
-      <c r="K220" s="121"/>
-      <c r="L220" s="121"/>
-      <c r="M220" s="121"/>
-      <c r="N220" s="121"/>
-      <c r="O220" s="121"/>
-      <c r="P220" s="121"/>
-      <c r="Q220" s="121"/>
-      <c r="R220" s="121"/>
-      <c r="S220" s="121"/>
-      <c r="T220" s="121"/>
+      <c r="A220" s="9"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
     </row>
     <row r="221" spans="1:20" s="119" customFormat="1">
       <c r="A221" s="123"/>
@@ -22961,7 +23301,7 @@
       <c r="S229" s="121"/>
       <c r="T229" s="121"/>
     </row>
-    <row r="230" spans="1:20" s="115" customFormat="1">
+    <row r="230" spans="1:20" s="119" customFormat="1">
       <c r="A230" s="123"/>
       <c r="B230" s="121"/>
       <c r="C230" s="121"/>
@@ -22983,7 +23323,7 @@
       <c r="S230" s="121"/>
       <c r="T230" s="121"/>
     </row>
-    <row r="231" spans="1:20" s="115" customFormat="1">
+    <row r="231" spans="1:20" s="119" customFormat="1">
       <c r="A231" s="123"/>
       <c r="B231" s="121"/>
       <c r="C231" s="121"/>
@@ -23005,7 +23345,7 @@
       <c r="S231" s="121"/>
       <c r="T231" s="121"/>
     </row>
-    <row r="232" spans="1:20" s="115" customFormat="1">
+    <row r="232" spans="1:20" s="119" customFormat="1">
       <c r="A232" s="123"/>
       <c r="B232" s="121"/>
       <c r="C232" s="121"/>
@@ -23027,7 +23367,7 @@
       <c r="S232" s="121"/>
       <c r="T232" s="121"/>
     </row>
-    <row r="233" spans="1:20" s="115" customFormat="1">
+    <row r="233" spans="1:20" s="119" customFormat="1">
       <c r="A233" s="123"/>
       <c r="B233" s="121"/>
       <c r="C233" s="121"/>
@@ -23049,7 +23389,7 @@
       <c r="S233" s="121"/>
       <c r="T233" s="121"/>
     </row>
-    <row r="234" spans="1:20" s="115" customFormat="1">
+    <row r="234" spans="1:20" s="119" customFormat="1">
       <c r="A234" s="123"/>
       <c r="B234" s="121"/>
       <c r="C234" s="121"/>
@@ -23071,783 +23411,581 @@
       <c r="S234" s="121"/>
       <c r="T234" s="121"/>
     </row>
-    <row r="235" spans="1:20" s="115" customFormat="1">
-      <c r="A235" s="63" t="s">
+    <row r="235" spans="1:20" s="119" customFormat="1">
+      <c r="A235" s="123"/>
+      <c r="B235" s="121"/>
+      <c r="C235" s="121"/>
+      <c r="D235" s="121"/>
+      <c r="E235" s="121"/>
+      <c r="F235" s="121"/>
+      <c r="G235" s="121"/>
+      <c r="H235" s="121"/>
+      <c r="I235" s="121"/>
+      <c r="J235" s="121"/>
+      <c r="K235" s="121"/>
+      <c r="L235" s="121"/>
+      <c r="M235" s="121"/>
+      <c r="N235" s="121"/>
+      <c r="O235" s="121"/>
+      <c r="P235" s="121"/>
+      <c r="Q235" s="121"/>
+      <c r="R235" s="121"/>
+      <c r="S235" s="121"/>
+      <c r="T235" s="121"/>
+    </row>
+    <row r="236" spans="1:20" s="115" customFormat="1">
+      <c r="A236" s="123"/>
+      <c r="B236" s="121"/>
+      <c r="C236" s="121"/>
+      <c r="D236" s="121"/>
+      <c r="E236" s="121"/>
+      <c r="F236" s="121"/>
+      <c r="G236" s="121"/>
+      <c r="H236" s="121"/>
+      <c r="I236" s="121"/>
+      <c r="J236" s="121"/>
+      <c r="K236" s="121"/>
+      <c r="L236" s="121"/>
+      <c r="M236" s="121"/>
+      <c r="N236" s="121"/>
+      <c r="O236" s="121"/>
+      <c r="P236" s="121"/>
+      <c r="Q236" s="121"/>
+      <c r="R236" s="121"/>
+      <c r="S236" s="121"/>
+      <c r="T236" s="121"/>
+    </row>
+    <row r="237" spans="1:20" s="115" customFormat="1">
+      <c r="A237" s="123"/>
+      <c r="B237" s="121"/>
+      <c r="C237" s="121"/>
+      <c r="D237" s="121"/>
+      <c r="E237" s="121"/>
+      <c r="F237" s="121"/>
+      <c r="G237" s="121"/>
+      <c r="H237" s="121"/>
+      <c r="I237" s="121"/>
+      <c r="J237" s="121"/>
+      <c r="K237" s="121"/>
+      <c r="L237" s="121"/>
+      <c r="M237" s="121"/>
+      <c r="N237" s="121"/>
+      <c r="O237" s="121"/>
+      <c r="P237" s="121"/>
+      <c r="Q237" s="121"/>
+      <c r="R237" s="121"/>
+      <c r="S237" s="121"/>
+      <c r="T237" s="121"/>
+    </row>
+    <row r="238" spans="1:20" s="115" customFormat="1">
+      <c r="A238" s="123"/>
+      <c r="B238" s="121"/>
+      <c r="C238" s="121"/>
+      <c r="D238" s="121"/>
+      <c r="E238" s="121"/>
+      <c r="F238" s="121"/>
+      <c r="G238" s="121"/>
+      <c r="H238" s="121"/>
+      <c r="I238" s="121"/>
+      <c r="J238" s="121"/>
+      <c r="K238" s="121"/>
+      <c r="L238" s="121"/>
+      <c r="M238" s="121"/>
+      <c r="N238" s="121"/>
+      <c r="O238" s="121"/>
+      <c r="P238" s="121"/>
+      <c r="Q238" s="121"/>
+      <c r="R238" s="121"/>
+      <c r="S238" s="121"/>
+      <c r="T238" s="121"/>
+    </row>
+    <row r="239" spans="1:20" s="115" customFormat="1">
+      <c r="A239" s="123"/>
+      <c r="B239" s="121"/>
+      <c r="C239" s="121"/>
+      <c r="D239" s="121"/>
+      <c r="E239" s="121"/>
+      <c r="F239" s="121"/>
+      <c r="G239" s="121"/>
+      <c r="H239" s="121"/>
+      <c r="I239" s="121"/>
+      <c r="J239" s="121"/>
+      <c r="K239" s="121"/>
+      <c r="L239" s="121"/>
+      <c r="M239" s="121"/>
+      <c r="N239" s="121"/>
+      <c r="O239" s="121"/>
+      <c r="P239" s="121"/>
+      <c r="Q239" s="121"/>
+      <c r="R239" s="121"/>
+      <c r="S239" s="121"/>
+      <c r="T239" s="121"/>
+    </row>
+    <row r="240" spans="1:20" s="115" customFormat="1">
+      <c r="A240" s="123"/>
+      <c r="B240" s="121"/>
+      <c r="C240" s="121"/>
+      <c r="D240" s="121"/>
+      <c r="E240" s="121"/>
+      <c r="F240" s="121"/>
+      <c r="G240" s="121"/>
+      <c r="H240" s="121"/>
+      <c r="I240" s="121"/>
+      <c r="J240" s="121"/>
+      <c r="K240" s="121"/>
+      <c r="L240" s="121"/>
+      <c r="M240" s="121"/>
+      <c r="N240" s="121"/>
+      <c r="O240" s="121"/>
+      <c r="P240" s="121"/>
+      <c r="Q240" s="121"/>
+      <c r="R240" s="121"/>
+      <c r="S240" s="121"/>
+      <c r="T240" s="121"/>
+    </row>
+    <row r="241" spans="1:20" s="115" customFormat="1">
+      <c r="A241" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="B235" s="116"/>
-      <c r="C235" s="116"/>
-      <c r="D235" s="116"/>
-      <c r="E235" s="116"/>
-      <c r="F235" s="116"/>
-      <c r="J235" s="117"/>
-      <c r="K235" s="117"/>
-      <c r="L235" s="117"/>
-      <c r="M235" s="117"/>
-      <c r="N235" s="117"/>
-      <c r="O235" s="118"/>
-      <c r="P235" s="117"/>
-      <c r="Q235" s="117"/>
-      <c r="R235" s="117"/>
-      <c r="S235" s="117"/>
-      <c r="T235" s="117"/>
-    </row>
-    <row r="236" spans="1:20" s="115" customFormat="1">
-      <c r="A236" s="63" t="s">
+      <c r="B241" s="116"/>
+      <c r="C241" s="116"/>
+      <c r="D241" s="116"/>
+      <c r="E241" s="116"/>
+      <c r="F241" s="116"/>
+      <c r="J241" s="117"/>
+      <c r="K241" s="117"/>
+      <c r="L241" s="117"/>
+      <c r="M241" s="117"/>
+      <c r="N241" s="117"/>
+      <c r="O241" s="118"/>
+      <c r="P241" s="117"/>
+      <c r="Q241" s="117"/>
+      <c r="R241" s="117"/>
+      <c r="S241" s="117"/>
+      <c r="T241" s="117"/>
+    </row>
+    <row r="242" spans="1:20" s="115" customFormat="1">
+      <c r="A242" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="B236" s="116" t="s">
+      <c r="B242" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C236" s="116" t="s">
+      <c r="C242" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D236" s="116" t="s">
+      <c r="D242" s="116" t="s">
         <v>443</v>
       </c>
-      <c r="E236" s="116" t="s">
+      <c r="E242" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F236" s="116" t="s">
+      <c r="F242" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G236" s="117" t="s">
+      <c r="G242" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="H236" s="117" t="s">
+      <c r="H242" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="I236" s="117" t="s">
+      <c r="I242" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="J236" s="117" t="s">
+      <c r="J242" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K236" s="117" t="s">
+      <c r="K242" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="L236" s="117" t="s">
+      <c r="L242" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="M236" s="117" t="s">
+      <c r="M242" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N236" s="117" t="s">
+      <c r="N242" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O236" s="118" t="s">
+      <c r="O242" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P236" s="117" t="s">
+      <c r="P242" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q236" s="117" t="s">
+      <c r="Q242" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R236" s="117" t="s">
+      <c r="R242" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S236" s="117">
+      <c r="S242" s="117">
         <v>1825</v>
       </c>
-      <c r="T236" s="117" t="s">
+      <c r="T242" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:20" s="77" customFormat="1">
-      <c r="A237" s="63" t="s">
+    <row r="243" spans="1:20" s="77" customFormat="1">
+      <c r="A243" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B237" s="116" t="s">
+      <c r="B243" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C237" s="116" t="s">
+      <c r="C243" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D237" s="116" t="s">
+      <c r="D243" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="E237" s="116" t="s">
+      <c r="E243" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F237" s="116" t="s">
+      <c r="F243" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G237" s="117" t="s">
+      <c r="G243" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="H237" s="117" t="s">
+      <c r="H243" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="I237" s="117" t="s">
+      <c r="I243" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J237" s="117" t="s">
+      <c r="J243" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K237" s="117" t="s">
+      <c r="K243" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="L237" s="117" t="s">
+      <c r="L243" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="M237" s="117" t="s">
+      <c r="M243" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N237" s="117" t="s">
+      <c r="N243" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O237" s="118" t="s">
+      <c r="O243" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P237" s="117" t="s">
+      <c r="P243" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q237" s="117" t="s">
+      <c r="Q243" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R237" s="117" t="s">
+      <c r="R243" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S237" s="117">
+      <c r="S243" s="117">
         <v>1825</v>
       </c>
-      <c r="T237" s="117" t="s">
+      <c r="T243" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:20" s="77" customFormat="1">
-      <c r="A238" s="63" t="s">
+    <row r="244" spans="1:20" s="77" customFormat="1">
+      <c r="A244" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B238" s="116" t="s">
+      <c r="B244" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C238" s="116" t="s">
+      <c r="C244" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D238" s="116" t="s">
+      <c r="D244" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E238" s="116" t="s">
+      <c r="E244" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F238" s="116" t="s">
+      <c r="F244" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G238" s="115" t="s">
+      <c r="G244" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="H238" s="115" t="s">
+      <c r="H244" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="I238" s="115" t="s">
+      <c r="I244" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="J238" s="117" t="s">
+      <c r="J244" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K238" s="117" t="s">
+      <c r="K244" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="L238" s="117" t="s">
+      <c r="L244" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="M238" s="117" t="s">
+      <c r="M244" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N238" s="117" t="s">
+      <c r="N244" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O238" s="118" t="s">
+      <c r="O244" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P238" s="117" t="s">
+      <c r="P244" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q238" s="117" t="s">
+      <c r="Q244" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R238" s="117" t="s">
+      <c r="R244" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S238" s="117">
+      <c r="S244" s="117">
         <v>1825</v>
       </c>
-      <c r="T238" s="117" t="s">
+      <c r="T244" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:20" s="77" customFormat="1">
-      <c r="A239" s="63" t="s">
+    <row r="245" spans="1:20" s="77" customFormat="1">
+      <c r="A245" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B239" s="116" t="s">
+      <c r="B245" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C239" s="116" t="s">
+      <c r="C245" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D239" s="116" t="s">
+      <c r="D245" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="E239" s="116" t="s">
+      <c r="E245" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F239" s="116" t="s">
+      <c r="F245" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G239" s="117" t="s">
+      <c r="G245" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="H239" s="117" t="s">
+      <c r="H245" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="I239" s="117" t="s">
+      <c r="I245" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="J239" s="117" t="s">
+      <c r="J245" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="K239" s="117" t="s">
+      <c r="K245" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="L239" s="117" t="s">
+      <c r="L245" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="M239" s="117" t="s">
+      <c r="M245" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N239" s="117" t="s">
+      <c r="N245" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O239" s="118" t="s">
+      <c r="O245" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P239" s="117" t="s">
+      <c r="P245" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q239" s="117" t="s">
+      <c r="Q245" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R239" s="117" t="s">
+      <c r="R245" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S239" s="117">
+      <c r="S245" s="117">
         <v>1825</v>
       </c>
-      <c r="T239" s="117" t="s">
+      <c r="T245" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:20" s="77" customFormat="1">
-      <c r="A240" s="63" t="s">
+    <row r="246" spans="1:20" s="77" customFormat="1">
+      <c r="A246" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="B240" s="116" t="s">
+      <c r="B246" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C240" s="116" t="s">
+      <c r="C246" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D240" s="116" t="s">
+      <c r="D246" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="E240" s="116" t="s">
+      <c r="E246" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F240" s="116" t="s">
+      <c r="F246" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G240" s="117" t="s">
+      <c r="G246" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="H240" s="117" t="s">
+      <c r="H246" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="I240" s="117" t="s">
+      <c r="I246" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J240" s="117" t="s">
+      <c r="J246" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="K240" s="117" t="s">
+      <c r="K246" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="L240" s="117" t="s">
+      <c r="L246" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="M240" s="117" t="s">
+      <c r="M246" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N240" s="117" t="s">
+      <c r="N246" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O240" s="118" t="s">
+      <c r="O246" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P240" s="117" t="s">
+      <c r="P246" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q240" s="117" t="s">
+      <c r="Q246" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R240" s="117" t="s">
+      <c r="R246" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S240" s="117">
+      <c r="S246" s="117">
         <v>1825</v>
       </c>
-      <c r="T240" s="117" t="s">
+      <c r="T246" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:20" s="77" customFormat="1">
-      <c r="A241" s="63" t="s">
+    <row r="247" spans="1:20" s="77" customFormat="1">
+      <c r="A247" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B241" s="116" t="s">
+      <c r="B247" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C241" s="116" t="s">
+      <c r="C247" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D241" s="116" t="s">
+      <c r="D247" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E241" s="116" t="s">
+      <c r="E247" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F241" s="116" t="s">
+      <c r="F247" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G241" s="115" t="s">
+      <c r="G247" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="H241" s="115" t="s">
+      <c r="H247" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="I241" s="115" t="s">
+      <c r="I247" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="J241" s="117" t="s">
+      <c r="J247" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="K241" s="117" t="s">
+      <c r="K247" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="L241" s="117" t="s">
+      <c r="L247" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="M241" s="117" t="s">
+      <c r="M247" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N241" s="117" t="s">
+      <c r="N247" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O241" s="118" t="s">
+      <c r="O247" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P241" s="117" t="s">
+      <c r="P247" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q241" s="117" t="s">
+      <c r="Q247" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R241" s="117" t="s">
+      <c r="R247" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S241" s="117">
+      <c r="S247" s="117">
         <v>1825</v>
       </c>
-      <c r="T241" s="117" t="s">
+      <c r="T247" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:20" s="77" customFormat="1">
-      <c r="A242" s="8">
+    <row r="248" spans="1:20" s="77" customFormat="1">
+      <c r="A248" s="8">
         <v>99063</v>
       </c>
-      <c r="B242" s="80" t="s">
+      <c r="B248" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C242" s="80" t="s">
+      <c r="C248" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D242" s="81" t="s">
+      <c r="D248" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E242" s="80" t="s">
+      <c r="E248" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="F242" s="80" t="s">
+      <c r="F248" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="G242" s="81" t="s">
+      <c r="G248" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H242" s="81" t="s">
+      <c r="H248" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I242" s="81" t="s">
+      <c r="I248" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J242" s="80" t="s">
+      <c r="J248" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="K242" s="80" t="s">
+      <c r="K248" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="L242" s="80" t="s">
+      <c r="L248" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="M242" s="81" t="s">
+      <c r="M248" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="N242" s="81" t="s">
+      <c r="N248" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="O242" s="82" t="s">
+      <c r="O248" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="P242" s="81" t="s">
+      <c r="P248" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q242" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R242" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S242" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T242" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" s="77" customFormat="1">
-      <c r="A243" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="B243" s="85"/>
-      <c r="C243" s="85"/>
-      <c r="D243" s="85"/>
-      <c r="E243" s="85"/>
-      <c r="F243" s="85"/>
-      <c r="G243" s="85"/>
-      <c r="H243" s="85"/>
-      <c r="I243" s="85"/>
-      <c r="J243" s="85"/>
-      <c r="K243" s="85"/>
-      <c r="L243" s="85"/>
-      <c r="M243" s="85"/>
-      <c r="N243" s="85"/>
-      <c r="O243" s="86"/>
-      <c r="P243" s="85"/>
-      <c r="Q243" s="85"/>
-      <c r="R243" s="81"/>
-      <c r="S243" s="81"/>
-      <c r="T243" s="81"/>
-    </row>
-    <row r="244" spans="1:20" s="77" customFormat="1">
-      <c r="A244" s="87">
-        <v>99061</v>
-      </c>
-      <c r="B244" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C244" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D244" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E244" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F244" s="85" t="s">
-        <v>375</v>
-      </c>
-      <c r="G244" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H244" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I244" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J244" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K244" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L244" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M244" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N244" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O244" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P244" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q244" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R244" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S244" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T244" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" s="77" customFormat="1">
-      <c r="A245" s="87">
-        <v>99062</v>
-      </c>
-      <c r="B245" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C245" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D245" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E245" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F245" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="G245" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H245" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I245" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J245" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K245" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L245" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M245" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N245" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O245" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P245" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q245" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R245" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S245" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T245" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" s="77" customFormat="1">
-      <c r="A246" s="87">
-        <v>99063</v>
-      </c>
-      <c r="B246" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C246" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D246" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E246" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F246" s="85" t="s">
-        <v>385</v>
-      </c>
-      <c r="G246" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H246" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I246" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J246" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K246" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L246" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M246" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N246" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O246" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P246" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q246" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R246" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S246" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T246" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" s="77" customFormat="1">
-      <c r="A247" s="87">
-        <v>99064</v>
-      </c>
-      <c r="B247" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C247" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D247" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E247" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F247" s="85" t="s">
-        <v>386</v>
-      </c>
-      <c r="G247" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H247" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I247" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J247" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K247" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L247" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M247" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N247" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O247" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P247" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q247" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R247" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S247" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T247" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="248" spans="1:20" s="77" customFormat="1">
-      <c r="A248" s="87">
-        <v>99061</v>
-      </c>
-      <c r="B248" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C248" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D248" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E248" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F248" s="85" t="s">
-        <v>375</v>
-      </c>
-      <c r="G248" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H248" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I248" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J248" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K248" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L248" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M248" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N248" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O248" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P248" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q248" s="85" t="s">
+      <c r="Q248" s="81" t="s">
         <v>0</v>
       </c>
       <c r="R248" s="81" t="s">
@@ -23861,70 +23999,32 @@
       </c>
     </row>
     <row r="249" spans="1:20" s="77" customFormat="1">
-      <c r="A249" s="87">
-        <v>99062</v>
-      </c>
-      <c r="B249" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C249" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D249" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E249" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F249" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="G249" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H249" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I249" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J249" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K249" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L249" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M249" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N249" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O249" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P249" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q249" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R249" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S249" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T249" s="81" t="s">
-        <v>25</v>
-      </c>
+      <c r="A249" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B249" s="85"/>
+      <c r="C249" s="85"/>
+      <c r="D249" s="85"/>
+      <c r="E249" s="85"/>
+      <c r="F249" s="85"/>
+      <c r="G249" s="85"/>
+      <c r="H249" s="85"/>
+      <c r="I249" s="85"/>
+      <c r="J249" s="85"/>
+      <c r="K249" s="85"/>
+      <c r="L249" s="85"/>
+      <c r="M249" s="85"/>
+      <c r="N249" s="85"/>
+      <c r="O249" s="86"/>
+      <c r="P249" s="85"/>
+      <c r="Q249" s="85"/>
+      <c r="R249" s="81"/>
+      <c r="S249" s="81"/>
+      <c r="T249" s="81"/>
     </row>
     <row r="250" spans="1:20" s="77" customFormat="1">
       <c r="A250" s="87">
-        <v>99063</v>
+        <v>99061</v>
       </c>
       <c r="B250" s="85" t="s">
         <v>71</v>
@@ -23939,7 +24039,7 @@
         <v>376</v>
       </c>
       <c r="F250" s="85" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G250" s="85" t="s">
         <v>35</v>
@@ -23986,7 +24086,7 @@
     </row>
     <row r="251" spans="1:20" s="77" customFormat="1">
       <c r="A251" s="87">
-        <v>99064</v>
+        <v>99062</v>
       </c>
       <c r="B251" s="85" t="s">
         <v>71</v>
@@ -24001,7 +24101,7 @@
         <v>376</v>
       </c>
       <c r="F251" s="85" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G251" s="85" t="s">
         <v>35</v>
@@ -24047,32 +24147,70 @@
       </c>
     </row>
     <row r="252" spans="1:20" s="77" customFormat="1">
-      <c r="A252" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="B252" s="85"/>
-      <c r="C252" s="85"/>
-      <c r="D252" s="85"/>
-      <c r="E252" s="85"/>
-      <c r="F252" s="85"/>
-      <c r="G252" s="85"/>
-      <c r="H252" s="85"/>
-      <c r="I252" s="85"/>
-      <c r="J252" s="85"/>
-      <c r="K252" s="85"/>
-      <c r="L252" s="85"/>
-      <c r="M252" s="85"/>
-      <c r="N252" s="85"/>
-      <c r="O252" s="86"/>
-      <c r="P252" s="85"/>
-      <c r="Q252" s="85"/>
-      <c r="R252" s="81"/>
-      <c r="S252" s="81"/>
-      <c r="T252" s="81"/>
-    </row>
-    <row r="253" spans="1:20">
-      <c r="A253" s="84">
-        <v>99060</v>
+      <c r="A252" s="87">
+        <v>99063</v>
+      </c>
+      <c r="B252" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C252" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D252" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E252" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F252" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="G252" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H252" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I252" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J252" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K252" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L252" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M252" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N252" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O252" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P252" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q252" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R252" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S252" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T252" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" s="77" customFormat="1">
+      <c r="A253" s="87">
+        <v>99064</v>
       </c>
       <c r="B253" s="85" t="s">
         <v>71</v>
@@ -24084,10 +24222,10 @@
         <v>365</v>
       </c>
       <c r="E253" s="85" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="F253" s="85" t="s">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="G253" s="85" t="s">
         <v>35</v>
@@ -24107,8 +24245,8 @@
       <c r="L253" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M253" s="88" t="s">
-        <v>400</v>
+      <c r="M253" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N253" s="85" t="s">
         <v>47</v>
@@ -24133,32 +24271,70 @@
       </c>
     </row>
     <row r="254" spans="1:20" s="77" customFormat="1">
-      <c r="A254" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="B254" s="85"/>
-      <c r="C254" s="85"/>
-      <c r="D254" s="85"/>
-      <c r="E254" s="85"/>
-      <c r="F254" s="85"/>
-      <c r="G254" s="85"/>
-      <c r="H254" s="85"/>
-      <c r="I254" s="85"/>
-      <c r="J254" s="85"/>
-      <c r="K254" s="85"/>
-      <c r="L254" s="85"/>
-      <c r="M254" s="85"/>
-      <c r="N254" s="85"/>
-      <c r="O254" s="86"/>
-      <c r="P254" s="85"/>
-      <c r="Q254" s="85"/>
-      <c r="R254" s="81"/>
-      <c r="S254" s="81"/>
-      <c r="T254" s="81"/>
+      <c r="A254" s="87">
+        <v>99061</v>
+      </c>
+      <c r="B254" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C254" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D254" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E254" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F254" s="85" t="s">
+        <v>375</v>
+      </c>
+      <c r="G254" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H254" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I254" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J254" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K254" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L254" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M254" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N254" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O254" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P254" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q254" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R254" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S254" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T254" s="81" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="255" spans="1:20" s="77" customFormat="1">
-      <c r="A255" s="84">
-        <v>99061</v>
+      <c r="A255" s="87">
+        <v>99062</v>
       </c>
       <c r="B255" s="85" t="s">
         <v>71</v>
@@ -24167,13 +24343,13 @@
         <v>55</v>
       </c>
       <c r="D255" s="85" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="E255" s="85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F255" s="85" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G255" s="85" t="s">
         <v>35</v>
@@ -24193,8 +24369,8 @@
       <c r="L255" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M255" s="88" t="s">
-        <v>387</v>
+      <c r="M255" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N255" s="85" t="s">
         <v>47</v>
@@ -24219,32 +24395,70 @@
       </c>
     </row>
     <row r="256" spans="1:20" s="77" customFormat="1">
-      <c r="A256" s="84" t="s">
-        <v>397</v>
-      </c>
-      <c r="B256" s="85"/>
-      <c r="C256" s="85"/>
-      <c r="D256" s="85"/>
-      <c r="E256" s="85"/>
-      <c r="F256" s="85"/>
-      <c r="G256" s="85"/>
-      <c r="H256" s="85"/>
-      <c r="I256" s="85"/>
-      <c r="J256" s="85"/>
-      <c r="K256" s="85"/>
-      <c r="L256" s="85"/>
-      <c r="M256" s="85"/>
-      <c r="N256" s="85"/>
-      <c r="O256" s="86"/>
-      <c r="P256" s="85"/>
-      <c r="Q256" s="85"/>
-      <c r="R256" s="81"/>
-      <c r="S256" s="81"/>
-      <c r="T256" s="81"/>
+      <c r="A256" s="87">
+        <v>99063</v>
+      </c>
+      <c r="B256" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C256" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D256" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E256" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F256" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="G256" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H256" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I256" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J256" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K256" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L256" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M256" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N256" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O256" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P256" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q256" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R256" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S256" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T256" s="81" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="257" spans="1:22" s="77" customFormat="1">
-      <c r="A257" s="84">
-        <v>99062</v>
+      <c r="A257" s="87">
+        <v>99064</v>
       </c>
       <c r="B257" s="85" t="s">
         <v>71</v>
@@ -24253,13 +24467,13 @@
         <v>55</v>
       </c>
       <c r="D257" s="85" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="E257" s="85" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F257" s="85" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G257" s="85" t="s">
         <v>35</v>
@@ -24279,8 +24493,8 @@
       <c r="L257" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M257" s="88" t="s">
-        <v>387</v>
+      <c r="M257" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N257" s="85" t="s">
         <v>47</v>
@@ -24306,7 +24520,7 @@
     </row>
     <row r="258" spans="1:22" s="77" customFormat="1">
       <c r="A258" s="84" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B258" s="85"/>
       <c r="C258" s="85"/>
@@ -24321,16 +24535,16 @@
       <c r="L258" s="85"/>
       <c r="M258" s="85"/>
       <c r="N258" s="85"/>
-      <c r="O258" s="85"/>
+      <c r="O258" s="86"/>
       <c r="P258" s="85"/>
       <c r="Q258" s="85"/>
-      <c r="R258" s="3"/>
-      <c r="S258" s="3"/>
-      <c r="T258" s="3"/>
-    </row>
-    <row r="259" spans="1:22" s="77" customFormat="1" ht="13.5" customHeight="1">
+      <c r="R258" s="81"/>
+      <c r="S258" s="81"/>
+      <c r="T258" s="81"/>
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="84">
-        <v>99070</v>
+        <v>99060</v>
       </c>
       <c r="B259" s="85" t="s">
         <v>71</v>
@@ -24339,13 +24553,13 @@
         <v>55</v>
       </c>
       <c r="D259" s="85" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E259" s="85" t="s">
-        <v>391</v>
+        <v>110</v>
       </c>
       <c r="F259" s="85" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="G259" s="85" t="s">
         <v>35</v>
@@ -24366,7 +24580,7 @@
         <v>360</v>
       </c>
       <c r="M259" s="88" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="N259" s="85" t="s">
         <v>47</v>
@@ -24391,70 +24605,32 @@
       </c>
     </row>
     <row r="260" spans="1:22" s="77" customFormat="1">
-      <c r="A260" s="84">
-        <v>99071</v>
-      </c>
-      <c r="B260" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C260" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D260" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E260" s="85" t="s">
-        <v>394</v>
-      </c>
-      <c r="F260" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="G260" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H260" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I260" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J260" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K260" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L260" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M260" s="88" t="s">
-        <v>387</v>
-      </c>
-      <c r="N260" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O260" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P260" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q260" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R260" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S260" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T260" s="81" t="s">
-        <v>25</v>
-      </c>
+      <c r="A260" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="B260" s="85"/>
+      <c r="C260" s="85"/>
+      <c r="D260" s="85"/>
+      <c r="E260" s="85"/>
+      <c r="F260" s="85"/>
+      <c r="G260" s="85"/>
+      <c r="H260" s="85"/>
+      <c r="I260" s="85"/>
+      <c r="J260" s="85"/>
+      <c r="K260" s="85"/>
+      <c r="L260" s="85"/>
+      <c r="M260" s="85"/>
+      <c r="N260" s="85"/>
+      <c r="O260" s="86"/>
+      <c r="P260" s="85"/>
+      <c r="Q260" s="85"/>
+      <c r="R260" s="81"/>
+      <c r="S260" s="81"/>
+      <c r="T260" s="81"/>
     </row>
     <row r="261" spans="1:22" s="77" customFormat="1">
       <c r="A261" s="84">
-        <v>99072</v>
+        <v>99061</v>
       </c>
       <c r="B261" s="85" t="s">
         <v>71</v>
@@ -24463,13 +24639,13 @@
         <v>55</v>
       </c>
       <c r="D261" s="85" t="s">
-        <v>388</v>
+        <v>23</v>
       </c>
       <c r="E261" s="85" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F261" s="85" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G261" s="85" t="s">
         <v>35</v>
@@ -24515,154 +24691,118 @@
       </c>
     </row>
     <row r="262" spans="1:22" s="77" customFormat="1">
-      <c r="A262" s="84">
-        <v>99073</v>
-      </c>
-      <c r="B262" s="85" t="s">
+      <c r="A262" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="B262" s="85"/>
+      <c r="C262" s="85"/>
+      <c r="D262" s="85"/>
+      <c r="E262" s="85"/>
+      <c r="F262" s="85"/>
+      <c r="G262" s="85"/>
+      <c r="H262" s="85"/>
+      <c r="I262" s="85"/>
+      <c r="J262" s="85"/>
+      <c r="K262" s="85"/>
+      <c r="L262" s="85"/>
+      <c r="M262" s="85"/>
+      <c r="N262" s="85"/>
+      <c r="O262" s="86"/>
+      <c r="P262" s="85"/>
+      <c r="Q262" s="85"/>
+      <c r="R262" s="81"/>
+      <c r="S262" s="81"/>
+      <c r="T262" s="81"/>
+    </row>
+    <row r="263" spans="1:22" s="77" customFormat="1">
+      <c r="A263" s="84">
+        <v>99062</v>
+      </c>
+      <c r="B263" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C262" s="85" t="s">
+      <c r="C263" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D262" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E262" s="85" t="s">
-        <v>395</v>
-      </c>
-      <c r="F262" s="85" t="s">
-        <v>384</v>
-      </c>
-      <c r="G262" s="85" t="s">
+      <c r="D263" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="E263" s="85" t="s">
+        <v>389</v>
+      </c>
+      <c r="F263" s="85" t="s">
+        <v>390</v>
+      </c>
+      <c r="G263" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="H262" s="85" t="s">
+      <c r="H263" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="I262" s="85" t="s">
+      <c r="I263" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="J262" s="85" t="s">
+      <c r="J263" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="K262" s="85" t="s">
+      <c r="K263" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="L262" s="85" t="s">
+      <c r="L263" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M262" s="88" t="s">
+      <c r="M263" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="N262" s="85" t="s">
+      <c r="N263" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="O262" s="86" t="s">
+      <c r="O263" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P262" s="85" t="s">
+      <c r="P263" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q262" s="85" t="s">
+      <c r="Q263" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R262" s="81" t="s">
+      <c r="R263" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S262" s="81">
+      <c r="S263" s="81">
         <v>1825</v>
       </c>
-      <c r="T262" s="81" t="s">
+      <c r="T263" s="81" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:22" s="77" customFormat="1">
-      <c r="A263" s="84"/>
-      <c r="B263" s="85"/>
-      <c r="C263" s="85"/>
-      <c r="D263" s="85"/>
-      <c r="E263" s="85"/>
-      <c r="F263" s="85"/>
-      <c r="G263" s="85"/>
-      <c r="H263" s="85"/>
-      <c r="I263" s="85"/>
-      <c r="J263" s="85"/>
-      <c r="K263" s="85"/>
-      <c r="L263" s="85"/>
-      <c r="M263" s="85"/>
-      <c r="N263" s="85"/>
-      <c r="O263" s="85"/>
-      <c r="P263" s="85"/>
-      <c r="Q263" s="85"/>
-      <c r="R263" s="80"/>
-      <c r="S263" s="80"/>
-      <c r="T263" s="80"/>
-    </row>
-    <row r="264" spans="1:22">
-      <c r="A264" s="84">
-        <v>99066</v>
-      </c>
-      <c r="B264" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C264" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D264" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E264" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="F264" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="G264" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H264" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I264" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J264" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K264" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L264" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M264" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N264" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O264" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P264" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q264" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R264" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S264" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T264" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22">
+    <row r="264" spans="1:22" s="77" customFormat="1">
+      <c r="A264" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="B264" s="85"/>
+      <c r="C264" s="85"/>
+      <c r="D264" s="85"/>
+      <c r="E264" s="85"/>
+      <c r="F264" s="85"/>
+      <c r="G264" s="85"/>
+      <c r="H264" s="85"/>
+      <c r="I264" s="85"/>
+      <c r="J264" s="85"/>
+      <c r="K264" s="85"/>
+      <c r="L264" s="85"/>
+      <c r="M264" s="85"/>
+      <c r="N264" s="85"/>
+      <c r="O264" s="85"/>
+      <c r="P264" s="85"/>
+      <c r="Q264" s="85"/>
+      <c r="R264" s="3"/>
+      <c r="S264" s="3"/>
+      <c r="T264" s="3"/>
+    </row>
+    <row r="265" spans="1:22" s="77" customFormat="1" ht="13.5" customHeight="1">
       <c r="A265" s="84">
-        <v>99067</v>
+        <v>99070</v>
       </c>
       <c r="B265" s="85" t="s">
         <v>71</v>
@@ -24674,10 +24814,10 @@
         <v>388</v>
       </c>
       <c r="E265" s="85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F265" s="85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G265" s="85" t="s">
         <v>35</v>
@@ -24697,8 +24837,8 @@
       <c r="L265" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M265" s="85" t="s">
-        <v>22</v>
+      <c r="M265" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N265" s="85" t="s">
         <v>47</v>
@@ -24721,12 +24861,10 @@
       <c r="T265" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U265" s="66"/>
-      <c r="V265" s="66"/>
-    </row>
-    <row r="266" spans="1:22">
+    </row>
+    <row r="266" spans="1:22" s="77" customFormat="1">
       <c r="A266" s="84">
-        <v>99068</v>
+        <v>99071</v>
       </c>
       <c r="B266" s="85" t="s">
         <v>71</v>
@@ -24738,10 +24876,10 @@
         <v>388</v>
       </c>
       <c r="E266" s="85" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F266" s="85" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G266" s="85" t="s">
         <v>35</v>
@@ -24761,8 +24899,8 @@
       <c r="L266" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M266" s="85" t="s">
-        <v>22</v>
+      <c r="M266" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N266" s="85" t="s">
         <v>47</v>
@@ -24785,12 +24923,10 @@
       <c r="T266" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U266" s="66"/>
-      <c r="V266" s="66"/>
-    </row>
-    <row r="267" spans="1:22">
+    </row>
+    <row r="267" spans="1:22" s="77" customFormat="1">
       <c r="A267" s="84">
-        <v>99069</v>
+        <v>99072</v>
       </c>
       <c r="B267" s="85" t="s">
         <v>71</v>
@@ -24802,10 +24938,10 @@
         <v>388</v>
       </c>
       <c r="E267" s="85" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F267" s="85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G267" s="85" t="s">
         <v>35</v>
@@ -24825,8 +24961,8 @@
       <c r="L267" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M267" s="85" t="s">
-        <v>22</v>
+      <c r="M267" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N267" s="85" t="s">
         <v>47</v>
@@ -24849,34 +24985,70 @@
       <c r="T267" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U267" s="66"/>
-      <c r="V267" s="66"/>
-    </row>
-    <row r="268" spans="1:22">
-      <c r="A268" s="84"/>
-      <c r="B268" s="85"/>
-      <c r="C268" s="85"/>
-      <c r="D268" s="85"/>
-      <c r="E268" s="85"/>
-      <c r="F268" s="85"/>
-      <c r="G268" s="85"/>
-      <c r="H268" s="85"/>
-      <c r="I268" s="85"/>
-      <c r="J268" s="85"/>
-      <c r="K268" s="85"/>
-      <c r="L268" s="85"/>
-      <c r="M268" s="85"/>
-      <c r="N268" s="85"/>
-      <c r="O268" s="85"/>
-      <c r="P268" s="85"/>
-      <c r="Q268" s="85"/>
-      <c r="R268" s="80"/>
-      <c r="S268" s="80"/>
-      <c r="T268" s="80"/>
-      <c r="U268" s="66"/>
-      <c r="V268" s="66"/>
-    </row>
-    <row r="269" spans="1:22">
+    </row>
+    <row r="268" spans="1:22" s="77" customFormat="1">
+      <c r="A268" s="84">
+        <v>99073</v>
+      </c>
+      <c r="B268" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C268" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D268" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E268" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="F268" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="G268" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H268" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I268" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J268" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K268" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L268" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M268" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="N268" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O268" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P268" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q268" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R268" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S268" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T268" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" s="77" customFormat="1">
       <c r="A269" s="84"/>
       <c r="B269" s="85"/>
       <c r="C269" s="85"/>
@@ -24894,100 +25066,178 @@
       <c r="O269" s="85"/>
       <c r="P269" s="85"/>
       <c r="Q269" s="85"/>
-      <c r="U269" s="66"/>
-      <c r="V269" s="66"/>
+      <c r="R269" s="80"/>
+      <c r="S269" s="80"/>
+      <c r="T269" s="80"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="B270" s="85"/>
-      <c r="C270" s="85"/>
-      <c r="D270" s="85"/>
-      <c r="E270" s="85"/>
-      <c r="F270" s="85"/>
-      <c r="G270" s="85"/>
-      <c r="H270" s="85"/>
-      <c r="I270" s="85"/>
-      <c r="J270" s="85"/>
-      <c r="K270" s="85"/>
-      <c r="L270" s="85"/>
-      <c r="M270" s="85"/>
-      <c r="N270" s="85"/>
-      <c r="O270" s="85"/>
-      <c r="P270" s="85"/>
-      <c r="Q270" s="85"/>
-      <c r="U270" s="66"/>
-      <c r="V270" s="66"/>
-    </row>
-    <row r="271" spans="1:22" s="64" customFormat="1">
-      <c r="A271" s="84" t="s">
-        <v>257</v>
-      </c>
-      <c r="B271" s="85"/>
-      <c r="C271" s="85"/>
-      <c r="D271" s="85"/>
-      <c r="E271" s="85"/>
-      <c r="F271" s="85"/>
-      <c r="G271" s="85"/>
-      <c r="H271" s="85"/>
-      <c r="I271" s="85"/>
-      <c r="J271" s="85"/>
-      <c r="K271" s="85"/>
-      <c r="L271" s="85"/>
-      <c r="M271" s="85"/>
-      <c r="N271" s="85"/>
-      <c r="O271" s="85"/>
-      <c r="P271" s="85"/>
-      <c r="Q271" s="85"/>
-      <c r="R271" s="3"/>
-      <c r="S271" s="3"/>
-      <c r="T271" s="3"/>
+      <c r="A270" s="84">
+        <v>99066</v>
+      </c>
+      <c r="B270" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C270" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D270" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E270" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="F270" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="G270" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H270" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I270" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J270" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K270" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L270" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M270" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N270" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O270" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P270" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q270" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R270" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S270" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T270" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22">
+      <c r="A271" s="84">
+        <v>99067</v>
+      </c>
+      <c r="B271" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C271" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D271" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E271" s="85" t="s">
+        <v>392</v>
+      </c>
+      <c r="F271" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="G271" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H271" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I271" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J271" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K271" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L271" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M271" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N271" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O271" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P271" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q271" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R271" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S271" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T271" s="81" t="s">
+        <v>25</v>
+      </c>
       <c r="U271" s="66"/>
       <c r="V271" s="66"/>
     </row>
-    <row r="272" spans="1:22" s="64" customFormat="1">
+    <row r="272" spans="1:22">
       <c r="A272" s="84">
-        <v>80001</v>
+        <v>99068</v>
       </c>
       <c r="B272" s="85" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C272" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D272" s="85" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="E272" s="85" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="F272" s="85" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="G272" s="85" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="H272" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I272" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="J272" s="85" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="K272" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="L272" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="M272" s="85" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="N272" s="85" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="O272" s="86" t="s">
         <v>48</v>
@@ -24998,60 +25248,60 @@
       <c r="Q272" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R272" s="65" t="s">
+      <c r="R272" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S272" s="68">
+      <c r="S272" s="81">
         <v>1825</v>
       </c>
-      <c r="T272" s="65" t="s">
+      <c r="T272" s="81" t="s">
         <v>25</v>
       </c>
       <c r="U272" s="66"/>
       <c r="V272" s="66"/>
     </row>
-    <row r="273" spans="1:22" s="64" customFormat="1">
+    <row r="273" spans="1:22">
       <c r="A273" s="84">
-        <v>80012</v>
+        <v>99069</v>
       </c>
       <c r="B273" s="85" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C273" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D273" s="85" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="E273" s="85" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="F273" s="85" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="G273" s="85" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="H273" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I273" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="J273" s="85" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="K273" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="L273" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="M273" s="85" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="N273" s="85" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="O273" s="86" t="s">
         <v>48</v>
@@ -25062,84 +25312,44 @@
       <c r="Q273" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R273" s="65" t="s">
+      <c r="R273" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S273" s="68">
+      <c r="S273" s="81">
         <v>1825</v>
       </c>
-      <c r="T273" s="65" t="s">
+      <c r="T273" s="81" t="s">
         <v>25</v>
       </c>
       <c r="U273" s="66"/>
       <c r="V273" s="66"/>
     </row>
     <row r="274" spans="1:22">
-      <c r="A274" s="84">
-        <v>80123</v>
-      </c>
-      <c r="B274" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C274" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D274" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="E274" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F274" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G274" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H274" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="I274" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="J274" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="K274" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L274" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="M274" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="N274" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="O274" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P274" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q274" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R274" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S274" s="68">
-        <v>1825</v>
-      </c>
-      <c r="T274" s="65" t="s">
-        <v>25</v>
-      </c>
+      <c r="A274" s="84"/>
+      <c r="B274" s="85"/>
+      <c r="C274" s="85"/>
+      <c r="D274" s="85"/>
+      <c r="E274" s="85"/>
+      <c r="F274" s="85"/>
+      <c r="G274" s="85"/>
+      <c r="H274" s="85"/>
+      <c r="I274" s="85"/>
+      <c r="J274" s="85"/>
+      <c r="K274" s="85"/>
+      <c r="L274" s="85"/>
+      <c r="M274" s="85"/>
+      <c r="N274" s="85"/>
+      <c r="O274" s="85"/>
+      <c r="P274" s="85"/>
+      <c r="Q274" s="85"/>
+      <c r="R274" s="80"/>
+      <c r="S274" s="80"/>
+      <c r="T274" s="80"/>
+      <c r="U274" s="66"/>
+      <c r="V274" s="66"/>
     </row>
     <row r="275" spans="1:22">
-      <c r="A275" s="84" t="s">
-        <v>258</v>
-      </c>
+      <c r="A275" s="84"/>
       <c r="B275" s="85"/>
       <c r="C275" s="85"/>
       <c r="D275" s="85"/>
@@ -25156,134 +25366,61 @@
       <c r="O275" s="85"/>
       <c r="P275" s="85"/>
       <c r="Q275" s="85"/>
+      <c r="U275" s="66"/>
+      <c r="V275" s="66"/>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="84">
-        <v>90001</v>
-      </c>
-      <c r="B276" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C276" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D276" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="E276" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F276" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G276" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H276" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="I276" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="J276" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="K276" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L276" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="M276" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="N276" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="O276" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P276" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q276" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R276" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S276" s="68">
-        <v>1825</v>
-      </c>
-      <c r="T276" s="65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22">
-      <c r="A277" s="84">
-        <v>90012</v>
-      </c>
-      <c r="B277" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C277" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D277" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="E277" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F277" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G277" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H277" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="I277" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="J277" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="K277" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L277" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="M277" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="N277" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="O277" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P277" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q277" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R277" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S277" s="68">
-        <v>1825</v>
-      </c>
-      <c r="T277" s="65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="278" spans="1:22">
+      <c r="A276" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B276" s="85"/>
+      <c r="C276" s="85"/>
+      <c r="D276" s="85"/>
+      <c r="E276" s="85"/>
+      <c r="F276" s="85"/>
+      <c r="G276" s="85"/>
+      <c r="H276" s="85"/>
+      <c r="I276" s="85"/>
+      <c r="J276" s="85"/>
+      <c r="K276" s="85"/>
+      <c r="L276" s="85"/>
+      <c r="M276" s="85"/>
+      <c r="N276" s="85"/>
+      <c r="O276" s="85"/>
+      <c r="P276" s="85"/>
+      <c r="Q276" s="85"/>
+      <c r="U276" s="66"/>
+      <c r="V276" s="66"/>
+    </row>
+    <row r="277" spans="1:22" s="64" customFormat="1">
+      <c r="A277" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B277" s="85"/>
+      <c r="C277" s="85"/>
+      <c r="D277" s="85"/>
+      <c r="E277" s="85"/>
+      <c r="F277" s="85"/>
+      <c r="G277" s="85"/>
+      <c r="H277" s="85"/>
+      <c r="I277" s="85"/>
+      <c r="J277" s="85"/>
+      <c r="K277" s="85"/>
+      <c r="L277" s="85"/>
+      <c r="M277" s="85"/>
+      <c r="N277" s="85"/>
+      <c r="O277" s="85"/>
+      <c r="P277" s="85"/>
+      <c r="Q277" s="85"/>
+      <c r="R277" s="3"/>
+      <c r="S277" s="3"/>
+      <c r="T277" s="3"/>
+      <c r="U277" s="66"/>
+      <c r="V277" s="66"/>
+    </row>
+    <row r="278" spans="1:22" s="64" customFormat="1">
       <c r="A278" s="84">
-        <v>90123</v>
+        <v>80001</v>
       </c>
       <c r="B278" s="85" t="s">
         <v>260</v>
@@ -25292,7 +25429,7 @@
         <v>55</v>
       </c>
       <c r="D278" s="85" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E278" s="85" t="s">
         <v>249</v>
@@ -25301,7 +25438,7 @@
         <v>250</v>
       </c>
       <c r="G278" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H278" s="85" t="s">
         <v>249</v>
@@ -25319,10 +25456,10 @@
         <v>31</v>
       </c>
       <c r="M278" s="85" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N278" s="85" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="O278" s="86" t="s">
         <v>48</v>
@@ -25340,6 +25477,341 @@
         <v>1825</v>
       </c>
       <c r="T278" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U278" s="66"/>
+      <c r="V278" s="66"/>
+    </row>
+    <row r="279" spans="1:22" s="64" customFormat="1">
+      <c r="A279" s="84">
+        <v>80012</v>
+      </c>
+      <c r="B279" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C279" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D279" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E279" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F279" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G279" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H279" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I279" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J279" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K279" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L279" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M279" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="N279" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="O279" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P279" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q279" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R279" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S279" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T279" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U279" s="66"/>
+      <c r="V279" s="66"/>
+    </row>
+    <row r="280" spans="1:22">
+      <c r="A280" s="84">
+        <v>80123</v>
+      </c>
+      <c r="B280" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C280" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D280" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="E280" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F280" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G280" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H280" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I280" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J280" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K280" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L280" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M280" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="N280" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="O280" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P280" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q280" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R280" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S280" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T280" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22">
+      <c r="A281" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B281" s="85"/>
+      <c r="C281" s="85"/>
+      <c r="D281" s="85"/>
+      <c r="E281" s="85"/>
+      <c r="F281" s="85"/>
+      <c r="G281" s="85"/>
+      <c r="H281" s="85"/>
+      <c r="I281" s="85"/>
+      <c r="J281" s="85"/>
+      <c r="K281" s="85"/>
+      <c r="L281" s="85"/>
+      <c r="M281" s="85"/>
+      <c r="N281" s="85"/>
+      <c r="O281" s="85"/>
+      <c r="P281" s="85"/>
+      <c r="Q281" s="85"/>
+    </row>
+    <row r="282" spans="1:22">
+      <c r="A282" s="84">
+        <v>90001</v>
+      </c>
+      <c r="B282" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C282" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D282" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="E282" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F282" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G282" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H282" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I282" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J282" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K282" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L282" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M282" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="N282" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="O282" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P282" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q282" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R282" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S282" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T282" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22">
+      <c r="A283" s="84">
+        <v>90012</v>
+      </c>
+      <c r="B283" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C283" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D283" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="E283" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F283" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G283" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H283" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I283" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J283" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K283" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L283" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M283" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="N283" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="O283" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P283" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q283" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R283" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S283" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T283" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22">
+      <c r="A284" s="84">
+        <v>90123</v>
+      </c>
+      <c r="B284" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C284" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D284" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E284" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F284" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G284" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H284" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I284" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J284" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K284" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L284" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M284" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="N284" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="O284" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P284" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q284" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R284" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S284" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T284" s="65" t="s">
         <v>25</v>
       </c>
     </row>
@@ -25362,8 +25834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26668,7 +27140,10 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14">
+        <f>365*7</f>
+        <v>2555</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -29786,6 +30261,10 @@
       </c>
       <c r="B85" s="14">
         <v>85</v>
+      </c>
+      <c r="G85">
+        <f>365/2</f>
+        <v>182.5</v>
       </c>
       <c r="O85" s="56" t="s">
         <v>209</v>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -2067,7 +2067,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6699" uniqueCount="594">
   <si>
     <t>no</t>
     <phoneticPr fontId="4"/>
@@ -9778,6 +9778,190 @@
   </si>
   <si>
     <t>90</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20221101</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20221105</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arff_3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>clf_3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'ip', 'G3', 'G2'</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t># wk1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인것만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학습해본다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. ip,G3,G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  -&gt; python BoatLGBMClassifierTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행해보니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낮아서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포기</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -10022,7 +10206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10214,6 +10398,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -13079,16 +13266,16 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:V284"/>
+  <dimension ref="A1:V286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T181" sqref="T181:T184"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
@@ -20788,10 +20975,10 @@
         <v>99100</v>
       </c>
       <c r="B165" s="121" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C165" s="121" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D165" s="117" t="s">
         <v>23</v>
@@ -20850,10 +21037,10 @@
         <v>99080</v>
       </c>
       <c r="B166" s="121" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C166" s="121" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D166" s="117" t="s">
         <v>23</v>
@@ -20912,10 +21099,10 @@
         <v>99083</v>
       </c>
       <c r="B167" s="121" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C167" s="121" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D167" s="117" t="s">
         <v>23</v>
@@ -20974,10 +21161,10 @@
         <v>99102</v>
       </c>
       <c r="B168" s="121" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C168" s="121" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D168" s="53" t="s">
         <v>119</v>
@@ -21036,10 +21223,10 @@
         <v>99103</v>
       </c>
       <c r="B169" s="121" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C169" s="121" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D169" s="53" t="s">
         <v>245</v>
@@ -21910,7 +22097,9 @@
       </c>
     </row>
     <row r="185" spans="1:20" s="119" customFormat="1">
-      <c r="A185" s="121"/>
+      <c r="A185" s="121" t="s">
+        <v>593</v>
+      </c>
       <c r="B185" s="121"/>
       <c r="C185" s="121"/>
       <c r="D185" s="53"/>
@@ -21932,59 +22121,93 @@
       <c r="T185" s="117"/>
     </row>
     <row r="186" spans="1:20" s="119" customFormat="1">
-      <c r="A186" s="134" t="s">
+      <c r="A186" s="135">
+        <v>96100</v>
+      </c>
+      <c r="B186" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C186" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="D186" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F186" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G186" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H186" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I186" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J186" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K186" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L186" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="M186" s="117" t="s">
+        <v>590</v>
+      </c>
+      <c r="N186" s="117" t="s">
+        <v>591</v>
+      </c>
+      <c r="O186" s="120" t="s">
+        <v>592</v>
+      </c>
+      <c r="P186" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q186" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R186" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S186" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T186" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" s="119" customFormat="1">
+      <c r="A187" s="121"/>
+      <c r="B187" s="121"/>
+      <c r="C187" s="121"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="117"/>
+      <c r="F187" s="117"/>
+      <c r="G187" s="117"/>
+      <c r="H187" s="117"/>
+      <c r="I187" s="117"/>
+      <c r="J187" s="121"/>
+      <c r="K187" s="117"/>
+      <c r="L187" s="117"/>
+      <c r="M187" s="117"/>
+      <c r="N187" s="117"/>
+      <c r="O187" s="120"/>
+      <c r="P187" s="117"/>
+      <c r="Q187" s="117"/>
+      <c r="R187" s="117"/>
+      <c r="S187" s="117"/>
+      <c r="T187" s="117"/>
+    </row>
+    <row r="188" spans="1:20" s="119" customFormat="1">
+      <c r="A188" s="134" t="s">
         <v>560</v>
       </c>
-      <c r="B186" s="121"/>
-      <c r="C186" s="121"/>
-      <c r="D186" s="121"/>
-      <c r="E186" s="121"/>
-      <c r="F186" s="121"/>
-      <c r="G186" s="121"/>
-      <c r="H186" s="121"/>
-      <c r="I186" s="121"/>
-      <c r="J186" s="121"/>
-      <c r="K186" s="121"/>
-      <c r="L186" s="121"/>
-      <c r="M186" s="121"/>
-      <c r="N186" s="121"/>
-      <c r="O186" s="121"/>
-      <c r="P186" s="121"/>
-      <c r="Q186" s="121"/>
-      <c r="R186" s="121"/>
-      <c r="S186" s="121"/>
-      <c r="T186" s="121"/>
-    </row>
-    <row r="187" spans="1:20" s="119" customFormat="1">
-      <c r="A187" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="B187" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C187" s="121" t="s">
-        <v>554</v>
-      </c>
-      <c r="D187" s="121"/>
-      <c r="E187" s="121"/>
-      <c r="F187" s="121"/>
-      <c r="G187" s="121"/>
-      <c r="H187" s="121"/>
-      <c r="I187" s="121"/>
-      <c r="J187" s="121"/>
-      <c r="K187" s="121"/>
-      <c r="L187" s="121"/>
-      <c r="M187" s="121"/>
-      <c r="N187" s="121"/>
-      <c r="O187" s="121"/>
-      <c r="P187" s="121"/>
-      <c r="Q187" s="121"/>
-      <c r="R187" s="121"/>
-      <c r="S187" s="121"/>
-      <c r="T187" s="121"/>
-    </row>
-    <row r="188" spans="1:20" s="119" customFormat="1">
-      <c r="A188" s="123"/>
       <c r="B188" s="121"/>
       <c r="C188" s="121"/>
       <c r="D188" s="121"/>
@@ -22006,9 +22229,15 @@
       <c r="T188" s="121"/>
     </row>
     <row r="189" spans="1:20" s="119" customFormat="1">
-      <c r="A189" s="123"/>
-      <c r="B189" s="121"/>
-      <c r="C189" s="121"/>
+      <c r="A189" s="123" t="s">
+        <v>559</v>
+      </c>
+      <c r="B189" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C189" s="121" t="s">
+        <v>554</v>
+      </c>
       <c r="D189" s="121"/>
       <c r="E189" s="121"/>
       <c r="F189" s="121"/>
@@ -22049,7 +22278,7 @@
       <c r="S190" s="121"/>
       <c r="T190" s="121"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" s="119" customFormat="1">
       <c r="A191" s="123"/>
       <c r="B191" s="121"/>
       <c r="C191" s="121"/>
@@ -22071,7 +22300,7 @@
       <c r="S191" s="121"/>
       <c r="T191" s="121"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" s="119" customFormat="1">
       <c r="A192" s="123"/>
       <c r="B192" s="121"/>
       <c r="C192" s="121"/>
@@ -22093,7 +22322,7 @@
       <c r="S192" s="121"/>
       <c r="T192" s="121"/>
     </row>
-    <row r="193" spans="1:20" s="119" customFormat="1">
+    <row r="193" spans="1:20">
       <c r="A193" s="123"/>
       <c r="B193" s="121"/>
       <c r="C193" s="121"/>
@@ -22115,7 +22344,7 @@
       <c r="S193" s="121"/>
       <c r="T193" s="121"/>
     </row>
-    <row r="194" spans="1:20" s="77" customFormat="1">
+    <row r="194" spans="1:20">
       <c r="A194" s="123"/>
       <c r="B194" s="121"/>
       <c r="C194" s="121"/>
@@ -22159,223 +22388,143 @@
       <c r="S195" s="121"/>
       <c r="T195" s="121"/>
     </row>
-    <row r="196" spans="1:20" s="119" customFormat="1">
-      <c r="A196" s="9"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-      <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
+    <row r="196" spans="1:20" s="77" customFormat="1">
+      <c r="A196" s="123"/>
+      <c r="B196" s="121"/>
+      <c r="C196" s="121"/>
+      <c r="D196" s="121"/>
+      <c r="E196" s="121"/>
+      <c r="F196" s="121"/>
+      <c r="G196" s="121"/>
+      <c r="H196" s="121"/>
+      <c r="I196" s="121"/>
+      <c r="J196" s="121"/>
+      <c r="K196" s="121"/>
+      <c r="L196" s="121"/>
+      <c r="M196" s="121"/>
+      <c r="N196" s="121"/>
+      <c r="O196" s="121"/>
+      <c r="P196" s="121"/>
+      <c r="Q196" s="121"/>
+      <c r="R196" s="121"/>
+      <c r="S196" s="121"/>
+      <c r="T196" s="121"/>
     </row>
     <row r="197" spans="1:20" s="119" customFormat="1">
-      <c r="A197" s="9"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-      <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
+      <c r="A197" s="123"/>
+      <c r="B197" s="121"/>
+      <c r="C197" s="121"/>
+      <c r="D197" s="121"/>
+      <c r="E197" s="121"/>
+      <c r="F197" s="121"/>
+      <c r="G197" s="121"/>
+      <c r="H197" s="121"/>
+      <c r="I197" s="121"/>
+      <c r="J197" s="121"/>
+      <c r="K197" s="121"/>
+      <c r="L197" s="121"/>
+      <c r="M197" s="121"/>
+      <c r="N197" s="121"/>
+      <c r="O197" s="121"/>
+      <c r="P197" s="121"/>
+      <c r="Q197" s="121"/>
+      <c r="R197" s="121"/>
+      <c r="S197" s="121"/>
+      <c r="T197" s="121"/>
     </row>
     <row r="198" spans="1:20" s="119" customFormat="1">
-      <c r="A198" s="123"/>
-      <c r="B198" s="121"/>
-      <c r="C198" s="121"/>
-      <c r="D198" s="121"/>
-      <c r="E198" s="121"/>
-      <c r="F198" s="121"/>
-      <c r="G198" s="121"/>
-      <c r="H198" s="121"/>
-      <c r="I198" s="121"/>
-      <c r="J198" s="121"/>
-      <c r="K198" s="121"/>
-      <c r="L198" s="121"/>
-      <c r="M198" s="121"/>
-      <c r="N198" s="121"/>
-      <c r="O198" s="121"/>
-      <c r="P198" s="121"/>
-      <c r="Q198" s="121"/>
-      <c r="R198" s="121"/>
-      <c r="S198" s="121"/>
-      <c r="T198" s="121"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
     </row>
     <row r="199" spans="1:20" s="119" customFormat="1">
-      <c r="A199" s="130" t="s">
+      <c r="A199" s="9"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+    </row>
+    <row r="200" spans="1:20" s="119" customFormat="1">
+      <c r="A200" s="123"/>
+      <c r="B200" s="121"/>
+      <c r="C200" s="121"/>
+      <c r="D200" s="121"/>
+      <c r="E200" s="121"/>
+      <c r="F200" s="121"/>
+      <c r="G200" s="121"/>
+      <c r="H200" s="121"/>
+      <c r="I200" s="121"/>
+      <c r="J200" s="121"/>
+      <c r="K200" s="121"/>
+      <c r="L200" s="121"/>
+      <c r="M200" s="121"/>
+      <c r="N200" s="121"/>
+      <c r="O200" s="121"/>
+      <c r="P200" s="121"/>
+      <c r="Q200" s="121"/>
+      <c r="R200" s="121"/>
+      <c r="S200" s="121"/>
+      <c r="T200" s="121"/>
+    </row>
+    <row r="201" spans="1:20" s="119" customFormat="1">
+      <c r="A201" s="130" t="s">
         <v>528</v>
       </c>
-      <c r="B199" s="80"/>
-      <c r="C199" s="80"/>
-      <c r="D199" s="80"/>
-      <c r="E199" s="80"/>
-      <c r="F199" s="80"/>
-      <c r="G199" s="121"/>
-      <c r="H199" s="121"/>
-      <c r="I199" s="121"/>
-      <c r="J199" s="121"/>
-      <c r="K199" s="121"/>
-      <c r="L199" s="121"/>
-      <c r="M199" s="121"/>
-      <c r="N199" s="80"/>
-      <c r="O199" s="80"/>
-      <c r="P199" s="80"/>
-      <c r="Q199" s="80"/>
-      <c r="R199" s="80"/>
-      <c r="S199" s="80"/>
-      <c r="T199" s="80"/>
-    </row>
-    <row r="200" spans="1:20" s="119" customFormat="1">
-      <c r="A200" s="8">
+      <c r="B201" s="80"/>
+      <c r="C201" s="80"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="80"/>
+      <c r="F201" s="80"/>
+      <c r="G201" s="121"/>
+      <c r="H201" s="121"/>
+      <c r="I201" s="121"/>
+      <c r="J201" s="121"/>
+      <c r="K201" s="121"/>
+      <c r="L201" s="121"/>
+      <c r="M201" s="121"/>
+      <c r="N201" s="80"/>
+      <c r="O201" s="80"/>
+      <c r="P201" s="80"/>
+      <c r="Q201" s="80"/>
+      <c r="R201" s="80"/>
+      <c r="S201" s="80"/>
+      <c r="T201" s="80"/>
+    </row>
+    <row r="202" spans="1:20" s="119" customFormat="1">
+      <c r="A202" s="8">
         <v>99069</v>
-      </c>
-      <c r="B200" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C200" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D200" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E200" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F200" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G200" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H200" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I200" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J200" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="K200" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="L200" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="M200" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N200" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O200" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P200" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q200" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R200" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S200" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T200" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" s="119" customFormat="1">
-      <c r="A201" s="8">
-        <v>99072</v>
-      </c>
-      <c r="B201" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C201" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D201" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F201" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G201" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="H201" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="I201" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="J201" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="K201" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="L201" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="M201" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N201" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O201" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P201" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q201" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R201" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S201" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T201" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" s="119" customFormat="1">
-      <c r="A202" s="123">
-        <v>99081</v>
       </c>
       <c r="B202" s="121" t="s">
         <v>71</v>
@@ -22384,7 +22533,7 @@
         <v>55</v>
       </c>
       <c r="D202" s="121" t="s">
-        <v>440</v>
+        <v>23</v>
       </c>
       <c r="E202" s="121" t="s">
         <v>110</v>
@@ -22401,14 +22550,14 @@
       <c r="I202" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J202" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K202" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L202" s="117" t="s">
-        <v>77</v>
+      <c r="J202" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K202" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L202" s="121" t="s">
+        <v>431</v>
       </c>
       <c r="M202" s="117" t="s">
         <v>22</v>
@@ -22436,8 +22585,8 @@
       </c>
     </row>
     <row r="203" spans="1:20" s="119" customFormat="1">
-      <c r="A203" s="123">
-        <v>99082</v>
+      <c r="A203" s="8">
+        <v>99072</v>
       </c>
       <c r="B203" s="121" t="s">
         <v>71</v>
@@ -22454,23 +22603,23 @@
       <c r="F203" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G203" s="119" t="s">
+      <c r="G203" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="H203" s="119" t="s">
+      <c r="H203" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="I203" s="119" t="s">
+      <c r="I203" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="J203" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K203" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L203" s="117" t="s">
-        <v>77</v>
+      <c r="J203" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K203" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L203" s="121" t="s">
+        <v>431</v>
       </c>
       <c r="M203" s="117" t="s">
         <v>22</v>
@@ -22499,7 +22648,7 @@
     </row>
     <row r="204" spans="1:20" s="119" customFormat="1">
       <c r="A204" s="123">
-        <v>99084</v>
+        <v>99081</v>
       </c>
       <c r="B204" s="121" t="s">
         <v>71</v>
@@ -22508,7 +22657,7 @@
         <v>55</v>
       </c>
       <c r="D204" s="121" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E204" s="121" t="s">
         <v>110</v>
@@ -22526,13 +22675,13 @@
         <v>34</v>
       </c>
       <c r="J204" s="117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K204" s="117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L204" s="117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M204" s="117" t="s">
         <v>22</v>
@@ -22561,7 +22710,7 @@
     </row>
     <row r="205" spans="1:20" s="119" customFormat="1">
       <c r="A205" s="123">
-        <v>99085</v>
+        <v>99082</v>
       </c>
       <c r="B205" s="121" t="s">
         <v>71</v>
@@ -22588,13 +22737,13 @@
         <v>433</v>
       </c>
       <c r="J205" s="117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K205" s="117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L205" s="117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M205" s="117" t="s">
         <v>22</v>
@@ -22623,7 +22772,7 @@
     </row>
     <row r="206" spans="1:20" s="119" customFormat="1">
       <c r="A206" s="123">
-        <v>99087</v>
+        <v>99084</v>
       </c>
       <c r="B206" s="121" t="s">
         <v>71</v>
@@ -22632,7 +22781,7 @@
         <v>55</v>
       </c>
       <c r="D206" s="121" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="E206" s="121" t="s">
         <v>110</v>
@@ -22650,13 +22799,13 @@
         <v>34</v>
       </c>
       <c r="J206" s="117" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="K206" s="117" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="L206" s="117" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="M206" s="117" t="s">
         <v>22</v>
@@ -22683,9 +22832,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" s="119" customFormat="1">
       <c r="A207" s="123">
-        <v>99088</v>
+        <v>99085</v>
       </c>
       <c r="B207" s="121" t="s">
         <v>71</v>
@@ -22712,13 +22861,13 @@
         <v>433</v>
       </c>
       <c r="J207" s="117" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="K207" s="117" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="L207" s="117" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="M207" s="117" t="s">
         <v>22</v>
@@ -22745,9 +22894,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" s="119" customFormat="1">
       <c r="A208" s="123">
-        <v>99090</v>
+        <v>99087</v>
       </c>
       <c r="B208" s="121" t="s">
         <v>71</v>
@@ -22774,13 +22923,13 @@
         <v>34</v>
       </c>
       <c r="J208" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K208" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L208" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M208" s="117" t="s">
         <v>22</v>
@@ -22809,7 +22958,7 @@
     </row>
     <row r="209" spans="1:20">
       <c r="A209" s="123">
-        <v>99091</v>
+        <v>99088</v>
       </c>
       <c r="B209" s="121" t="s">
         <v>71</v>
@@ -22836,13 +22985,13 @@
         <v>433</v>
       </c>
       <c r="J209" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K209" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L209" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M209" s="117" t="s">
         <v>22</v>
@@ -22871,7 +23020,7 @@
     </row>
     <row r="210" spans="1:20">
       <c r="A210" s="123">
-        <v>99095</v>
+        <v>99090</v>
       </c>
       <c r="B210" s="121" t="s">
         <v>71</v>
@@ -22898,13 +23047,13 @@
         <v>34</v>
       </c>
       <c r="J210" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K210" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L210" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M210" s="117" t="s">
         <v>22</v>
@@ -22933,7 +23082,7 @@
     </row>
     <row r="211" spans="1:20">
       <c r="A211" s="123">
-        <v>99096</v>
+        <v>99091</v>
       </c>
       <c r="B211" s="121" t="s">
         <v>71</v>
@@ -22960,13 +23109,13 @@
         <v>433</v>
       </c>
       <c r="J211" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K211" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L211" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M211" s="117" t="s">
         <v>22</v>
@@ -22993,49 +23142,129 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:20" s="119" customFormat="1">
-      <c r="A216" s="9"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
-      <c r="R216" s="3"/>
-      <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
-    </row>
-    <row r="217" spans="1:20" s="119" customFormat="1">
-      <c r="A217" s="9"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
-      <c r="R217" s="3"/>
-      <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
+    <row r="212" spans="1:20">
+      <c r="A212" s="123">
+        <v>99095</v>
+      </c>
+      <c r="B212" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C212" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D212" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F212" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G212" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H212" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I212" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J212" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K212" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L212" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M212" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N212" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O212" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P212" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q212" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R212" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S212" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T212" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" s="123">
+        <v>99096</v>
+      </c>
+      <c r="B213" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C213" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D213" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F213" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G213" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H213" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I213" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J213" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K213" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L213" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M213" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N213" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O213" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P213" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q213" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R213" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S213" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T213" s="117" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="218" spans="1:20" s="119" customFormat="1">
       <c r="A218" s="9"/>
@@ -23104,48 +23333,48 @@
       <c r="T220" s="3"/>
     </row>
     <row r="221" spans="1:20" s="119" customFormat="1">
-      <c r="A221" s="123"/>
-      <c r="B221" s="121"/>
-      <c r="C221" s="121"/>
-      <c r="D221" s="121"/>
-      <c r="E221" s="121"/>
-      <c r="F221" s="121"/>
-      <c r="G221" s="121"/>
-      <c r="H221" s="121"/>
-      <c r="I221" s="121"/>
-      <c r="J221" s="121"/>
-      <c r="K221" s="121"/>
-      <c r="L221" s="121"/>
-      <c r="M221" s="121"/>
-      <c r="N221" s="121"/>
-      <c r="O221" s="121"/>
-      <c r="P221" s="121"/>
-      <c r="Q221" s="121"/>
-      <c r="R221" s="121"/>
-      <c r="S221" s="121"/>
-      <c r="T221" s="121"/>
+      <c r="A221" s="9"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
     </row>
     <row r="222" spans="1:20" s="119" customFormat="1">
-      <c r="A222" s="123"/>
-      <c r="B222" s="121"/>
-      <c r="C222" s="121"/>
-      <c r="D222" s="121"/>
-      <c r="E222" s="121"/>
-      <c r="F222" s="121"/>
-      <c r="G222" s="121"/>
-      <c r="H222" s="121"/>
-      <c r="I222" s="121"/>
-      <c r="J222" s="121"/>
-      <c r="K222" s="121"/>
-      <c r="L222" s="121"/>
-      <c r="M222" s="121"/>
-      <c r="N222" s="121"/>
-      <c r="O222" s="121"/>
-      <c r="P222" s="121"/>
-      <c r="Q222" s="121"/>
-      <c r="R222" s="121"/>
-      <c r="S222" s="121"/>
-      <c r="T222" s="121"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
     </row>
     <row r="223" spans="1:20" s="119" customFormat="1">
       <c r="A223" s="123"/>
@@ -23433,7 +23662,7 @@
       <c r="S235" s="121"/>
       <c r="T235" s="121"/>
     </row>
-    <row r="236" spans="1:20" s="115" customFormat="1">
+    <row r="236" spans="1:20" s="119" customFormat="1">
       <c r="A236" s="123"/>
       <c r="B236" s="121"/>
       <c r="C236" s="121"/>
@@ -23455,7 +23684,7 @@
       <c r="S236" s="121"/>
       <c r="T236" s="121"/>
     </row>
-    <row r="237" spans="1:20" s="115" customFormat="1">
+    <row r="237" spans="1:20" s="119" customFormat="1">
       <c r="A237" s="123"/>
       <c r="B237" s="121"/>
       <c r="C237" s="121"/>
@@ -23544,153 +23773,73 @@
       <c r="T240" s="121"/>
     </row>
     <row r="241" spans="1:20" s="115" customFormat="1">
-      <c r="A241" s="63" t="s">
+      <c r="A241" s="123"/>
+      <c r="B241" s="121"/>
+      <c r="C241" s="121"/>
+      <c r="D241" s="121"/>
+      <c r="E241" s="121"/>
+      <c r="F241" s="121"/>
+      <c r="G241" s="121"/>
+      <c r="H241" s="121"/>
+      <c r="I241" s="121"/>
+      <c r="J241" s="121"/>
+      <c r="K241" s="121"/>
+      <c r="L241" s="121"/>
+      <c r="M241" s="121"/>
+      <c r="N241" s="121"/>
+      <c r="O241" s="121"/>
+      <c r="P241" s="121"/>
+      <c r="Q241" s="121"/>
+      <c r="R241" s="121"/>
+      <c r="S241" s="121"/>
+      <c r="T241" s="121"/>
+    </row>
+    <row r="242" spans="1:20" s="115" customFormat="1">
+      <c r="A242" s="123"/>
+      <c r="B242" s="121"/>
+      <c r="C242" s="121"/>
+      <c r="D242" s="121"/>
+      <c r="E242" s="121"/>
+      <c r="F242" s="121"/>
+      <c r="G242" s="121"/>
+      <c r="H242" s="121"/>
+      <c r="I242" s="121"/>
+      <c r="J242" s="121"/>
+      <c r="K242" s="121"/>
+      <c r="L242" s="121"/>
+      <c r="M242" s="121"/>
+      <c r="N242" s="121"/>
+      <c r="O242" s="121"/>
+      <c r="P242" s="121"/>
+      <c r="Q242" s="121"/>
+      <c r="R242" s="121"/>
+      <c r="S242" s="121"/>
+      <c r="T242" s="121"/>
+    </row>
+    <row r="243" spans="1:20" s="115" customFormat="1">
+      <c r="A243" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="B241" s="116"/>
-      <c r="C241" s="116"/>
-      <c r="D241" s="116"/>
-      <c r="E241" s="116"/>
-      <c r="F241" s="116"/>
-      <c r="J241" s="117"/>
-      <c r="K241" s="117"/>
-      <c r="L241" s="117"/>
-      <c r="M241" s="117"/>
-      <c r="N241" s="117"/>
-      <c r="O241" s="118"/>
-      <c r="P241" s="117"/>
-      <c r="Q241" s="117"/>
-      <c r="R241" s="117"/>
-      <c r="S241" s="117"/>
-      <c r="T241" s="117"/>
-    </row>
-    <row r="242" spans="1:20" s="115" customFormat="1">
-      <c r="A242" s="63" t="s">
+      <c r="B243" s="116"/>
+      <c r="C243" s="116"/>
+      <c r="D243" s="116"/>
+      <c r="E243" s="116"/>
+      <c r="F243" s="116"/>
+      <c r="J243" s="117"/>
+      <c r="K243" s="117"/>
+      <c r="L243" s="117"/>
+      <c r="M243" s="117"/>
+      <c r="N243" s="117"/>
+      <c r="O243" s="118"/>
+      <c r="P243" s="117"/>
+      <c r="Q243" s="117"/>
+      <c r="R243" s="117"/>
+      <c r="S243" s="117"/>
+      <c r="T243" s="117"/>
+    </row>
+    <row r="244" spans="1:20" s="115" customFormat="1">
+      <c r="A244" s="63" t="s">
         <v>451</v>
-      </c>
-      <c r="B242" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C242" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="D242" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="E242" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="F242" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="G242" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="H242" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="I242" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="J242" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="K242" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="L242" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="M242" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N242" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O242" s="118" t="s">
-        <v>48</v>
-      </c>
-      <c r="P242" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q242" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R242" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S242" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T242" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" s="77" customFormat="1">
-      <c r="A243" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="B243" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C243" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="D243" s="116" t="s">
-        <v>444</v>
-      </c>
-      <c r="E243" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="F243" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="G243" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H243" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I243" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J243" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="K243" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="L243" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="M243" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N243" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O243" s="118" t="s">
-        <v>48</v>
-      </c>
-      <c r="P243" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q243" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R243" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S243" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T243" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" s="77" customFormat="1">
-      <c r="A244" s="63" t="s">
-        <v>452</v>
       </c>
       <c r="B244" s="116" t="s">
         <v>71</v>
@@ -23699,7 +23848,7 @@
         <v>55</v>
       </c>
       <c r="D244" s="116" t="s">
-        <v>23</v>
+        <v>443</v>
       </c>
       <c r="E244" s="116" t="s">
         <v>110</v>
@@ -23707,14 +23856,14 @@
       <c r="F244" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G244" s="115" t="s">
-        <v>433</v>
-      </c>
-      <c r="H244" s="115" t="s">
-        <v>433</v>
-      </c>
-      <c r="I244" s="115" t="s">
-        <v>433</v>
+      <c r="G244" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H244" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I244" s="117" t="s">
+        <v>35</v>
       </c>
       <c r="J244" s="117" t="s">
         <v>445</v>
@@ -23761,7 +23910,7 @@
         <v>55</v>
       </c>
       <c r="D245" s="116" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E245" s="116" t="s">
         <v>110</v>
@@ -23770,22 +23919,22 @@
         <v>111</v>
       </c>
       <c r="G245" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H245" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I245" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J245" s="117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K245" s="117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L245" s="117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M245" s="117" t="s">
         <v>22</v>
@@ -23814,7 +23963,7 @@
     </row>
     <row r="246" spans="1:20" s="77" customFormat="1">
       <c r="A246" s="63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B246" s="116" t="s">
         <v>71</v>
@@ -23823,7 +23972,7 @@
         <v>55</v>
       </c>
       <c r="D246" s="116" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="E246" s="116" t="s">
         <v>110</v>
@@ -23831,23 +23980,23 @@
       <c r="F246" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G246" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H246" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I246" s="117" t="s">
-        <v>34</v>
+      <c r="G246" s="115" t="s">
+        <v>433</v>
+      </c>
+      <c r="H246" s="115" t="s">
+        <v>433</v>
+      </c>
+      <c r="I246" s="115" t="s">
+        <v>433</v>
       </c>
       <c r="J246" s="117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K246" s="117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L246" s="117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M246" s="117" t="s">
         <v>22</v>
@@ -23885,7 +24034,7 @@
         <v>55</v>
       </c>
       <c r="D247" s="116" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
       <c r="E247" s="116" t="s">
         <v>110</v>
@@ -23893,14 +24042,14 @@
       <c r="F247" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G247" s="115" t="s">
-        <v>433</v>
-      </c>
-      <c r="H247" s="115" t="s">
-        <v>433</v>
-      </c>
-      <c r="I247" s="115" t="s">
-        <v>433</v>
+      <c r="G247" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H247" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I247" s="117" t="s">
+        <v>35</v>
       </c>
       <c r="J247" s="117" t="s">
         <v>449</v>
@@ -23937,141 +24086,179 @@
       </c>
     </row>
     <row r="248" spans="1:20" s="77" customFormat="1">
-      <c r="A248" s="8">
+      <c r="A248" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B248" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C248" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D248" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="E248" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F248" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="G248" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H248" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I248" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J248" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K248" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L248" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M248" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N248" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O248" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="P248" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q248" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R248" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S248" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T248" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" s="77" customFormat="1">
+      <c r="A249" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="B249" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C249" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D249" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E249" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F249" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="G249" s="115" t="s">
+        <v>433</v>
+      </c>
+      <c r="H249" s="115" t="s">
+        <v>433</v>
+      </c>
+      <c r="I249" s="115" t="s">
+        <v>433</v>
+      </c>
+      <c r="J249" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K249" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L249" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M249" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N249" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O249" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="P249" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q249" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R249" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S249" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T249" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" s="77" customFormat="1">
+      <c r="A250" s="8">
         <v>99063</v>
       </c>
-      <c r="B248" s="80" t="s">
+      <c r="B250" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C248" s="80" t="s">
+      <c r="C250" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D248" s="81" t="s">
+      <c r="D250" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E248" s="80" t="s">
+      <c r="E250" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="F248" s="80" t="s">
+      <c r="F250" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="G248" s="81" t="s">
+      <c r="G250" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H248" s="81" t="s">
+      <c r="H250" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I248" s="81" t="s">
+      <c r="I250" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J248" s="80" t="s">
+      <c r="J250" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="K248" s="80" t="s">
+      <c r="K250" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="L248" s="80" t="s">
+      <c r="L250" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="M248" s="81" t="s">
+      <c r="M250" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="N248" s="81" t="s">
+      <c r="N250" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="O248" s="82" t="s">
+      <c r="O250" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="P248" s="81" t="s">
+      <c r="P250" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q248" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R248" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S248" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T248" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" s="77" customFormat="1">
-      <c r="A249" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="B249" s="85"/>
-      <c r="C249" s="85"/>
-      <c r="D249" s="85"/>
-      <c r="E249" s="85"/>
-      <c r="F249" s="85"/>
-      <c r="G249" s="85"/>
-      <c r="H249" s="85"/>
-      <c r="I249" s="85"/>
-      <c r="J249" s="85"/>
-      <c r="K249" s="85"/>
-      <c r="L249" s="85"/>
-      <c r="M249" s="85"/>
-      <c r="N249" s="85"/>
-      <c r="O249" s="86"/>
-      <c r="P249" s="85"/>
-      <c r="Q249" s="85"/>
-      <c r="R249" s="81"/>
-      <c r="S249" s="81"/>
-      <c r="T249" s="81"/>
-    </row>
-    <row r="250" spans="1:20" s="77" customFormat="1">
-      <c r="A250" s="87">
-        <v>99061</v>
-      </c>
-      <c r="B250" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C250" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D250" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E250" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F250" s="85" t="s">
-        <v>375</v>
-      </c>
-      <c r="G250" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H250" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I250" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J250" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K250" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L250" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M250" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N250" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O250" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P250" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q250" s="85" t="s">
+      <c r="Q250" s="81" t="s">
         <v>0</v>
       </c>
       <c r="R250" s="81" t="s">
@@ -24085,70 +24272,32 @@
       </c>
     </row>
     <row r="251" spans="1:20" s="77" customFormat="1">
-      <c r="A251" s="87">
-        <v>99062</v>
-      </c>
-      <c r="B251" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C251" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D251" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E251" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F251" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="G251" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H251" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I251" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J251" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K251" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L251" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M251" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N251" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O251" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P251" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q251" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R251" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S251" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T251" s="81" t="s">
-        <v>25</v>
-      </c>
+      <c r="A251" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B251" s="85"/>
+      <c r="C251" s="85"/>
+      <c r="D251" s="85"/>
+      <c r="E251" s="85"/>
+      <c r="F251" s="85"/>
+      <c r="G251" s="85"/>
+      <c r="H251" s="85"/>
+      <c r="I251" s="85"/>
+      <c r="J251" s="85"/>
+      <c r="K251" s="85"/>
+      <c r="L251" s="85"/>
+      <c r="M251" s="85"/>
+      <c r="N251" s="85"/>
+      <c r="O251" s="86"/>
+      <c r="P251" s="85"/>
+      <c r="Q251" s="85"/>
+      <c r="R251" s="81"/>
+      <c r="S251" s="81"/>
+      <c r="T251" s="81"/>
     </row>
     <row r="252" spans="1:20" s="77" customFormat="1">
       <c r="A252" s="87">
-        <v>99063</v>
+        <v>99061</v>
       </c>
       <c r="B252" s="85" t="s">
         <v>71</v>
@@ -24163,7 +24312,7 @@
         <v>376</v>
       </c>
       <c r="F252" s="85" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G252" s="85" t="s">
         <v>35</v>
@@ -24210,7 +24359,7 @@
     </row>
     <row r="253" spans="1:20" s="77" customFormat="1">
       <c r="A253" s="87">
-        <v>99064</v>
+        <v>99062</v>
       </c>
       <c r="B253" s="85" t="s">
         <v>71</v>
@@ -24225,7 +24374,7 @@
         <v>376</v>
       </c>
       <c r="F253" s="85" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G253" s="85" t="s">
         <v>35</v>
@@ -24272,7 +24421,7 @@
     </row>
     <row r="254" spans="1:20" s="77" customFormat="1">
       <c r="A254" s="87">
-        <v>99061</v>
+        <v>99063</v>
       </c>
       <c r="B254" s="85" t="s">
         <v>71</v>
@@ -24287,7 +24436,7 @@
         <v>376</v>
       </c>
       <c r="F254" s="85" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G254" s="85" t="s">
         <v>35</v>
@@ -24334,7 +24483,7 @@
     </row>
     <row r="255" spans="1:20" s="77" customFormat="1">
       <c r="A255" s="87">
-        <v>99062</v>
+        <v>99064</v>
       </c>
       <c r="B255" s="85" t="s">
         <v>71</v>
@@ -24349,7 +24498,7 @@
         <v>376</v>
       </c>
       <c r="F255" s="85" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G255" s="85" t="s">
         <v>35</v>
@@ -24396,7 +24545,7 @@
     </row>
     <row r="256" spans="1:20" s="77" customFormat="1">
       <c r="A256" s="87">
-        <v>99063</v>
+        <v>99061</v>
       </c>
       <c r="B256" s="85" t="s">
         <v>71</v>
@@ -24411,7 +24560,7 @@
         <v>376</v>
       </c>
       <c r="F256" s="85" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G256" s="85" t="s">
         <v>35</v>
@@ -24456,9 +24605,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:22" s="77" customFormat="1">
+    <row r="257" spans="1:20" s="77" customFormat="1">
       <c r="A257" s="87">
-        <v>99064</v>
+        <v>99062</v>
       </c>
       <c r="B257" s="85" t="s">
         <v>71</v>
@@ -24473,7 +24622,7 @@
         <v>376</v>
       </c>
       <c r="F257" s="85" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G257" s="85" t="s">
         <v>35</v>
@@ -24518,33 +24667,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:22" s="77" customFormat="1">
-      <c r="A258" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="B258" s="85"/>
-      <c r="C258" s="85"/>
-      <c r="D258" s="85"/>
-      <c r="E258" s="85"/>
-      <c r="F258" s="85"/>
-      <c r="G258" s="85"/>
-      <c r="H258" s="85"/>
-      <c r="I258" s="85"/>
-      <c r="J258" s="85"/>
-      <c r="K258" s="85"/>
-      <c r="L258" s="85"/>
-      <c r="M258" s="85"/>
-      <c r="N258" s="85"/>
-      <c r="O258" s="86"/>
-      <c r="P258" s="85"/>
-      <c r="Q258" s="85"/>
-      <c r="R258" s="81"/>
-      <c r="S258" s="81"/>
-      <c r="T258" s="81"/>
-    </row>
-    <row r="259" spans="1:22">
-      <c r="A259" s="84">
-        <v>99060</v>
+    <row r="258" spans="1:20" s="77" customFormat="1">
+      <c r="A258" s="87">
+        <v>99063</v>
+      </c>
+      <c r="B258" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C258" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D258" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E258" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F258" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="G258" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H258" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I258" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J258" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K258" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L258" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M258" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N258" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O258" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P258" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q258" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R258" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S258" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T258" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" s="77" customFormat="1">
+      <c r="A259" s="87">
+        <v>99064</v>
       </c>
       <c r="B259" s="85" t="s">
         <v>71</v>
@@ -24556,10 +24743,10 @@
         <v>365</v>
       </c>
       <c r="E259" s="85" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="F259" s="85" t="s">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="G259" s="85" t="s">
         <v>35</v>
@@ -24579,8 +24766,8 @@
       <c r="L259" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M259" s="88" t="s">
-        <v>400</v>
+      <c r="M259" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N259" s="85" t="s">
         <v>47</v>
@@ -24604,9 +24791,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:22" s="77" customFormat="1">
+    <row r="260" spans="1:20" s="77" customFormat="1">
       <c r="A260" s="84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B260" s="85"/>
       <c r="C260" s="85"/>
@@ -24628,9 +24815,9 @@
       <c r="S260" s="81"/>
       <c r="T260" s="81"/>
     </row>
-    <row r="261" spans="1:22" s="77" customFormat="1">
+    <row r="261" spans="1:20">
       <c r="A261" s="84">
-        <v>99061</v>
+        <v>99060</v>
       </c>
       <c r="B261" s="85" t="s">
         <v>71</v>
@@ -24639,13 +24826,13 @@
         <v>55</v>
       </c>
       <c r="D261" s="85" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="E261" s="85" t="s">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="F261" s="85" t="s">
-        <v>378</v>
+        <v>111</v>
       </c>
       <c r="G261" s="85" t="s">
         <v>35</v>
@@ -24666,7 +24853,7 @@
         <v>360</v>
       </c>
       <c r="M261" s="88" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="N261" s="85" t="s">
         <v>47</v>
@@ -24690,9 +24877,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:22" s="77" customFormat="1">
+    <row r="262" spans="1:20" s="77" customFormat="1">
       <c r="A262" s="84" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B262" s="85"/>
       <c r="C262" s="85"/>
@@ -24714,9 +24901,9 @@
       <c r="S262" s="81"/>
       <c r="T262" s="81"/>
     </row>
-    <row r="263" spans="1:22" s="77" customFormat="1">
+    <row r="263" spans="1:20" s="77" customFormat="1">
       <c r="A263" s="84">
-        <v>99062</v>
+        <v>99061</v>
       </c>
       <c r="B263" s="85" t="s">
         <v>71</v>
@@ -24725,13 +24912,13 @@
         <v>55</v>
       </c>
       <c r="D263" s="85" t="s">
-        <v>406</v>
+        <v>23</v>
       </c>
       <c r="E263" s="85" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F263" s="85" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G263" s="85" t="s">
         <v>35</v>
@@ -24776,9 +24963,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:22" s="77" customFormat="1">
+    <row r="264" spans="1:20" s="77" customFormat="1">
       <c r="A264" s="84" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B264" s="85"/>
       <c r="C264" s="85"/>
@@ -24793,16 +24980,16 @@
       <c r="L264" s="85"/>
       <c r="M264" s="85"/>
       <c r="N264" s="85"/>
-      <c r="O264" s="85"/>
+      <c r="O264" s="86"/>
       <c r="P264" s="85"/>
       <c r="Q264" s="85"/>
-      <c r="R264" s="3"/>
-      <c r="S264" s="3"/>
-      <c r="T264" s="3"/>
-    </row>
-    <row r="265" spans="1:22" s="77" customFormat="1" ht="13.5" customHeight="1">
+      <c r="R264" s="81"/>
+      <c r="S264" s="81"/>
+      <c r="T264" s="81"/>
+    </row>
+    <row r="265" spans="1:20" s="77" customFormat="1">
       <c r="A265" s="84">
-        <v>99070</v>
+        <v>99062</v>
       </c>
       <c r="B265" s="85" t="s">
         <v>71</v>
@@ -24811,13 +24998,13 @@
         <v>55</v>
       </c>
       <c r="D265" s="85" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="E265" s="85" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F265" s="85" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G265" s="85" t="s">
         <v>35</v>
@@ -24862,71 +25049,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:22" s="77" customFormat="1">
-      <c r="A266" s="84">
-        <v>99071</v>
-      </c>
-      <c r="B266" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C266" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D266" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E266" s="85" t="s">
-        <v>394</v>
-      </c>
-      <c r="F266" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="G266" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H266" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I266" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J266" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K266" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L266" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M266" s="88" t="s">
-        <v>387</v>
-      </c>
-      <c r="N266" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O266" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P266" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q266" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R266" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S266" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T266" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" s="77" customFormat="1">
+    <row r="266" spans="1:20" s="77" customFormat="1">
+      <c r="A266" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="B266" s="85"/>
+      <c r="C266" s="85"/>
+      <c r="D266" s="85"/>
+      <c r="E266" s="85"/>
+      <c r="F266" s="85"/>
+      <c r="G266" s="85"/>
+      <c r="H266" s="85"/>
+      <c r="I266" s="85"/>
+      <c r="J266" s="85"/>
+      <c r="K266" s="85"/>
+      <c r="L266" s="85"/>
+      <c r="M266" s="85"/>
+      <c r="N266" s="85"/>
+      <c r="O266" s="85"/>
+      <c r="P266" s="85"/>
+      <c r="Q266" s="85"/>
+      <c r="R266" s="3"/>
+      <c r="S266" s="3"/>
+      <c r="T266" s="3"/>
+    </row>
+    <row r="267" spans="1:20" s="77" customFormat="1" ht="13.5" customHeight="1">
       <c r="A267" s="84">
-        <v>99072</v>
+        <v>99070</v>
       </c>
       <c r="B267" s="85" t="s">
         <v>71</v>
@@ -24938,10 +25087,10 @@
         <v>388</v>
       </c>
       <c r="E267" s="85" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F267" s="85" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G267" s="85" t="s">
         <v>35</v>
@@ -24986,9 +25135,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:22" s="77" customFormat="1">
+    <row r="268" spans="1:20" s="77" customFormat="1">
       <c r="A268" s="84">
-        <v>99073</v>
+        <v>99071</v>
       </c>
       <c r="B268" s="85" t="s">
         <v>71</v>
@@ -25000,10 +25149,10 @@
         <v>388</v>
       </c>
       <c r="E268" s="85" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F268" s="85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G268" s="85" t="s">
         <v>35</v>
@@ -25048,31 +25197,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="77" customFormat="1">
-      <c r="A269" s="84"/>
-      <c r="B269" s="85"/>
-      <c r="C269" s="85"/>
-      <c r="D269" s="85"/>
-      <c r="E269" s="85"/>
-      <c r="F269" s="85"/>
-      <c r="G269" s="85"/>
-      <c r="H269" s="85"/>
-      <c r="I269" s="85"/>
-      <c r="J269" s="85"/>
-      <c r="K269" s="85"/>
-      <c r="L269" s="85"/>
-      <c r="M269" s="85"/>
-      <c r="N269" s="85"/>
-      <c r="O269" s="85"/>
-      <c r="P269" s="85"/>
-      <c r="Q269" s="85"/>
-      <c r="R269" s="80"/>
-      <c r="S269" s="80"/>
-      <c r="T269" s="80"/>
-    </row>
-    <row r="270" spans="1:22">
+    <row r="269" spans="1:20" s="77" customFormat="1">
+      <c r="A269" s="84">
+        <v>99072</v>
+      </c>
+      <c r="B269" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C269" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D269" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E269" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="F269" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="G269" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H269" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I269" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J269" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K269" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L269" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M269" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="N269" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O269" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P269" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q269" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R269" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S269" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T269" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" s="77" customFormat="1">
       <c r="A270" s="84">
-        <v>99066</v>
+        <v>99073</v>
       </c>
       <c r="B270" s="85" t="s">
         <v>71</v>
@@ -25084,10 +25273,10 @@
         <v>388</v>
       </c>
       <c r="E270" s="85" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F270" s="85" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G270" s="85" t="s">
         <v>35</v>
@@ -25107,8 +25296,8 @@
       <c r="L270" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M270" s="85" t="s">
-        <v>22</v>
+      <c r="M270" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N270" s="85" t="s">
         <v>47</v>
@@ -25132,73 +25321,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:22">
-      <c r="A271" s="84">
-        <v>99067</v>
-      </c>
-      <c r="B271" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C271" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D271" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E271" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="F271" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="G271" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H271" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I271" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J271" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K271" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L271" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M271" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N271" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O271" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P271" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q271" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R271" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S271" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T271" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="U271" s="66"/>
-      <c r="V271" s="66"/>
-    </row>
-    <row r="272" spans="1:22">
+    <row r="271" spans="1:20" s="77" customFormat="1">
+      <c r="A271" s="84"/>
+      <c r="B271" s="85"/>
+      <c r="C271" s="85"/>
+      <c r="D271" s="85"/>
+      <c r="E271" s="85"/>
+      <c r="F271" s="85"/>
+      <c r="G271" s="85"/>
+      <c r="H271" s="85"/>
+      <c r="I271" s="85"/>
+      <c r="J271" s="85"/>
+      <c r="K271" s="85"/>
+      <c r="L271" s="85"/>
+      <c r="M271" s="85"/>
+      <c r="N271" s="85"/>
+      <c r="O271" s="85"/>
+      <c r="P271" s="85"/>
+      <c r="Q271" s="85"/>
+      <c r="R271" s="80"/>
+      <c r="S271" s="80"/>
+      <c r="T271" s="80"/>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" s="84">
-        <v>99068</v>
+        <v>99066</v>
       </c>
       <c r="B272" s="85" t="s">
         <v>71</v>
@@ -25210,10 +25357,10 @@
         <v>388</v>
       </c>
       <c r="E272" s="85" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F272" s="85" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G272" s="85" t="s">
         <v>35</v>
@@ -25257,12 +25404,10 @@
       <c r="T272" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U272" s="66"/>
-      <c r="V272" s="66"/>
     </row>
     <row r="273" spans="1:22">
       <c r="A273" s="84">
-        <v>99069</v>
+        <v>99067</v>
       </c>
       <c r="B273" s="85" t="s">
         <v>71</v>
@@ -25274,10 +25419,10 @@
         <v>388</v>
       </c>
       <c r="E273" s="85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F273" s="85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G273" s="85" t="s">
         <v>35</v>
@@ -25325,54 +25470,135 @@
       <c r="V273" s="66"/>
     </row>
     <row r="274" spans="1:22">
-      <c r="A274" s="84"/>
-      <c r="B274" s="85"/>
-      <c r="C274" s="85"/>
-      <c r="D274" s="85"/>
-      <c r="E274" s="85"/>
-      <c r="F274" s="85"/>
-      <c r="G274" s="85"/>
-      <c r="H274" s="85"/>
-      <c r="I274" s="85"/>
-      <c r="J274" s="85"/>
-      <c r="K274" s="85"/>
-      <c r="L274" s="85"/>
-      <c r="M274" s="85"/>
-      <c r="N274" s="85"/>
-      <c r="O274" s="85"/>
-      <c r="P274" s="85"/>
-      <c r="Q274" s="85"/>
-      <c r="R274" s="80"/>
-      <c r="S274" s="80"/>
-      <c r="T274" s="80"/>
+      <c r="A274" s="84">
+        <v>99068</v>
+      </c>
+      <c r="B274" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C274" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D274" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E274" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="F274" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="G274" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H274" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I274" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J274" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K274" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L274" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M274" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N274" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O274" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P274" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q274" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R274" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S274" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T274" s="81" t="s">
+        <v>25</v>
+      </c>
       <c r="U274" s="66"/>
       <c r="V274" s="66"/>
     </row>
     <row r="275" spans="1:22">
-      <c r="A275" s="84"/>
-      <c r="B275" s="85"/>
-      <c r="C275" s="85"/>
-      <c r="D275" s="85"/>
-      <c r="E275" s="85"/>
-      <c r="F275" s="85"/>
-      <c r="G275" s="85"/>
-      <c r="H275" s="85"/>
-      <c r="I275" s="85"/>
-      <c r="J275" s="85"/>
-      <c r="K275" s="85"/>
-      <c r="L275" s="85"/>
-      <c r="M275" s="85"/>
-      <c r="N275" s="85"/>
-      <c r="O275" s="85"/>
-      <c r="P275" s="85"/>
-      <c r="Q275" s="85"/>
+      <c r="A275" s="84">
+        <v>99069</v>
+      </c>
+      <c r="B275" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C275" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D275" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E275" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="F275" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="G275" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H275" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I275" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J275" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K275" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L275" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M275" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N275" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O275" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P275" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q275" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R275" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S275" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T275" s="81" t="s">
+        <v>25</v>
+      </c>
       <c r="U275" s="66"/>
       <c r="V275" s="66"/>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="84" t="s">
-        <v>248</v>
-      </c>
+      <c r="A276" s="84"/>
       <c r="B276" s="85"/>
       <c r="C276" s="85"/>
       <c r="D276" s="85"/>
@@ -25389,13 +25615,14 @@
       <c r="O276" s="85"/>
       <c r="P276" s="85"/>
       <c r="Q276" s="85"/>
+      <c r="R276" s="80"/>
+      <c r="S276" s="80"/>
+      <c r="T276" s="80"/>
       <c r="U276" s="66"/>
       <c r="V276" s="66"/>
     </row>
-    <row r="277" spans="1:22" s="64" customFormat="1">
-      <c r="A277" s="84" t="s">
-        <v>257</v>
-      </c>
+    <row r="277" spans="1:22">
+      <c r="A277" s="84"/>
       <c r="B277" s="85"/>
       <c r="C277" s="85"/>
       <c r="D277" s="85"/>
@@ -25412,143 +25639,61 @@
       <c r="O277" s="85"/>
       <c r="P277" s="85"/>
       <c r="Q277" s="85"/>
-      <c r="R277" s="3"/>
-      <c r="S277" s="3"/>
-      <c r="T277" s="3"/>
       <c r="U277" s="66"/>
       <c r="V277" s="66"/>
     </row>
-    <row r="278" spans="1:22" s="64" customFormat="1">
-      <c r="A278" s="84">
-        <v>80001</v>
-      </c>
-      <c r="B278" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C278" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D278" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="E278" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F278" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G278" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="H278" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="I278" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="J278" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="K278" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L278" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="M278" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="N278" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="O278" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P278" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q278" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R278" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S278" s="68">
-        <v>1825</v>
-      </c>
-      <c r="T278" s="65" t="s">
-        <v>25</v>
-      </c>
+    <row r="278" spans="1:22">
+      <c r="A278" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B278" s="85"/>
+      <c r="C278" s="85"/>
+      <c r="D278" s="85"/>
+      <c r="E278" s="85"/>
+      <c r="F278" s="85"/>
+      <c r="G278" s="85"/>
+      <c r="H278" s="85"/>
+      <c r="I278" s="85"/>
+      <c r="J278" s="85"/>
+      <c r="K278" s="85"/>
+      <c r="L278" s="85"/>
+      <c r="M278" s="85"/>
+      <c r="N278" s="85"/>
+      <c r="O278" s="85"/>
+      <c r="P278" s="85"/>
+      <c r="Q278" s="85"/>
       <c r="U278" s="66"/>
       <c r="V278" s="66"/>
     </row>
     <row r="279" spans="1:22" s="64" customFormat="1">
-      <c r="A279" s="84">
-        <v>80012</v>
-      </c>
-      <c r="B279" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C279" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D279" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="E279" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F279" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G279" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H279" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="I279" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="J279" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="K279" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L279" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="M279" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="N279" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="O279" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P279" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q279" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R279" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S279" s="68">
-        <v>1825</v>
-      </c>
-      <c r="T279" s="65" t="s">
-        <v>25</v>
-      </c>
+      <c r="A279" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B279" s="85"/>
+      <c r="C279" s="85"/>
+      <c r="D279" s="85"/>
+      <c r="E279" s="85"/>
+      <c r="F279" s="85"/>
+      <c r="G279" s="85"/>
+      <c r="H279" s="85"/>
+      <c r="I279" s="85"/>
+      <c r="J279" s="85"/>
+      <c r="K279" s="85"/>
+      <c r="L279" s="85"/>
+      <c r="M279" s="85"/>
+      <c r="N279" s="85"/>
+      <c r="O279" s="85"/>
+      <c r="P279" s="85"/>
+      <c r="Q279" s="85"/>
+      <c r="R279" s="3"/>
+      <c r="S279" s="3"/>
+      <c r="T279" s="3"/>
       <c r="U279" s="66"/>
       <c r="V279" s="66"/>
     </row>
-    <row r="280" spans="1:22">
+    <row r="280" spans="1:22" s="64" customFormat="1">
       <c r="A280" s="84">
-        <v>80123</v>
+        <v>80001</v>
       </c>
       <c r="B280" s="85" t="s">
         <v>260</v>
@@ -25557,7 +25702,7 @@
         <v>55</v>
       </c>
       <c r="D280" s="85" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E280" s="85" t="s">
         <v>249</v>
@@ -25566,7 +25711,7 @@
         <v>250</v>
       </c>
       <c r="G280" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H280" s="85" t="s">
         <v>249</v>
@@ -25587,7 +25732,7 @@
         <v>251</v>
       </c>
       <c r="N280" s="85" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="O280" s="86" t="s">
         <v>48</v>
@@ -25607,31 +25752,76 @@
       <c r="T280" s="65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="281" spans="1:22">
-      <c r="A281" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B281" s="85"/>
-      <c r="C281" s="85"/>
-      <c r="D281" s="85"/>
-      <c r="E281" s="85"/>
-      <c r="F281" s="85"/>
-      <c r="G281" s="85"/>
-      <c r="H281" s="85"/>
-      <c r="I281" s="85"/>
-      <c r="J281" s="85"/>
-      <c r="K281" s="85"/>
-      <c r="L281" s="85"/>
-      <c r="M281" s="85"/>
-      <c r="N281" s="85"/>
-      <c r="O281" s="85"/>
-      <c r="P281" s="85"/>
-      <c r="Q281" s="85"/>
+      <c r="U280" s="66"/>
+      <c r="V280" s="66"/>
+    </row>
+    <row r="281" spans="1:22" s="64" customFormat="1">
+      <c r="A281" s="84">
+        <v>80012</v>
+      </c>
+      <c r="B281" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C281" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D281" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E281" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F281" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G281" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H281" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I281" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J281" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K281" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L281" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M281" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="N281" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="O281" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P281" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q281" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R281" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S281" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T281" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U281" s="66"/>
+      <c r="V281" s="66"/>
     </row>
     <row r="282" spans="1:22">
       <c r="A282" s="84">
-        <v>90001</v>
+        <v>80123</v>
       </c>
       <c r="B282" s="85" t="s">
         <v>260</v>
@@ -25640,7 +25830,7 @@
         <v>55</v>
       </c>
       <c r="D282" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E282" s="85" t="s">
         <v>249</v>
@@ -25667,10 +25857,10 @@
         <v>31</v>
       </c>
       <c r="M282" s="85" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N282" s="85" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O282" s="86" t="s">
         <v>48</v>
@@ -25692,70 +25882,29 @@
       </c>
     </row>
     <row r="283" spans="1:22">
-      <c r="A283" s="84">
-        <v>90012</v>
-      </c>
-      <c r="B283" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C283" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D283" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="E283" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F283" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G283" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H283" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="I283" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="J283" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="K283" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="L283" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="M283" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="N283" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="O283" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P283" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q283" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R283" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S283" s="68">
-        <v>1825</v>
-      </c>
-      <c r="T283" s="65" t="s">
-        <v>25</v>
-      </c>
+      <c r="A283" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B283" s="85"/>
+      <c r="C283" s="85"/>
+      <c r="D283" s="85"/>
+      <c r="E283" s="85"/>
+      <c r="F283" s="85"/>
+      <c r="G283" s="85"/>
+      <c r="H283" s="85"/>
+      <c r="I283" s="85"/>
+      <c r="J283" s="85"/>
+      <c r="K283" s="85"/>
+      <c r="L283" s="85"/>
+      <c r="M283" s="85"/>
+      <c r="N283" s="85"/>
+      <c r="O283" s="85"/>
+      <c r="P283" s="85"/>
+      <c r="Q283" s="85"/>
     </row>
     <row r="284" spans="1:22">
       <c r="A284" s="84">
-        <v>90123</v>
+        <v>90001</v>
       </c>
       <c r="B284" s="85" t="s">
         <v>260</v>
@@ -25764,7 +25913,7 @@
         <v>55</v>
       </c>
       <c r="D284" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E284" s="85" t="s">
         <v>249</v>
@@ -25794,7 +25943,7 @@
         <v>256</v>
       </c>
       <c r="N284" s="85" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="O284" s="86" t="s">
         <v>48</v>
@@ -25812,6 +25961,130 @@
         <v>1825</v>
       </c>
       <c r="T284" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22">
+      <c r="A285" s="84">
+        <v>90012</v>
+      </c>
+      <c r="B285" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C285" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D285" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="E285" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F285" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G285" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H285" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I285" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J285" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K285" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L285" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M285" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="N285" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="O285" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P285" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q285" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R285" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S285" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T285" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22">
+      <c r="A286" s="84">
+        <v>90123</v>
+      </c>
+      <c r="B286" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C286" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D286" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E286" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F286" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G286" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H286" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I286" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J286" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K286" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L286" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M286" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="N286" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="O286" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P286" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q286" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R286" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S286" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T286" s="65" t="s">
         <v>25</v>
       </c>
     </row>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="7680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="33" r:id="rId1"/>
     <sheet name="work" sheetId="34" r:id="rId2"/>
     <sheet name="1,2,3桁betcnt,hitrate調査 (2)" sheetId="36" r:id="rId3"/>
     <sheet name="1,2,3桁betcnt,hitrate調査" sheetId="35" r:id="rId4"/>
+    <sheet name="89100,79100,99100比較" sheetId="37" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1,2,3桁betcnt,hitrate調査'!$A$24:$H$132</definedName>
@@ -2067,7 +2068,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6699" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="696">
   <si>
     <t>no</t>
     <phoneticPr fontId="4"/>
@@ -9962,6 +9963,803 @@
       </rPr>
       <t>포기</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t># 99100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>재현성이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>높지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 99080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수익성이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좋아보인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>따라서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 99080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안정성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>더해보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en_nw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생성해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>결과까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만들어보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2023/2/19</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20210602</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20221130</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>classifyr1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>classifyr2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>classifyr3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arff_4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1095</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Training set score: 0.7764</t>
+  </si>
+  <si>
+    <t>Test set score: 0.5570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.62      0.88      0.73     44922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.37      0.24      0.29     11689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.32      0.16      0.21      9663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.30      0.12      0.17      7883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.21      0.06      0.10      4337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.22      0.05      0.09      2459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.56     80953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.34      0.25      0.26     80953</t>
+  </si>
+  <si>
+    <t>weighted avg       0.48      0.56      0.49     80953</t>
+  </si>
+  <si>
+    <t>rank1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Training set score: 0.5794</t>
+  </si>
+  <si>
+    <t>Test set score: 0.5701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.60      0.95      0.73     27125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.40      0.18      0.24      6992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.34      0.08      0.13      5876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.34      0.07      0.11      4677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.25      0.01      0.02      2541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.23      0.01      0.02      1444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.57     48655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.36      0.22      0.21     48655</t>
+  </si>
+  <si>
+    <t>weighted avg       0.48      0.57      0.47     48655</t>
+  </si>
+  <si>
+    <t>Training set score: 0.8857</t>
+  </si>
+  <si>
+    <t>Test set score: 0.5465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.62      0.86      0.72     27125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.34      0.23      0.27      6992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.29      0.14      0.19      5876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.26      0.12      0.17      4677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.19      0.06      0.09      2541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.17      0.05      0.08      1444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.55     48655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.31      0.24      0.25     48655</t>
+  </si>
+  <si>
+    <t>weighted avg       0.47      0.55      0.49     48655</t>
+  </si>
+  <si>
+    <t>rank2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Training set score: 0.6948</t>
+  </si>
+  <si>
+    <t>Test set score: 0.2629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.21      0.18      0.19     13998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.31      0.42      0.36     20552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.27      0.30      0.29     16945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.25      0.22      0.23     13572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.21      0.13      0.16      9429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.19      0.12      0.15      6457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.26     80953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.24      0.23      0.23     80953</t>
+  </si>
+  <si>
+    <t>weighted avg       0.25      0.26      0.25     80953</t>
+  </si>
+  <si>
+    <t>Training set score: 0.3388</t>
+  </si>
+  <si>
+    <t>Test set score: 0.2770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.20      0.03      0.05      8388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.29      0.67      0.41     12406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.27      0.30      0.29     10271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.25      0.16      0.19      8149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.23      0.06      0.09      5645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.22      0.05      0.08      3796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.28     48655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.24      0.21      0.19     48655</t>
+  </si>
+  <si>
+    <t>weighted avg       0.25      0.28      0.22     48655</t>
+  </si>
+  <si>
+    <t>Training set score: 0.8414</t>
+  </si>
+  <si>
+    <t>Test set score: 0.2508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.20      0.16      0.18      8388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.30      0.41      0.35     12406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.26      0.28      0.27     10271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.23      0.20      0.21      8149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.19      0.14      0.16      5645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.17      0.11      0.13      3796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.25     48655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.22      0.22      0.22     48655</t>
+  </si>
+  <si>
+    <t>rank3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Training set score: 0.6494</t>
+  </si>
+  <si>
+    <t>Test set score: 0.2194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.11      0.06      0.08      6738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.20      0.20      0.20     14864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.23      0.25      0.24     16520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.23      0.26      0.25     16114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.22      0.22      0.22     14040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.23      0.22      0.23     12677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.22     80953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.21      0.20      0.20     80953</t>
+  </si>
+  <si>
+    <t>weighted avg       0.21      0.22      0.22     80953</t>
+  </si>
+  <si>
+    <t>Training set score: 0.3332</t>
+  </si>
+  <si>
+    <t>Test set score: 0.2213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.13      0.00      0.01      4067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.20      0.07      0.10      8943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.22      0.27      0.24      9835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.23      0.35      0.28      9794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.22      0.23      0.22      8483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.22      0.28      0.25      7533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.22     48655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.20      0.20      0.18     48655</t>
+  </si>
+  <si>
+    <t>weighted avg       0.21      0.22      0.20     48655</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>#2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>차적으</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ml_classification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학습시키는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모델을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만들어보자</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>clf_4</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -13266,11 +14064,11 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:V286"/>
+  <dimension ref="A1:V293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:T191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22183,7 +22981,9 @@
       </c>
     </row>
     <row r="187" spans="1:20" s="119" customFormat="1">
-      <c r="A187" s="121"/>
+      <c r="A187" s="121" t="s">
+        <v>594</v>
+      </c>
       <c r="B187" s="121"/>
       <c r="C187" s="121"/>
       <c r="D187" s="53"/>
@@ -22205,100 +23005,214 @@
       <c r="T187" s="117"/>
     </row>
     <row r="188" spans="1:20" s="119" customFormat="1">
-      <c r="A188" s="134" t="s">
-        <v>560</v>
+      <c r="A188" s="121" t="s">
+        <v>694</v>
       </c>
       <c r="B188" s="121"/>
       <c r="C188" s="121"/>
-      <c r="D188" s="121"/>
-      <c r="E188" s="121"/>
-      <c r="F188" s="121"/>
-      <c r="G188" s="121"/>
-      <c r="H188" s="121"/>
-      <c r="I188" s="121"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="117"/>
+      <c r="F188" s="117"/>
+      <c r="G188" s="117"/>
+      <c r="H188" s="117"/>
+      <c r="I188" s="117"/>
       <c r="J188" s="121"/>
-      <c r="K188" s="121"/>
-      <c r="L188" s="121"/>
-      <c r="M188" s="121"/>
-      <c r="N188" s="121"/>
-      <c r="O188" s="121"/>
-      <c r="P188" s="121"/>
-      <c r="Q188" s="121"/>
-      <c r="R188" s="121"/>
-      <c r="S188" s="121"/>
-      <c r="T188" s="121"/>
+      <c r="K188" s="117"/>
+      <c r="L188" s="117"/>
+      <c r="M188" s="117"/>
+      <c r="N188" s="117"/>
+      <c r="O188" s="120"/>
+      <c r="P188" s="117"/>
+      <c r="Q188" s="117"/>
+      <c r="R188" s="117"/>
+      <c r="S188" s="117"/>
+      <c r="T188" s="117"/>
     </row>
     <row r="189" spans="1:20" s="119" customFormat="1">
-      <c r="A189" s="123" t="s">
-        <v>559</v>
+      <c r="A189" s="133">
+        <v>89100</v>
       </c>
       <c r="B189" s="121" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="C189" s="121" t="s">
-        <v>554</v>
-      </c>
-      <c r="D189" s="121"/>
-      <c r="E189" s="121"/>
-      <c r="F189" s="121"/>
-      <c r="G189" s="121"/>
-      <c r="H189" s="121"/>
-      <c r="I189" s="121"/>
-      <c r="J189" s="121"/>
-      <c r="K189" s="121"/>
-      <c r="L189" s="121"/>
-      <c r="M189" s="121"/>
-      <c r="N189" s="121"/>
-      <c r="O189" s="121"/>
-      <c r="P189" s="121"/>
-      <c r="Q189" s="121"/>
-      <c r="R189" s="121"/>
-      <c r="S189" s="121"/>
-      <c r="T189" s="121"/>
+        <v>596</v>
+      </c>
+      <c r="D189" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F189" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G189" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H189" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I189" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J189" s="121" t="s">
+        <v>597</v>
+      </c>
+      <c r="K189" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="L189" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="M189" s="117" t="s">
+        <v>600</v>
+      </c>
+      <c r="N189" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="O189" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P189" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q189" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R189" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S189" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="T189" s="117" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="190" spans="1:20" s="119" customFormat="1">
-      <c r="A190" s="123"/>
-      <c r="B190" s="121"/>
-      <c r="C190" s="121"/>
-      <c r="D190" s="121"/>
-      <c r="E190" s="121"/>
-      <c r="F190" s="121"/>
-      <c r="G190" s="121"/>
-      <c r="H190" s="121"/>
-      <c r="I190" s="121"/>
-      <c r="J190" s="121"/>
-      <c r="K190" s="121"/>
-      <c r="L190" s="121"/>
-      <c r="M190" s="121"/>
-      <c r="N190" s="121"/>
-      <c r="O190" s="121"/>
-      <c r="P190" s="121"/>
-      <c r="Q190" s="121"/>
-      <c r="R190" s="121"/>
-      <c r="S190" s="121"/>
-      <c r="T190" s="121"/>
+      <c r="A190" s="133">
+        <v>79100</v>
+      </c>
+      <c r="B190" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="C190" s="121" t="s">
+        <v>596</v>
+      </c>
+      <c r="D190" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F190" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G190" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H190" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I190" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J190" s="121" t="s">
+        <v>597</v>
+      </c>
+      <c r="K190" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="L190" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="M190" s="117" t="s">
+        <v>600</v>
+      </c>
+      <c r="N190" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="O190" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P190" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q190" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R190" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S190" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="T190" s="117" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="191" spans="1:20" s="119" customFormat="1">
-      <c r="A191" s="123"/>
-      <c r="B191" s="121"/>
-      <c r="C191" s="121"/>
-      <c r="D191" s="121"/>
-      <c r="E191" s="121"/>
-      <c r="F191" s="121"/>
-      <c r="G191" s="121"/>
-      <c r="H191" s="121"/>
-      <c r="I191" s="121"/>
-      <c r="J191" s="121"/>
-      <c r="K191" s="121"/>
-      <c r="L191" s="121"/>
-      <c r="M191" s="121"/>
-      <c r="N191" s="121"/>
-      <c r="O191" s="121"/>
-      <c r="P191" s="121"/>
-      <c r="Q191" s="121"/>
-      <c r="R191" s="121"/>
-      <c r="S191" s="121"/>
-      <c r="T191" s="121"/>
+      <c r="A191" s="133">
+        <v>69100</v>
+      </c>
+      <c r="B191" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="C191" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="D191" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F191" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G191" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H191" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I191" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="J191" s="121" t="s">
+        <v>597</v>
+      </c>
+      <c r="K191" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="L191" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="M191" s="117" t="s">
+        <v>600</v>
+      </c>
+      <c r="N191" s="117" t="s">
+        <v>695</v>
+      </c>
+      <c r="O191" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P191" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q191" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R191" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S191" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="T191" s="117" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="192" spans="1:20" s="119" customFormat="1">
       <c r="A192" s="123"/>
@@ -22322,52 +23236,54 @@
       <c r="S192" s="121"/>
       <c r="T192" s="121"/>
     </row>
-    <row r="193" spans="1:20">
-      <c r="A193" s="123"/>
+    <row r="193" spans="1:20" s="119" customFormat="1">
+      <c r="A193" s="121"/>
       <c r="B193" s="121"/>
       <c r="C193" s="121"/>
-      <c r="D193" s="121"/>
-      <c r="E193" s="121"/>
-      <c r="F193" s="121"/>
-      <c r="G193" s="121"/>
-      <c r="H193" s="121"/>
-      <c r="I193" s="121"/>
+      <c r="D193" s="53"/>
+      <c r="E193" s="117"/>
+      <c r="F193" s="117"/>
+      <c r="G193" s="117"/>
+      <c r="H193" s="117"/>
+      <c r="I193" s="117"/>
       <c r="J193" s="121"/>
-      <c r="K193" s="121"/>
-      <c r="L193" s="121"/>
-      <c r="M193" s="121"/>
-      <c r="N193" s="121"/>
-      <c r="O193" s="121"/>
-      <c r="P193" s="121"/>
-      <c r="Q193" s="121"/>
-      <c r="R193" s="121"/>
-      <c r="S193" s="121"/>
-      <c r="T193" s="121"/>
-    </row>
-    <row r="194" spans="1:20">
-      <c r="A194" s="123"/>
+      <c r="K193" s="117"/>
+      <c r="L193" s="117"/>
+      <c r="M193" s="117"/>
+      <c r="N193" s="117"/>
+      <c r="O193" s="120"/>
+      <c r="P193" s="117"/>
+      <c r="Q193" s="117"/>
+      <c r="R193" s="117"/>
+      <c r="S193" s="117"/>
+      <c r="T193" s="117"/>
+    </row>
+    <row r="194" spans="1:20" s="119" customFormat="1">
+      <c r="A194" s="121"/>
       <c r="B194" s="121"/>
       <c r="C194" s="121"/>
-      <c r="D194" s="121"/>
-      <c r="E194" s="121"/>
-      <c r="F194" s="121"/>
-      <c r="G194" s="121"/>
-      <c r="H194" s="121"/>
-      <c r="I194" s="121"/>
+      <c r="D194" s="53"/>
+      <c r="E194" s="117"/>
+      <c r="F194" s="117"/>
+      <c r="G194" s="117"/>
+      <c r="H194" s="117"/>
+      <c r="I194" s="117"/>
       <c r="J194" s="121"/>
-      <c r="K194" s="121"/>
-      <c r="L194" s="121"/>
-      <c r="M194" s="121"/>
-      <c r="N194" s="121"/>
-      <c r="O194" s="121"/>
-      <c r="P194" s="121"/>
-      <c r="Q194" s="121"/>
-      <c r="R194" s="121"/>
-      <c r="S194" s="121"/>
-      <c r="T194" s="121"/>
+      <c r="K194" s="117"/>
+      <c r="L194" s="117"/>
+      <c r="M194" s="117"/>
+      <c r="N194" s="117"/>
+      <c r="O194" s="120"/>
+      <c r="P194" s="117"/>
+      <c r="Q194" s="117"/>
+      <c r="R194" s="117"/>
+      <c r="S194" s="117"/>
+      <c r="T194" s="117"/>
     </row>
     <row r="195" spans="1:20" s="119" customFormat="1">
-      <c r="A195" s="123"/>
+      <c r="A195" s="134" t="s">
+        <v>560</v>
+      </c>
       <c r="B195" s="121"/>
       <c r="C195" s="121"/>
       <c r="D195" s="121"/>
@@ -22388,10 +23304,16 @@
       <c r="S195" s="121"/>
       <c r="T195" s="121"/>
     </row>
-    <row r="196" spans="1:20" s="77" customFormat="1">
-      <c r="A196" s="123"/>
-      <c r="B196" s="121"/>
-      <c r="C196" s="121"/>
+    <row r="196" spans="1:20" s="119" customFormat="1">
+      <c r="A196" s="123" t="s">
+        <v>559</v>
+      </c>
+      <c r="B196" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C196" s="121" t="s">
+        <v>554</v>
+      </c>
       <c r="D196" s="121"/>
       <c r="E196" s="121"/>
       <c r="F196" s="121"/>
@@ -22433,50 +23355,50 @@
       <c r="T197" s="121"/>
     </row>
     <row r="198" spans="1:20" s="119" customFormat="1">
-      <c r="A198" s="9"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-      <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
+      <c r="A198" s="123"/>
+      <c r="B198" s="121"/>
+      <c r="C198" s="121"/>
+      <c r="D198" s="121"/>
+      <c r="E198" s="121"/>
+      <c r="F198" s="121"/>
+      <c r="G198" s="121"/>
+      <c r="H198" s="121"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="121"/>
+      <c r="K198" s="121"/>
+      <c r="L198" s="121"/>
+      <c r="M198" s="121"/>
+      <c r="N198" s="121"/>
+      <c r="O198" s="121"/>
+      <c r="P198" s="121"/>
+      <c r="Q198" s="121"/>
+      <c r="R198" s="121"/>
+      <c r="S198" s="121"/>
+      <c r="T198" s="121"/>
     </row>
     <row r="199" spans="1:20" s="119" customFormat="1">
-      <c r="A199" s="9"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
-    </row>
-    <row r="200" spans="1:20" s="119" customFormat="1">
+      <c r="A199" s="123"/>
+      <c r="B199" s="121"/>
+      <c r="C199" s="121"/>
+      <c r="D199" s="121"/>
+      <c r="E199" s="121"/>
+      <c r="F199" s="121"/>
+      <c r="G199" s="121"/>
+      <c r="H199" s="121"/>
+      <c r="I199" s="121"/>
+      <c r="J199" s="121"/>
+      <c r="K199" s="121"/>
+      <c r="L199" s="121"/>
+      <c r="M199" s="121"/>
+      <c r="N199" s="121"/>
+      <c r="O199" s="121"/>
+      <c r="P199" s="121"/>
+      <c r="Q199" s="121"/>
+      <c r="R199" s="121"/>
+      <c r="S199" s="121"/>
+      <c r="T199" s="121"/>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="123"/>
       <c r="B200" s="121"/>
       <c r="C200" s="121"/>
@@ -22498,15 +23420,13 @@
       <c r="S200" s="121"/>
       <c r="T200" s="121"/>
     </row>
-    <row r="201" spans="1:20" s="119" customFormat="1">
-      <c r="A201" s="130" t="s">
-        <v>528</v>
-      </c>
-      <c r="B201" s="80"/>
-      <c r="C201" s="80"/>
-      <c r="D201" s="80"/>
-      <c r="E201" s="80"/>
-      <c r="F201" s="80"/>
+    <row r="201" spans="1:20">
+      <c r="A201" s="123"/>
+      <c r="B201" s="121"/>
+      <c r="C201" s="121"/>
+      <c r="D201" s="121"/>
+      <c r="E201" s="121"/>
+      <c r="F201" s="121"/>
       <c r="G201" s="121"/>
       <c r="H201" s="121"/>
       <c r="I201" s="121"/>
@@ -22514,451 +23434,173 @@
       <c r="K201" s="121"/>
       <c r="L201" s="121"/>
       <c r="M201" s="121"/>
-      <c r="N201" s="80"/>
-      <c r="O201" s="80"/>
-      <c r="P201" s="80"/>
-      <c r="Q201" s="80"/>
-      <c r="R201" s="80"/>
-      <c r="S201" s="80"/>
-      <c r="T201" s="80"/>
+      <c r="N201" s="121"/>
+      <c r="O201" s="121"/>
+      <c r="P201" s="121"/>
+      <c r="Q201" s="121"/>
+      <c r="R201" s="121"/>
+      <c r="S201" s="121"/>
+      <c r="T201" s="121"/>
     </row>
     <row r="202" spans="1:20" s="119" customFormat="1">
-      <c r="A202" s="8">
+      <c r="A202" s="123"/>
+      <c r="B202" s="121"/>
+      <c r="C202" s="121"/>
+      <c r="D202" s="121"/>
+      <c r="E202" s="121"/>
+      <c r="F202" s="121"/>
+      <c r="G202" s="121"/>
+      <c r="H202" s="121"/>
+      <c r="I202" s="121"/>
+      <c r="J202" s="121"/>
+      <c r="K202" s="121"/>
+      <c r="L202" s="121"/>
+      <c r="M202" s="121"/>
+      <c r="N202" s="121"/>
+      <c r="O202" s="121"/>
+      <c r="P202" s="121"/>
+      <c r="Q202" s="121"/>
+      <c r="R202" s="121"/>
+      <c r="S202" s="121"/>
+      <c r="T202" s="121"/>
+    </row>
+    <row r="203" spans="1:20" s="77" customFormat="1">
+      <c r="A203" s="123"/>
+      <c r="B203" s="121"/>
+      <c r="C203" s="121"/>
+      <c r="D203" s="121"/>
+      <c r="E203" s="121"/>
+      <c r="F203" s="121"/>
+      <c r="G203" s="121"/>
+      <c r="H203" s="121"/>
+      <c r="I203" s="121"/>
+      <c r="J203" s="121"/>
+      <c r="K203" s="121"/>
+      <c r="L203" s="121"/>
+      <c r="M203" s="121"/>
+      <c r="N203" s="121"/>
+      <c r="O203" s="121"/>
+      <c r="P203" s="121"/>
+      <c r="Q203" s="121"/>
+      <c r="R203" s="121"/>
+      <c r="S203" s="121"/>
+      <c r="T203" s="121"/>
+    </row>
+    <row r="204" spans="1:20" s="119" customFormat="1">
+      <c r="A204" s="123"/>
+      <c r="B204" s="121"/>
+      <c r="C204" s="121"/>
+      <c r="D204" s="121"/>
+      <c r="E204" s="121"/>
+      <c r="F204" s="121"/>
+      <c r="G204" s="121"/>
+      <c r="H204" s="121"/>
+      <c r="I204" s="121"/>
+      <c r="J204" s="121"/>
+      <c r="K204" s="121"/>
+      <c r="L204" s="121"/>
+      <c r="M204" s="121"/>
+      <c r="N204" s="121"/>
+      <c r="O204" s="121"/>
+      <c r="P204" s="121"/>
+      <c r="Q204" s="121"/>
+      <c r="R204" s="121"/>
+      <c r="S204" s="121"/>
+      <c r="T204" s="121"/>
+    </row>
+    <row r="205" spans="1:20" s="119" customFormat="1">
+      <c r="A205" s="9"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+    </row>
+    <row r="206" spans="1:20" s="119" customFormat="1">
+      <c r="A206" s="9"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+    </row>
+    <row r="207" spans="1:20" s="119" customFormat="1">
+      <c r="A207" s="123"/>
+      <c r="B207" s="121"/>
+      <c r="C207" s="121"/>
+      <c r="D207" s="121"/>
+      <c r="E207" s="121"/>
+      <c r="F207" s="121"/>
+      <c r="G207" s="121"/>
+      <c r="H207" s="121"/>
+      <c r="I207" s="121"/>
+      <c r="J207" s="121"/>
+      <c r="K207" s="121"/>
+      <c r="L207" s="121"/>
+      <c r="M207" s="121"/>
+      <c r="N207" s="121"/>
+      <c r="O207" s="121"/>
+      <c r="P207" s="121"/>
+      <c r="Q207" s="121"/>
+      <c r="R207" s="121"/>
+      <c r="S207" s="121"/>
+      <c r="T207" s="121"/>
+    </row>
+    <row r="208" spans="1:20" s="119" customFormat="1">
+      <c r="A208" s="130" t="s">
+        <v>528</v>
+      </c>
+      <c r="B208" s="80"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
+      <c r="G208" s="121"/>
+      <c r="H208" s="121"/>
+      <c r="I208" s="121"/>
+      <c r="J208" s="121"/>
+      <c r="K208" s="121"/>
+      <c r="L208" s="121"/>
+      <c r="M208" s="121"/>
+      <c r="N208" s="80"/>
+      <c r="O208" s="80"/>
+      <c r="P208" s="80"/>
+      <c r="Q208" s="80"/>
+      <c r="R208" s="80"/>
+      <c r="S208" s="80"/>
+      <c r="T208" s="80"/>
+    </row>
+    <row r="209" spans="1:20" s="119" customFormat="1">
+      <c r="A209" s="8">
         <v>99069</v>
-      </c>
-      <c r="B202" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C202" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D202" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F202" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G202" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H202" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I202" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J202" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="K202" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="L202" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="M202" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N202" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O202" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P202" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q202" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R202" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S202" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T202" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" s="119" customFormat="1">
-      <c r="A203" s="8">
-        <v>99072</v>
-      </c>
-      <c r="B203" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C203" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D203" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F203" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G203" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="H203" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="I203" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="J203" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="K203" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="L203" s="121" t="s">
-        <v>431</v>
-      </c>
-      <c r="M203" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N203" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O203" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P203" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q203" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R203" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S203" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T203" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" s="119" customFormat="1">
-      <c r="A204" s="123">
-        <v>99081</v>
-      </c>
-      <c r="B204" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C204" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D204" s="121" t="s">
-        <v>440</v>
-      </c>
-      <c r="E204" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F204" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G204" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H204" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I204" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J204" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K204" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L204" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="M204" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N204" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O204" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P204" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q204" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R204" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S204" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T204" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" s="119" customFormat="1">
-      <c r="A205" s="123">
-        <v>99082</v>
-      </c>
-      <c r="B205" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C205" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D205" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F205" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G205" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H205" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I205" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="J205" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K205" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L205" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="M205" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N205" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O205" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P205" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q205" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R205" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S205" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T205" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:20" s="119" customFormat="1">
-      <c r="A206" s="123">
-        <v>99084</v>
-      </c>
-      <c r="B206" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C206" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D206" s="121" t="s">
-        <v>442</v>
-      </c>
-      <c r="E206" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F206" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G206" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H206" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I206" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J206" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="K206" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="L206" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="M206" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N206" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O206" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P206" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q206" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R206" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S206" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T206" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" s="119" customFormat="1">
-      <c r="A207" s="123">
-        <v>99085</v>
-      </c>
-      <c r="B207" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C207" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D207" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E207" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F207" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G207" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H207" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I207" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="J207" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="K207" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="L207" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="M207" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N207" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O207" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P207" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q207" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R207" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S207" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T207" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" s="119" customFormat="1">
-      <c r="A208" s="123">
-        <v>99087</v>
-      </c>
-      <c r="B208" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C208" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D208" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E208" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F208" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G208" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H208" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I208" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J208" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="K208" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="L208" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="M208" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="N208" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="O208" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="P208" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q208" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R208" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="S208" s="117">
-        <v>1825</v>
-      </c>
-      <c r="T208" s="117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20">
-      <c r="A209" s="123">
-        <v>99088</v>
       </c>
       <c r="B209" s="121" t="s">
         <v>71</v>
@@ -22975,23 +23617,23 @@
       <c r="F209" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G209" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H209" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I209" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="J209" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="K209" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="L209" s="117" t="s">
-        <v>447</v>
+      <c r="G209" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H209" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I209" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J209" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K209" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L209" s="121" t="s">
+        <v>431</v>
       </c>
       <c r="M209" s="117" t="s">
         <v>22</v>
@@ -23018,9 +23660,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
-      <c r="A210" s="123">
-        <v>99090</v>
+    <row r="210" spans="1:20" s="119" customFormat="1">
+      <c r="A210" s="8">
+        <v>99072</v>
       </c>
       <c r="B210" s="121" t="s">
         <v>71</v>
@@ -23038,22 +23680,22 @@
         <v>111</v>
       </c>
       <c r="G210" s="117" t="s">
-        <v>34</v>
+        <v>433</v>
       </c>
       <c r="H210" s="117" t="s">
-        <v>34</v>
+        <v>433</v>
       </c>
       <c r="I210" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="J210" s="117" t="s">
-        <v>448</v>
-      </c>
-      <c r="K210" s="117" t="s">
-        <v>448</v>
-      </c>
-      <c r="L210" s="117" t="s">
-        <v>448</v>
+        <v>433</v>
+      </c>
+      <c r="J210" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="K210" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L210" s="121" t="s">
+        <v>431</v>
       </c>
       <c r="M210" s="117" t="s">
         <v>22</v>
@@ -23080,9 +23722,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" s="119" customFormat="1">
       <c r="A211" s="123">
-        <v>99091</v>
+        <v>99081</v>
       </c>
       <c r="B211" s="121" t="s">
         <v>71</v>
@@ -23091,7 +23733,7 @@
         <v>55</v>
       </c>
       <c r="D211" s="121" t="s">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="E211" s="121" t="s">
         <v>110</v>
@@ -23099,23 +23741,23 @@
       <c r="F211" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G211" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H211" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I211" s="119" t="s">
-        <v>433</v>
+      <c r="G211" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H211" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" s="117" t="s">
+        <v>34</v>
       </c>
       <c r="J211" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="K211" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="L211" s="117" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="M211" s="117" t="s">
         <v>22</v>
@@ -23142,9 +23784,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" s="119" customFormat="1">
       <c r="A212" s="123">
-        <v>99095</v>
+        <v>99082</v>
       </c>
       <c r="B212" s="121" t="s">
         <v>71</v>
@@ -23161,23 +23803,23 @@
       <c r="F212" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G212" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H212" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I212" s="117" t="s">
-        <v>34</v>
+      <c r="G212" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H212" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I212" s="119" t="s">
+        <v>433</v>
       </c>
       <c r="J212" s="117" t="s">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="K212" s="117" t="s">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="L212" s="117" t="s">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="M212" s="117" t="s">
         <v>22</v>
@@ -23204,9 +23846,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" s="119" customFormat="1">
       <c r="A213" s="123">
-        <v>99096</v>
+        <v>99084</v>
       </c>
       <c r="B213" s="121" t="s">
         <v>71</v>
@@ -23215,7 +23857,7 @@
         <v>55</v>
       </c>
       <c r="D213" s="121" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="E213" s="121" t="s">
         <v>110</v>
@@ -23223,23 +23865,23 @@
       <c r="F213" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G213" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="H213" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I213" s="119" t="s">
-        <v>433</v>
+      <c r="G213" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H213" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I213" s="117" t="s">
+        <v>34</v>
       </c>
       <c r="J213" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="K213" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="L213" s="117" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="M213" s="117" t="s">
         <v>22</v>
@@ -23266,269 +23908,549 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:20" s="119" customFormat="1">
-      <c r="A218" s="9"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
-      <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
-    </row>
-    <row r="219" spans="1:20" s="119" customFormat="1">
-      <c r="A219" s="9"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
-      <c r="R219" s="3"/>
-      <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
-    </row>
-    <row r="220" spans="1:20" s="119" customFormat="1">
-      <c r="A220" s="9"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
-      <c r="R220" s="3"/>
-      <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
-    </row>
-    <row r="221" spans="1:20" s="119" customFormat="1">
-      <c r="A221" s="9"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-    </row>
-    <row r="222" spans="1:20" s="119" customFormat="1">
-      <c r="A222" s="9"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-    </row>
-    <row r="223" spans="1:20" s="119" customFormat="1">
-      <c r="A223" s="123"/>
-      <c r="B223" s="121"/>
-      <c r="C223" s="121"/>
-      <c r="D223" s="121"/>
-      <c r="E223" s="121"/>
-      <c r="F223" s="121"/>
-      <c r="G223" s="121"/>
-      <c r="H223" s="121"/>
-      <c r="I223" s="121"/>
-      <c r="J223" s="121"/>
-      <c r="K223" s="121"/>
-      <c r="L223" s="121"/>
-      <c r="M223" s="121"/>
-      <c r="N223" s="121"/>
-      <c r="O223" s="121"/>
-      <c r="P223" s="121"/>
-      <c r="Q223" s="121"/>
-      <c r="R223" s="121"/>
-      <c r="S223" s="121"/>
-      <c r="T223" s="121"/>
-    </row>
-    <row r="224" spans="1:20" s="119" customFormat="1">
-      <c r="A224" s="123"/>
-      <c r="B224" s="121"/>
-      <c r="C224" s="121"/>
-      <c r="D224" s="121"/>
-      <c r="E224" s="121"/>
-      <c r="F224" s="121"/>
-      <c r="G224" s="121"/>
-      <c r="H224" s="121"/>
-      <c r="I224" s="121"/>
-      <c r="J224" s="121"/>
-      <c r="K224" s="121"/>
-      <c r="L224" s="121"/>
-      <c r="M224" s="121"/>
-      <c r="N224" s="121"/>
-      <c r="O224" s="121"/>
-      <c r="P224" s="121"/>
-      <c r="Q224" s="121"/>
-      <c r="R224" s="121"/>
-      <c r="S224" s="121"/>
-      <c r="T224" s="121"/>
+    <row r="214" spans="1:20" s="119" customFormat="1">
+      <c r="A214" s="123">
+        <v>99085</v>
+      </c>
+      <c r="B214" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C214" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D214" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F214" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G214" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H214" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I214" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J214" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="K214" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="L214" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="M214" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O214" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P214" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q214" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R214" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S214" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T214" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" s="119" customFormat="1">
+      <c r="A215" s="123">
+        <v>99087</v>
+      </c>
+      <c r="B215" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D215" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F215" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G215" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H215" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I215" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J215" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="K215" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="L215" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="M215" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O215" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P215" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q215" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R215" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S215" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T215" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" s="123">
+        <v>99088</v>
+      </c>
+      <c r="B216" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C216" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D216" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F216" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G216" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H216" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I216" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J216" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="K216" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="L216" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="M216" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N216" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O216" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P216" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q216" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R216" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S216" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T216" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="123">
+        <v>99090</v>
+      </c>
+      <c r="B217" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C217" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D217" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F217" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G217" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H217" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I217" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J217" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="K217" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="L217" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="M217" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N217" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O217" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P217" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q217" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R217" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S217" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T217" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="123">
+        <v>99091</v>
+      </c>
+      <c r="B218" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C218" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D218" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F218" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G218" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H218" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I218" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J218" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="K218" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="L218" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="M218" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N218" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O218" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P218" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q218" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R218" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S218" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T218" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="123">
+        <v>99095</v>
+      </c>
+      <c r="B219" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F219" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G219" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H219" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I219" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J219" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K219" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L219" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M219" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O219" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P219" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q219" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R219" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S219" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T219" s="117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="123">
+        <v>99096</v>
+      </c>
+      <c r="B220" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C220" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D220" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F220" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G220" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="H220" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I220" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="J220" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="K220" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="L220" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="M220" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N220" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="O220" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="P220" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q220" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R220" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="S220" s="117">
+        <v>1825</v>
+      </c>
+      <c r="T220" s="117" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="225" spans="1:20" s="119" customFormat="1">
-      <c r="A225" s="123"/>
-      <c r="B225" s="121"/>
-      <c r="C225" s="121"/>
-      <c r="D225" s="121"/>
-      <c r="E225" s="121"/>
-      <c r="F225" s="121"/>
-      <c r="G225" s="121"/>
-      <c r="H225" s="121"/>
-      <c r="I225" s="121"/>
-      <c r="J225" s="121"/>
-      <c r="K225" s="121"/>
-      <c r="L225" s="121"/>
-      <c r="M225" s="121"/>
-      <c r="N225" s="121"/>
-      <c r="O225" s="121"/>
-      <c r="P225" s="121"/>
-      <c r="Q225" s="121"/>
-      <c r="R225" s="121"/>
-      <c r="S225" s="121"/>
-      <c r="T225" s="121"/>
+      <c r="A225" s="9"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
     </row>
     <row r="226" spans="1:20" s="119" customFormat="1">
-      <c r="A226" s="123"/>
-      <c r="B226" s="121"/>
-      <c r="C226" s="121"/>
-      <c r="D226" s="121"/>
-      <c r="E226" s="121"/>
-      <c r="F226" s="121"/>
-      <c r="G226" s="121"/>
-      <c r="H226" s="121"/>
-      <c r="I226" s="121"/>
-      <c r="J226" s="121"/>
-      <c r="K226" s="121"/>
-      <c r="L226" s="121"/>
-      <c r="M226" s="121"/>
-      <c r="N226" s="121"/>
-      <c r="O226" s="121"/>
-      <c r="P226" s="121"/>
-      <c r="Q226" s="121"/>
-      <c r="R226" s="121"/>
-      <c r="S226" s="121"/>
-      <c r="T226" s="121"/>
+      <c r="A226" s="9"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
     </row>
     <row r="227" spans="1:20" s="119" customFormat="1">
-      <c r="A227" s="123"/>
-      <c r="B227" s="121"/>
-      <c r="C227" s="121"/>
-      <c r="D227" s="121"/>
-      <c r="E227" s="121"/>
-      <c r="F227" s="121"/>
-      <c r="G227" s="121"/>
-      <c r="H227" s="121"/>
-      <c r="I227" s="121"/>
-      <c r="J227" s="121"/>
-      <c r="K227" s="121"/>
-      <c r="L227" s="121"/>
-      <c r="M227" s="121"/>
-      <c r="N227" s="121"/>
-      <c r="O227" s="121"/>
-      <c r="P227" s="121"/>
-      <c r="Q227" s="121"/>
-      <c r="R227" s="121"/>
-      <c r="S227" s="121"/>
-      <c r="T227" s="121"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
     </row>
     <row r="228" spans="1:20" s="119" customFormat="1">
-      <c r="A228" s="123"/>
-      <c r="B228" s="121"/>
-      <c r="C228" s="121"/>
-      <c r="D228" s="121"/>
-      <c r="E228" s="121"/>
-      <c r="F228" s="121"/>
-      <c r="G228" s="121"/>
-      <c r="H228" s="121"/>
-      <c r="I228" s="121"/>
-      <c r="J228" s="121"/>
-      <c r="K228" s="121"/>
-      <c r="L228" s="121"/>
-      <c r="M228" s="121"/>
-      <c r="N228" s="121"/>
-      <c r="O228" s="121"/>
-      <c r="P228" s="121"/>
-      <c r="Q228" s="121"/>
-      <c r="R228" s="121"/>
-      <c r="S228" s="121"/>
-      <c r="T228" s="121"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
     </row>
     <row r="229" spans="1:20" s="119" customFormat="1">
-      <c r="A229" s="123"/>
-      <c r="B229" s="121"/>
-      <c r="C229" s="121"/>
-      <c r="D229" s="121"/>
-      <c r="E229" s="121"/>
-      <c r="F229" s="121"/>
-      <c r="G229" s="121"/>
-      <c r="H229" s="121"/>
-      <c r="I229" s="121"/>
-      <c r="J229" s="121"/>
-      <c r="K229" s="121"/>
-      <c r="L229" s="121"/>
-      <c r="M229" s="121"/>
-      <c r="N229" s="121"/>
-      <c r="O229" s="121"/>
-      <c r="P229" s="121"/>
-      <c r="Q229" s="121"/>
-      <c r="R229" s="121"/>
-      <c r="S229" s="121"/>
-      <c r="T229" s="121"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
     </row>
     <row r="230" spans="1:20" s="119" customFormat="1">
       <c r="A230" s="123"/>
@@ -23706,7 +24628,7 @@
       <c r="S237" s="121"/>
       <c r="T237" s="121"/>
     </row>
-    <row r="238" spans="1:20" s="115" customFormat="1">
+    <row r="238" spans="1:20" s="119" customFormat="1">
       <c r="A238" s="123"/>
       <c r="B238" s="121"/>
       <c r="C238" s="121"/>
@@ -23728,7 +24650,7 @@
       <c r="S238" s="121"/>
       <c r="T238" s="121"/>
     </row>
-    <row r="239" spans="1:20" s="115" customFormat="1">
+    <row r="239" spans="1:20" s="119" customFormat="1">
       <c r="A239" s="123"/>
       <c r="B239" s="121"/>
       <c r="C239" s="121"/>
@@ -23750,7 +24672,7 @@
       <c r="S239" s="121"/>
       <c r="T239" s="121"/>
     </row>
-    <row r="240" spans="1:20" s="115" customFormat="1">
+    <row r="240" spans="1:20" s="119" customFormat="1">
       <c r="A240" s="123"/>
       <c r="B240" s="121"/>
       <c r="C240" s="121"/>
@@ -23772,7 +24694,7 @@
       <c r="S240" s="121"/>
       <c r="T240" s="121"/>
     </row>
-    <row r="241" spans="1:20" s="115" customFormat="1">
+    <row r="241" spans="1:20" s="119" customFormat="1">
       <c r="A241" s="123"/>
       <c r="B241" s="121"/>
       <c r="C241" s="121"/>
@@ -23794,7 +24716,7 @@
       <c r="S241" s="121"/>
       <c r="T241" s="121"/>
     </row>
-    <row r="242" spans="1:20" s="115" customFormat="1">
+    <row r="242" spans="1:20" s="119" customFormat="1">
       <c r="A242" s="123"/>
       <c r="B242" s="121"/>
       <c r="C242" s="121"/>
@@ -23816,845 +24738,603 @@
       <c r="S242" s="121"/>
       <c r="T242" s="121"/>
     </row>
-    <row r="243" spans="1:20" s="115" customFormat="1">
-      <c r="A243" s="63" t="s">
+    <row r="243" spans="1:20" s="119" customFormat="1">
+      <c r="A243" s="123"/>
+      <c r="B243" s="121"/>
+      <c r="C243" s="121"/>
+      <c r="D243" s="121"/>
+      <c r="E243" s="121"/>
+      <c r="F243" s="121"/>
+      <c r="G243" s="121"/>
+      <c r="H243" s="121"/>
+      <c r="I243" s="121"/>
+      <c r="J243" s="121"/>
+      <c r="K243" s="121"/>
+      <c r="L243" s="121"/>
+      <c r="M243" s="121"/>
+      <c r="N243" s="121"/>
+      <c r="O243" s="121"/>
+      <c r="P243" s="121"/>
+      <c r="Q243" s="121"/>
+      <c r="R243" s="121"/>
+      <c r="S243" s="121"/>
+      <c r="T243" s="121"/>
+    </row>
+    <row r="244" spans="1:20" s="119" customFormat="1">
+      <c r="A244" s="123"/>
+      <c r="B244" s="121"/>
+      <c r="C244" s="121"/>
+      <c r="D244" s="121"/>
+      <c r="E244" s="121"/>
+      <c r="F244" s="121"/>
+      <c r="G244" s="121"/>
+      <c r="H244" s="121"/>
+      <c r="I244" s="121"/>
+      <c r="J244" s="121"/>
+      <c r="K244" s="121"/>
+      <c r="L244" s="121"/>
+      <c r="M244" s="121"/>
+      <c r="N244" s="121"/>
+      <c r="O244" s="121"/>
+      <c r="P244" s="121"/>
+      <c r="Q244" s="121"/>
+      <c r="R244" s="121"/>
+      <c r="S244" s="121"/>
+      <c r="T244" s="121"/>
+    </row>
+    <row r="245" spans="1:20" s="115" customFormat="1">
+      <c r="A245" s="123"/>
+      <c r="B245" s="121"/>
+      <c r="C245" s="121"/>
+      <c r="D245" s="121"/>
+      <c r="E245" s="121"/>
+      <c r="F245" s="121"/>
+      <c r="G245" s="121"/>
+      <c r="H245" s="121"/>
+      <c r="I245" s="121"/>
+      <c r="J245" s="121"/>
+      <c r="K245" s="121"/>
+      <c r="L245" s="121"/>
+      <c r="M245" s="121"/>
+      <c r="N245" s="121"/>
+      <c r="O245" s="121"/>
+      <c r="P245" s="121"/>
+      <c r="Q245" s="121"/>
+      <c r="R245" s="121"/>
+      <c r="S245" s="121"/>
+      <c r="T245" s="121"/>
+    </row>
+    <row r="246" spans="1:20" s="115" customFormat="1">
+      <c r="A246" s="123"/>
+      <c r="B246" s="121"/>
+      <c r="C246" s="121"/>
+      <c r="D246" s="121"/>
+      <c r="E246" s="121"/>
+      <c r="F246" s="121"/>
+      <c r="G246" s="121"/>
+      <c r="H246" s="121"/>
+      <c r="I246" s="121"/>
+      <c r="J246" s="121"/>
+      <c r="K246" s="121"/>
+      <c r="L246" s="121"/>
+      <c r="M246" s="121"/>
+      <c r="N246" s="121"/>
+      <c r="O246" s="121"/>
+      <c r="P246" s="121"/>
+      <c r="Q246" s="121"/>
+      <c r="R246" s="121"/>
+      <c r="S246" s="121"/>
+      <c r="T246" s="121"/>
+    </row>
+    <row r="247" spans="1:20" s="115" customFormat="1">
+      <c r="A247" s="123"/>
+      <c r="B247" s="121"/>
+      <c r="C247" s="121"/>
+      <c r="D247" s="121"/>
+      <c r="E247" s="121"/>
+      <c r="F247" s="121"/>
+      <c r="G247" s="121"/>
+      <c r="H247" s="121"/>
+      <c r="I247" s="121"/>
+      <c r="J247" s="121"/>
+      <c r="K247" s="121"/>
+      <c r="L247" s="121"/>
+      <c r="M247" s="121"/>
+      <c r="N247" s="121"/>
+      <c r="O247" s="121"/>
+      <c r="P247" s="121"/>
+      <c r="Q247" s="121"/>
+      <c r="R247" s="121"/>
+      <c r="S247" s="121"/>
+      <c r="T247" s="121"/>
+    </row>
+    <row r="248" spans="1:20" s="115" customFormat="1">
+      <c r="A248" s="123"/>
+      <c r="B248" s="121"/>
+      <c r="C248" s="121"/>
+      <c r="D248" s="121"/>
+      <c r="E248" s="121"/>
+      <c r="F248" s="121"/>
+      <c r="G248" s="121"/>
+      <c r="H248" s="121"/>
+      <c r="I248" s="121"/>
+      <c r="J248" s="121"/>
+      <c r="K248" s="121"/>
+      <c r="L248" s="121"/>
+      <c r="M248" s="121"/>
+      <c r="N248" s="121"/>
+      <c r="O248" s="121"/>
+      <c r="P248" s="121"/>
+      <c r="Q248" s="121"/>
+      <c r="R248" s="121"/>
+      <c r="S248" s="121"/>
+      <c r="T248" s="121"/>
+    </row>
+    <row r="249" spans="1:20" s="115" customFormat="1">
+      <c r="A249" s="123"/>
+      <c r="B249" s="121"/>
+      <c r="C249" s="121"/>
+      <c r="D249" s="121"/>
+      <c r="E249" s="121"/>
+      <c r="F249" s="121"/>
+      <c r="G249" s="121"/>
+      <c r="H249" s="121"/>
+      <c r="I249" s="121"/>
+      <c r="J249" s="121"/>
+      <c r="K249" s="121"/>
+      <c r="L249" s="121"/>
+      <c r="M249" s="121"/>
+      <c r="N249" s="121"/>
+      <c r="O249" s="121"/>
+      <c r="P249" s="121"/>
+      <c r="Q249" s="121"/>
+      <c r="R249" s="121"/>
+      <c r="S249" s="121"/>
+      <c r="T249" s="121"/>
+    </row>
+    <row r="250" spans="1:20" s="115" customFormat="1">
+      <c r="A250" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="B243" s="116"/>
-      <c r="C243" s="116"/>
-      <c r="D243" s="116"/>
-      <c r="E243" s="116"/>
-      <c r="F243" s="116"/>
-      <c r="J243" s="117"/>
-      <c r="K243" s="117"/>
-      <c r="L243" s="117"/>
-      <c r="M243" s="117"/>
-      <c r="N243" s="117"/>
-      <c r="O243" s="118"/>
-      <c r="P243" s="117"/>
-      <c r="Q243" s="117"/>
-      <c r="R243" s="117"/>
-      <c r="S243" s="117"/>
-      <c r="T243" s="117"/>
-    </row>
-    <row r="244" spans="1:20" s="115" customFormat="1">
-      <c r="A244" s="63" t="s">
+      <c r="B250" s="116"/>
+      <c r="C250" s="116"/>
+      <c r="D250" s="116"/>
+      <c r="E250" s="116"/>
+      <c r="F250" s="116"/>
+      <c r="J250" s="117"/>
+      <c r="K250" s="117"/>
+      <c r="L250" s="117"/>
+      <c r="M250" s="117"/>
+      <c r="N250" s="117"/>
+      <c r="O250" s="118"/>
+      <c r="P250" s="117"/>
+      <c r="Q250" s="117"/>
+      <c r="R250" s="117"/>
+      <c r="S250" s="117"/>
+      <c r="T250" s="117"/>
+    </row>
+    <row r="251" spans="1:20" s="115" customFormat="1">
+      <c r="A251" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="B244" s="116" t="s">
+      <c r="B251" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C244" s="116" t="s">
+      <c r="C251" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D244" s="116" t="s">
+      <c r="D251" s="116" t="s">
         <v>443</v>
       </c>
-      <c r="E244" s="116" t="s">
+      <c r="E251" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F244" s="116" t="s">
+      <c r="F251" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G244" s="117" t="s">
+      <c r="G251" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="H244" s="117" t="s">
+      <c r="H251" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="I244" s="117" t="s">
+      <c r="I251" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="J244" s="117" t="s">
+      <c r="J251" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K244" s="117" t="s">
+      <c r="K251" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="L244" s="117" t="s">
+      <c r="L251" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="M244" s="117" t="s">
+      <c r="M251" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N244" s="117" t="s">
+      <c r="N251" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O244" s="118" t="s">
+      <c r="O251" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P244" s="117" t="s">
+      <c r="P251" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q244" s="117" t="s">
+      <c r="Q251" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R244" s="117" t="s">
+      <c r="R251" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S244" s="117">
+      <c r="S251" s="117">
         <v>1825</v>
       </c>
-      <c r="T244" s="117" t="s">
+      <c r="T251" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:20" s="77" customFormat="1">
-      <c r="A245" s="63" t="s">
+    <row r="252" spans="1:20" s="77" customFormat="1">
+      <c r="A252" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B245" s="116" t="s">
+      <c r="B252" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C245" s="116" t="s">
+      <c r="C252" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D245" s="116" t="s">
+      <c r="D252" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="E245" s="116" t="s">
+      <c r="E252" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F245" s="116" t="s">
+      <c r="F252" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G245" s="117" t="s">
+      <c r="G252" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="H245" s="117" t="s">
+      <c r="H252" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="I245" s="117" t="s">
+      <c r="I252" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J245" s="117" t="s">
+      <c r="J252" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K245" s="117" t="s">
+      <c r="K252" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="L245" s="117" t="s">
+      <c r="L252" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="M245" s="117" t="s">
+      <c r="M252" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N245" s="117" t="s">
+      <c r="N252" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O245" s="118" t="s">
+      <c r="O252" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P245" s="117" t="s">
+      <c r="P252" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q245" s="117" t="s">
+      <c r="Q252" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R245" s="117" t="s">
+      <c r="R252" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S245" s="117">
+      <c r="S252" s="117">
         <v>1825</v>
       </c>
-      <c r="T245" s="117" t="s">
+      <c r="T252" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:20" s="77" customFormat="1">
-      <c r="A246" s="63" t="s">
+    <row r="253" spans="1:20" s="77" customFormat="1">
+      <c r="A253" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B246" s="116" t="s">
+      <c r="B253" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C246" s="116" t="s">
+      <c r="C253" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D246" s="116" t="s">
+      <c r="D253" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E246" s="116" t="s">
+      <c r="E253" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F246" s="116" t="s">
+      <c r="F253" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G246" s="115" t="s">
+      <c r="G253" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="H246" s="115" t="s">
+      <c r="H253" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="I246" s="115" t="s">
+      <c r="I253" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="J246" s="117" t="s">
+      <c r="J253" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="K246" s="117" t="s">
+      <c r="K253" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="L246" s="117" t="s">
+      <c r="L253" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="M246" s="117" t="s">
+      <c r="M253" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N246" s="117" t="s">
+      <c r="N253" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O246" s="118" t="s">
+      <c r="O253" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P246" s="117" t="s">
+      <c r="P253" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q246" s="117" t="s">
+      <c r="Q253" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R246" s="117" t="s">
+      <c r="R253" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S246" s="117">
+      <c r="S253" s="117">
         <v>1825</v>
       </c>
-      <c r="T246" s="117" t="s">
+      <c r="T253" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:20" s="77" customFormat="1">
-      <c r="A247" s="63" t="s">
+    <row r="254" spans="1:20" s="77" customFormat="1">
+      <c r="A254" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B247" s="116" t="s">
+      <c r="B254" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C247" s="116" t="s">
+      <c r="C254" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D247" s="116" t="s">
+      <c r="D254" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="E247" s="116" t="s">
+      <c r="E254" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F247" s="116" t="s">
+      <c r="F254" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G247" s="117" t="s">
+      <c r="G254" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="H247" s="117" t="s">
+      <c r="H254" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="I247" s="117" t="s">
+      <c r="I254" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="J247" s="117" t="s">
+      <c r="J254" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="K247" s="117" t="s">
+      <c r="K254" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="L247" s="117" t="s">
+      <c r="L254" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="M247" s="117" t="s">
+      <c r="M254" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N247" s="117" t="s">
+      <c r="N254" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O247" s="118" t="s">
+      <c r="O254" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P247" s="117" t="s">
+      <c r="P254" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q247" s="117" t="s">
+      <c r="Q254" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R247" s="117" t="s">
+      <c r="R254" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S247" s="117">
+      <c r="S254" s="117">
         <v>1825</v>
       </c>
-      <c r="T247" s="117" t="s">
+      <c r="T254" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:20" s="77" customFormat="1">
-      <c r="A248" s="63" t="s">
+    <row r="255" spans="1:20" s="77" customFormat="1">
+      <c r="A255" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="B248" s="116" t="s">
+      <c r="B255" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C248" s="116" t="s">
+      <c r="C255" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D248" s="116" t="s">
+      <c r="D255" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="E248" s="116" t="s">
+      <c r="E255" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F248" s="116" t="s">
+      <c r="F255" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G248" s="117" t="s">
+      <c r="G255" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="H248" s="117" t="s">
+      <c r="H255" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="I248" s="117" t="s">
+      <c r="I255" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J248" s="117" t="s">
+      <c r="J255" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="K248" s="117" t="s">
+      <c r="K255" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="L248" s="117" t="s">
+      <c r="L255" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="M248" s="117" t="s">
+      <c r="M255" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N248" s="117" t="s">
+      <c r="N255" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O248" s="118" t="s">
+      <c r="O255" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P248" s="117" t="s">
+      <c r="P255" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q248" s="117" t="s">
+      <c r="Q255" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R248" s="117" t="s">
+      <c r="R255" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S248" s="117">
+      <c r="S255" s="117">
         <v>1825</v>
       </c>
-      <c r="T248" s="117" t="s">
+      <c r="T255" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:20" s="77" customFormat="1">
-      <c r="A249" s="63" t="s">
+    <row r="256" spans="1:20" s="77" customFormat="1">
+      <c r="A256" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B249" s="116" t="s">
+      <c r="B256" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C249" s="116" t="s">
+      <c r="C256" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D249" s="116" t="s">
+      <c r="D256" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E249" s="116" t="s">
+      <c r="E256" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F249" s="116" t="s">
+      <c r="F256" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G249" s="115" t="s">
+      <c r="G256" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="H249" s="115" t="s">
+      <c r="H256" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="I249" s="115" t="s">
+      <c r="I256" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="J249" s="117" t="s">
+      <c r="J256" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="K249" s="117" t="s">
+      <c r="K256" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="L249" s="117" t="s">
+      <c r="L256" s="117" t="s">
         <v>449</v>
       </c>
-      <c r="M249" s="117" t="s">
+      <c r="M256" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="N249" s="117" t="s">
+      <c r="N256" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O249" s="118" t="s">
+      <c r="O256" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P249" s="117" t="s">
+      <c r="P256" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q249" s="117" t="s">
+      <c r="Q256" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="R249" s="117" t="s">
+      <c r="R256" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="S249" s="117">
+      <c r="S256" s="117">
         <v>1825</v>
       </c>
-      <c r="T249" s="117" t="s">
+      <c r="T256" s="117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:20" s="77" customFormat="1">
-      <c r="A250" s="8">
+    <row r="257" spans="1:20" s="77" customFormat="1">
+      <c r="A257" s="8">
         <v>99063</v>
       </c>
-      <c r="B250" s="80" t="s">
+      <c r="B257" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C250" s="80" t="s">
+      <c r="C257" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D250" s="81" t="s">
+      <c r="D257" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E250" s="80" t="s">
+      <c r="E257" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="F250" s="80" t="s">
+      <c r="F257" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="G250" s="81" t="s">
+      <c r="G257" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H250" s="81" t="s">
+      <c r="H257" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I250" s="81" t="s">
+      <c r="I257" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J250" s="80" t="s">
+      <c r="J257" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="K250" s="80" t="s">
+      <c r="K257" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="L250" s="80" t="s">
+      <c r="L257" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="M250" s="81" t="s">
+      <c r="M257" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="N250" s="81" t="s">
+      <c r="N257" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="O250" s="82" t="s">
+      <c r="O257" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="P250" s="81" t="s">
+      <c r="P257" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q250" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R250" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S250" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T250" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" s="77" customFormat="1">
-      <c r="A251" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="B251" s="85"/>
-      <c r="C251" s="85"/>
-      <c r="D251" s="85"/>
-      <c r="E251" s="85"/>
-      <c r="F251" s="85"/>
-      <c r="G251" s="85"/>
-      <c r="H251" s="85"/>
-      <c r="I251" s="85"/>
-      <c r="J251" s="85"/>
-      <c r="K251" s="85"/>
-      <c r="L251" s="85"/>
-      <c r="M251" s="85"/>
-      <c r="N251" s="85"/>
-      <c r="O251" s="86"/>
-      <c r="P251" s="85"/>
-      <c r="Q251" s="85"/>
-      <c r="R251" s="81"/>
-      <c r="S251" s="81"/>
-      <c r="T251" s="81"/>
-    </row>
-    <row r="252" spans="1:20" s="77" customFormat="1">
-      <c r="A252" s="87">
-        <v>99061</v>
-      </c>
-      <c r="B252" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C252" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D252" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E252" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F252" s="85" t="s">
-        <v>375</v>
-      </c>
-      <c r="G252" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H252" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I252" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J252" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K252" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L252" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M252" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N252" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O252" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P252" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q252" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R252" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S252" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T252" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" s="77" customFormat="1">
-      <c r="A253" s="87">
-        <v>99062</v>
-      </c>
-      <c r="B253" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C253" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D253" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E253" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F253" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="G253" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H253" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I253" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J253" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K253" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L253" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M253" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N253" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O253" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P253" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q253" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R253" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S253" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T253" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" s="77" customFormat="1">
-      <c r="A254" s="87">
-        <v>99063</v>
-      </c>
-      <c r="B254" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C254" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D254" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E254" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F254" s="85" t="s">
-        <v>385</v>
-      </c>
-      <c r="G254" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H254" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I254" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J254" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K254" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L254" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M254" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N254" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O254" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P254" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q254" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R254" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S254" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T254" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" s="77" customFormat="1">
-      <c r="A255" s="87">
-        <v>99064</v>
-      </c>
-      <c r="B255" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C255" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D255" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E255" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F255" s="85" t="s">
-        <v>386</v>
-      </c>
-      <c r="G255" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H255" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I255" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J255" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K255" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L255" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M255" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N255" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O255" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P255" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q255" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R255" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S255" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T255" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" s="77" customFormat="1">
-      <c r="A256" s="87">
-        <v>99061</v>
-      </c>
-      <c r="B256" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C256" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D256" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E256" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F256" s="85" t="s">
-        <v>375</v>
-      </c>
-      <c r="G256" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H256" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I256" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J256" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K256" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L256" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M256" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N256" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O256" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P256" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q256" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R256" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S256" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T256" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" s="77" customFormat="1">
-      <c r="A257" s="87">
-        <v>99062</v>
-      </c>
-      <c r="B257" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C257" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D257" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E257" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F257" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="G257" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H257" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I257" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J257" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K257" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L257" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M257" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N257" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O257" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P257" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q257" s="85" t="s">
+      <c r="Q257" s="81" t="s">
         <v>0</v>
       </c>
       <c r="R257" s="81" t="s">
@@ -24668,70 +25348,32 @@
       </c>
     </row>
     <row r="258" spans="1:20" s="77" customFormat="1">
-      <c r="A258" s="87">
-        <v>99063</v>
-      </c>
-      <c r="B258" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C258" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D258" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="E258" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F258" s="85" t="s">
-        <v>385</v>
-      </c>
-      <c r="G258" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H258" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I258" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J258" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K258" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L258" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M258" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N258" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O258" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P258" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q258" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R258" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S258" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T258" s="81" t="s">
-        <v>25</v>
-      </c>
+      <c r="A258" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B258" s="85"/>
+      <c r="C258" s="85"/>
+      <c r="D258" s="85"/>
+      <c r="E258" s="85"/>
+      <c r="F258" s="85"/>
+      <c r="G258" s="85"/>
+      <c r="H258" s="85"/>
+      <c r="I258" s="85"/>
+      <c r="J258" s="85"/>
+      <c r="K258" s="85"/>
+      <c r="L258" s="85"/>
+      <c r="M258" s="85"/>
+      <c r="N258" s="85"/>
+      <c r="O258" s="86"/>
+      <c r="P258" s="85"/>
+      <c r="Q258" s="85"/>
+      <c r="R258" s="81"/>
+      <c r="S258" s="81"/>
+      <c r="T258" s="81"/>
     </row>
     <row r="259" spans="1:20" s="77" customFormat="1">
       <c r="A259" s="87">
-        <v>99064</v>
+        <v>99061</v>
       </c>
       <c r="B259" s="85" t="s">
         <v>71</v>
@@ -24746,7 +25388,7 @@
         <v>376</v>
       </c>
       <c r="F259" s="85" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G259" s="85" t="s">
         <v>35</v>
@@ -24792,32 +25434,70 @@
       </c>
     </row>
     <row r="260" spans="1:20" s="77" customFormat="1">
-      <c r="A260" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="B260" s="85"/>
-      <c r="C260" s="85"/>
-      <c r="D260" s="85"/>
-      <c r="E260" s="85"/>
-      <c r="F260" s="85"/>
-      <c r="G260" s="85"/>
-      <c r="H260" s="85"/>
-      <c r="I260" s="85"/>
-      <c r="J260" s="85"/>
-      <c r="K260" s="85"/>
-      <c r="L260" s="85"/>
-      <c r="M260" s="85"/>
-      <c r="N260" s="85"/>
-      <c r="O260" s="86"/>
-      <c r="P260" s="85"/>
-      <c r="Q260" s="85"/>
-      <c r="R260" s="81"/>
-      <c r="S260" s="81"/>
-      <c r="T260" s="81"/>
-    </row>
-    <row r="261" spans="1:20">
-      <c r="A261" s="84">
-        <v>99060</v>
+      <c r="A260" s="87">
+        <v>99062</v>
+      </c>
+      <c r="B260" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C260" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D260" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E260" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F260" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="G260" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H260" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I260" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J260" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K260" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L260" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M260" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N260" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O260" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P260" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q260" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R260" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S260" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T260" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" s="77" customFormat="1">
+      <c r="A261" s="87">
+        <v>99063</v>
       </c>
       <c r="B261" s="85" t="s">
         <v>71</v>
@@ -24829,10 +25509,10 @@
         <v>365</v>
       </c>
       <c r="E261" s="85" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="F261" s="85" t="s">
-        <v>111</v>
+        <v>385</v>
       </c>
       <c r="G261" s="85" t="s">
         <v>35</v>
@@ -24852,8 +25532,8 @@
       <c r="L261" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M261" s="88" t="s">
-        <v>400</v>
+      <c r="M261" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N261" s="85" t="s">
         <v>47</v>
@@ -24878,31 +25558,69 @@
       </c>
     </row>
     <row r="262" spans="1:20" s="77" customFormat="1">
-      <c r="A262" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="B262" s="85"/>
-      <c r="C262" s="85"/>
-      <c r="D262" s="85"/>
-      <c r="E262" s="85"/>
-      <c r="F262" s="85"/>
-      <c r="G262" s="85"/>
-      <c r="H262" s="85"/>
-      <c r="I262" s="85"/>
-      <c r="J262" s="85"/>
-      <c r="K262" s="85"/>
-      <c r="L262" s="85"/>
-      <c r="M262" s="85"/>
-      <c r="N262" s="85"/>
-      <c r="O262" s="86"/>
-      <c r="P262" s="85"/>
-      <c r="Q262" s="85"/>
-      <c r="R262" s="81"/>
-      <c r="S262" s="81"/>
-      <c r="T262" s="81"/>
+      <c r="A262" s="87">
+        <v>99064</v>
+      </c>
+      <c r="B262" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C262" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D262" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E262" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F262" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="G262" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H262" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I262" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J262" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K262" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L262" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M262" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N262" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O262" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P262" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q262" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R262" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S262" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T262" s="81" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="263" spans="1:20" s="77" customFormat="1">
-      <c r="A263" s="84">
+      <c r="A263" s="87">
         <v>99061</v>
       </c>
       <c r="B263" s="85" t="s">
@@ -24912,13 +25630,13 @@
         <v>55</v>
       </c>
       <c r="D263" s="85" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="E263" s="85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F263" s="85" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G263" s="85" t="s">
         <v>35</v>
@@ -24938,8 +25656,8 @@
       <c r="L263" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M263" s="88" t="s">
-        <v>387</v>
+      <c r="M263" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N263" s="85" t="s">
         <v>47</v>
@@ -24964,32 +25682,70 @@
       </c>
     </row>
     <row r="264" spans="1:20" s="77" customFormat="1">
-      <c r="A264" s="84" t="s">
-        <v>397</v>
-      </c>
-      <c r="B264" s="85"/>
-      <c r="C264" s="85"/>
-      <c r="D264" s="85"/>
-      <c r="E264" s="85"/>
-      <c r="F264" s="85"/>
-      <c r="G264" s="85"/>
-      <c r="H264" s="85"/>
-      <c r="I264" s="85"/>
-      <c r="J264" s="85"/>
-      <c r="K264" s="85"/>
-      <c r="L264" s="85"/>
-      <c r="M264" s="85"/>
-      <c r="N264" s="85"/>
-      <c r="O264" s="86"/>
-      <c r="P264" s="85"/>
-      <c r="Q264" s="85"/>
-      <c r="R264" s="81"/>
-      <c r="S264" s="81"/>
-      <c r="T264" s="81"/>
+      <c r="A264" s="87">
+        <v>99062</v>
+      </c>
+      <c r="B264" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C264" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D264" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E264" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F264" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="G264" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H264" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I264" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J264" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K264" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L264" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M264" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N264" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O264" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P264" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q264" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R264" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S264" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T264" s="81" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="265" spans="1:20" s="77" customFormat="1">
-      <c r="A265" s="84">
-        <v>99062</v>
+      <c r="A265" s="87">
+        <v>99063</v>
       </c>
       <c r="B265" s="85" t="s">
         <v>71</v>
@@ -24998,13 +25754,13 @@
         <v>55</v>
       </c>
       <c r="D265" s="85" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="E265" s="85" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F265" s="85" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G265" s="85" t="s">
         <v>35</v>
@@ -25024,8 +25780,8 @@
       <c r="L265" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M265" s="88" t="s">
-        <v>387</v>
+      <c r="M265" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="N265" s="85" t="s">
         <v>47</v>
@@ -25050,94 +25806,94 @@
       </c>
     </row>
     <row r="266" spans="1:20" s="77" customFormat="1">
-      <c r="A266" s="84" t="s">
-        <v>396</v>
-      </c>
-      <c r="B266" s="85"/>
-      <c r="C266" s="85"/>
-      <c r="D266" s="85"/>
-      <c r="E266" s="85"/>
-      <c r="F266" s="85"/>
-      <c r="G266" s="85"/>
-      <c r="H266" s="85"/>
-      <c r="I266" s="85"/>
-      <c r="J266" s="85"/>
-      <c r="K266" s="85"/>
-      <c r="L266" s="85"/>
-      <c r="M266" s="85"/>
-      <c r="N266" s="85"/>
-      <c r="O266" s="85"/>
-      <c r="P266" s="85"/>
-      <c r="Q266" s="85"/>
-      <c r="R266" s="3"/>
-      <c r="S266" s="3"/>
-      <c r="T266" s="3"/>
-    </row>
-    <row r="267" spans="1:20" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A267" s="84">
-        <v>99070</v>
-      </c>
-      <c r="B267" s="85" t="s">
+      <c r="A266" s="87">
+        <v>99064</v>
+      </c>
+      <c r="B266" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C267" s="85" t="s">
+      <c r="C266" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D267" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E267" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="F267" s="85" t="s">
-        <v>380</v>
-      </c>
-      <c r="G267" s="85" t="s">
+      <c r="D266" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E266" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F266" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="G266" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="H267" s="85" t="s">
+      <c r="H266" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="I267" s="85" t="s">
+      <c r="I266" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="J267" s="85" t="s">
+      <c r="J266" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="K267" s="85" t="s">
+      <c r="K266" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="L267" s="85" t="s">
+      <c r="L266" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M267" s="88" t="s">
-        <v>387</v>
-      </c>
-      <c r="N267" s="85" t="s">
+      <c r="M266" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N266" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="O267" s="86" t="s">
+      <c r="O266" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P267" s="85" t="s">
+      <c r="P266" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q267" s="85" t="s">
+      <c r="Q266" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R267" s="81" t="s">
+      <c r="R266" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S267" s="81">
+      <c r="S266" s="81">
         <v>1825</v>
       </c>
-      <c r="T267" s="81" t="s">
+      <c r="T266" s="81" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:20" s="77" customFormat="1">
+    <row r="267" spans="1:20" s="77" customFormat="1">
+      <c r="A267" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="B267" s="85"/>
+      <c r="C267" s="85"/>
+      <c r="D267" s="85"/>
+      <c r="E267" s="85"/>
+      <c r="F267" s="85"/>
+      <c r="G267" s="85"/>
+      <c r="H267" s="85"/>
+      <c r="I267" s="85"/>
+      <c r="J267" s="85"/>
+      <c r="K267" s="85"/>
+      <c r="L267" s="85"/>
+      <c r="M267" s="85"/>
+      <c r="N267" s="85"/>
+      <c r="O267" s="86"/>
+      <c r="P267" s="85"/>
+      <c r="Q267" s="85"/>
+      <c r="R267" s="81"/>
+      <c r="S267" s="81"/>
+      <c r="T267" s="81"/>
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" s="84">
-        <v>99071</v>
+        <v>99060</v>
       </c>
       <c r="B268" s="85" t="s">
         <v>71</v>
@@ -25146,13 +25902,13 @@
         <v>55</v>
       </c>
       <c r="D268" s="85" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E268" s="85" t="s">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="F268" s="85" t="s">
-        <v>381</v>
+        <v>111</v>
       </c>
       <c r="G268" s="85" t="s">
         <v>35</v>
@@ -25173,7 +25929,7 @@
         <v>360</v>
       </c>
       <c r="M268" s="88" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="N268" s="85" t="s">
         <v>47</v>
@@ -25198,70 +25954,32 @@
       </c>
     </row>
     <row r="269" spans="1:20" s="77" customFormat="1">
-      <c r="A269" s="84">
-        <v>99072</v>
-      </c>
-      <c r="B269" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C269" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D269" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E269" s="85" t="s">
-        <v>382</v>
-      </c>
-      <c r="F269" s="85" t="s">
-        <v>383</v>
-      </c>
-      <c r="G269" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H269" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I269" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J269" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K269" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L269" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M269" s="88" t="s">
-        <v>387</v>
-      </c>
-      <c r="N269" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O269" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P269" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q269" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R269" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S269" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T269" s="81" t="s">
-        <v>25</v>
-      </c>
+      <c r="A269" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="B269" s="85"/>
+      <c r="C269" s="85"/>
+      <c r="D269" s="85"/>
+      <c r="E269" s="85"/>
+      <c r="F269" s="85"/>
+      <c r="G269" s="85"/>
+      <c r="H269" s="85"/>
+      <c r="I269" s="85"/>
+      <c r="J269" s="85"/>
+      <c r="K269" s="85"/>
+      <c r="L269" s="85"/>
+      <c r="M269" s="85"/>
+      <c r="N269" s="85"/>
+      <c r="O269" s="86"/>
+      <c r="P269" s="85"/>
+      <c r="Q269" s="85"/>
+      <c r="R269" s="81"/>
+      <c r="S269" s="81"/>
+      <c r="T269" s="81"/>
     </row>
     <row r="270" spans="1:20" s="77" customFormat="1">
       <c r="A270" s="84">
-        <v>99073</v>
+        <v>99061</v>
       </c>
       <c r="B270" s="85" t="s">
         <v>71</v>
@@ -25270,13 +25988,13 @@
         <v>55</v>
       </c>
       <c r="D270" s="85" t="s">
-        <v>388</v>
+        <v>23</v>
       </c>
       <c r="E270" s="85" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F270" s="85" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G270" s="85" t="s">
         <v>35</v>
@@ -25322,7 +26040,9 @@
       </c>
     </row>
     <row r="271" spans="1:20" s="77" customFormat="1">
-      <c r="A271" s="84"/>
+      <c r="A271" s="84" t="s">
+        <v>397</v>
+      </c>
       <c r="B271" s="85"/>
       <c r="C271" s="85"/>
       <c r="D271" s="85"/>
@@ -25336,16 +26056,16 @@
       <c r="L271" s="85"/>
       <c r="M271" s="85"/>
       <c r="N271" s="85"/>
-      <c r="O271" s="85"/>
+      <c r="O271" s="86"/>
       <c r="P271" s="85"/>
       <c r="Q271" s="85"/>
-      <c r="R271" s="80"/>
-      <c r="S271" s="80"/>
-      <c r="T271" s="80"/>
-    </row>
-    <row r="272" spans="1:20">
+      <c r="R271" s="81"/>
+      <c r="S271" s="81"/>
+      <c r="T271" s="81"/>
+    </row>
+    <row r="272" spans="1:20" s="77" customFormat="1">
       <c r="A272" s="84">
-        <v>99066</v>
+        <v>99062</v>
       </c>
       <c r="B272" s="85" t="s">
         <v>71</v>
@@ -25354,13 +26074,13 @@
         <v>55</v>
       </c>
       <c r="D272" s="85" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="E272" s="85" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F272" s="85" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G272" s="85" t="s">
         <v>35</v>
@@ -25380,8 +26100,8 @@
       <c r="L272" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M272" s="85" t="s">
-        <v>22</v>
+      <c r="M272" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N272" s="85" t="s">
         <v>47</v>
@@ -25405,73 +26125,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:22">
-      <c r="A273" s="84">
-        <v>99067</v>
-      </c>
-      <c r="B273" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C273" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D273" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E273" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="F273" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="G273" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H273" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I273" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J273" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K273" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L273" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="M273" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N273" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O273" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="P273" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q273" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R273" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S273" s="81">
-        <v>1825</v>
-      </c>
-      <c r="T273" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="U273" s="66"/>
-      <c r="V273" s="66"/>
-    </row>
-    <row r="274" spans="1:22">
+    <row r="273" spans="1:22" s="77" customFormat="1">
+      <c r="A273" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="B273" s="85"/>
+      <c r="C273" s="85"/>
+      <c r="D273" s="85"/>
+      <c r="E273" s="85"/>
+      <c r="F273" s="85"/>
+      <c r="G273" s="85"/>
+      <c r="H273" s="85"/>
+      <c r="I273" s="85"/>
+      <c r="J273" s="85"/>
+      <c r="K273" s="85"/>
+      <c r="L273" s="85"/>
+      <c r="M273" s="85"/>
+      <c r="N273" s="85"/>
+      <c r="O273" s="85"/>
+      <c r="P273" s="85"/>
+      <c r="Q273" s="85"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="3"/>
+      <c r="T273" s="3"/>
+    </row>
+    <row r="274" spans="1:22" s="77" customFormat="1" ht="13.5" customHeight="1">
       <c r="A274" s="84">
-        <v>99068</v>
+        <v>99070</v>
       </c>
       <c r="B274" s="85" t="s">
         <v>71</v>
@@ -25483,10 +26163,10 @@
         <v>388</v>
       </c>
       <c r="E274" s="85" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F274" s="85" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G274" s="85" t="s">
         <v>35</v>
@@ -25506,8 +26186,8 @@
       <c r="L274" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M274" s="85" t="s">
-        <v>22</v>
+      <c r="M274" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N274" s="85" t="s">
         <v>47</v>
@@ -25530,12 +26210,10 @@
       <c r="T274" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U274" s="66"/>
-      <c r="V274" s="66"/>
-    </row>
-    <row r="275" spans="1:22">
+    </row>
+    <row r="275" spans="1:22" s="77" customFormat="1">
       <c r="A275" s="84">
-        <v>99069</v>
+        <v>99071</v>
       </c>
       <c r="B275" s="85" t="s">
         <v>71</v>
@@ -25547,10 +26225,10 @@
         <v>388</v>
       </c>
       <c r="E275" s="85" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F275" s="85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G275" s="85" t="s">
         <v>35</v>
@@ -25570,8 +26248,8 @@
       <c r="L275" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="M275" s="85" t="s">
-        <v>22</v>
+      <c r="M275" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="N275" s="85" t="s">
         <v>47</v>
@@ -25594,58 +26272,133 @@
       <c r="T275" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U275" s="66"/>
-      <c r="V275" s="66"/>
-    </row>
-    <row r="276" spans="1:22">
-      <c r="A276" s="84"/>
-      <c r="B276" s="85"/>
-      <c r="C276" s="85"/>
-      <c r="D276" s="85"/>
-      <c r="E276" s="85"/>
-      <c r="F276" s="85"/>
-      <c r="G276" s="85"/>
-      <c r="H276" s="85"/>
-      <c r="I276" s="85"/>
-      <c r="J276" s="85"/>
-      <c r="K276" s="85"/>
-      <c r="L276" s="85"/>
-      <c r="M276" s="85"/>
-      <c r="N276" s="85"/>
-      <c r="O276" s="85"/>
-      <c r="P276" s="85"/>
-      <c r="Q276" s="85"/>
-      <c r="R276" s="80"/>
-      <c r="S276" s="80"/>
-      <c r="T276" s="80"/>
-      <c r="U276" s="66"/>
-      <c r="V276" s="66"/>
-    </row>
-    <row r="277" spans="1:22">
-      <c r="A277" s="84"/>
-      <c r="B277" s="85"/>
-      <c r="C277" s="85"/>
-      <c r="D277" s="85"/>
-      <c r="E277" s="85"/>
-      <c r="F277" s="85"/>
-      <c r="G277" s="85"/>
-      <c r="H277" s="85"/>
-      <c r="I277" s="85"/>
-      <c r="J277" s="85"/>
-      <c r="K277" s="85"/>
-      <c r="L277" s="85"/>
-      <c r="M277" s="85"/>
-      <c r="N277" s="85"/>
-      <c r="O277" s="85"/>
-      <c r="P277" s="85"/>
-      <c r="Q277" s="85"/>
-      <c r="U277" s="66"/>
-      <c r="V277" s="66"/>
-    </row>
-    <row r="278" spans="1:22">
-      <c r="A278" s="84" t="s">
-        <v>248</v>
-      </c>
+    </row>
+    <row r="276" spans="1:22" s="77" customFormat="1">
+      <c r="A276" s="84">
+        <v>99072</v>
+      </c>
+      <c r="B276" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C276" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D276" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E276" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="F276" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="G276" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H276" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I276" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J276" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K276" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L276" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M276" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="N276" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O276" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P276" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q276" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R276" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S276" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T276" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" s="77" customFormat="1">
+      <c r="A277" s="84">
+        <v>99073</v>
+      </c>
+      <c r="B277" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C277" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D277" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E277" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="F277" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="G277" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H277" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I277" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J277" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K277" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L277" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M277" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="N277" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O277" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P277" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q277" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R277" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S277" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T277" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" s="77" customFormat="1">
+      <c r="A278" s="84"/>
       <c r="B278" s="85"/>
       <c r="C278" s="85"/>
       <c r="D278" s="85"/>
@@ -25662,77 +26415,114 @@
       <c r="O278" s="85"/>
       <c r="P278" s="85"/>
       <c r="Q278" s="85"/>
-      <c r="U278" s="66"/>
-      <c r="V278" s="66"/>
-    </row>
-    <row r="279" spans="1:22" s="64" customFormat="1">
-      <c r="A279" s="84" t="s">
-        <v>257</v>
-      </c>
-      <c r="B279" s="85"/>
-      <c r="C279" s="85"/>
-      <c r="D279" s="85"/>
-      <c r="E279" s="85"/>
-      <c r="F279" s="85"/>
-      <c r="G279" s="85"/>
-      <c r="H279" s="85"/>
-      <c r="I279" s="85"/>
-      <c r="J279" s="85"/>
-      <c r="K279" s="85"/>
-      <c r="L279" s="85"/>
-      <c r="M279" s="85"/>
-      <c r="N279" s="85"/>
-      <c r="O279" s="85"/>
-      <c r="P279" s="85"/>
-      <c r="Q279" s="85"/>
-      <c r="R279" s="3"/>
-      <c r="S279" s="3"/>
-      <c r="T279" s="3"/>
-      <c r="U279" s="66"/>
-      <c r="V279" s="66"/>
-    </row>
-    <row r="280" spans="1:22" s="64" customFormat="1">
+      <c r="R278" s="80"/>
+      <c r="S278" s="80"/>
+      <c r="T278" s="80"/>
+    </row>
+    <row r="279" spans="1:22">
+      <c r="A279" s="84">
+        <v>99066</v>
+      </c>
+      <c r="B279" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C279" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D279" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E279" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="F279" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="G279" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H279" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I279" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J279" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="K279" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L279" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M279" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N279" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O279" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P279" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q279" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R279" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S279" s="81">
+        <v>1825</v>
+      </c>
+      <c r="T279" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="84">
-        <v>80001</v>
+        <v>99067</v>
       </c>
       <c r="B280" s="85" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C280" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D280" s="85" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="E280" s="85" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="F280" s="85" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
       <c r="G280" s="85" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="H280" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I280" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="J280" s="85" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="K280" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="L280" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="M280" s="85" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="N280" s="85" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="O280" s="86" t="s">
         <v>48</v>
@@ -25743,60 +26533,60 @@
       <c r="Q280" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R280" s="65" t="s">
+      <c r="R280" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S280" s="68">
+      <c r="S280" s="81">
         <v>1825</v>
       </c>
-      <c r="T280" s="65" t="s">
+      <c r="T280" s="81" t="s">
         <v>25</v>
       </c>
       <c r="U280" s="66"/>
       <c r="V280" s="66"/>
     </row>
-    <row r="281" spans="1:22" s="64" customFormat="1">
+    <row r="281" spans="1:22">
       <c r="A281" s="84">
-        <v>80012</v>
+        <v>99068</v>
       </c>
       <c r="B281" s="85" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C281" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D281" s="85" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="E281" s="85" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="F281" s="85" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="G281" s="85" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="H281" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I281" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="J281" s="85" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="K281" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="L281" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="M281" s="85" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="N281" s="85" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="O281" s="86" t="s">
         <v>48</v>
@@ -25807,13 +26597,13 @@
       <c r="Q281" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R281" s="65" t="s">
+      <c r="R281" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S281" s="68">
+      <c r="S281" s="81">
         <v>1825</v>
       </c>
-      <c r="T281" s="65" t="s">
+      <c r="T281" s="81" t="s">
         <v>25</v>
       </c>
       <c r="U281" s="66"/>
@@ -25821,46 +26611,46 @@
     </row>
     <row r="282" spans="1:22">
       <c r="A282" s="84">
-        <v>80123</v>
+        <v>99069</v>
       </c>
       <c r="B282" s="85" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C282" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D282" s="85" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="E282" s="85" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="F282" s="85" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="G282" s="85" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="H282" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I282" s="85" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="J282" s="85" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="K282" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="L282" s="85" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="M282" s="85" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="N282" s="85" t="s">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="O282" s="86" t="s">
         <v>48</v>
@@ -25871,20 +26661,20 @@
       <c r="Q282" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R282" s="65" t="s">
+      <c r="R282" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S282" s="68">
+      <c r="S282" s="81">
         <v>1825</v>
       </c>
-      <c r="T282" s="65" t="s">
+      <c r="T282" s="81" t="s">
         <v>25</v>
       </c>
+      <c r="U282" s="66"/>
+      <c r="V282" s="66"/>
     </row>
     <row r="283" spans="1:22">
-      <c r="A283" s="84" t="s">
-        <v>258</v>
-      </c>
+      <c r="A283" s="84"/>
       <c r="B283" s="85"/>
       <c r="C283" s="85"/>
       <c r="D283" s="85"/>
@@ -25901,190 +26691,476 @@
       <c r="O283" s="85"/>
       <c r="P283" s="85"/>
       <c r="Q283" s="85"/>
+      <c r="R283" s="80"/>
+      <c r="S283" s="80"/>
+      <c r="T283" s="80"/>
+      <c r="U283" s="66"/>
+      <c r="V283" s="66"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="84">
+      <c r="A284" s="84"/>
+      <c r="B284" s="85"/>
+      <c r="C284" s="85"/>
+      <c r="D284" s="85"/>
+      <c r="E284" s="85"/>
+      <c r="F284" s="85"/>
+      <c r="G284" s="85"/>
+      <c r="H284" s="85"/>
+      <c r="I284" s="85"/>
+      <c r="J284" s="85"/>
+      <c r="K284" s="85"/>
+      <c r="L284" s="85"/>
+      <c r="M284" s="85"/>
+      <c r="N284" s="85"/>
+      <c r="O284" s="85"/>
+      <c r="P284" s="85"/>
+      <c r="Q284" s="85"/>
+      <c r="U284" s="66"/>
+      <c r="V284" s="66"/>
+    </row>
+    <row r="285" spans="1:22">
+      <c r="A285" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B285" s="85"/>
+      <c r="C285" s="85"/>
+      <c r="D285" s="85"/>
+      <c r="E285" s="85"/>
+      <c r="F285" s="85"/>
+      <c r="G285" s="85"/>
+      <c r="H285" s="85"/>
+      <c r="I285" s="85"/>
+      <c r="J285" s="85"/>
+      <c r="K285" s="85"/>
+      <c r="L285" s="85"/>
+      <c r="M285" s="85"/>
+      <c r="N285" s="85"/>
+      <c r="O285" s="85"/>
+      <c r="P285" s="85"/>
+      <c r="Q285" s="85"/>
+      <c r="U285" s="66"/>
+      <c r="V285" s="66"/>
+    </row>
+    <row r="286" spans="1:22" s="64" customFormat="1">
+      <c r="A286" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B286" s="85"/>
+      <c r="C286" s="85"/>
+      <c r="D286" s="85"/>
+      <c r="E286" s="85"/>
+      <c r="F286" s="85"/>
+      <c r="G286" s="85"/>
+      <c r="H286" s="85"/>
+      <c r="I286" s="85"/>
+      <c r="J286" s="85"/>
+      <c r="K286" s="85"/>
+      <c r="L286" s="85"/>
+      <c r="M286" s="85"/>
+      <c r="N286" s="85"/>
+      <c r="O286" s="85"/>
+      <c r="P286" s="85"/>
+      <c r="Q286" s="85"/>
+      <c r="R286" s="3"/>
+      <c r="S286" s="3"/>
+      <c r="T286" s="3"/>
+      <c r="U286" s="66"/>
+      <c r="V286" s="66"/>
+    </row>
+    <row r="287" spans="1:22" s="64" customFormat="1">
+      <c r="A287" s="84">
+        <v>80001</v>
+      </c>
+      <c r="B287" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C287" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D287" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E287" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F287" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G287" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="H287" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I287" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J287" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K287" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L287" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M287" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="N287" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="O287" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P287" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q287" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R287" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S287" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T287" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U287" s="66"/>
+      <c r="V287" s="66"/>
+    </row>
+    <row r="288" spans="1:22" s="64" customFormat="1">
+      <c r="A288" s="84">
+        <v>80012</v>
+      </c>
+      <c r="B288" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C288" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D288" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E288" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F288" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G288" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H288" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I288" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J288" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K288" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L288" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M288" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="N288" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="O288" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P288" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q288" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R288" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S288" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T288" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="U288" s="66"/>
+      <c r="V288" s="66"/>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" s="84">
+        <v>80123</v>
+      </c>
+      <c r="B289" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C289" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D289" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="E289" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="F289" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G289" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H289" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="I289" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J289" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K289" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L289" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M289" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="N289" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="O289" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P289" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q289" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R289" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S289" s="68">
+        <v>1825</v>
+      </c>
+      <c r="T289" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B290" s="85"/>
+      <c r="C290" s="85"/>
+      <c r="D290" s="85"/>
+      <c r="E290" s="85"/>
+      <c r="F290" s="85"/>
+      <c r="G290" s="85"/>
+      <c r="H290" s="85"/>
+      <c r="I290" s="85"/>
+      <c r="J290" s="85"/>
+      <c r="K290" s="85"/>
+      <c r="L290" s="85"/>
+      <c r="M290" s="85"/>
+      <c r="N290" s="85"/>
+      <c r="O290" s="85"/>
+      <c r="P290" s="85"/>
+      <c r="Q290" s="85"/>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="A291" s="84">
         <v>90001</v>
       </c>
-      <c r="B284" s="85" t="s">
+      <c r="B291" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C284" s="85" t="s">
+      <c r="C291" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D284" s="85" t="s">
+      <c r="D291" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="E284" s="85" t="s">
+      <c r="E291" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="F284" s="85" t="s">
+      <c r="F291" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="G284" s="85" t="s">
+      <c r="G291" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="H284" s="85" t="s">
+      <c r="H291" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I284" s="85" t="s">
+      <c r="I291" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="J284" s="85" t="s">
+      <c r="J291" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="K284" s="85" t="s">
+      <c r="K291" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="L284" s="85" t="s">
+      <c r="L291" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="M284" s="85" t="s">
+      <c r="M291" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="N284" s="85" t="s">
+      <c r="N291" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="O284" s="86" t="s">
+      <c r="O291" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P284" s="85" t="s">
+      <c r="P291" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q284" s="85" t="s">
+      <c r="Q291" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R284" s="65" t="s">
+      <c r="R291" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="S284" s="68">
+      <c r="S291" s="68">
         <v>1825</v>
       </c>
-      <c r="T284" s="65" t="s">
+      <c r="T291" s="65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:22">
-      <c r="A285" s="84">
+    <row r="292" spans="1:20">
+      <c r="A292" s="84">
         <v>90012</v>
       </c>
-      <c r="B285" s="85" t="s">
+      <c r="B292" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C285" s="85" t="s">
+      <c r="C292" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D285" s="85" t="s">
+      <c r="D292" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="E285" s="85" t="s">
+      <c r="E292" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="F285" s="85" t="s">
+      <c r="F292" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="G285" s="85" t="s">
+      <c r="G292" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="H285" s="85" t="s">
+      <c r="H292" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I285" s="85" t="s">
+      <c r="I292" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="J285" s="85" t="s">
+      <c r="J292" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="K285" s="85" t="s">
+      <c r="K292" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="L285" s="85" t="s">
+      <c r="L292" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="M285" s="85" t="s">
+      <c r="M292" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="N285" s="85" t="s">
+      <c r="N292" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="O285" s="86" t="s">
+      <c r="O292" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P285" s="85" t="s">
+      <c r="P292" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q285" s="85" t="s">
+      <c r="Q292" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R285" s="65" t="s">
+      <c r="R292" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="S285" s="68">
+      <c r="S292" s="68">
         <v>1825</v>
       </c>
-      <c r="T285" s="65" t="s">
+      <c r="T292" s="65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:22">
-      <c r="A286" s="84">
+    <row r="293" spans="1:20">
+      <c r="A293" s="84">
         <v>90123</v>
       </c>
-      <c r="B286" s="85" t="s">
+      <c r="B293" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C286" s="85" t="s">
+      <c r="C293" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D286" s="85" t="s">
+      <c r="D293" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="E286" s="85" t="s">
+      <c r="E293" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="F286" s="85" t="s">
+      <c r="F293" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="G286" s="85" t="s">
+      <c r="G293" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="H286" s="85" t="s">
+      <c r="H293" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I286" s="85" t="s">
+      <c r="I293" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="J286" s="85" t="s">
+      <c r="J293" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="K286" s="85" t="s">
+      <c r="K293" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="L286" s="85" t="s">
+      <c r="L293" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="M286" s="85" t="s">
+      <c r="M293" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="N286" s="85" t="s">
+      <c r="N293" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="O286" s="86" t="s">
+      <c r="O293" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P286" s="85" t="s">
+      <c r="P293" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q286" s="85" t="s">
+      <c r="Q293" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="R286" s="65" t="s">
+      <c r="R293" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="S286" s="68">
+      <c r="S293" s="68">
         <v>1825</v>
       </c>
-      <c r="T286" s="65" t="s">
+      <c r="T293" s="65" t="s">
         <v>25</v>
       </c>
     </row>
@@ -26108,7 +27184,7 @@
   <dimension ref="A1:EM239"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30536,8 +31612,8 @@
         <v>85</v>
       </c>
       <c r="G85">
-        <f>365/2</f>
-        <v>182.5</v>
+        <f>365*3</f>
+        <v>1095</v>
       </c>
       <c r="O85" s="56" t="s">
         <v>209</v>
@@ -32824,7 +33900,7 @@
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -36059,7 +37135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -45471,4 +46547,403 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="119" customFormat="1">
+      <c r="A1" s="119">
+        <v>99100</v>
+      </c>
+      <c r="G1" s="119">
+        <v>89100</v>
+      </c>
+      <c r="M1" s="119">
+        <v>79100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="119" customFormat="1">
+      <c r="A2" s="119" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G3" t="s">
+        <v>615</v>
+      </c>
+      <c r="M3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G4" t="s">
+        <v>616</v>
+      </c>
+      <c r="M4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" t="s">
+        <v>604</v>
+      </c>
+      <c r="M5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G7" t="s">
+        <v>617</v>
+      </c>
+      <c r="M7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="G9" t="s">
+        <v>619</v>
+      </c>
+      <c r="M9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>608</v>
+      </c>
+      <c r="G10" t="s">
+        <v>620</v>
+      </c>
+      <c r="M10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G11" t="s">
+        <v>621</v>
+      </c>
+      <c r="M11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>610</v>
+      </c>
+      <c r="G12" t="s">
+        <v>622</v>
+      </c>
+      <c r="M12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>611</v>
+      </c>
+      <c r="G14" t="s">
+        <v>623</v>
+      </c>
+      <c r="M14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>612</v>
+      </c>
+      <c r="G15" t="s">
+        <v>624</v>
+      </c>
+      <c r="M15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>613</v>
+      </c>
+      <c r="G16" t="s">
+        <v>625</v>
+      </c>
+      <c r="M16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>638</v>
+      </c>
+      <c r="G21" t="s">
+        <v>649</v>
+      </c>
+      <c r="M21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>639</v>
+      </c>
+      <c r="G22" t="s">
+        <v>650</v>
+      </c>
+      <c r="M22" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>604</v>
+      </c>
+      <c r="G23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>640</v>
+      </c>
+      <c r="G25" t="s">
+        <v>651</v>
+      </c>
+      <c r="M25" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>641</v>
+      </c>
+      <c r="G26" t="s">
+        <v>652</v>
+      </c>
+      <c r="M26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>642</v>
+      </c>
+      <c r="G27" t="s">
+        <v>653</v>
+      </c>
+      <c r="M27" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>643</v>
+      </c>
+      <c r="G28" t="s">
+        <v>654</v>
+      </c>
+      <c r="M28" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>644</v>
+      </c>
+      <c r="G29" t="s">
+        <v>655</v>
+      </c>
+      <c r="M29" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>645</v>
+      </c>
+      <c r="G30" t="s">
+        <v>656</v>
+      </c>
+      <c r="M30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>646</v>
+      </c>
+      <c r="G32" t="s">
+        <v>657</v>
+      </c>
+      <c r="M32" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G33" t="s">
+        <v>658</v>
+      </c>
+      <c r="M33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>648</v>
+      </c>
+      <c r="G34" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>671</v>
+      </c>
+      <c r="G38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>672</v>
+      </c>
+      <c r="G39" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>604</v>
+      </c>
+      <c r="G40" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>673</v>
+      </c>
+      <c r="G42" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>674</v>
+      </c>
+      <c r="G43" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>675</v>
+      </c>
+      <c r="G44" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>676</v>
+      </c>
+      <c r="G45" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>677</v>
+      </c>
+      <c r="G46" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>678</v>
+      </c>
+      <c r="G47" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>679</v>
+      </c>
+      <c r="G49" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>680</v>
+      </c>
+      <c r="G50" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>681</v>
+      </c>
+      <c r="G51" t="s">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'1,2,3桁betcnt,hitrate調査'!$A$24:$H$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1,2,3桁betcnt,hitrate調査 (2)'!$J$12:$Q$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$A$1:$T$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$A$1:$T$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">model_bak!$A$1:$T$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">model_bak2!$A$1:$Q$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">model_bak3!$A$1:$T$105</definedName>
@@ -4767,7 +4767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10876" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11070" uniqueCount="914">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17731,23 +17731,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xx</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>#LGBMClasssifier fs_21피쳐</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -17773,6 +17756,97 @@
   </si>
   <si>
     <t>rk_3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lgbm</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>catboost</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ip/sg따로</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ip/SG함께</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>clss_weight사용여부</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk-ip-1</t>
+  </si>
+  <si>
+    <t>rk-ipSG-1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#CatboostRanker + ip SG + class_weight X + learning rate=0.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip,G3 only + class_weight X + learning rate=0.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip~ SG + class_weight X + learning rate=0.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip,G3 only + class_weight O + learning rate=0.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip~ SG + class_weight O + learning rate=0.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#CatboostRanker + ip,G3 only + class_weight X + learning rate=0.01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk-ip-2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip only + class_weight X + learning rate=0.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#CatboostRanker + ip only + class_weight X + learning rate=0.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + B1 only + class_weight X + learning rate=0.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk-B1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>clf_rk_B1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20210603</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip only + class_weight X + learning rate=0.1  6개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip only + class_weight X + learning rate=0.1  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -19327,9 +19401,7 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="186">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -22374,11 +22446,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -23048,7 +23120,7 @@
     </row>
     <row r="15" spans="1:20" s="42" customFormat="1">
       <c r="A15" s="72" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -23093,25 +23165,25 @@
         <v>31</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K16" s="41" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="59" t="s">
+        <v>885</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>885</v>
+      </c>
+      <c r="N16" s="59" t="s">
         <v>886</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>886</v>
-      </c>
-      <c r="N16" s="59" t="s">
-        <v>887</v>
       </c>
       <c r="O16" s="41" t="s">
         <v>31</v>
@@ -23134,7 +23206,7 @@
     </row>
     <row r="17" spans="1:20" s="73" customFormat="1">
       <c r="A17" s="72" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -23179,19 +23251,19 @@
         <v>31</v>
       </c>
       <c r="H18" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="59" t="s">
         <v>890</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>891</v>
       </c>
       <c r="M18" s="59" t="s">
         <v>31</v>
@@ -23219,7 +23291,9 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="42" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="45" t="s">
+        <v>899</v>
+      </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -23241,29 +23315,71 @@
       <c r="T19" s="59"/>
     </row>
     <row r="20" spans="1:20" s="42" customFormat="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
+      <c r="A20" s="45">
+        <v>20001</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>896</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T20" s="41" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="21" spans="1:20" s="42" customFormat="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="45" t="s">
+        <v>900</v>
+      </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -23284,147 +23400,229 @@
       <c r="S21" s="59"/>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" s="73" customFormat="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-    </row>
-    <row r="23" spans="1:20" s="73" customFormat="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-    </row>
-    <row r="24" spans="1:20" s="73" customFormat="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-    </row>
-    <row r="25" spans="1:20" s="73" customFormat="1">
-      <c r="A25" s="72" t="s">
-        <v>879</v>
-      </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="41"/>
+    <row r="22" spans="1:20" s="42" customFormat="1">
+      <c r="A22" s="45">
+        <v>20002</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T22" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="42" customFormat="1">
+      <c r="A23" s="45" t="s">
+        <v>901</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+    </row>
+    <row r="24" spans="1:20" s="42" customFormat="1">
+      <c r="A24" s="45">
+        <v>20003</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>896</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q24" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R24" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T24" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="42" customFormat="1">
+      <c r="A25" s="45" t="s">
+        <v>902</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="59"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-    </row>
-    <row r="26" spans="1:20" s="73" customFormat="1">
-      <c r="A26" s="180" t="s">
-        <v>884</v>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+    </row>
+    <row r="26" spans="1:20" s="42" customFormat="1">
+      <c r="A26" s="45">
+        <v>20004</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>593</v>
+        <v>866</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>593</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>23</v>
+        <v>703</v>
+      </c>
+      <c r="D26" s="180" t="s">
+        <v>897</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>880</v>
+        <v>31</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>880</v>
-      </c>
-      <c r="K26" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="59" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="59" t="s">
-        <v>430</v>
+        <v>890</v>
       </c>
       <c r="M26" s="59" t="s">
-        <v>430</v>
+        <v>31</v>
       </c>
       <c r="N26" s="59" t="s">
-        <v>430</v>
-      </c>
-      <c r="O26" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="59" t="s">
         <v>31</v>
       </c>
       <c r="P26" s="41" t="s">
-        <v>22</v>
+        <v>868</v>
       </c>
       <c r="Q26" s="41" t="s">
-        <v>46</v>
+        <v>869</v>
       </c>
       <c r="R26" s="41" t="s">
         <v>19</v>
@@ -23433,52 +23631,610 @@
         <v>1825</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="73" customFormat="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="41"/>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="42" customFormat="1">
+      <c r="A27" s="45" t="s">
+        <v>903</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-    </row>
-    <row r="28" spans="1:20" s="73" customFormat="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+    </row>
+    <row r="28" spans="1:20" s="42" customFormat="1">
+      <c r="A28" s="45">
+        <v>20005</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>896</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q28" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R28" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T28" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="42" customFormat="1">
+      <c r="A29" s="45" t="s">
+        <v>898</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+    </row>
+    <row r="30" spans="1:20" s="42" customFormat="1">
+      <c r="A30" s="45">
+        <v>20006</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q30" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R30" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T30" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="42" customFormat="1">
+      <c r="A31" s="45" t="s">
+        <v>905</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+    </row>
+    <row r="32" spans="1:20" s="42" customFormat="1">
+      <c r="A32" s="45">
+        <v>20007</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>593</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>593</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q32" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R32" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T32" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="42" customFormat="1">
+      <c r="A33" s="45" t="s">
+        <v>906</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+    </row>
+    <row r="34" spans="1:20" s="42" customFormat="1">
+      <c r="A34" s="45">
+        <v>20008</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>593</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>593</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q34" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R34" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T34" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="42" customFormat="1">
+      <c r="A35" s="45" t="s">
+        <v>907</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+    </row>
+    <row r="36" spans="1:20" s="42" customFormat="1">
+      <c r="A36" s="45">
+        <v>20009</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>910</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>908</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="R36" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T36" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="42" customFormat="1">
+      <c r="A37" s="45" t="s">
+        <v>911</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+    </row>
+    <row r="38" spans="1:20" s="42" customFormat="1">
+      <c r="A38" s="45">
+        <v>20010</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q38" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R38" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S38" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T38" s="41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="42" customFormat="1">
+      <c r="A39" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+    </row>
+    <row r="40" spans="1:20" s="42" customFormat="1">
+      <c r="A40" s="45">
+        <v>20011</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>703</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q40" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R40" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S40" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T40" s="41" t="s">
+        <v>913</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
@@ -43079,7 +43835,7 @@
   </sheetPr>
   <dimension ref="A1:T177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
@@ -67193,13 +67949,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130">
@@ -73742,84 +74499,99 @@
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:6">
       <c r="B193" s="28" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:6">
       <c r="B194" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:6">
       <c r="B195" s="28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:6">
       <c r="B196" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:6">
       <c r="B197" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:6">
       <c r="B198" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:6">
       <c r="B199" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:6">
       <c r="B200" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:6">
       <c r="B201" s="28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:6">
       <c r="B202" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:6">
       <c r="B203" s="28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:6">
       <c r="B204" s="28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:6">
       <c r="B205" s="28" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:6">
       <c r="B206" s="28" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="207" spans="2:2">
+      <c r="E206" t="s">
+        <v>891</v>
+      </c>
+      <c r="F206" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
       <c r="B207" s="28" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="208" spans="2:2">
+      <c r="E207" t="s">
+        <v>893</v>
+      </c>
+      <c r="F207" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
       <c r="B208" s="28" t="s">
         <v>342</v>
+      </c>
+      <c r="E208" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="209" spans="2:2">

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4545" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4545" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="33" r:id="rId1"/>
@@ -4767,7 +4767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11070" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11108" uniqueCount="921">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17847,6 +17847,34 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip only + class_weight X + learning rate=0.1  1주단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20231031</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20210602</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20220603</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20230211</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + B1 only + class_weight X + learning rate=0.1 1주단위</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -22446,11 +22474,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -23835,7 +23863,7 @@
         <v>20007</v>
       </c>
       <c r="B32" s="71" t="s">
-        <v>593</v>
+        <v>917</v>
       </c>
       <c r="C32" s="71" t="s">
         <v>593</v>
@@ -24093,10 +24121,10 @@
         <v>20010</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>866</v>
+        <v>918</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>703</v>
+        <v>916</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>904</v>
@@ -24179,10 +24207,10 @@
         <v>20011</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>866</v>
+        <v>918</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>703</v>
+        <v>916</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>904</v>
@@ -24234,6 +24262,178 @@
       </c>
       <c r="T40" s="41" t="s">
         <v>913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="42" customFormat="1">
+      <c r="A41" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+    </row>
+    <row r="42" spans="1:20" s="42" customFormat="1">
+      <c r="A42" s="45">
+        <v>20012</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>919</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>916</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q42" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R42" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S42" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T42" s="41" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="42" customFormat="1">
+      <c r="A43" s="45" t="s">
+        <v>920</v>
+      </c>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+    </row>
+    <row r="44" spans="1:20" s="42" customFormat="1">
+      <c r="A44" s="45">
+        <v>20013</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>917</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>916</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>908</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q44" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="R44" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T44" s="41" t="s">
+        <v>915</v>
       </c>
     </row>
   </sheetData>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">실험1!$B$2:$R$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4767,7 +4768,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11108" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11206" uniqueCount="937">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17875,6 +17876,70 @@
   </si>
   <si>
     <t>#LGBMRanker + B1 only + class_weight X + learning rate=0.1 1주단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip only + class_weight X + learning rate=0.01  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20210603</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk_4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>arff_rk_3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>clf_rk_3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20230602</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>730</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip SG + class_weight X + learning rate=0.2  bodds,stexhi</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ip SG + class_weight X + learning rate=0.2  bodds rank,stexhi</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk_5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20231031</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>r12-all-ip</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>r123-all-ip</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>cf_lgbm-7_py</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t># 다시 생성 fs_22 + ip only + class_weight O + learning rate=0.1  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20210603</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -19369,6 +19434,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19429,7 +19495,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="186">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -22474,11 +22539,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -23610,7 +23675,7 @@
       <c r="C26" s="71" t="s">
         <v>703</v>
       </c>
-      <c r="D26" s="180" t="s">
+      <c r="D26" s="160" t="s">
         <v>897</v>
       </c>
       <c r="E26" s="59" t="s">
@@ -24434,6 +24499,374 @@
       </c>
       <c r="T44" s="41" t="s">
         <v>915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="42" customFormat="1">
+      <c r="A45" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+    </row>
+    <row r="46" spans="1:20" s="42" customFormat="1">
+      <c r="A46" s="45">
+        <v>20014</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>922</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>916</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="M46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q46" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R46" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S46" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T46" s="41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="42" customFormat="1">
+      <c r="A47" s="45" t="s">
+        <v>928</v>
+      </c>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
+    </row>
+    <row r="48" spans="1:20" s="42" customFormat="1">
+      <c r="A48" s="45">
+        <v>20015</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>926</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>916</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="59" t="s">
+        <v>923</v>
+      </c>
+      <c r="M48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q48" s="41" t="s">
+        <v>925</v>
+      </c>
+      <c r="R48" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S48" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="T48" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="45" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="45">
+        <v>20016</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>926</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>926</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="59" t="s">
+        <v>930</v>
+      </c>
+      <c r="M50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q50" s="41" t="s">
+        <v>925</v>
+      </c>
+      <c r="R50" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S50" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="T50" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="45">
+        <v>98102</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>936</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>931</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>932</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>880</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>883</v>
+      </c>
+      <c r="M52" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="59" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q52" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="R52" s="72" t="s">
+        <v>772</v>
+      </c>
+      <c r="S52" s="41" t="s">
+        <v>771</v>
+      </c>
+      <c r="T52" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="45">
+        <v>98103</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>866</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>931</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>933</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>934</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="59" t="s">
+        <v>883</v>
+      </c>
+      <c r="M53" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="59" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q53" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="R53" s="72" t="s">
+        <v>772</v>
+      </c>
+      <c r="S53" s="41" t="s">
+        <v>771</v>
+      </c>
+      <c r="T53" s="41" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -40303,48 +40736,48 @@
   <sheetData>
     <row r="1" spans="2:28">
       <c r="B1" s="98"/>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="173" t="s">
         <v>750</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="163" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="164" t="s">
         <v>794</v>
       </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="166" t="s">
+      <c r="J1" s="167" t="s">
         <v>743</v>
       </c>
-      <c r="K1" s="167"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="169" t="s">
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="170" t="s">
         <v>747</v>
       </c>
-      <c r="N1" s="170"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="169" t="s">
+      <c r="N1" s="171"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="170" t="s">
         <v>791</v>
       </c>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="179"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="180"/>
       <c r="S1" s="119"/>
-      <c r="T1" s="176" t="s">
+      <c r="T1" s="177" t="s">
         <v>743</v>
       </c>
-      <c r="U1" s="177"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="160" t="s">
+      <c r="U1" s="178"/>
+      <c r="V1" s="179"/>
+      <c r="W1" s="161" t="s">
         <v>747</v>
       </c>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="160" t="s">
+      <c r="X1" s="162"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="161" t="s">
         <v>791</v>
       </c>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="163"/>
     </row>
     <row r="2" spans="2:28" s="65" customFormat="1" ht="52.5" thickBot="1">
       <c r="B2" s="99" t="s">
@@ -56321,8 +56754,8 @@
   <dimension ref="A1:V296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -68150,7 +68583,7 @@
   <dimension ref="A1:EM239"/>
   <sheetViews>
     <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -74794,77 +75227,81 @@
         <v>895</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:4">
       <c r="B209" s="28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:4">
       <c r="B210" s="28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:4">
       <c r="B211" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:4">
       <c r="B212" s="28" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:4">
       <c r="B213" s="28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:4">
       <c r="B214" s="28" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:4">
       <c r="B215" s="28" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="216" spans="2:2">
+      <c r="D215">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
       <c r="B216" s="28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:4">
       <c r="B217" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:4">
       <c r="B218" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:4">
       <c r="B219" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:4">
       <c r="B220" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:4">
       <c r="B221" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:4">
       <c r="B222" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:4">
       <c r="B223" s="28" t="s">
         <v>357</v>
       </c>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -31,7 +31,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">실험1!$B$2:$R$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4768,7 +4767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11206" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11264" uniqueCount="945">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17940,6 +17939,38 @@
   </si>
   <si>
     <t>20210603</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk-ipSG-1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk_2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>fs_19</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20210603</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMRanker + ipSG + class_weight X + learning rate=0.1  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#CatboostRanker + ipSG + class_weight X + learning rate=0.1  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20240426</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -19141,7 +19172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19494,6 +19525,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="186">
@@ -22539,14 +22576,14 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
@@ -24869,6 +24906,245 @@
         <v>25</v>
       </c>
     </row>
+    <row r="54" spans="1:20" s="42" customFormat="1">
+      <c r="A54" s="45" t="s">
+        <v>941</v>
+      </c>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+    </row>
+    <row r="55" spans="1:20" s="42" customFormat="1">
+      <c r="A55" s="181">
+        <v>20017</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>944</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="M55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q55" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R55" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S55" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T55" s="41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="45" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="45">
+        <v>98104</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>866</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>931</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>934</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="M57" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P57" s="59" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q57" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="R57" s="72" t="s">
+        <v>772</v>
+      </c>
+      <c r="S57" s="41" t="s">
+        <v>771</v>
+      </c>
+      <c r="T57" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="73" customFormat="1">
+      <c r="A58" s="72" t="s">
+        <v>942</v>
+      </c>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+    </row>
+    <row r="59" spans="1:20" s="73" customFormat="1">
+      <c r="A59" s="182">
+        <v>89103</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>944</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="G59" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="J59" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="K59" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="59" t="s">
+        <v>867</v>
+      </c>
+      <c r="M59" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="N59" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="O59" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P59" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q59" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R59" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S59" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T59" s="41" t="s">
+        <v>943</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
   <phoneticPr fontId="5"/>
@@ -24886,7 +25162,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -34304,7 +34580,7 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <sheetData>
     <row r="1" spans="1:13" s="42" customFormat="1">
       <c r="A1" s="42">
@@ -34703,7 +34979,7 @@
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="42" customWidth="1"/>
@@ -38357,7 +38633,7 @@
       <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="59" customWidth="1"/>
@@ -40712,7 +40988,7 @@
       <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="64"/>
     <col min="2" max="2" width="7" style="69" customWidth="1"/>
@@ -40779,7 +41055,7 @@
       <c r="AA1" s="162"/>
       <c r="AB1" s="163"/>
     </row>
-    <row r="2" spans="2:28" s="65" customFormat="1" ht="52.5" thickBot="1">
+    <row r="2" spans="2:28" s="65" customFormat="1" ht="57.75" thickBot="1">
       <c r="B2" s="99" t="s">
         <v>766</v>
       </c>
@@ -41164,7 +41440,7 @@
       <c r="AA8" s="68"/>
       <c r="AB8" s="89"/>
     </row>
-    <row r="9" spans="2:28" ht="18" thickBot="1">
+    <row r="9" spans="2:28" ht="19.5" thickBot="1">
       <c r="B9" s="88"/>
       <c r="C9" s="131">
         <v>99103</v>
@@ -41399,7 +41675,7 @@
       <c r="AA13" s="66"/>
       <c r="AB13" s="90"/>
     </row>
-    <row r="14" spans="2:28" ht="18" thickBot="1">
+    <row r="14" spans="2:28" ht="19.5" thickBot="1">
       <c r="B14" s="91"/>
       <c r="C14" s="131"/>
       <c r="D14" s="131"/>
@@ -41583,7 +41859,7 @@
       <c r="AA17" s="66"/>
       <c r="AB17" s="90"/>
     </row>
-    <row r="18" spans="2:28" ht="18" thickBot="1">
+    <row r="18" spans="2:28" ht="19.5" thickBot="1">
       <c r="B18" s="92"/>
       <c r="C18" s="127"/>
       <c r="D18" s="133"/>
@@ -42017,7 +42293,7 @@
       <c r="AA25" s="67"/>
       <c r="AB25" s="144"/>
     </row>
-    <row r="26" spans="2:28" ht="18" thickBot="1">
+    <row r="26" spans="2:28" ht="19.5" thickBot="1">
       <c r="B26" s="88"/>
       <c r="C26" s="122">
         <v>13200</v>
@@ -42511,7 +42787,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="35" spans="2:28" ht="18" thickBot="1">
+    <row r="35" spans="2:28" ht="19.5" thickBot="1">
       <c r="B35" s="88"/>
       <c r="C35" s="150" t="s">
         <v>803</v>
@@ -42783,7 +43059,7 @@
       <c r="AA39" s="66"/>
       <c r="AB39" s="90"/>
     </row>
-    <row r="40" spans="2:28" ht="18" thickBot="1">
+    <row r="40" spans="2:28" ht="19.5" thickBot="1">
       <c r="B40" s="88" t="s">
         <v>767</v>
       </c>
@@ -42837,7 +43113,7 @@
       <c r="AA40" s="66"/>
       <c r="AB40" s="90"/>
     </row>
-    <row r="41" spans="2:28" ht="18" thickBot="1">
+    <row r="41" spans="2:28" ht="19.5" thickBot="1">
       <c r="B41" s="84" t="s">
         <v>828</v>
       </c>
@@ -42891,7 +43167,7 @@
       <c r="AA41" s="66"/>
       <c r="AB41" s="90"/>
     </row>
-    <row r="42" spans="2:28" ht="18" thickBot="1">
+    <row r="42" spans="2:28" ht="19.5" thickBot="1">
       <c r="B42" s="84"/>
       <c r="C42" s="127"/>
       <c r="D42" s="127"/>
@@ -43527,7 +43803,7 @@
       <c r="AA62" s="66"/>
       <c r="AB62" s="90"/>
     </row>
-    <row r="63" spans="2:28" ht="18" thickBot="1">
+    <row r="63" spans="2:28" ht="19.5" thickBot="1">
       <c r="B63" s="92"/>
       <c r="C63" s="133"/>
       <c r="D63" s="133"/>
@@ -43586,7 +43862,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="3" max="3" width="9" style="42"/>
     <col min="5" max="6" width="9" style="42"/>
@@ -44468,12 +44744,12 @@
   </sheetPr>
   <dimension ref="A1:T177"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="59" customWidth="1"/>
@@ -51121,7 +51397,7 @@
       <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="59" customWidth="1"/>
@@ -56758,7 +57034,7 @@
       <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="44" customWidth="1"/>
@@ -68586,7 +68862,7 @@
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
@@ -75329,7 +75605,7 @@
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="8" width="9" style="42"/>
     <col min="9" max="9" width="1.6640625" style="42" customWidth="1"/>
@@ -75804,7 +76080,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="34.5">
+    <row r="12" spans="1:26" ht="38.25">
       <c r="A12" s="47" t="s">
         <v>470</v>
       </c>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4545" windowHeight="5265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4550" windowHeight="5270"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="33" r:id="rId1"/>
@@ -4767,7 +4767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11264" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11380" uniqueCount="954">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17962,15 +17962,187 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>#CatboostRanker + ipSG + class_weight X + learning rate=0.1  1개월단위</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>30</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>20240426</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rk_6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t># 20015</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t># 20016</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>#LGBMRanker + ipSG + class_weight X + learning rate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개월단위</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#CatboostRanker + ipSG + class_weight X + iterations=100  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#CatboostRanker + ipSG + class_weight X + iterations=100 + learning rate = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개월단위</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>#LGBMRanker + ipSG + class_weight X + learning rate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개월단위</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#CatboostRanker + ipSG + class_weight X + iterations=100 + learning rate = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개월단위</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>#LGBMRanker + ipSG + class_weight X + learning rate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개월단위</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>#LGBMRanker + ipSG + class_weight X + learning rate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개월단위</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -19466,6 +19638,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19525,12 +19703,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="186">
@@ -22576,36 +22748,36 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55:C55"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="59" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="59" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="59" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.69140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.84375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.53515625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="9.3046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.07421875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.23046875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.69140625" style="59" customWidth="1"/>
+    <col min="16" max="16" width="14.84375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.84375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.07421875" style="2" customWidth="1"/>
     <col min="19" max="19" width="8" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -24649,8 +24821,8 @@
       <c r="T47" s="59"/>
     </row>
     <row r="48" spans="1:20" s="42" customFormat="1">
-      <c r="A48" s="45">
-        <v>20015</v>
+      <c r="A48" s="45" t="s">
+        <v>945</v>
       </c>
       <c r="B48" s="71" t="s">
         <v>926</v>
@@ -24716,8 +24888,8 @@
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="45">
-        <v>20016</v>
+      <c r="A50" s="45" t="s">
+        <v>946</v>
       </c>
       <c r="B50" s="71" t="s">
         <v>926</v>
@@ -24931,14 +25103,14 @@
       <c r="T54" s="59"/>
     </row>
     <row r="55" spans="1:20" s="42" customFormat="1">
-      <c r="A55" s="181">
+      <c r="A55" s="161">
         <v>20017</v>
       </c>
       <c r="B55" s="71" t="s">
         <v>940</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>937</v>
@@ -25061,7 +25233,7 @@
     </row>
     <row r="58" spans="1:20" s="73" customFormat="1">
       <c r="A58" s="72" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -25084,14 +25256,14 @@
       <c r="T58" s="41"/>
     </row>
     <row r="59" spans="1:20" s="73" customFormat="1">
-      <c r="A59" s="182">
+      <c r="A59" s="162">
         <v>89103</v>
       </c>
       <c r="B59" s="71" t="s">
         <v>940</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>937</v>
@@ -25118,7 +25290,7 @@
         <v>31</v>
       </c>
       <c r="L59" s="59" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="M59" s="59" t="s">
         <v>784</v>
@@ -25142,7 +25314,523 @@
         <v>1825</v>
       </c>
       <c r="T59" s="41" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="42" customFormat="1">
+      <c r="A60" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+    </row>
+    <row r="61" spans="1:20" s="42" customFormat="1">
+      <c r="A61" s="161">
+        <v>20018</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="C61" s="71" t="s">
         <v>943</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="M61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P61" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q61" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R61" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S61" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T61" s="41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="73" customFormat="1">
+      <c r="A62" s="72" t="s">
+        <v>949</v>
+      </c>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+    </row>
+    <row r="63" spans="1:20" s="73" customFormat="1">
+      <c r="A63" s="162">
+        <v>89104</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="J63" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="K63" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="M63" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="N63" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P63" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q63" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R63" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S63" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T63" s="41" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="42" customFormat="1">
+      <c r="A64" s="45" t="s">
+        <v>950</v>
+      </c>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+    </row>
+    <row r="65" spans="1:20" s="42" customFormat="1">
+      <c r="A65" s="161">
+        <v>20019</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="M65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P65" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q65" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R65" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S65" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T65" s="41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="73" customFormat="1">
+      <c r="A66" s="72" t="s">
+        <v>951</v>
+      </c>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+    </row>
+    <row r="67" spans="1:20" s="73" customFormat="1">
+      <c r="A67" s="162">
+        <v>89105</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="G67" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="J67" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="K67" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="M67" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="N67" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="O67" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P67" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q67" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R67" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S67" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T67" s="41" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="42" customFormat="1">
+      <c r="A68" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+    </row>
+    <row r="69" spans="1:20" s="42" customFormat="1">
+      <c r="A69" s="161">
+        <v>20020</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="M69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q69" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R69" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S69" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T69" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="42" customFormat="1">
+      <c r="A70" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="59"/>
+    </row>
+    <row r="71" spans="1:20" s="42" customFormat="1">
+      <c r="A71" s="161">
+        <v>20021</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="M71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P71" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q71" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="R71" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S71" s="41">
+        <v>1825</v>
+      </c>
+      <c r="T71" s="41" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -25162,16 +25850,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="1.69140625" customWidth="1"/>
+    <col min="12" max="12" width="13.07421875" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="14.07421875" customWidth="1"/>
+    <col min="22" max="22" width="13.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="42" customFormat="1">
@@ -34580,7 +35268,7 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:13" s="42" customFormat="1">
       <c r="A1" s="42">
@@ -34979,12 +35667,12 @@
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" style="42" customWidth="1"/>
     <col min="8" max="8" width="9" style="42"/>
-    <col min="9" max="9" width="13.21875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="13.23046875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="42" customFormat="1">
@@ -38633,25 +39321,25 @@
       <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="59" customWidth="1"/>
     <col min="3" max="3" width="10" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="59" customWidth="1"/>
+    <col min="5" max="5" width="17.765625" style="59" customWidth="1"/>
     <col min="6" max="6" width="18" style="59" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="59" customWidth="1"/>
     <col min="8" max="8" width="13" style="59" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="59" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" style="59" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="59" customWidth="1"/>
     <col min="11" max="12" width="14" style="59" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="59" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="59" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="59" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="59" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" style="59" customWidth="1"/>
+    <col min="15" max="15" width="6.07421875" style="59" customWidth="1"/>
     <col min="16" max="16" width="8" style="59" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="59" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="8.765625" style="59" customWidth="1"/>
+    <col min="18" max="18" width="4.69140625" style="42" customWidth="1"/>
     <col min="19" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
@@ -40988,74 +41676,74 @@
       <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="64"/>
     <col min="2" max="2" width="7" style="69" customWidth="1"/>
     <col min="3" max="3" width="7" style="138" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="138" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="138" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" style="138" customWidth="1"/>
+    <col min="5" max="5" width="7.3046875" style="138" customWidth="1"/>
     <col min="6" max="8" width="9" style="64"/>
-    <col min="9" max="9" width="11.33203125" style="64" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="64" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="64" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="64" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" style="64" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="64" customWidth="1"/>
+    <col min="11" max="11" width="7.765625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="7.69140625" style="64" customWidth="1"/>
     <col min="13" max="15" width="9" style="64"/>
     <col min="16" max="18" width="0" style="64" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0.77734375" style="64" customWidth="1"/>
+    <col min="19" max="19" width="0.765625" style="64" customWidth="1"/>
     <col min="20" max="25" width="9" style="64"/>
     <col min="26" max="28" width="0" style="64" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="64"/>
-    <col min="30" max="30" width="9.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.4609375" style="64" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
       <c r="B1" s="98"/>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="175" t="s">
         <v>750</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="164" t="s">
+      <c r="D1" s="176"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="166" t="s">
         <v>794</v>
       </c>
-      <c r="G1" s="165"/>
-      <c r="H1" s="166"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="168"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="167" t="s">
+      <c r="J1" s="169" t="s">
         <v>743</v>
       </c>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="170" t="s">
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="172" t="s">
         <v>747</v>
       </c>
-      <c r="N1" s="171"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="170" t="s">
+      <c r="N1" s="173"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="172" t="s">
         <v>791</v>
       </c>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="180"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="182"/>
       <c r="S1" s="119"/>
-      <c r="T1" s="177" t="s">
+      <c r="T1" s="179" t="s">
         <v>743</v>
       </c>
-      <c r="U1" s="178"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="161" t="s">
+      <c r="U1" s="180"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="163" t="s">
         <v>747</v>
       </c>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="161" t="s">
+      <c r="X1" s="164"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="163" t="s">
         <v>791</v>
       </c>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="163"/>
-    </row>
-    <row r="2" spans="2:28" s="65" customFormat="1" ht="57.75" thickBot="1">
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="165"/>
+    </row>
+    <row r="2" spans="2:28" s="65" customFormat="1" ht="53" thickBot="1">
       <c r="B2" s="99" t="s">
         <v>766</v>
       </c>
@@ -41440,7 +42128,7 @@
       <c r="AA8" s="68"/>
       <c r="AB8" s="89"/>
     </row>
-    <row r="9" spans="2:28" ht="19.5" thickBot="1">
+    <row r="9" spans="2:28" ht="18" thickBot="1">
       <c r="B9" s="88"/>
       <c r="C9" s="131">
         <v>99103</v>
@@ -41675,7 +42363,7 @@
       <c r="AA13" s="66"/>
       <c r="AB13" s="90"/>
     </row>
-    <row r="14" spans="2:28" ht="19.5" thickBot="1">
+    <row r="14" spans="2:28" ht="18" thickBot="1">
       <c r="B14" s="91"/>
       <c r="C14" s="131"/>
       <c r="D14" s="131"/>
@@ -41859,7 +42547,7 @@
       <c r="AA17" s="66"/>
       <c r="AB17" s="90"/>
     </row>
-    <row r="18" spans="2:28" ht="19.5" thickBot="1">
+    <row r="18" spans="2:28" ht="18" thickBot="1">
       <c r="B18" s="92"/>
       <c r="C18" s="127"/>
       <c r="D18" s="133"/>
@@ -42293,7 +42981,7 @@
       <c r="AA25" s="67"/>
       <c r="AB25" s="144"/>
     </row>
-    <row r="26" spans="2:28" ht="19.5" thickBot="1">
+    <row r="26" spans="2:28" ht="18" thickBot="1">
       <c r="B26" s="88"/>
       <c r="C26" s="122">
         <v>13200</v>
@@ -42787,7 +43475,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="35" spans="2:28" ht="19.5" thickBot="1">
+    <row r="35" spans="2:28" ht="18" thickBot="1">
       <c r="B35" s="88"/>
       <c r="C35" s="150" t="s">
         <v>803</v>
@@ -43059,7 +43747,7 @@
       <c r="AA39" s="66"/>
       <c r="AB39" s="90"/>
     </row>
-    <row r="40" spans="2:28" ht="19.5" thickBot="1">
+    <row r="40" spans="2:28" ht="18" thickBot="1">
       <c r="B40" s="88" t="s">
         <v>767</v>
       </c>
@@ -43113,7 +43801,7 @@
       <c r="AA40" s="66"/>
       <c r="AB40" s="90"/>
     </row>
-    <row r="41" spans="2:28" ht="19.5" thickBot="1">
+    <row r="41" spans="2:28" ht="18" thickBot="1">
       <c r="B41" s="84" t="s">
         <v>828</v>
       </c>
@@ -43167,7 +43855,7 @@
       <c r="AA41" s="66"/>
       <c r="AB41" s="90"/>
     </row>
-    <row r="42" spans="2:28" ht="19.5" thickBot="1">
+    <row r="42" spans="2:28" ht="18" thickBot="1">
       <c r="B42" s="84"/>
       <c r="C42" s="127"/>
       <c r="D42" s="127"/>
@@ -43803,7 +44491,7 @@
       <c r="AA62" s="66"/>
       <c r="AB62" s="90"/>
     </row>
-    <row r="63" spans="2:28" ht="19.5" thickBot="1">
+    <row r="63" spans="2:28" ht="18" thickBot="1">
       <c r="B63" s="92"/>
       <c r="C63" s="133"/>
       <c r="D63" s="133"/>
@@ -43862,7 +44550,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
     <col min="3" max="3" width="9" style="42"/>
     <col min="5" max="6" width="9" style="42"/>
@@ -44749,30 +45437,30 @@
       <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="59" customWidth="1"/>
     <col min="3" max="3" width="10" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="59" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" style="59" customWidth="1"/>
     <col min="7" max="7" width="10" style="59" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="59" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="59" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="59" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="59" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="59" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" style="59" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="59" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="59" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="59" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="59" customWidth="1"/>
+    <col min="8" max="8" width="7.765625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="6.69140625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="7.84375" style="59" customWidth="1"/>
+    <col min="11" max="11" width="7.53515625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="9.3046875" style="59" customWidth="1"/>
+    <col min="13" max="13" width="11.07421875" style="59" customWidth="1"/>
+    <col min="14" max="14" width="10.23046875" style="59" customWidth="1"/>
+    <col min="15" max="15" width="9.69140625" style="59" customWidth="1"/>
+    <col min="16" max="16" width="14.84375" style="59" customWidth="1"/>
+    <col min="17" max="17" width="9.84375" style="59" customWidth="1"/>
+    <col min="18" max="18" width="6.07421875" style="59" customWidth="1"/>
     <col min="19" max="19" width="8" style="59" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="59" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" style="42" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="42"/>
+    <col min="20" max="20" width="8.765625" style="59" customWidth="1"/>
+    <col min="21" max="21" width="4.69140625" style="42" customWidth="1"/>
+    <col min="22" max="16384" width="8.84375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="16" customFormat="1" ht="34.5" customHeight="1">
@@ -51397,26 +52085,26 @@
       <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="59" customWidth="1"/>
     <col min="3" max="3" width="10" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="59" customWidth="1"/>
+    <col min="5" max="5" width="17.765625" style="59" customWidth="1"/>
     <col min="6" max="6" width="18" style="59" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="59" customWidth="1"/>
     <col min="8" max="8" width="13" style="59" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="59" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" style="59" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="59" customWidth="1"/>
     <col min="11" max="12" width="14" style="59" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="59" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="59" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="59" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="59" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" style="59" customWidth="1"/>
+    <col min="15" max="15" width="6.07421875" style="59" customWidth="1"/>
     <col min="16" max="16" width="8" style="59" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="59" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="42" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="42"/>
+    <col min="17" max="17" width="8.765625" style="59" customWidth="1"/>
+    <col min="18" max="18" width="4.69140625" style="42" customWidth="1"/>
+    <col min="19" max="16384" width="8.84375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="16" customFormat="1" ht="34.5" customHeight="1">
@@ -57034,28 +57722,28 @@
       <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="44" customWidth="1"/>
     <col min="3" max="3" width="10" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="17.765625" style="44" customWidth="1"/>
     <col min="6" max="6" width="18" style="44" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="44" customWidth="1"/>
     <col min="8" max="8" width="13" style="44" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="44" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="44" customWidth="1"/>
     <col min="11" max="12" width="14" style="44" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="44" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="44" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="44" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="1.109375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="5.4609375" style="44" customWidth="1"/>
+    <col min="16" max="16" width="9.4609375" style="44" customWidth="1"/>
+    <col min="17" max="17" width="2.69140625" style="44" customWidth="1"/>
+    <col min="18" max="18" width="1.07421875" style="44" customWidth="1"/>
     <col min="19" max="19" width="8" style="44" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="44" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" style="42" customWidth="1"/>
+    <col min="20" max="20" width="8.765625" style="44" customWidth="1"/>
+    <col min="21" max="21" width="4.69140625" style="42" customWidth="1"/>
     <col min="22" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
@@ -68862,10 +69550,10 @@
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" customWidth="1"/>
+    <col min="5" max="5" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130">
@@ -75605,10 +76293,10 @@
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="8" width="9" style="42"/>
-    <col min="9" max="9" width="1.6640625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="1.69140625" style="42" customWidth="1"/>
     <col min="10" max="17" width="9" style="42"/>
     <col min="18" max="18" width="2" style="42" customWidth="1"/>
     <col min="19" max="16384" width="9" style="42"/>
@@ -75625,7 +76313,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="35">
       <c r="A2" s="47" t="s">
         <v>470</v>
       </c>
@@ -76080,7 +76768,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="38.25">
+    <row r="12" spans="1:26" ht="35">
       <c r="A12" s="47" t="s">
         <v>470</v>
       </c>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4545" windowHeight="5265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4545" windowHeight="5265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="33" r:id="rId1"/>
-    <sheet name="model_online" sheetId="42" r:id="rId2"/>
-    <sheet name="실험1" sheetId="39" r:id="rId3"/>
-    <sheet name="실험2" sheetId="41" r:id="rId4"/>
-    <sheet name="model_bak3" sheetId="44" r:id="rId5"/>
-    <sheet name="model_bak2" sheetId="43" r:id="rId6"/>
-    <sheet name="model_bak" sheetId="38" r:id="rId7"/>
-    <sheet name="work" sheetId="34" r:id="rId8"/>
-    <sheet name="1,2,3桁betcnt,hitrate調査 (2)" sheetId="36" r:id="rId9"/>
-    <sheet name="1,2,3桁betcnt,hitrate調査" sheetId="35" r:id="rId10"/>
-    <sheet name="89100,79100,99100比較" sheetId="37" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="40" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="45" r:id="rId2"/>
+    <sheet name="model_online" sheetId="42" r:id="rId3"/>
+    <sheet name="실험1" sheetId="39" r:id="rId4"/>
+    <sheet name="실험2" sheetId="41" r:id="rId5"/>
+    <sheet name="model_bak3" sheetId="44" r:id="rId6"/>
+    <sheet name="model_bak2" sheetId="43" r:id="rId7"/>
+    <sheet name="model_bak" sheetId="38" r:id="rId8"/>
+    <sheet name="work" sheetId="34" r:id="rId9"/>
+    <sheet name="1,2,3桁betcnt,hitrate調査 (2)" sheetId="36" r:id="rId10"/>
+    <sheet name="1,2,3桁betcnt,hitrate調査" sheetId="35" r:id="rId11"/>
+    <sheet name="89100,79100,99100比較" sheetId="37" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="40" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'1,2,3桁betcnt,hitrate調査'!$A$24:$H$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1,2,3桁betcnt,hitrate調査 (2)'!$J$12:$Q$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'1,2,3桁betcnt,hitrate調査'!$A$24:$H$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'1,2,3桁betcnt,hitrate調査 (2)'!$J$12:$Q$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$A$1:$T$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">model_bak!$A$1:$T$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">model_bak2!$A$1:$Q$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">model_bak3!$A$1:$T$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">model_online!$A$1:$Q$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">실험1!$B$2:$R$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">model_bak!$A$1:$T$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">model_bak2!$A$1:$Q$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">model_bak3!$A$1:$T$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">model_online!$A$1:$Q$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">실험1!$B$2:$R$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -24708,9 +24709,9 @@
   </sheetPr>
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -29236,6 +29237,3245 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="8" width="9" style="42"/>
+    <col min="9" max="9" width="1.6640625" style="42" customWidth="1"/>
+    <col min="10" max="17" width="9" style="42"/>
+    <col min="18" max="18" width="2" style="42" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="49">
+        <v>162495</v>
+      </c>
+      <c r="F3" s="49">
+        <v>90689</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="N3" s="49">
+        <v>162495</v>
+      </c>
+      <c r="O3" s="49">
+        <v>47186</v>
+      </c>
+      <c r="P3" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="W3" s="49">
+        <v>162495</v>
+      </c>
+      <c r="X3" s="49">
+        <v>39480</v>
+      </c>
+      <c r="Y3" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="49">
+        <v>162495</v>
+      </c>
+      <c r="F4" s="49">
+        <v>91153</v>
+      </c>
+      <c r="G4" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" s="49">
+        <v>162495</v>
+      </c>
+      <c r="O4" s="49">
+        <v>47414</v>
+      </c>
+      <c r="P4" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="W4" s="49">
+        <v>162495</v>
+      </c>
+      <c r="X4" s="49">
+        <v>39406</v>
+      </c>
+      <c r="Y4" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="49">
+        <v>162495</v>
+      </c>
+      <c r="F5" s="49">
+        <v>91374</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="49">
+        <v>162495</v>
+      </c>
+      <c r="O5" s="49">
+        <v>43144</v>
+      </c>
+      <c r="P5" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="W5" s="49">
+        <v>162495</v>
+      </c>
+      <c r="X5" s="49">
+        <v>36025</v>
+      </c>
+      <c r="Y5" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="49">
+        <v>162495</v>
+      </c>
+      <c r="F6" s="49">
+        <v>88922</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="N6" s="49">
+        <v>162495</v>
+      </c>
+      <c r="O6" s="49">
+        <v>43190</v>
+      </c>
+      <c r="P6" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U6" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="V6" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="49">
+        <v>162495</v>
+      </c>
+      <c r="X6" s="49">
+        <v>36012</v>
+      </c>
+      <c r="Y6" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="49">
+        <v>162495</v>
+      </c>
+      <c r="F7" s="49">
+        <v>89246</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="N7" s="49">
+        <v>162495</v>
+      </c>
+      <c r="O7" s="49">
+        <v>41775</v>
+      </c>
+      <c r="P7" s="50">
+        <v>0.26</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="W7" s="49">
+        <v>162495</v>
+      </c>
+      <c r="X7" s="49">
+        <v>34911</v>
+      </c>
+      <c r="Y7" s="50">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="49">
+        <v>162495</v>
+      </c>
+      <c r="F8" s="49">
+        <v>89818</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="N8" s="49">
+        <v>162495</v>
+      </c>
+      <c r="O8" s="49">
+        <v>41741</v>
+      </c>
+      <c r="P8" s="50">
+        <v>0.26</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="W8" s="49">
+        <v>162495</v>
+      </c>
+      <c r="X8" s="49">
+        <v>34715</v>
+      </c>
+      <c r="Y8" s="50">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="34.5">
+      <c r="A12" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q12" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="S12" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="T12" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="U12" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="V12" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="W12" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="X12" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y12" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z12" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" hidden="1">
+      <c r="A13" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="49">
+        <v>126908</v>
+      </c>
+      <c r="G13" s="49">
+        <v>78368</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0.62</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="49">
+        <v>3543</v>
+      </c>
+      <c r="P13" s="49">
+        <v>789</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>0.22</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U13" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W13" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="X13" s="49">
+        <v>263</v>
+      </c>
+      <c r="Y13" s="49">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1">
+      <c r="A14" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="49">
+        <v>124945</v>
+      </c>
+      <c r="G14" s="49">
+        <v>77411</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0.62</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O14" s="49">
+        <v>2015</v>
+      </c>
+      <c r="P14" s="49">
+        <v>440</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>0.22</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T14" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U14" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W14" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X14" s="49">
+        <v>197</v>
+      </c>
+      <c r="Y14" s="49">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="50">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" hidden="1">
+      <c r="A15" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="49">
+        <v>132922</v>
+      </c>
+      <c r="G15" s="49">
+        <v>80599</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O15" s="49">
+        <v>23647</v>
+      </c>
+      <c r="P15" s="49">
+        <v>4911</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S15" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T15" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U15" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V15" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W15" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X15" s="49">
+        <v>5656</v>
+      </c>
+      <c r="Y15" s="49">
+        <v>736</v>
+      </c>
+      <c r="Z15" s="50">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1">
+      <c r="A16" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="49">
+        <v>129595</v>
+      </c>
+      <c r="G16" s="49">
+        <v>78677</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="49">
+        <v>22868</v>
+      </c>
+      <c r="P16" s="49">
+        <v>4729</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S16" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T16" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U16" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V16" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W16" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X16" s="49">
+        <v>5800</v>
+      </c>
+      <c r="Y16" s="49">
+        <v>718</v>
+      </c>
+      <c r="Z16" s="50">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" hidden="1">
+      <c r="A17" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="49">
+        <v>128769</v>
+      </c>
+      <c r="G17" s="49">
+        <v>78273</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="O17" s="49">
+        <v>22310</v>
+      </c>
+      <c r="P17" s="49">
+        <v>4663</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U17" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W17" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="X17" s="49">
+        <v>5459</v>
+      </c>
+      <c r="Y17" s="49">
+        <v>661</v>
+      </c>
+      <c r="Z17" s="50">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1">
+      <c r="A18" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="49">
+        <v>134333</v>
+      </c>
+      <c r="G18" s="49">
+        <v>80886</v>
+      </c>
+      <c r="H18" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18" s="49">
+        <v>22206</v>
+      </c>
+      <c r="P18" s="49">
+        <v>4675</v>
+      </c>
+      <c r="Q18" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S18" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T18" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U18" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V18" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W18" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="X18" s="49">
+        <v>5326</v>
+      </c>
+      <c r="Y18" s="49">
+        <v>659</v>
+      </c>
+      <c r="Z18" s="50">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="49">
+        <v>16049</v>
+      </c>
+      <c r="G19" s="49">
+        <v>6121</v>
+      </c>
+      <c r="H19" s="50">
+        <v>0.38</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O19" s="49">
+        <v>79147</v>
+      </c>
+      <c r="P19" s="49">
+        <v>24309</v>
+      </c>
+      <c r="Q19" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T19" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U19" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="V19" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W19" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X19" s="49">
+        <v>5272</v>
+      </c>
+      <c r="Y19" s="49">
+        <v>1205</v>
+      </c>
+      <c r="Z19" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="49">
+        <v>15165</v>
+      </c>
+      <c r="G20" s="49">
+        <v>5787</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0.38</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O20" s="49">
+        <v>77611</v>
+      </c>
+      <c r="P20" s="49">
+        <v>24049</v>
+      </c>
+      <c r="Q20" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T20" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U20" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="V20" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W20" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="X20" s="49">
+        <v>6540</v>
+      </c>
+      <c r="Y20" s="49">
+        <v>1440</v>
+      </c>
+      <c r="Z20" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="49">
+        <v>14845</v>
+      </c>
+      <c r="G21" s="49">
+        <v>5680</v>
+      </c>
+      <c r="H21" s="50">
+        <v>0.38</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="O21" s="49">
+        <v>59354</v>
+      </c>
+      <c r="P21" s="49">
+        <v>18299</v>
+      </c>
+      <c r="Q21" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T21" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U21" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="V21" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W21" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="X21" s="49">
+        <v>28306</v>
+      </c>
+      <c r="Y21" s="49">
+        <v>5674</v>
+      </c>
+      <c r="Z21" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="49">
+        <v>16326</v>
+      </c>
+      <c r="G22" s="49">
+        <v>5951</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0.36</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O22" s="49">
+        <v>57134</v>
+      </c>
+      <c r="P22" s="49">
+        <v>17756</v>
+      </c>
+      <c r="Q22" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T22" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U22" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="V22" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W22" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="X22" s="49">
+        <v>28301</v>
+      </c>
+      <c r="Y22" s="49">
+        <v>5616</v>
+      </c>
+      <c r="Z22" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="49">
+        <v>14429</v>
+      </c>
+      <c r="G23" s="49">
+        <v>5164</v>
+      </c>
+      <c r="H23" s="50">
+        <v>0.36</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" s="49">
+        <v>57694</v>
+      </c>
+      <c r="P23" s="49">
+        <v>17416</v>
+      </c>
+      <c r="Q23" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="S23" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T23" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U23" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="V23" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W23" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X23" s="49">
+        <v>28002</v>
+      </c>
+      <c r="Y23" s="49">
+        <v>5552</v>
+      </c>
+      <c r="Z23" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="49">
+        <v>14897</v>
+      </c>
+      <c r="G24" s="49">
+        <v>5224</v>
+      </c>
+      <c r="H24" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M24" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O24" s="49">
+        <v>57130</v>
+      </c>
+      <c r="P24" s="49">
+        <v>17364</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="S24" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T24" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U24" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="V24" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W24" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X24" s="49">
+        <v>27944</v>
+      </c>
+      <c r="Y24" s="49">
+        <v>5647</v>
+      </c>
+      <c r="Z24" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" hidden="1">
+      <c r="A25" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="49">
+        <v>7276</v>
+      </c>
+      <c r="G25" s="49">
+        <v>2598</v>
+      </c>
+      <c r="H25" s="50">
+        <v>0.36</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="49">
+        <v>39043</v>
+      </c>
+      <c r="P25" s="49">
+        <v>11264</v>
+      </c>
+      <c r="Q25" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S25" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T25" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U25" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V25" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W25" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" s="49">
+        <v>32245</v>
+      </c>
+      <c r="Y25" s="49">
+        <v>8032</v>
+      </c>
+      <c r="Z25" s="50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1">
+      <c r="A26" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="49">
+        <v>7790</v>
+      </c>
+      <c r="G26" s="49">
+        <v>2757</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" s="49">
+        <v>38793</v>
+      </c>
+      <c r="P26" s="49">
+        <v>11152</v>
+      </c>
+      <c r="Q26" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S26" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T26" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U26" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V26" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W26" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" s="49">
+        <v>30686</v>
+      </c>
+      <c r="Y26" s="49">
+        <v>7613</v>
+      </c>
+      <c r="Z26" s="50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" hidden="1">
+      <c r="A27" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="49">
+        <v>9664</v>
+      </c>
+      <c r="G27" s="49">
+        <v>3220</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0.33</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" s="49">
+        <v>36928</v>
+      </c>
+      <c r="P27" s="49">
+        <v>10034</v>
+      </c>
+      <c r="Q27" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="S27" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T27" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U27" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V27" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W27" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="X27" s="49">
+        <v>36676</v>
+      </c>
+      <c r="Y27" s="49">
+        <v>8404</v>
+      </c>
+      <c r="Z27" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1">
+      <c r="A28" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="49">
+        <v>10229</v>
+      </c>
+      <c r="G28" s="49">
+        <v>3299</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0.32</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" s="49">
+        <v>36779</v>
+      </c>
+      <c r="P28" s="49">
+        <v>10044</v>
+      </c>
+      <c r="Q28" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="S28" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T28" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U28" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W28" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" s="49">
+        <v>36076</v>
+      </c>
+      <c r="Y28" s="49">
+        <v>8198</v>
+      </c>
+      <c r="Z28" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" hidden="1">
+      <c r="A29" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="49">
+        <v>8851</v>
+      </c>
+      <c r="G29" s="49">
+        <v>2766</v>
+      </c>
+      <c r="H29" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" s="49">
+        <v>36802</v>
+      </c>
+      <c r="P29" s="49">
+        <v>9593</v>
+      </c>
+      <c r="Q29" s="50">
+        <v>0.26</v>
+      </c>
+      <c r="S29" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T29" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U29" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V29" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W29" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" s="49">
+        <v>36568</v>
+      </c>
+      <c r="Y29" s="49">
+        <v>8216</v>
+      </c>
+      <c r="Z29" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" hidden="1">
+      <c r="A30" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="49">
+        <v>9128</v>
+      </c>
+      <c r="G30" s="49">
+        <v>2773</v>
+      </c>
+      <c r="H30" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" s="49">
+        <v>36362</v>
+      </c>
+      <c r="P30" s="49">
+        <v>9540</v>
+      </c>
+      <c r="Q30" s="50">
+        <v>0.26</v>
+      </c>
+      <c r="S30" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T30" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U30" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V30" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W30" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="X30" s="49">
+        <v>36535</v>
+      </c>
+      <c r="Y30" s="49">
+        <v>8157</v>
+      </c>
+      <c r="Z30" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" hidden="1">
+      <c r="A31" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="49">
+        <v>4669</v>
+      </c>
+      <c r="G31" s="49">
+        <v>1672</v>
+      </c>
+      <c r="H31" s="50">
+        <v>0.36</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" s="49">
+        <v>24580</v>
+      </c>
+      <c r="P31" s="49">
+        <v>6819</v>
+      </c>
+      <c r="Q31" s="50">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S31" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T31" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U31" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="V31" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W31" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X31" s="49">
+        <v>47392</v>
+      </c>
+      <c r="Y31" s="49">
+        <v>11545</v>
+      </c>
+      <c r="Z31" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" hidden="1">
+      <c r="A32" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="49">
+        <v>4224</v>
+      </c>
+      <c r="G32" s="49">
+        <v>1451</v>
+      </c>
+      <c r="H32" s="50">
+        <v>0.34</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N32" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" s="49">
+        <v>24943</v>
+      </c>
+      <c r="P32" s="49">
+        <v>6857</v>
+      </c>
+      <c r="Q32" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="S32" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T32" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U32" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="V32" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W32" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="X32" s="49">
+        <v>45919</v>
+      </c>
+      <c r="Y32" s="49">
+        <v>11154</v>
+      </c>
+      <c r="Z32" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" hidden="1">
+      <c r="A33" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="49">
+        <v>6278</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" s="50">
+        <v>0.33</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" s="49">
+        <v>25153</v>
+      </c>
+      <c r="P33" s="49">
+        <v>6191</v>
+      </c>
+      <c r="Q33" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="S33" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T33" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U33" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="V33" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W33" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="X33" s="49">
+        <v>37633</v>
+      </c>
+      <c r="Y33" s="49">
+        <v>8819</v>
+      </c>
+      <c r="Z33" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" hidden="1">
+      <c r="A34" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="49">
+        <v>7006</v>
+      </c>
+      <c r="G34" s="49">
+        <v>2186</v>
+      </c>
+      <c r="H34" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" s="49">
+        <v>23497</v>
+      </c>
+      <c r="P34" s="49">
+        <v>5802</v>
+      </c>
+      <c r="Q34" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="S34" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T34" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U34" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="V34" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W34" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X34" s="49">
+        <v>37454</v>
+      </c>
+      <c r="Y34" s="49">
+        <v>8754</v>
+      </c>
+      <c r="Z34" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1">
+      <c r="A35" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="49">
+        <v>6299</v>
+      </c>
+      <c r="G35" s="49">
+        <v>1857</v>
+      </c>
+      <c r="H35" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N35" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" s="49">
+        <v>24666</v>
+      </c>
+      <c r="P35" s="49">
+        <v>5876</v>
+      </c>
+      <c r="Q35" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="S35" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T35" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U35" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="V35" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W35" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="X35" s="49">
+        <v>36875</v>
+      </c>
+      <c r="Y35" s="49">
+        <v>8437</v>
+      </c>
+      <c r="Z35" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1">
+      <c r="A36" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="49">
+        <v>6086</v>
+      </c>
+      <c r="G36" s="49">
+        <v>1792</v>
+      </c>
+      <c r="H36" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N36" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" s="49">
+        <v>24364</v>
+      </c>
+      <c r="P36" s="49">
+        <v>5780</v>
+      </c>
+      <c r="Q36" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="S36" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T36" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U36" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="V36" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W36" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X36" s="49">
+        <v>36586</v>
+      </c>
+      <c r="Y36" s="49">
+        <v>8396</v>
+      </c>
+      <c r="Z36" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1">
+      <c r="A37" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="49">
+        <v>1193</v>
+      </c>
+      <c r="G37" s="49">
+        <v>371</v>
+      </c>
+      <c r="H37" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N37" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O37" s="49">
+        <v>10394</v>
+      </c>
+      <c r="P37" s="49">
+        <v>2708</v>
+      </c>
+      <c r="Q37" s="50">
+        <v>0.26</v>
+      </c>
+      <c r="S37" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T37" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U37" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="V37" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W37" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X37" s="49">
+        <v>38167</v>
+      </c>
+      <c r="Y37" s="49">
+        <v>9221</v>
+      </c>
+      <c r="Z37" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1">
+      <c r="A38" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="49">
+        <v>1300</v>
+      </c>
+      <c r="G38" s="49">
+        <v>378</v>
+      </c>
+      <c r="H38" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N38" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" s="49">
+        <v>10285</v>
+      </c>
+      <c r="P38" s="49">
+        <v>2622</v>
+      </c>
+      <c r="Q38" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="S38" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T38" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U38" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="V38" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W38" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="X38" s="49">
+        <v>36926</v>
+      </c>
+      <c r="Y38" s="49">
+        <v>8861</v>
+      </c>
+      <c r="Z38" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1">
+      <c r="A39" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" s="49">
+        <v>2591</v>
+      </c>
+      <c r="G39" s="49">
+        <v>648</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N39" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39" s="49">
+        <v>12798</v>
+      </c>
+      <c r="P39" s="49">
+        <v>2794</v>
+      </c>
+      <c r="Q39" s="50">
+        <v>0.22</v>
+      </c>
+      <c r="S39" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T39" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U39" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="V39" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W39" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X39" s="49">
+        <v>28787</v>
+      </c>
+      <c r="Y39" s="49">
+        <v>6494</v>
+      </c>
+      <c r="Z39" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1">
+      <c r="A40" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="49">
+        <v>2277</v>
+      </c>
+      <c r="G40" s="49">
+        <v>574</v>
+      </c>
+      <c r="H40" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N40" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" s="49">
+        <v>12122</v>
+      </c>
+      <c r="P40" s="49">
+        <v>2648</v>
+      </c>
+      <c r="Q40" s="50">
+        <v>0.22</v>
+      </c>
+      <c r="S40" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T40" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U40" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="V40" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W40" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="X40" s="49">
+        <v>28624</v>
+      </c>
+      <c r="Y40" s="49">
+        <v>6422</v>
+      </c>
+      <c r="Z40" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1">
+      <c r="A41" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="49">
+        <v>2204</v>
+      </c>
+      <c r="G41" s="49">
+        <v>521</v>
+      </c>
+      <c r="H41" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" s="49">
+        <v>12506</v>
+      </c>
+      <c r="P41" s="49">
+        <v>2584</v>
+      </c>
+      <c r="Q41" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S41" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T41" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U41" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="V41" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W41" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X41" s="49">
+        <v>28768</v>
+      </c>
+      <c r="Y41" s="49">
+        <v>6139</v>
+      </c>
+      <c r="Z41" s="50">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1">
+      <c r="A42" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="49">
+        <v>2188</v>
+      </c>
+      <c r="G42" s="49">
+        <v>500</v>
+      </c>
+      <c r="H42" s="50">
+        <v>0.23</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N42" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O42" s="49">
+        <v>12293</v>
+      </c>
+      <c r="P42" s="49">
+        <v>2547</v>
+      </c>
+      <c r="Q42" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S42" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T42" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U42" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="V42" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W42" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="X42" s="49">
+        <v>28752</v>
+      </c>
+      <c r="Y42" s="49">
+        <v>6104</v>
+      </c>
+      <c r="Z42" s="50">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1">
+      <c r="A43" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="49">
+        <v>649</v>
+      </c>
+      <c r="G43" s="49">
+        <v>181</v>
+      </c>
+      <c r="H43" s="50">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N43" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" s="49">
+        <v>7312</v>
+      </c>
+      <c r="P43" s="49">
+        <v>1806</v>
+      </c>
+      <c r="Q43" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="S43" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T43" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U43" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="V43" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W43" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="X43" s="49">
+        <v>40781</v>
+      </c>
+      <c r="Y43" s="49">
+        <v>9865</v>
+      </c>
+      <c r="Z43" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1">
+      <c r="A44" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="49">
+        <v>624</v>
+      </c>
+      <c r="G44" s="49">
+        <v>167</v>
+      </c>
+      <c r="H44" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O44" s="49">
+        <v>7324</v>
+      </c>
+      <c r="P44" s="49">
+        <v>1785</v>
+      </c>
+      <c r="Q44" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="S44" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T44" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="U44" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="V44" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W44" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="X44" s="49">
+        <v>40602</v>
+      </c>
+      <c r="Y44" s="49">
+        <v>9878</v>
+      </c>
+      <c r="Z44" s="50">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" hidden="1">
+      <c r="A45" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="49">
+        <v>1330</v>
+      </c>
+      <c r="G45" s="49">
+        <v>326</v>
+      </c>
+      <c r="H45" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" s="49">
+        <v>8425</v>
+      </c>
+      <c r="P45" s="49">
+        <v>1730</v>
+      </c>
+      <c r="Q45" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="S45" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T45" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U45" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="V45" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W45" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X45" s="49">
+        <v>26578</v>
+      </c>
+      <c r="Y45" s="49">
+        <v>6183</v>
+      </c>
+      <c r="Z45" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" hidden="1">
+      <c r="A46" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="49">
+        <v>1319</v>
+      </c>
+      <c r="G46" s="49">
+        <v>328</v>
+      </c>
+      <c r="H46" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="O46" s="49">
+        <v>8284</v>
+      </c>
+      <c r="P46" s="49">
+        <v>1698</v>
+      </c>
+      <c r="Q46" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="S46" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T46" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="U46" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="V46" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W46" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="X46" s="49">
+        <v>25930</v>
+      </c>
+      <c r="Y46" s="49">
+        <v>6047</v>
+      </c>
+      <c r="Z46" s="50">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" hidden="1">
+      <c r="A47" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="49">
+        <v>1214</v>
+      </c>
+      <c r="G47" s="49">
+        <v>295</v>
+      </c>
+      <c r="H47" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O47" s="49">
+        <v>8486</v>
+      </c>
+      <c r="P47" s="49">
+        <v>1596</v>
+      </c>
+      <c r="Q47" s="50">
+        <v>0.19</v>
+      </c>
+      <c r="S47" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T47" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="U47" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="V47" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W47" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="X47" s="49">
+        <v>26771</v>
+      </c>
+      <c r="Y47" s="49">
+        <v>5890</v>
+      </c>
+      <c r="Z47" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" hidden="1">
+      <c r="A48" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="49">
+        <v>1398</v>
+      </c>
+      <c r="G48" s="49">
+        <v>323</v>
+      </c>
+      <c r="H48" s="50">
+        <v>0.23</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O48" s="49">
+        <v>8172</v>
+      </c>
+      <c r="P48" s="49">
+        <v>1580</v>
+      </c>
+      <c r="Q48" s="50">
+        <v>0.19</v>
+      </c>
+      <c r="S48" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T48" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="U48" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="V48" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W48" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="X48" s="49">
+        <v>26573</v>
+      </c>
+      <c r="Y48" s="49">
+        <v>5740</v>
+      </c>
+      <c r="Z48" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="J12:Q48">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38652,7 +41892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -39051,7 +42291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
@@ -42702,6 +45942,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1.29</v>
+      </c>
+      <c r="B20">
+        <f>SUM(A1:A20)</f>
+        <v>51.580000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f>SUM(A1:A26)</f>
+        <v>58.180000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -45054,7 +48454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -47931,7 +51331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -48817,7 +52217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -48826,7 +52226,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25"/>
@@ -55465,7 +58865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -61102,7 +64502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
@@ -72934,7 +76334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM239"/>
   <sheetViews>
@@ -76930,3243 +80330,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="A1:Z48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
-  <cols>
-    <col min="1" max="8" width="9" style="42"/>
-    <col min="9" max="9" width="1.6640625" style="42" customWidth="1"/>
-    <col min="10" max="17" width="9" style="42"/>
-    <col min="18" max="18" width="2" style="42" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="T2" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="V2" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="W2" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="X2" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y2" s="47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="49">
-        <v>162495</v>
-      </c>
-      <c r="F3" s="49">
-        <v>90689</v>
-      </c>
-      <c r="G3" s="50">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" s="49">
-        <v>162495</v>
-      </c>
-      <c r="O3" s="49">
-        <v>47186</v>
-      </c>
-      <c r="P3" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S3" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T3" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U3" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="V3" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="W3" s="49">
-        <v>162495</v>
-      </c>
-      <c r="X3" s="49">
-        <v>39480</v>
-      </c>
-      <c r="Y3" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="49">
-        <v>162495</v>
-      </c>
-      <c r="F4" s="49">
-        <v>91153</v>
-      </c>
-      <c r="G4" s="50">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" s="49">
-        <v>162495</v>
-      </c>
-      <c r="O4" s="49">
-        <v>47414</v>
-      </c>
-      <c r="P4" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T4" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U4" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="V4" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="W4" s="49">
-        <v>162495</v>
-      </c>
-      <c r="X4" s="49">
-        <v>39406</v>
-      </c>
-      <c r="Y4" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="49">
-        <v>162495</v>
-      </c>
-      <c r="F5" s="49">
-        <v>91374</v>
-      </c>
-      <c r="G5" s="50">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="N5" s="49">
-        <v>162495</v>
-      </c>
-      <c r="O5" s="49">
-        <v>43144</v>
-      </c>
-      <c r="P5" s="50">
-        <v>0.27</v>
-      </c>
-      <c r="S5" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T5" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U5" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="V5" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="W5" s="49">
-        <v>162495</v>
-      </c>
-      <c r="X5" s="49">
-        <v>36025</v>
-      </c>
-      <c r="Y5" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="49">
-        <v>162495</v>
-      </c>
-      <c r="F6" s="49">
-        <v>88922</v>
-      </c>
-      <c r="G6" s="50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="N6" s="49">
-        <v>162495</v>
-      </c>
-      <c r="O6" s="49">
-        <v>43190</v>
-      </c>
-      <c r="P6" s="50">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="W6" s="49">
-        <v>162495</v>
-      </c>
-      <c r="X6" s="49">
-        <v>36012</v>
-      </c>
-      <c r="Y6" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="49">
-        <v>162495</v>
-      </c>
-      <c r="F7" s="49">
-        <v>89246</v>
-      </c>
-      <c r="G7" s="50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="N7" s="49">
-        <v>162495</v>
-      </c>
-      <c r="O7" s="49">
-        <v>41775</v>
-      </c>
-      <c r="P7" s="50">
-        <v>0.26</v>
-      </c>
-      <c r="S7" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T7" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U7" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="V7" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="W7" s="49">
-        <v>162495</v>
-      </c>
-      <c r="X7" s="49">
-        <v>34911</v>
-      </c>
-      <c r="Y7" s="50">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="49">
-        <v>162495</v>
-      </c>
-      <c r="F8" s="49">
-        <v>89818</v>
-      </c>
-      <c r="G8" s="50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="N8" s="49">
-        <v>162495</v>
-      </c>
-      <c r="O8" s="49">
-        <v>41741</v>
-      </c>
-      <c r="P8" s="50">
-        <v>0.26</v>
-      </c>
-      <c r="S8" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T8" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="V8" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="W8" s="49">
-        <v>162495</v>
-      </c>
-      <c r="X8" s="49">
-        <v>34715</v>
-      </c>
-      <c r="Y8" s="50">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="34.5">
-      <c r="A12" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="P12" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q12" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="S12" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="U12" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="V12" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="W12" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="X12" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y12" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z12" s="47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" hidden="1">
-      <c r="A13" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="49">
-        <v>126908</v>
-      </c>
-      <c r="G13" s="49">
-        <v>78368</v>
-      </c>
-      <c r="H13" s="50">
-        <v>0.62</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O13" s="49">
-        <v>3543</v>
-      </c>
-      <c r="P13" s="49">
-        <v>789</v>
-      </c>
-      <c r="Q13" s="50">
-        <v>0.22</v>
-      </c>
-      <c r="S13" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T13" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U13" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W13" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="X13" s="49">
-        <v>263</v>
-      </c>
-      <c r="Y13" s="49">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="50">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" hidden="1">
-      <c r="A14" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="49">
-        <v>124945</v>
-      </c>
-      <c r="G14" s="49">
-        <v>77411</v>
-      </c>
-      <c r="H14" s="50">
-        <v>0.62</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="O14" s="49">
-        <v>2015</v>
-      </c>
-      <c r="P14" s="49">
-        <v>440</v>
-      </c>
-      <c r="Q14" s="50">
-        <v>0.22</v>
-      </c>
-      <c r="S14" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T14" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U14" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V14" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W14" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="X14" s="49">
-        <v>197</v>
-      </c>
-      <c r="Y14" s="49">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="50">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" hidden="1">
-      <c r="A15" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="49">
-        <v>132922</v>
-      </c>
-      <c r="G15" s="49">
-        <v>80599</v>
-      </c>
-      <c r="H15" s="50">
-        <v>0.61</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O15" s="49">
-        <v>23647</v>
-      </c>
-      <c r="P15" s="49">
-        <v>4911</v>
-      </c>
-      <c r="Q15" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S15" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T15" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U15" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V15" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W15" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="X15" s="49">
-        <v>5656</v>
-      </c>
-      <c r="Y15" s="49">
-        <v>736</v>
-      </c>
-      <c r="Z15" s="50">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" hidden="1">
-      <c r="A16" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="49">
-        <v>129595</v>
-      </c>
-      <c r="G16" s="49">
-        <v>78677</v>
-      </c>
-      <c r="H16" s="50">
-        <v>0.61</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O16" s="49">
-        <v>22868</v>
-      </c>
-      <c r="P16" s="49">
-        <v>4729</v>
-      </c>
-      <c r="Q16" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S16" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T16" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U16" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V16" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W16" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="X16" s="49">
-        <v>5800</v>
-      </c>
-      <c r="Y16" s="49">
-        <v>718</v>
-      </c>
-      <c r="Z16" s="50">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" hidden="1">
-      <c r="A17" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="49">
-        <v>128769</v>
-      </c>
-      <c r="G17" s="49">
-        <v>78273</v>
-      </c>
-      <c r="H17" s="50">
-        <v>0.61</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O17" s="49">
-        <v>22310</v>
-      </c>
-      <c r="P17" s="49">
-        <v>4663</v>
-      </c>
-      <c r="Q17" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S17" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T17" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W17" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="X17" s="49">
-        <v>5459</v>
-      </c>
-      <c r="Y17" s="49">
-        <v>661</v>
-      </c>
-      <c r="Z17" s="50">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" hidden="1">
-      <c r="A18" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="49">
-        <v>134333</v>
-      </c>
-      <c r="G18" s="49">
-        <v>80886</v>
-      </c>
-      <c r="H18" s="50">
-        <v>0.6</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N18" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O18" s="49">
-        <v>22206</v>
-      </c>
-      <c r="P18" s="49">
-        <v>4675</v>
-      </c>
-      <c r="Q18" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S18" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T18" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U18" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V18" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W18" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="X18" s="49">
-        <v>5326</v>
-      </c>
-      <c r="Y18" s="49">
-        <v>659</v>
-      </c>
-      <c r="Z18" s="50">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="49">
-        <v>16049</v>
-      </c>
-      <c r="G19" s="49">
-        <v>6121</v>
-      </c>
-      <c r="H19" s="50">
-        <v>0.38</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N19" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="O19" s="49">
-        <v>79147</v>
-      </c>
-      <c r="P19" s="49">
-        <v>24309</v>
-      </c>
-      <c r="Q19" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="S19" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T19" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U19" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="V19" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W19" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="X19" s="49">
-        <v>5272</v>
-      </c>
-      <c r="Y19" s="49">
-        <v>1205</v>
-      </c>
-      <c r="Z19" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="49">
-        <v>15165</v>
-      </c>
-      <c r="G20" s="49">
-        <v>5787</v>
-      </c>
-      <c r="H20" s="50">
-        <v>0.38</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O20" s="49">
-        <v>77611</v>
-      </c>
-      <c r="P20" s="49">
-        <v>24049</v>
-      </c>
-      <c r="Q20" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="S20" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T20" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U20" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="V20" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W20" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="X20" s="49">
-        <v>6540</v>
-      </c>
-      <c r="Y20" s="49">
-        <v>1440</v>
-      </c>
-      <c r="Z20" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="49">
-        <v>14845</v>
-      </c>
-      <c r="G21" s="49">
-        <v>5680</v>
-      </c>
-      <c r="H21" s="50">
-        <v>0.38</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M21" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O21" s="49">
-        <v>59354</v>
-      </c>
-      <c r="P21" s="49">
-        <v>18299</v>
-      </c>
-      <c r="Q21" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="S21" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T21" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U21" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="V21" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W21" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="X21" s="49">
-        <v>28306</v>
-      </c>
-      <c r="Y21" s="49">
-        <v>5674</v>
-      </c>
-      <c r="Z21" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="49">
-        <v>16326</v>
-      </c>
-      <c r="G22" s="49">
-        <v>5951</v>
-      </c>
-      <c r="H22" s="50">
-        <v>0.36</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M22" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N22" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O22" s="49">
-        <v>57134</v>
-      </c>
-      <c r="P22" s="49">
-        <v>17756</v>
-      </c>
-      <c r="Q22" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="S22" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T22" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U22" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="V22" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W22" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="X22" s="49">
-        <v>28301</v>
-      </c>
-      <c r="Y22" s="49">
-        <v>5616</v>
-      </c>
-      <c r="Z22" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="49">
-        <v>14429</v>
-      </c>
-      <c r="G23" s="49">
-        <v>5164</v>
-      </c>
-      <c r="H23" s="50">
-        <v>0.36</v>
-      </c>
-      <c r="J23" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L23" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M23" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N23" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O23" s="49">
-        <v>57694</v>
-      </c>
-      <c r="P23" s="49">
-        <v>17416</v>
-      </c>
-      <c r="Q23" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="S23" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T23" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U23" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="V23" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W23" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="X23" s="49">
-        <v>28002</v>
-      </c>
-      <c r="Y23" s="49">
-        <v>5552</v>
-      </c>
-      <c r="Z23" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="49">
-        <v>14897</v>
-      </c>
-      <c r="G24" s="49">
-        <v>5224</v>
-      </c>
-      <c r="H24" s="50">
-        <v>0.35</v>
-      </c>
-      <c r="J24" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L24" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M24" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N24" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O24" s="49">
-        <v>57130</v>
-      </c>
-      <c r="P24" s="49">
-        <v>17364</v>
-      </c>
-      <c r="Q24" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="S24" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T24" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U24" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="V24" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W24" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="X24" s="49">
-        <v>27944</v>
-      </c>
-      <c r="Y24" s="49">
-        <v>5647</v>
-      </c>
-      <c r="Z24" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" hidden="1">
-      <c r="A25" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" s="49">
-        <v>7276</v>
-      </c>
-      <c r="G25" s="49">
-        <v>2598</v>
-      </c>
-      <c r="H25" s="50">
-        <v>0.36</v>
-      </c>
-      <c r="J25" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L25" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M25" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N25" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O25" s="49">
-        <v>39043</v>
-      </c>
-      <c r="P25" s="49">
-        <v>11264</v>
-      </c>
-      <c r="Q25" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S25" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T25" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U25" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="V25" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W25" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="X25" s="49">
-        <v>32245</v>
-      </c>
-      <c r="Y25" s="49">
-        <v>8032</v>
-      </c>
-      <c r="Z25" s="50">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" hidden="1">
-      <c r="A26" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="49">
-        <v>7790</v>
-      </c>
-      <c r="G26" s="49">
-        <v>2757</v>
-      </c>
-      <c r="H26" s="50">
-        <v>0.35</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M26" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N26" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="O26" s="49">
-        <v>38793</v>
-      </c>
-      <c r="P26" s="49">
-        <v>11152</v>
-      </c>
-      <c r="Q26" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S26" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T26" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U26" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="V26" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W26" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="X26" s="49">
-        <v>30686</v>
-      </c>
-      <c r="Y26" s="49">
-        <v>7613</v>
-      </c>
-      <c r="Z26" s="50">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" hidden="1">
-      <c r="A27" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" s="49">
-        <v>9664</v>
-      </c>
-      <c r="G27" s="49">
-        <v>3220</v>
-      </c>
-      <c r="H27" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L27" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M27" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N27" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O27" s="49">
-        <v>36928</v>
-      </c>
-      <c r="P27" s="49">
-        <v>10034</v>
-      </c>
-      <c r="Q27" s="50">
-        <v>0.27</v>
-      </c>
-      <c r="S27" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T27" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U27" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="V27" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W27" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="X27" s="49">
-        <v>36676</v>
-      </c>
-      <c r="Y27" s="49">
-        <v>8404</v>
-      </c>
-      <c r="Z27" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" hidden="1">
-      <c r="A28" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="49">
-        <v>10229</v>
-      </c>
-      <c r="G28" s="49">
-        <v>3299</v>
-      </c>
-      <c r="H28" s="50">
-        <v>0.32</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L28" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M28" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N28" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O28" s="49">
-        <v>36779</v>
-      </c>
-      <c r="P28" s="49">
-        <v>10044</v>
-      </c>
-      <c r="Q28" s="50">
-        <v>0.27</v>
-      </c>
-      <c r="S28" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T28" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U28" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="V28" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W28" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="X28" s="49">
-        <v>36076</v>
-      </c>
-      <c r="Y28" s="49">
-        <v>8198</v>
-      </c>
-      <c r="Z28" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" hidden="1">
-      <c r="A29" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="49">
-        <v>8851</v>
-      </c>
-      <c r="G29" s="49">
-        <v>2766</v>
-      </c>
-      <c r="H29" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L29" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M29" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N29" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O29" s="49">
-        <v>36802</v>
-      </c>
-      <c r="P29" s="49">
-        <v>9593</v>
-      </c>
-      <c r="Q29" s="50">
-        <v>0.26</v>
-      </c>
-      <c r="S29" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T29" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U29" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="V29" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W29" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="X29" s="49">
-        <v>36568</v>
-      </c>
-      <c r="Y29" s="49">
-        <v>8216</v>
-      </c>
-      <c r="Z29" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" hidden="1">
-      <c r="A30" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="49">
-        <v>9128</v>
-      </c>
-      <c r="G30" s="49">
-        <v>2773</v>
-      </c>
-      <c r="H30" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L30" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N30" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" s="49">
-        <v>36362</v>
-      </c>
-      <c r="P30" s="49">
-        <v>9540</v>
-      </c>
-      <c r="Q30" s="50">
-        <v>0.26</v>
-      </c>
-      <c r="S30" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T30" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U30" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="V30" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W30" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="X30" s="49">
-        <v>36535</v>
-      </c>
-      <c r="Y30" s="49">
-        <v>8157</v>
-      </c>
-      <c r="Z30" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" hidden="1">
-      <c r="A31" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="49">
-        <v>4669</v>
-      </c>
-      <c r="G31" s="49">
-        <v>1672</v>
-      </c>
-      <c r="H31" s="50">
-        <v>0.36</v>
-      </c>
-      <c r="J31" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L31" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="M31" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N31" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O31" s="49">
-        <v>24580</v>
-      </c>
-      <c r="P31" s="49">
-        <v>6819</v>
-      </c>
-      <c r="Q31" s="50">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S31" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T31" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U31" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="V31" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W31" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="X31" s="49">
-        <v>47392</v>
-      </c>
-      <c r="Y31" s="49">
-        <v>11545</v>
-      </c>
-      <c r="Z31" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" hidden="1">
-      <c r="A32" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="49">
-        <v>4224</v>
-      </c>
-      <c r="G32" s="49">
-        <v>1451</v>
-      </c>
-      <c r="H32" s="50">
-        <v>0.34</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="M32" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N32" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="O32" s="49">
-        <v>24943</v>
-      </c>
-      <c r="P32" s="49">
-        <v>6857</v>
-      </c>
-      <c r="Q32" s="50">
-        <v>0.27</v>
-      </c>
-      <c r="S32" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T32" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U32" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="V32" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W32" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="X32" s="49">
-        <v>45919</v>
-      </c>
-      <c r="Y32" s="49">
-        <v>11154</v>
-      </c>
-      <c r="Z32" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" hidden="1">
-      <c r="A33" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="49">
-        <v>6278</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="H33" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L33" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="M33" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N33" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O33" s="49">
-        <v>25153</v>
-      </c>
-      <c r="P33" s="49">
-        <v>6191</v>
-      </c>
-      <c r="Q33" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="S33" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T33" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U33" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="V33" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W33" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="X33" s="49">
-        <v>37633</v>
-      </c>
-      <c r="Y33" s="49">
-        <v>8819</v>
-      </c>
-      <c r="Z33" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" hidden="1">
-      <c r="A34" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34" s="49">
-        <v>7006</v>
-      </c>
-      <c r="G34" s="49">
-        <v>2186</v>
-      </c>
-      <c r="H34" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="J34" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L34" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="M34" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N34" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O34" s="49">
-        <v>23497</v>
-      </c>
-      <c r="P34" s="49">
-        <v>5802</v>
-      </c>
-      <c r="Q34" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="S34" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T34" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U34" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="V34" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W34" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="X34" s="49">
-        <v>37454</v>
-      </c>
-      <c r="Y34" s="49">
-        <v>8754</v>
-      </c>
-      <c r="Z34" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" hidden="1">
-      <c r="A35" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F35" s="49">
-        <v>6299</v>
-      </c>
-      <c r="G35" s="49">
-        <v>1857</v>
-      </c>
-      <c r="H35" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L35" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="M35" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N35" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O35" s="49">
-        <v>24666</v>
-      </c>
-      <c r="P35" s="49">
-        <v>5876</v>
-      </c>
-      <c r="Q35" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="S35" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T35" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U35" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="V35" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W35" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="X35" s="49">
-        <v>36875</v>
-      </c>
-      <c r="Y35" s="49">
-        <v>8437</v>
-      </c>
-      <c r="Z35" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" hidden="1">
-      <c r="A36" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F36" s="49">
-        <v>6086</v>
-      </c>
-      <c r="G36" s="49">
-        <v>1792</v>
-      </c>
-      <c r="H36" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J36" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="M36" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N36" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O36" s="49">
-        <v>24364</v>
-      </c>
-      <c r="P36" s="49">
-        <v>5780</v>
-      </c>
-      <c r="Q36" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="S36" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T36" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U36" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="V36" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W36" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="X36" s="49">
-        <v>36586</v>
-      </c>
-      <c r="Y36" s="49">
-        <v>8396</v>
-      </c>
-      <c r="Z36" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" hidden="1">
-      <c r="A37" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="49">
-        <v>1193</v>
-      </c>
-      <c r="G37" s="49">
-        <v>371</v>
-      </c>
-      <c r="H37" s="50">
-        <v>0.31</v>
-      </c>
-      <c r="J37" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K37" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L37" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M37" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N37" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O37" s="49">
-        <v>10394</v>
-      </c>
-      <c r="P37" s="49">
-        <v>2708</v>
-      </c>
-      <c r="Q37" s="50">
-        <v>0.26</v>
-      </c>
-      <c r="S37" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T37" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U37" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="V37" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W37" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="X37" s="49">
-        <v>38167</v>
-      </c>
-      <c r="Y37" s="49">
-        <v>9221</v>
-      </c>
-      <c r="Z37" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" hidden="1">
-      <c r="A38" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="49">
-        <v>1300</v>
-      </c>
-      <c r="G38" s="49">
-        <v>378</v>
-      </c>
-      <c r="H38" s="50">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K38" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L38" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M38" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N38" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="O38" s="49">
-        <v>10285</v>
-      </c>
-      <c r="P38" s="49">
-        <v>2622</v>
-      </c>
-      <c r="Q38" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="S38" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T38" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U38" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="V38" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W38" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="X38" s="49">
-        <v>36926</v>
-      </c>
-      <c r="Y38" s="49">
-        <v>8861</v>
-      </c>
-      <c r="Z38" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" hidden="1">
-      <c r="A39" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F39" s="49">
-        <v>2591</v>
-      </c>
-      <c r="G39" s="49">
-        <v>648</v>
-      </c>
-      <c r="H39" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="J39" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L39" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M39" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N39" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O39" s="49">
-        <v>12798</v>
-      </c>
-      <c r="P39" s="49">
-        <v>2794</v>
-      </c>
-      <c r="Q39" s="50">
-        <v>0.22</v>
-      </c>
-      <c r="S39" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T39" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U39" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="V39" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W39" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="X39" s="49">
-        <v>28787</v>
-      </c>
-      <c r="Y39" s="49">
-        <v>6494</v>
-      </c>
-      <c r="Z39" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" hidden="1">
-      <c r="A40" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="49">
-        <v>2277</v>
-      </c>
-      <c r="G40" s="49">
-        <v>574</v>
-      </c>
-      <c r="H40" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L40" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M40" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N40" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O40" s="49">
-        <v>12122</v>
-      </c>
-      <c r="P40" s="49">
-        <v>2648</v>
-      </c>
-      <c r="Q40" s="50">
-        <v>0.22</v>
-      </c>
-      <c r="S40" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T40" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U40" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="V40" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W40" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="X40" s="49">
-        <v>28624</v>
-      </c>
-      <c r="Y40" s="49">
-        <v>6422</v>
-      </c>
-      <c r="Z40" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" hidden="1">
-      <c r="A41" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="49">
-        <v>2204</v>
-      </c>
-      <c r="G41" s="49">
-        <v>521</v>
-      </c>
-      <c r="H41" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="J41" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K41" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L41" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M41" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N41" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O41" s="49">
-        <v>12506</v>
-      </c>
-      <c r="P41" s="49">
-        <v>2584</v>
-      </c>
-      <c r="Q41" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S41" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T41" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U41" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="V41" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W41" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="X41" s="49">
-        <v>28768</v>
-      </c>
-      <c r="Y41" s="49">
-        <v>6139</v>
-      </c>
-      <c r="Z41" s="50">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" hidden="1">
-      <c r="A42" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" s="49">
-        <v>2188</v>
-      </c>
-      <c r="G42" s="49">
-        <v>500</v>
-      </c>
-      <c r="H42" s="50">
-        <v>0.23</v>
-      </c>
-      <c r="J42" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K42" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L42" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="M42" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N42" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O42" s="49">
-        <v>12293</v>
-      </c>
-      <c r="P42" s="49">
-        <v>2547</v>
-      </c>
-      <c r="Q42" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S42" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T42" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U42" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="V42" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W42" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="X42" s="49">
-        <v>28752</v>
-      </c>
-      <c r="Y42" s="49">
-        <v>6104</v>
-      </c>
-      <c r="Z42" s="50">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" hidden="1">
-      <c r="A43" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="49">
-        <v>649</v>
-      </c>
-      <c r="G43" s="49">
-        <v>181</v>
-      </c>
-      <c r="H43" s="50">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J43" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L43" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="M43" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N43" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="O43" s="49">
-        <v>7312</v>
-      </c>
-      <c r="P43" s="49">
-        <v>1806</v>
-      </c>
-      <c r="Q43" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="S43" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T43" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U43" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="V43" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W43" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="X43" s="49">
-        <v>40781</v>
-      </c>
-      <c r="Y43" s="49">
-        <v>9865</v>
-      </c>
-      <c r="Z43" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" hidden="1">
-      <c r="A44" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="49">
-        <v>624</v>
-      </c>
-      <c r="G44" s="49">
-        <v>167</v>
-      </c>
-      <c r="H44" s="50">
-        <v>0.27</v>
-      </c>
-      <c r="J44" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L44" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="M44" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N44" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O44" s="49">
-        <v>7324</v>
-      </c>
-      <c r="P44" s="49">
-        <v>1785</v>
-      </c>
-      <c r="Q44" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="S44" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T44" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="U44" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="V44" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W44" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="X44" s="49">
-        <v>40602</v>
-      </c>
-      <c r="Y44" s="49">
-        <v>9878</v>
-      </c>
-      <c r="Z44" s="50">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" hidden="1">
-      <c r="A45" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="49">
-        <v>1330</v>
-      </c>
-      <c r="G45" s="49">
-        <v>326</v>
-      </c>
-      <c r="H45" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="M45" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N45" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O45" s="49">
-        <v>8425</v>
-      </c>
-      <c r="P45" s="49">
-        <v>1730</v>
-      </c>
-      <c r="Q45" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="S45" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T45" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="U45" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="V45" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W45" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="X45" s="49">
-        <v>26578</v>
-      </c>
-      <c r="Y45" s="49">
-        <v>6183</v>
-      </c>
-      <c r="Z45" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" hidden="1">
-      <c r="A46" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="49">
-        <v>1319</v>
-      </c>
-      <c r="G46" s="49">
-        <v>328</v>
-      </c>
-      <c r="H46" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="M46" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N46" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O46" s="49">
-        <v>8284</v>
-      </c>
-      <c r="P46" s="49">
-        <v>1698</v>
-      </c>
-      <c r="Q46" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="S46" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T46" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="U46" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="V46" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W46" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="X46" s="49">
-        <v>25930</v>
-      </c>
-      <c r="Y46" s="49">
-        <v>6047</v>
-      </c>
-      <c r="Z46" s="50">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" hidden="1">
-      <c r="A47" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F47" s="49">
-        <v>1214</v>
-      </c>
-      <c r="G47" s="49">
-        <v>295</v>
-      </c>
-      <c r="H47" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K47" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L47" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="M47" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N47" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O47" s="49">
-        <v>8486</v>
-      </c>
-      <c r="P47" s="49">
-        <v>1596</v>
-      </c>
-      <c r="Q47" s="50">
-        <v>0.19</v>
-      </c>
-      <c r="S47" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T47" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="U47" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="V47" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W47" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="X47" s="49">
-        <v>26771</v>
-      </c>
-      <c r="Y47" s="49">
-        <v>5890</v>
-      </c>
-      <c r="Z47" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" hidden="1">
-      <c r="A48" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="49">
-        <v>1398</v>
-      </c>
-      <c r="G48" s="49">
-        <v>323</v>
-      </c>
-      <c r="H48" s="50">
-        <v>0.23</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="L48" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="M48" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="N48" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O48" s="49">
-        <v>8172</v>
-      </c>
-      <c r="P48" s="49">
-        <v>1580</v>
-      </c>
-      <c r="Q48" s="50">
-        <v>0.19</v>
-      </c>
-      <c r="S48" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="T48" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="U48" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="V48" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W48" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="X48" s="49">
-        <v>26573</v>
-      </c>
-      <c r="Y48" s="49">
-        <v>5740</v>
-      </c>
-      <c r="Z48" s="50">
-        <v>0.22</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="J12:Q48">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988125B4-BA5A-41E6-BA48-813B8B06D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9E5B58-DE0E-4BDD-AE4B-1709C8F422F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4781,7 +4781,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10811" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10830" uniqueCount="793">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17988,7 +17988,15 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>#LGBMClasssifier 공식피쳐 + ip SG + class_weight O + learning rate=0.01  1개월단위</t>
+    <t xml:space="preserve">#LGBMClasssifier 공식피쳐 + ip SG + class_weight O + learning rate=0.01  1개월단위 </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#LGBMClasssifier 공식피쳐 + ip SG + class_weight X + learning rate=0.01  1개월단위</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>cf_lgbm-14_py</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -24590,11 +24598,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -28522,7 +28530,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B108" s="46"/>
       <c r="C108" s="46"/>
@@ -28586,6 +28594,73 @@
         <v>1825</v>
       </c>
       <c r="T109" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111" s="37">
+        <v>39104</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S111" s="2">
+        <v>1825</v>
+      </c>
+      <c r="T111" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/document/expr10/model_config.xlsx
+++ b/document/expr10/model_config.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9E5B58-DE0E-4BDD-AE4B-1709C8F422F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="33" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">model_online!$A$1:$Q$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">실험1!$B$2:$R$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -654,12 +653,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1196,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1259,12 +1258,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1482,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1526,12 +1525,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2044,7 +2043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2068,7 +2067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2131,12 +2130,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2649,7 +2648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2673,7 +2672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2736,12 +2735,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3254,7 +3253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3278,7 +3277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3341,12 +3340,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3859,7 +3858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="A97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3883,7 +3882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="A109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3941,7 +3940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="D114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4454,7 +4453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="G114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4478,7 +4477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="S114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4536,7 +4535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="A116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4560,7 +4559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="A117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4584,7 +4583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="A118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4608,7 +4607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A119" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
+    <comment ref="A119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4632,7 +4631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000B000000}">
+    <comment ref="A120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4656,7 +4655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000C000000}">
+    <comment ref="A121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4680,7 +4679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000D000000}">
+    <comment ref="A122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4704,7 +4703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000E000000}">
+    <comment ref="A123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4728,7 +4727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000F000000}">
+    <comment ref="A124" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4752,7 +4751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A125" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000010000000}">
+    <comment ref="A125" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4781,7 +4780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10830" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10830" uniqueCount="795">
   <si>
     <t>no</t>
     <phoneticPr fontId="5"/>
@@ -17999,11 +17998,19 @@
     <t>cf_lgbm-14_py</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>20210604</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20220603</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="29">
     <font>
       <sz val="12"/>
@@ -21096,716 +21103,716 @@
   </cellXfs>
   <cellStyles count="711">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 3 10" xfId="67" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3 10 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 10 2 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 3 10 2 3" xfId="492" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 3 10 2 4" xfId="672" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 3 10 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準 3 10 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="標準 3 10 5" xfId="589" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="標準 3 11" xfId="102" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="標準 3 11 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="標準 3 11 3" xfId="444" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="標準 3 11 4" xfId="624" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="標準 3 12" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="標準 3 12 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="標準 3 12 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="標準 3 13" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="標準 3 13 2" xfId="708" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="標準 3 14" xfId="348" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="標準 3 15" xfId="528" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="標準 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="標準 3 2 10" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="標準 3 2 10 2" xfId="710" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="標準 3 2 11" xfId="351" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="標準 3 2 12" xfId="531" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="標準 3 2 2 10" xfId="538" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="標準 3 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="標準 3 2 2 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 2 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 2 3" xfId="510" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 2 4" xfId="690" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 3" xfId="249" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 4" xfId="427" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="標準 3 2 2 2 2 5" xfId="607" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="標準 3 2 2 2 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="標準 3 2 2 2 3 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="標準 3 2 2 2 3 3" xfId="462" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="標準 3 2 2 2 3 4" xfId="642" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="標準 3 2 2 2 4" xfId="202" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="標準 3 2 2 2 5" xfId="379" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="標準 3 2 2 2 6" xfId="559" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="標準 3 2 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="標準 3 2 2 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 2 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 2 3" xfId="523" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 2 4" xfId="703" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 3" xfId="262" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 4" xfId="440" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="標準 3 2 2 3 2 5" xfId="620" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="標準 3 2 2 3 3" xfId="133" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="標準 3 2 2 3 3 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="標準 3 2 2 3 3 3" xfId="475" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="標準 3 2 2 3 3 4" xfId="655" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="標準 3 2 2 3 4" xfId="215" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="標準 3 2 2 3 5" xfId="392" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="標準 3 2 2 3 6" xfId="572" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="標準 3 2 2 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="標準 3 2 2 4 2" xfId="146" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="標準 3 2 2 4 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="標準 3 2 2 4 2 3" xfId="488" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="標準 3 2 2 4 2 4" xfId="668" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="標準 3 2 2 4 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="標準 3 2 2 4 4" xfId="405" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="標準 3 2 2 4 5" xfId="585" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="標準 3 2 2 5" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="標準 3 2 2 5 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="標準 3 2 2 5 2 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="標準 3 2 2 5 2 3" xfId="497" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="標準 3 2 2 5 2 4" xfId="677" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="標準 3 2 2 5 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="標準 3 2 2 5 4" xfId="414" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="標準 3 2 2 5 5" xfId="594" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="標準 3 2 2 6" xfId="107" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="標準 3 2 2 6 2" xfId="271" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="標準 3 2 2 6 3" xfId="449" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="標準 3 2 2 6 4" xfId="629" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="標準 3 2 2 7" xfId="24" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="標準 3 2 2 7 2" xfId="366" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="標準 3 2 2 7 3" xfId="546" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="標準 3 2 2 8" xfId="193" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="標準 3 2 2 9" xfId="358" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="標準 3 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="標準 3 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="標準 3 2 3 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 2 2" xfId="342" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 2 3" xfId="520" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 2 4" xfId="700" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 3" xfId="259" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 4" xfId="437" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="標準 3 2 3 2 2 5" xfId="617" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="標準 3 2 3 2 3" xfId="130" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="標準 3 2 3 2 3 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="標準 3 2 3 2 3 3" xfId="472" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="標準 3 2 3 2 3 4" xfId="652" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="標準 3 2 3 2 4" xfId="212" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="標準 3 2 3 2 5" xfId="389" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="標準 3 2 3 2 6" xfId="569" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="標準 3 2 3 3" xfId="60" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="標準 3 2 3 3 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="標準 3 2 3 3 2 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="標準 3 2 3 3 2 3" xfId="485" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="標準 3 2 3 3 2 4" xfId="665" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="標準 3 2 3 3 3" xfId="225" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="標準 3 2 3 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="標準 3 2 3 3 5" xfId="582" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="標準 3 2 3 4" xfId="82" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="標準 3 2 3 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="標準 3 2 3 4 2 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="標準 3 2 3 4 2 3" xfId="507" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="標準 3 2 3 4 2 4" xfId="687" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="標準 3 2 3 4 3" xfId="246" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="標準 3 2 3 4 4" xfId="424" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="標準 3 2 3 4 5" xfId="604" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="標準 3 2 3 5" xfId="117" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="標準 3 2 3 5 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="標準 3 2 3 5 3" xfId="459" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="標準 3 2 3 5 4" xfId="639" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="標準 3 2 3 6" xfId="34" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="標準 3 2 3 6 2" xfId="376" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="標準 3 2 3 6 3" xfId="556" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="標準 3 2 3 7" xfId="190" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="標準 3 2 3 8" xfId="355" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="標準 3 2 3 9" xfId="535" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="標準 3 2 4" xfId="30" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="標準 3 2 4 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="標準 3 2 4 2 2" xfId="161" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="標準 3 2 4 2 2 2" xfId="325" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="標準 3 2 4 2 2 3" xfId="503" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="標準 3 2 4 2 2 4" xfId="683" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="標準 3 2 4 2 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="標準 3 2 4 2 4" xfId="420" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="標準 3 2 4 2 5" xfId="600" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="標準 3 2 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="標準 3 2 4 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="標準 3 2 4 3 3" xfId="455" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="標準 3 2 4 3 4" xfId="635" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="標準 3 2 4 4" xfId="200" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="標準 3 2 4 5" xfId="372" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="標準 3 2 4 6" xfId="552" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="標準 3 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="標準 3 2 5 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="標準 3 2 5 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="標準 3 2 5 2 2 2" xfId="338" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="標準 3 2 5 2 2 3" xfId="516" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="標準 3 2 5 2 2 4" xfId="696" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="標準 3 2 5 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="標準 3 2 5 2 4" xfId="433" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="標準 3 2 5 2 5" xfId="613" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="標準 3 2 5 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="標準 3 2 5 3 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="標準 3 2 5 3 3" xfId="468" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="標準 3 2 5 3 4" xfId="648" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="標準 3 2 5 4" xfId="208" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="標準 3 2 5 5" xfId="385" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="標準 3 2 5 6" xfId="565" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="標準 3 2 6" xfId="56" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="標準 3 2 6 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="標準 3 2 6 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="標準 3 2 6 2 3" xfId="481" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="標準 3 2 6 2 4" xfId="661" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="標準 3 2 6 3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="標準 3 2 6 4" xfId="398" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="標準 3 2 6 5" xfId="578" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="標準 3 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="標準 3 2 7 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="標準 3 2 7 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="標準 3 2 7 2 3" xfId="494" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="標準 3 2 7 2 4" xfId="674" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="標準 3 2 7 3" xfId="233" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="標準 3 2 7 4" xfId="411" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="標準 3 2 7 5" xfId="591" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="標準 3 2 8" xfId="104" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="標準 3 2 8 2" xfId="268" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="標準 3 2 8 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="標準 3 2 8 4" xfId="626" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="標準 3 2 9" xfId="21" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="標準 3 2 9 2" xfId="363" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="標準 3 2 9 3" xfId="543" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="標準 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="標準 3 3 10" xfId="7" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="標準 3 3 10 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="標準 3 3 11" xfId="350" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="標準 3 3 12" xfId="530" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="標準 3 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="標準 3 3 2 10" xfId="539" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="標準 3 3 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="標準 3 3 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 2 2" xfId="333" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 2 4" xfId="691" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 4" xfId="428" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="標準 3 3 2 2 2 5" xfId="608" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="標準 3 3 2 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="標準 3 3 2 2 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="標準 3 3 2 2 3 3" xfId="463" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="標準 3 3 2 2 3 4" xfId="643" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="標準 3 3 2 2 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="標準 3 3 2 2 5" xfId="380" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="標準 3 3 2 2 6" xfId="560" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="標準 3 3 2 3" xfId="51" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="標準 3 3 2 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 2 2" xfId="346" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 2 3" xfId="524" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 2 4" xfId="704" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 3" xfId="263" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 4" xfId="441" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="標準 3 3 2 3 2 5" xfId="621" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="標準 3 3 2 3 3" xfId="134" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="標準 3 3 2 3 3 2" xfId="298" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="標準 3 3 2 3 3 3" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="標準 3 3 2 3 3 4" xfId="656" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="標準 3 3 2 3 4" xfId="216" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="標準 3 3 2 3 5" xfId="393" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="標準 3 3 2 3 6" xfId="573" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="標準 3 3 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="標準 3 3 2 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="標準 3 3 2 4 2 2" xfId="311" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="標準 3 3 2 4 2 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="標準 3 3 2 4 2 4" xfId="669" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="標準 3 3 2 4 3" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="標準 3 3 2 4 4" xfId="406" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="標準 3 3 2 4 5" xfId="586" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="標準 3 3 2 5" xfId="73" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="標準 3 3 2 5 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="標準 3 3 2 5 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="標準 3 3 2 5 2 3" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="標準 3 3 2 5 2 4" xfId="678" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="標準 3 3 2 5 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="標準 3 3 2 5 4" xfId="415" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="標準 3 3 2 5 5" xfId="595" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="標準 3 3 2 6" xfId="108" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="標準 3 3 2 6 2" xfId="272" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="標準 3 3 2 6 3" xfId="450" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="標準 3 3 2 6 4" xfId="630" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="標準 3 3 2 7" xfId="25" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="標準 3 3 2 7 2" xfId="367" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="標準 3 3 2 7 3" xfId="547" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="標準 3 3 2 8" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="標準 3 3 2 9" xfId="359" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="標準 3 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="標準 3 3 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="標準 3 3 3 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="標準 3 3 3 2 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="標準 3 3 3 2 2 2 2" xfId="341" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="標準 3 3 3 2 2 2 3" xfId="519" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="標準 3 3 3 2 2 2 4" xfId="699" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="標準 3 3 3 2 2 3" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="標準 3 3 3 2 2 4" xfId="436" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="標準 3 3 3 2 2 5" xfId="616" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="標準 3 3 3 2 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="標準 3 3 3 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="標準 3 3 3 2 3 3" xfId="471" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="標準 3 3 3 2 3 4" xfId="651" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="標準 3 3 3 2 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="標準 3 3 3 2 5" xfId="388" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="標準 3 3 3 2 6" xfId="568" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="標準 3 3 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="標準 3 3 3 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="標準 3 3 3 3 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="標準 3 3 3 3 2 3" xfId="484" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="標準 3 3 3 3 2 4" xfId="664" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="標準 3 3 3 3 3" xfId="224" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="標準 3 3 3 3 4" xfId="401" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="標準 3 3 3 3 5" xfId="581" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="標準 3 3 3 4" xfId="81" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="標準 3 3 3 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="標準 3 3 3 4 2 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="標準 3 3 3 4 2 3" xfId="506" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="標準 3 3 3 4 2 4" xfId="686" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="標準 3 3 3 4 3" xfId="245" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="標準 3 3 3 4 4" xfId="423" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="標準 3 3 3 4 5" xfId="603" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="標準 3 3 3 5" xfId="116" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="標準 3 3 3 5 2" xfId="280" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="標準 3 3 3 5 3" xfId="458" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="標準 3 3 3 5 4" xfId="638" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="標準 3 3 3 6" xfId="33" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="標準 3 3 3 6 2" xfId="375" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="標準 3 3 3 6 3" xfId="555" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="標準 3 3 3 7" xfId="189" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="標準 3 3 3 8" xfId="354" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="標準 3 3 3 9" xfId="534" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="標準 3 3 4" xfId="29" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="標準 3 3 4 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="標準 3 3 4 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="標準 3 3 4 2 2 2" xfId="324" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="標準 3 3 4 2 2 3" xfId="502" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="標準 3 3 4 2 2 4" xfId="682" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="標準 3 3 4 2 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="標準 3 3 4 2 4" xfId="419" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="標準 3 3 4 2 5" xfId="599" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="標準 3 3 4 3" xfId="112" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="標準 3 3 4 3 2" xfId="276" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="標準 3 3 4 3 3" xfId="454" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="標準 3 3 4 3 4" xfId="634" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="標準 3 3 4 4" xfId="199" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="標準 3 3 4 5" xfId="371" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="標準 3 3 4 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="標準 3 3 5" xfId="42" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="標準 3 3 5 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="標準 3 3 5 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="標準 3 3 5 2 2 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="標準 3 3 5 2 2 3" xfId="515" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="標準 3 3 5 2 2 4" xfId="695" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="標準 3 3 5 2 3" xfId="254" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="標準 3 3 5 2 4" xfId="432" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="標準 3 3 5 2 5" xfId="612" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="標準 3 3 5 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="標準 3 3 5 3 2" xfId="289" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="標準 3 3 5 3 3" xfId="467" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="標準 3 3 5 3 4" xfId="647" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="標準 3 3 5 4" xfId="207" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="標準 3 3 5 5" xfId="384" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="標準 3 3 5 6" xfId="564" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="標準 3 3 6" xfId="55" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="標準 3 3 6 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="標準 3 3 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="標準 3 3 6 2 3" xfId="480" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="標準 3 3 6 2 4" xfId="660" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="標準 3 3 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="標準 3 3 6 4" xfId="397" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="標準 3 3 6 5" xfId="577" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="標準 3 3 7" xfId="68" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="標準 3 3 7 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="標準 3 3 7 2 2" xfId="315" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="標準 3 3 7 2 3" xfId="493" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="標準 3 3 7 2 4" xfId="673" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="標準 3 3 7 3" xfId="232" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="標準 3 3 7 4" xfId="410" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="標準 3 3 7 5" xfId="590" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="標準 3 3 8" xfId="103" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="標準 3 3 8 2" xfId="267" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="標準 3 3 8 3" xfId="445" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="標準 3 3 8 4" xfId="625" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="標準 3 3 9" xfId="20" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="標準 3 3 9 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="標準 3 3 9 3" xfId="542" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="標準 3 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="標準 3 4 10" xfId="187" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="標準 3 4 11" xfId="352" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="標準 3 4 12" xfId="532" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="標準 3 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="標準 3 4 2 10" xfId="540" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="標準 3 4 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="標準 3 4 2 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 2" xfId="170" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 2 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 2 3" xfId="512" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 2 4" xfId="692" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 3" xfId="251" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 4" xfId="429" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="標準 3 4 2 2 2 5" xfId="609" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="標準 3 4 2 2 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
-    <cellStyle name="標準 3 4 2 2 3 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="標準 3 4 2 2 3 3" xfId="464" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="標準 3 4 2 2 3 4" xfId="644" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="標準 3 4 2 2 4" xfId="204" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
-    <cellStyle name="標準 3 4 2 2 5" xfId="381" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="標準 3 4 2 2 6" xfId="561" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
-    <cellStyle name="標準 3 4 2 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="標準 3 4 2 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 2 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 2 4" xfId="705" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 4" xfId="442" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
-    <cellStyle name="標準 3 4 2 3 2 5" xfId="622" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="標準 3 4 2 3 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="標準 3 4 2 3 3 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="標準 3 4 2 3 3 3" xfId="477" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
-    <cellStyle name="標準 3 4 2 3 3 4" xfId="657" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="標準 3 4 2 3 4" xfId="217" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
-    <cellStyle name="標準 3 4 2 3 5" xfId="394" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
-    <cellStyle name="標準 3 4 2 3 6" xfId="574" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="標準 3 4 2 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="標準 3 4 2 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
-    <cellStyle name="標準 3 4 2 4 2 2" xfId="312" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="標準 3 4 2 4 2 3" xfId="490" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="標準 3 4 2 4 2 4" xfId="670" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="標準 3 4 2 4 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
-    <cellStyle name="標準 3 4 2 4 4" xfId="407" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
-    <cellStyle name="標準 3 4 2 4 5" xfId="587" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="標準 3 4 2 5" xfId="74" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="標準 3 4 2 5 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
-    <cellStyle name="標準 3 4 2 5 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="標準 3 4 2 5 2 3" xfId="499" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
-    <cellStyle name="標準 3 4 2 5 2 4" xfId="679" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
-    <cellStyle name="標準 3 4 2 5 3" xfId="238" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="標準 3 4 2 5 4" xfId="416" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
-    <cellStyle name="標準 3 4 2 5 5" xfId="596" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="標準 3 4 2 6" xfId="109" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="標準 3 4 2 6 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="標準 3 4 2 6 3" xfId="451" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="標準 3 4 2 6 4" xfId="631" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
-    <cellStyle name="標準 3 4 2 7" xfId="26" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
-    <cellStyle name="標準 3 4 2 7 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="標準 3 4 2 7 3" xfId="548" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="標準 3 4 2 8" xfId="195" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
-    <cellStyle name="標準 3 4 2 9" xfId="360" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="標準 3 4 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
-    <cellStyle name="標準 3 4 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="標準 3 4 3 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 2 2" xfId="343" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 2 3" xfId="521" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 2 4" xfId="701" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 3" xfId="260" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 4" xfId="438" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
-    <cellStyle name="標準 3 4 3 2 2 5" xfId="618" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
-    <cellStyle name="標準 3 4 3 2 3" xfId="131" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="標準 3 4 3 2 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="標準 3 4 3 2 3 3" xfId="473" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="標準 3 4 3 2 3 4" xfId="653" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="標準 3 4 3 2 4" xfId="213" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
-    <cellStyle name="標準 3 4 3 2 5" xfId="390" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
-    <cellStyle name="標準 3 4 3 2 6" xfId="570" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="標準 3 4 3 3" xfId="61" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
-    <cellStyle name="標準 3 4 3 3 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="標準 3 4 3 3 2 2" xfId="308" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
-    <cellStyle name="標準 3 4 3 3 2 3" xfId="486" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="標準 3 4 3 3 2 4" xfId="666" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
-    <cellStyle name="標準 3 4 3 3 3" xfId="226" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
-    <cellStyle name="標準 3 4 3 3 4" xfId="403" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
-    <cellStyle name="標準 3 4 3 3 5" xfId="583" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
-    <cellStyle name="標準 3 4 3 4" xfId="83" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
-    <cellStyle name="標準 3 4 3 4 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
-    <cellStyle name="標準 3 4 3 4 2 2" xfId="330" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
-    <cellStyle name="標準 3 4 3 4 2 3" xfId="508" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
-    <cellStyle name="標準 3 4 3 4 2 4" xfId="688" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
-    <cellStyle name="標準 3 4 3 4 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
-    <cellStyle name="標準 3 4 3 4 4" xfId="425" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
-    <cellStyle name="標準 3 4 3 4 5" xfId="605" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
-    <cellStyle name="標準 3 4 3 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
-    <cellStyle name="標準 3 4 3 5 2" xfId="282" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="標準 3 4 3 5 3" xfId="460" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
-    <cellStyle name="標準 3 4 3 5 4" xfId="640" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
-    <cellStyle name="標準 3 4 3 6" xfId="35" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
-    <cellStyle name="標準 3 4 3 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
-    <cellStyle name="標準 3 4 3 6 3" xfId="557" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="標準 3 4 3 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
-    <cellStyle name="標準 3 4 3 8" xfId="356" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
-    <cellStyle name="標準 3 4 3 9" xfId="536" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
-    <cellStyle name="標準 3 4 4" xfId="31" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="標準 3 4 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="標準 3 4 4 2 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
-    <cellStyle name="標準 3 4 4 2 2 2" xfId="326" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="標準 3 4 4 2 2 3" xfId="504" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
-    <cellStyle name="標準 3 4 4 2 2 4" xfId="684" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="標準 3 4 4 2 3" xfId="243" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="標準 3 4 4 2 4" xfId="421" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="標準 3 4 4 2 5" xfId="601" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="標準 3 4 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="標準 3 4 4 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="標準 3 4 4 3 3" xfId="456" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="標準 3 4 4 3 4" xfId="636" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="標準 3 4 4 4" xfId="201" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
-    <cellStyle name="標準 3 4 4 5" xfId="373" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="標準 3 4 4 6" xfId="553" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="標準 3 4 5" xfId="44" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="標準 3 4 5 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
-    <cellStyle name="標準 3 4 5 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="標準 3 4 5 2 2 2" xfId="339" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="標準 3 4 5 2 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="標準 3 4 5 2 2 4" xfId="697" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="標準 3 4 5 2 3" xfId="256" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
-    <cellStyle name="標準 3 4 5 2 4" xfId="434" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="標準 3 4 5 2 5" xfId="614" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="標準 3 4 5 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
-    <cellStyle name="標準 3 4 5 3 2" xfId="291" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="標準 3 4 5 3 3" xfId="469" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="標準 3 4 5 3 4" xfId="649" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="標準 3 4 5 4" xfId="209" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
-    <cellStyle name="標準 3 4 5 5" xfId="386" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="標準 3 4 5 6" xfId="566" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="標準 3 4 6" xfId="57" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="標準 3 4 6 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="標準 3 4 6 2 2" xfId="304" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="標準 3 4 6 2 3" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
-    <cellStyle name="標準 3 4 6 2 4" xfId="662" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="標準 3 4 6 3" xfId="222" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="標準 3 4 6 4" xfId="399" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="標準 3 4 6 5" xfId="579" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="標準 3 4 7" xfId="70" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="標準 3 4 7 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
-    <cellStyle name="標準 3 4 7 2 2" xfId="317" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="標準 3 4 7 2 3" xfId="495" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="標準 3 4 7 2 4" xfId="675" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="標準 3 4 7 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
-    <cellStyle name="標準 3 4 7 4" xfId="412" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="標準 3 4 7 5" xfId="592" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="標準 3 4 8" xfId="105" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="標準 3 4 8 2" xfId="269" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
-    <cellStyle name="標準 3 4 8 3" xfId="447" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="標準 3 4 8 4" xfId="627" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="標準 3 4 9" xfId="22" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="標準 3 4 9 2" xfId="364" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
-    <cellStyle name="標準 3 4 9 3" xfId="544" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="標準 3 5" xfId="6" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="標準 3 5 10" xfId="349" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="標準 3 5 11" xfId="529" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="標準 3 5 2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="標準 3 5 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="標準 3 5 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 2 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 2 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 2 4" xfId="702" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 4" xfId="439" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="標準 3 5 2 2 2 5" xfId="619" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="標準 3 5 2 2 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="標準 3 5 2 2 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
-    <cellStyle name="標準 3 5 2 2 3 3" xfId="474" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="標準 3 5 2 2 3 4" xfId="654" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="標準 3 5 2 2 4" xfId="214" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="標準 3 5 2 2 5" xfId="391" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="標準 3 5 2 2 6" xfId="571" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="標準 3 5 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="標準 3 5 2 3 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="標準 3 5 2 3 2 2" xfId="309" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
-    <cellStyle name="標準 3 5 2 3 2 3" xfId="487" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="標準 3 5 2 3 2 4" xfId="667" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="標準 3 5 2 3 3" xfId="227" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="標準 3 5 2 3 4" xfId="404" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
-    <cellStyle name="標準 3 5 2 3 5" xfId="584" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="標準 3 5 2 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="標準 3 5 2 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="標準 3 5 2 4 2 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="標準 3 5 2 4 2 3" xfId="509" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="標準 3 5 2 4 2 4" xfId="689" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="標準 3 5 2 4 3" xfId="248" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="標準 3 5 2 4 4" xfId="426" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="標準 3 5 2 4 5" xfId="606" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="標準 3 5 2 5" xfId="119" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="標準 3 5 2 5 2" xfId="283" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="標準 3 5 2 5 3" xfId="461" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="標準 3 5 2 5 4" xfId="641" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="標準 3 5 2 6" xfId="36" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
-    <cellStyle name="標準 3 5 2 6 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="標準 3 5 2 6 3" xfId="558" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
-    <cellStyle name="標準 3 5 2 7" xfId="192" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
-    <cellStyle name="標準 3 5 2 8" xfId="357" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="標準 3 5 2 9" xfId="537" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
-    <cellStyle name="標準 3 5 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
-    <cellStyle name="標準 3 5 3 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
-    <cellStyle name="標準 3 5 3 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="標準 3 5 3 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="標準 3 5 3 2 2 3" xfId="501" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
-    <cellStyle name="標準 3 5 3 2 2 4" xfId="681" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
-    <cellStyle name="標準 3 5 3 2 3" xfId="240" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="標準 3 5 3 2 4" xfId="418" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="標準 3 5 3 2 5" xfId="598" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
-    <cellStyle name="標準 3 5 3 3" xfId="111" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="標準 3 5 3 3 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
-    <cellStyle name="標準 3 5 3 3 3" xfId="453" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
-    <cellStyle name="標準 3 5 3 3 4" xfId="633" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
-    <cellStyle name="標準 3 5 3 4" xfId="198" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
-    <cellStyle name="標準 3 5 3 5" xfId="370" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
-    <cellStyle name="標準 3 5 3 6" xfId="550" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
-    <cellStyle name="標準 3 5 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
-    <cellStyle name="標準 3 5 4 2" xfId="89" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="標準 3 5 4 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
-    <cellStyle name="標準 3 5 4 2 2 2" xfId="336" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
-    <cellStyle name="標準 3 5 4 2 2 3" xfId="514" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
-    <cellStyle name="標準 3 5 4 2 2 4" xfId="694" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="標準 3 5 4 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
-    <cellStyle name="標準 3 5 4 2 4" xfId="431" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="標準 3 5 4 2 5" xfId="611" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
-    <cellStyle name="標準 3 5 4 3" xfId="124" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
-    <cellStyle name="標準 3 5 4 3 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="標準 3 5 4 3 3" xfId="466" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
-    <cellStyle name="標準 3 5 4 3 4" xfId="646" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
-    <cellStyle name="標準 3 5 4 4" xfId="206" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
-    <cellStyle name="標準 3 5 4 5" xfId="383" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="標準 3 5 4 6" xfId="563" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="標準 3 5 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
-    <cellStyle name="標準 3 5 5 2" xfId="137" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="標準 3 5 5 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="標準 3 5 5 2 3" xfId="479" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="標準 3 5 5 2 4" xfId="659" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
-    <cellStyle name="標準 3 5 5 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="標準 3 5 5 4" xfId="396" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
-    <cellStyle name="標準 3 5 5 5" xfId="576" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="標準 3 5 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
-    <cellStyle name="標準 3 5 6 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="標準 3 5 6 2 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
-    <cellStyle name="標準 3 5 6 2 3" xfId="496" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="標準 3 5 6 2 4" xfId="676" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
-    <cellStyle name="標準 3 5 6 3" xfId="235" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="標準 3 5 6 4" xfId="413" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="標準 3 5 6 5" xfId="593" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
-    <cellStyle name="標準 3 5 7" xfId="106" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
-    <cellStyle name="標準 3 5 7 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="標準 3 5 7 3" xfId="448" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
-    <cellStyle name="標準 3 5 7 4" xfId="628" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="標準 3 5 8" xfId="23" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
-    <cellStyle name="標準 3 5 8 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
-    <cellStyle name="標準 3 5 8 3" xfId="545" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="標準 3 5 9" xfId="186" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
-    <cellStyle name="標準 3 6" xfId="10" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
-    <cellStyle name="標準 3 6 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
-    <cellStyle name="標準 3 6 2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="標準 3 6 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="標準 3 6 2 2 2 2" xfId="340" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
-    <cellStyle name="標準 3 6 2 2 2 3" xfId="518" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
-    <cellStyle name="標準 3 6 2 2 2 4" xfId="698" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="標準 3 6 2 2 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="標準 3 6 2 2 4" xfId="435" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
-    <cellStyle name="標準 3 6 2 2 5" xfId="615" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="標準 3 6 2 3" xfId="128" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="標準 3 6 2 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
-    <cellStyle name="標準 3 6 2 3 3" xfId="470" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
-    <cellStyle name="標準 3 6 2 3 4" xfId="650" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
-    <cellStyle name="標準 3 6 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
-    <cellStyle name="標準 3 6 2 5" xfId="387" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
-    <cellStyle name="標準 3 6 2 6" xfId="567" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
-    <cellStyle name="標準 3 6 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="標準 3 6 3 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
-    <cellStyle name="標準 3 6 3 2 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="標準 3 6 3 2 3" xfId="483" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
-    <cellStyle name="標準 3 6 3 2 4" xfId="663" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="標準 3 6 3 3" xfId="223" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
-    <cellStyle name="標準 3 6 3 4" xfId="400" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="標準 3 6 3 5" xfId="580" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
-    <cellStyle name="標準 3 6 4" xfId="80" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
-    <cellStyle name="標準 3 6 4 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="標準 3 6 4 2 2" xfId="327" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="標準 3 6 4 2 3" xfId="505" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
-    <cellStyle name="標準 3 6 4 2 4" xfId="685" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
-    <cellStyle name="標準 3 6 4 3" xfId="244" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="標準 3 6 4 4" xfId="422" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="標準 3 6 4 5" xfId="602" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
-    <cellStyle name="標準 3 6 5" xfId="115" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
-    <cellStyle name="標準 3 6 5 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
-    <cellStyle name="標準 3 6 5 3" xfId="457" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="標準 3 6 5 4" xfId="637" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
-    <cellStyle name="標準 3 6 6" xfId="32" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
-    <cellStyle name="標準 3 6 6 2" xfId="374" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="標準 3 6 6 3" xfId="554" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="標準 3 6 7" xfId="188" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="標準 3 6 8" xfId="353" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="標準 3 6 9" xfId="533" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="標準 3 7" xfId="27" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="標準 3 7 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
-    <cellStyle name="標準 3 7 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="標準 3 7 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="標準 3 7 2 2 3" xfId="500" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="標準 3 7 2 2 4" xfId="680" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
-    <cellStyle name="標準 3 7 2 3" xfId="239" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="標準 3 7 2 4" xfId="417" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="標準 3 7 2 5" xfId="597" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
-    <cellStyle name="標準 3 7 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
-    <cellStyle name="標準 3 7 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="標準 3 7 3 3" xfId="452" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="標準 3 7 3 4" xfId="632" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
-    <cellStyle name="標準 3 7 4" xfId="197" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
-    <cellStyle name="標準 3 7 5" xfId="369" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
-    <cellStyle name="標準 3 7 6" xfId="549" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="標準 3 8" xfId="40" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
-    <cellStyle name="標準 3 8 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
-    <cellStyle name="標準 3 8 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="標準 3 8 2 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
-    <cellStyle name="標準 3 8 2 2 3" xfId="513" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="標準 3 8 2 2 4" xfId="693" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
-    <cellStyle name="標準 3 8 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="標準 3 8 2 4" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="標準 3 8 2 5" xfId="610" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
-    <cellStyle name="標準 3 8 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
-    <cellStyle name="標準 3 8 3 2" xfId="287" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="標準 3 8 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="標準 3 8 3 4" xfId="645" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
-    <cellStyle name="標準 3 8 4" xfId="205" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
-    <cellStyle name="標準 3 8 5" xfId="382" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
-    <cellStyle name="標準 3 8 6" xfId="562" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
-    <cellStyle name="標準 3 9" xfId="53" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="標準 3 9 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
-    <cellStyle name="標準 3 9 2 2" xfId="300" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
-    <cellStyle name="標準 3 9 2 3" xfId="478" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
-    <cellStyle name="標準 3 9 2 4" xfId="658" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="標準 3 9 3" xfId="218" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
-    <cellStyle name="標準 3 9 4" xfId="395" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
-    <cellStyle name="標準 3 9 5" xfId="575" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
-    <cellStyle name="標準 4" xfId="18" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="標準 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
-    <cellStyle name="標準 4 2 2" xfId="313" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="標準 4 2 3" xfId="491" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="標準 4 2 4" xfId="671" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="標準 4 3" xfId="66" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
-    <cellStyle name="標準 4 3 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="標準 4 3 3" xfId="588" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="標準 4 4" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
-    <cellStyle name="標準 5" xfId="101" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
-    <cellStyle name="標準 5 2" xfId="265" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="標準 5 2 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="標準 5 2 2 2" xfId="526" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="標準 5 2 2 3" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
-    <cellStyle name="標準 5 2 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="標準 5 2 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="標準 5 2 3 3" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="標準 5 3" xfId="443" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="標準 5 4" xfId="623" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3 10" xfId="67"/>
+    <cellStyle name="標準 3 10 2" xfId="150"/>
+    <cellStyle name="標準 3 10 2 2" xfId="314"/>
+    <cellStyle name="標準 3 10 2 3" xfId="492"/>
+    <cellStyle name="標準 3 10 2 4" xfId="672"/>
+    <cellStyle name="標準 3 10 3" xfId="231"/>
+    <cellStyle name="標準 3 10 4" xfId="409"/>
+    <cellStyle name="標準 3 10 5" xfId="589"/>
+    <cellStyle name="標準 3 11" xfId="102"/>
+    <cellStyle name="標準 3 11 2" xfId="266"/>
+    <cellStyle name="標準 3 11 3" xfId="444"/>
+    <cellStyle name="標準 3 11 4" xfId="624"/>
+    <cellStyle name="標準 3 12" xfId="19"/>
+    <cellStyle name="標準 3 12 2" xfId="361"/>
+    <cellStyle name="標準 3 12 3" xfId="541"/>
+    <cellStyle name="標準 3 13" xfId="5"/>
+    <cellStyle name="標準 3 13 2" xfId="708"/>
+    <cellStyle name="標準 3 14" xfId="348"/>
+    <cellStyle name="標準 3 15" xfId="528"/>
+    <cellStyle name="標準 3 2" xfId="3"/>
+    <cellStyle name="標準 3 2 10" xfId="8"/>
+    <cellStyle name="標準 3 2 10 2" xfId="710"/>
+    <cellStyle name="標準 3 2 11" xfId="351"/>
+    <cellStyle name="標準 3 2 12" xfId="531"/>
+    <cellStyle name="標準 3 2 2" xfId="15"/>
+    <cellStyle name="標準 3 2 2 10" xfId="538"/>
+    <cellStyle name="標準 3 2 2 2" xfId="37"/>
+    <cellStyle name="標準 3 2 2 2 2" xfId="85"/>
+    <cellStyle name="標準 3 2 2 2 2 2" xfId="168"/>
+    <cellStyle name="標準 3 2 2 2 2 2 2" xfId="332"/>
+    <cellStyle name="標準 3 2 2 2 2 2 3" xfId="510"/>
+    <cellStyle name="標準 3 2 2 2 2 2 4" xfId="690"/>
+    <cellStyle name="標準 3 2 2 2 2 3" xfId="249"/>
+    <cellStyle name="標準 3 2 2 2 2 4" xfId="427"/>
+    <cellStyle name="標準 3 2 2 2 2 5" xfId="607"/>
+    <cellStyle name="標準 3 2 2 2 3" xfId="120"/>
+    <cellStyle name="標準 3 2 2 2 3 2" xfId="284"/>
+    <cellStyle name="標準 3 2 2 2 3 3" xfId="462"/>
+    <cellStyle name="標準 3 2 2 2 3 4" xfId="642"/>
+    <cellStyle name="標準 3 2 2 2 4" xfId="202"/>
+    <cellStyle name="標準 3 2 2 2 5" xfId="379"/>
+    <cellStyle name="標準 3 2 2 2 6" xfId="559"/>
+    <cellStyle name="標準 3 2 2 3" xfId="50"/>
+    <cellStyle name="標準 3 2 2 3 2" xfId="98"/>
+    <cellStyle name="標準 3 2 2 3 2 2" xfId="181"/>
+    <cellStyle name="標準 3 2 2 3 2 2 2" xfId="345"/>
+    <cellStyle name="標準 3 2 2 3 2 2 3" xfId="523"/>
+    <cellStyle name="標準 3 2 2 3 2 2 4" xfId="703"/>
+    <cellStyle name="標準 3 2 2 3 2 3" xfId="262"/>
+    <cellStyle name="標準 3 2 2 3 2 4" xfId="440"/>
+    <cellStyle name="標準 3 2 2 3 2 5" xfId="620"/>
+    <cellStyle name="標準 3 2 2 3 3" xfId="133"/>
+    <cellStyle name="標準 3 2 2 3 3 2" xfId="297"/>
+    <cellStyle name="標準 3 2 2 3 3 3" xfId="475"/>
+    <cellStyle name="標準 3 2 2 3 3 4" xfId="655"/>
+    <cellStyle name="標準 3 2 2 3 4" xfId="215"/>
+    <cellStyle name="標準 3 2 2 3 5" xfId="392"/>
+    <cellStyle name="標準 3 2 2 3 6" xfId="572"/>
+    <cellStyle name="標準 3 2 2 4" xfId="63"/>
+    <cellStyle name="標準 3 2 2 4 2" xfId="146"/>
+    <cellStyle name="標準 3 2 2 4 2 2" xfId="310"/>
+    <cellStyle name="標準 3 2 2 4 2 3" xfId="488"/>
+    <cellStyle name="標準 3 2 2 4 2 4" xfId="668"/>
+    <cellStyle name="標準 3 2 2 4 3" xfId="228"/>
+    <cellStyle name="標準 3 2 2 4 4" xfId="405"/>
+    <cellStyle name="標準 3 2 2 4 5" xfId="585"/>
+    <cellStyle name="標準 3 2 2 5" xfId="72"/>
+    <cellStyle name="標準 3 2 2 5 2" xfId="155"/>
+    <cellStyle name="標準 3 2 2 5 2 2" xfId="319"/>
+    <cellStyle name="標準 3 2 2 5 2 3" xfId="497"/>
+    <cellStyle name="標準 3 2 2 5 2 4" xfId="677"/>
+    <cellStyle name="標準 3 2 2 5 3" xfId="236"/>
+    <cellStyle name="標準 3 2 2 5 4" xfId="414"/>
+    <cellStyle name="標準 3 2 2 5 5" xfId="594"/>
+    <cellStyle name="標準 3 2 2 6" xfId="107"/>
+    <cellStyle name="標準 3 2 2 6 2" xfId="271"/>
+    <cellStyle name="標準 3 2 2 6 3" xfId="449"/>
+    <cellStyle name="標準 3 2 2 6 4" xfId="629"/>
+    <cellStyle name="標準 3 2 2 7" xfId="24"/>
+    <cellStyle name="標準 3 2 2 7 2" xfId="366"/>
+    <cellStyle name="標準 3 2 2 7 3" xfId="546"/>
+    <cellStyle name="標準 3 2 2 8" xfId="193"/>
+    <cellStyle name="標準 3 2 2 9" xfId="358"/>
+    <cellStyle name="標準 3 2 3" xfId="12"/>
+    <cellStyle name="標準 3 2 3 2" xfId="47"/>
+    <cellStyle name="標準 3 2 3 2 2" xfId="95"/>
+    <cellStyle name="標準 3 2 3 2 2 2" xfId="178"/>
+    <cellStyle name="標準 3 2 3 2 2 2 2" xfId="342"/>
+    <cellStyle name="標準 3 2 3 2 2 2 3" xfId="520"/>
+    <cellStyle name="標準 3 2 3 2 2 2 4" xfId="700"/>
+    <cellStyle name="標準 3 2 3 2 2 3" xfId="259"/>
+    <cellStyle name="標準 3 2 3 2 2 4" xfId="437"/>
+    <cellStyle name="標準 3 2 3 2 2 5" xfId="617"/>
+    <cellStyle name="標準 3 2 3 2 3" xfId="130"/>
+    <cellStyle name="標準 3 2 3 2 3 2" xfId="294"/>
+    <cellStyle name="標準 3 2 3 2 3 3" xfId="472"/>
+    <cellStyle name="標準 3 2 3 2 3 4" xfId="652"/>
+    <cellStyle name="標準 3 2 3 2 4" xfId="212"/>
+    <cellStyle name="標準 3 2 3 2 5" xfId="389"/>
+    <cellStyle name="標準 3 2 3 2 6" xfId="569"/>
+    <cellStyle name="標準 3 2 3 3" xfId="60"/>
+    <cellStyle name="標準 3 2 3 3 2" xfId="143"/>
+    <cellStyle name="標準 3 2 3 3 2 2" xfId="307"/>
+    <cellStyle name="標準 3 2 3 3 2 3" xfId="485"/>
+    <cellStyle name="標準 3 2 3 3 2 4" xfId="665"/>
+    <cellStyle name="標準 3 2 3 3 3" xfId="225"/>
+    <cellStyle name="標準 3 2 3 3 4" xfId="402"/>
+    <cellStyle name="標準 3 2 3 3 5" xfId="582"/>
+    <cellStyle name="標準 3 2 3 4" xfId="82"/>
+    <cellStyle name="標準 3 2 3 4 2" xfId="165"/>
+    <cellStyle name="標準 3 2 3 4 2 2" xfId="329"/>
+    <cellStyle name="標準 3 2 3 4 2 3" xfId="507"/>
+    <cellStyle name="標準 3 2 3 4 2 4" xfId="687"/>
+    <cellStyle name="標準 3 2 3 4 3" xfId="246"/>
+    <cellStyle name="標準 3 2 3 4 4" xfId="424"/>
+    <cellStyle name="標準 3 2 3 4 5" xfId="604"/>
+    <cellStyle name="標準 3 2 3 5" xfId="117"/>
+    <cellStyle name="標準 3 2 3 5 2" xfId="281"/>
+    <cellStyle name="標準 3 2 3 5 3" xfId="459"/>
+    <cellStyle name="標準 3 2 3 5 4" xfId="639"/>
+    <cellStyle name="標準 3 2 3 6" xfId="34"/>
+    <cellStyle name="標準 3 2 3 6 2" xfId="376"/>
+    <cellStyle name="標準 3 2 3 6 3" xfId="556"/>
+    <cellStyle name="標準 3 2 3 7" xfId="190"/>
+    <cellStyle name="標準 3 2 3 8" xfId="355"/>
+    <cellStyle name="標準 3 2 3 9" xfId="535"/>
+    <cellStyle name="標準 3 2 4" xfId="30"/>
+    <cellStyle name="標準 3 2 4 2" xfId="78"/>
+    <cellStyle name="標準 3 2 4 2 2" xfId="161"/>
+    <cellStyle name="標準 3 2 4 2 2 2" xfId="325"/>
+    <cellStyle name="標準 3 2 4 2 2 3" xfId="503"/>
+    <cellStyle name="標準 3 2 4 2 2 4" xfId="683"/>
+    <cellStyle name="標準 3 2 4 2 3" xfId="242"/>
+    <cellStyle name="標準 3 2 4 2 4" xfId="420"/>
+    <cellStyle name="標準 3 2 4 2 5" xfId="600"/>
+    <cellStyle name="標準 3 2 4 3" xfId="113"/>
+    <cellStyle name="標準 3 2 4 3 2" xfId="277"/>
+    <cellStyle name="標準 3 2 4 3 3" xfId="455"/>
+    <cellStyle name="標準 3 2 4 3 4" xfId="635"/>
+    <cellStyle name="標準 3 2 4 4" xfId="200"/>
+    <cellStyle name="標準 3 2 4 5" xfId="372"/>
+    <cellStyle name="標準 3 2 4 6" xfId="552"/>
+    <cellStyle name="標準 3 2 5" xfId="43"/>
+    <cellStyle name="標準 3 2 5 2" xfId="91"/>
+    <cellStyle name="標準 3 2 5 2 2" xfId="174"/>
+    <cellStyle name="標準 3 2 5 2 2 2" xfId="338"/>
+    <cellStyle name="標準 3 2 5 2 2 3" xfId="516"/>
+    <cellStyle name="標準 3 2 5 2 2 4" xfId="696"/>
+    <cellStyle name="標準 3 2 5 2 3" xfId="255"/>
+    <cellStyle name="標準 3 2 5 2 4" xfId="433"/>
+    <cellStyle name="標準 3 2 5 2 5" xfId="613"/>
+    <cellStyle name="標準 3 2 5 3" xfId="126"/>
+    <cellStyle name="標準 3 2 5 3 2" xfId="290"/>
+    <cellStyle name="標準 3 2 5 3 3" xfId="468"/>
+    <cellStyle name="標準 3 2 5 3 4" xfId="648"/>
+    <cellStyle name="標準 3 2 5 4" xfId="208"/>
+    <cellStyle name="標準 3 2 5 5" xfId="385"/>
+    <cellStyle name="標準 3 2 5 6" xfId="565"/>
+    <cellStyle name="標準 3 2 6" xfId="56"/>
+    <cellStyle name="標準 3 2 6 2" xfId="139"/>
+    <cellStyle name="標準 3 2 6 2 2" xfId="303"/>
+    <cellStyle name="標準 3 2 6 2 3" xfId="481"/>
+    <cellStyle name="標準 3 2 6 2 4" xfId="661"/>
+    <cellStyle name="標準 3 2 6 3" xfId="221"/>
+    <cellStyle name="標準 3 2 6 4" xfId="398"/>
+    <cellStyle name="標準 3 2 6 5" xfId="578"/>
+    <cellStyle name="標準 3 2 7" xfId="69"/>
+    <cellStyle name="標準 3 2 7 2" xfId="152"/>
+    <cellStyle name="標準 3 2 7 2 2" xfId="316"/>
+    <cellStyle name="標準 3 2 7 2 3" xfId="494"/>
+    <cellStyle name="標準 3 2 7 2 4" xfId="674"/>
+    <cellStyle name="標準 3 2 7 3" xfId="233"/>
+    <cellStyle name="標準 3 2 7 4" xfId="411"/>
+    <cellStyle name="標準 3 2 7 5" xfId="591"/>
+    <cellStyle name="標準 3 2 8" xfId="104"/>
+    <cellStyle name="標準 3 2 8 2" xfId="268"/>
+    <cellStyle name="標準 3 2 8 3" xfId="446"/>
+    <cellStyle name="標準 3 2 8 4" xfId="626"/>
+    <cellStyle name="標準 3 2 9" xfId="21"/>
+    <cellStyle name="標準 3 2 9 2" xfId="363"/>
+    <cellStyle name="標準 3 2 9 3" xfId="543"/>
+    <cellStyle name="標準 3 3" xfId="4"/>
+    <cellStyle name="標準 3 3 10" xfId="7"/>
+    <cellStyle name="標準 3 3 10 2" xfId="709"/>
+    <cellStyle name="標準 3 3 11" xfId="350"/>
+    <cellStyle name="標準 3 3 12" xfId="530"/>
+    <cellStyle name="標準 3 3 2" xfId="16"/>
+    <cellStyle name="標準 3 3 2 10" xfId="539"/>
+    <cellStyle name="標準 3 3 2 2" xfId="38"/>
+    <cellStyle name="標準 3 3 2 2 2" xfId="86"/>
+    <cellStyle name="標準 3 3 2 2 2 2" xfId="169"/>
+    <cellStyle name="標準 3 3 2 2 2 2 2" xfId="333"/>
+    <cellStyle name="標準 3 3 2 2 2 2 3" xfId="511"/>
+    <cellStyle name="標準 3 3 2 2 2 2 4" xfId="691"/>
+    <cellStyle name="標準 3 3 2 2 2 3" xfId="250"/>
+    <cellStyle name="標準 3 3 2 2 2 4" xfId="428"/>
+    <cellStyle name="標準 3 3 2 2 2 5" xfId="608"/>
+    <cellStyle name="標準 3 3 2 2 3" xfId="121"/>
+    <cellStyle name="標準 3 3 2 2 3 2" xfId="285"/>
+    <cellStyle name="標準 3 3 2 2 3 3" xfId="463"/>
+    <cellStyle name="標準 3 3 2 2 3 4" xfId="643"/>
+    <cellStyle name="標準 3 3 2 2 4" xfId="203"/>
+    <cellStyle name="標準 3 3 2 2 5" xfId="380"/>
+    <cellStyle name="標準 3 3 2 2 6" xfId="560"/>
+    <cellStyle name="標準 3 3 2 3" xfId="51"/>
+    <cellStyle name="標準 3 3 2 3 2" xfId="99"/>
+    <cellStyle name="標準 3 3 2 3 2 2" xfId="182"/>
+    <cellStyle name="標準 3 3 2 3 2 2 2" xfId="346"/>
+    <cellStyle name="標準 3 3 2 3 2 2 3" xfId="524"/>
+    <cellStyle name="標準 3 3 2 3 2 2 4" xfId="704"/>
+    <cellStyle name="標準 3 3 2 3 2 3" xfId="263"/>
+    <cellStyle name="標準 3 3 2 3 2 4" xfId="441"/>
+    <cellStyle name="標準 3 3 2 3 2 5" xfId="621"/>
+    <cellStyle name="標準 3 3 2 3 3" xfId="134"/>
+    <cellStyle name="標準 3 3 2 3 3 2" xfId="298"/>
+    <cellStyle name="標準 3 3 2 3 3 3" xfId="476"/>
+    <cellStyle name="標準 3 3 2 3 3 4" xfId="656"/>
+    <cellStyle name="標準 3 3 2 3 4" xfId="216"/>
+    <cellStyle name="標準 3 3 2 3 5" xfId="393"/>
+    <cellStyle name="標準 3 3 2 3 6" xfId="573"/>
+    <cellStyle name="標準 3 3 2 4" xfId="64"/>
+    <cellStyle name="標準 3 3 2 4 2" xfId="147"/>
+    <cellStyle name="標準 3 3 2 4 2 2" xfId="311"/>
+    <cellStyle name="標準 3 3 2 4 2 3" xfId="489"/>
+    <cellStyle name="標準 3 3 2 4 2 4" xfId="669"/>
+    <cellStyle name="標準 3 3 2 4 3" xfId="229"/>
+    <cellStyle name="標準 3 3 2 4 4" xfId="406"/>
+    <cellStyle name="標準 3 3 2 4 5" xfId="586"/>
+    <cellStyle name="標準 3 3 2 5" xfId="73"/>
+    <cellStyle name="標準 3 3 2 5 2" xfId="156"/>
+    <cellStyle name="標準 3 3 2 5 2 2" xfId="320"/>
+    <cellStyle name="標準 3 3 2 5 2 3" xfId="498"/>
+    <cellStyle name="標準 3 3 2 5 2 4" xfId="678"/>
+    <cellStyle name="標準 3 3 2 5 3" xfId="237"/>
+    <cellStyle name="標準 3 3 2 5 4" xfId="415"/>
+    <cellStyle name="標準 3 3 2 5 5" xfId="595"/>
+    <cellStyle name="標準 3 3 2 6" xfId="108"/>
+    <cellStyle name="標準 3 3 2 6 2" xfId="272"/>
+    <cellStyle name="標準 3 3 2 6 3" xfId="450"/>
+    <cellStyle name="標準 3 3 2 6 4" xfId="630"/>
+    <cellStyle name="標準 3 3 2 7" xfId="25"/>
+    <cellStyle name="標準 3 3 2 7 2" xfId="367"/>
+    <cellStyle name="標準 3 3 2 7 3" xfId="547"/>
+    <cellStyle name="標準 3 3 2 8" xfId="194"/>
+    <cellStyle name="標準 3 3 2 9" xfId="359"/>
+    <cellStyle name="標準 3 3 3" xfId="11"/>
+    <cellStyle name="標準 3 3 3 2" xfId="46"/>
+    <cellStyle name="標準 3 3 3 2 2" xfId="94"/>
+    <cellStyle name="標準 3 3 3 2 2 2" xfId="177"/>
+    <cellStyle name="標準 3 3 3 2 2 2 2" xfId="341"/>
+    <cellStyle name="標準 3 3 3 2 2 2 3" xfId="519"/>
+    <cellStyle name="標準 3 3 3 2 2 2 4" xfId="699"/>
+    <cellStyle name="標準 3 3 3 2 2 3" xfId="258"/>
+    <cellStyle name="標準 3 3 3 2 2 4" xfId="436"/>
+    <cellStyle name="標準 3 3 3 2 2 5" xfId="616"/>
+    <cellStyle name="標準 3 3 3 2 3" xfId="129"/>
+    <cellStyle name="標準 3 3 3 2 3 2" xfId="293"/>
+    <cellStyle name="標準 3 3 3 2 3 3" xfId="471"/>
+    <cellStyle name="標準 3 3 3 2 3 4" xfId="651"/>
+    <cellStyle name="標準 3 3 3 2 4" xfId="211"/>
+    <cellStyle name="標準 3 3 3 2 5" xfId="388"/>
+    <cellStyle name="標準 3 3 3 2 6" xfId="568"/>
+    <cellStyle name="標準 3 3 3 3" xfId="59"/>
+    <cellStyle name="標準 3 3 3 3 2" xfId="142"/>
+    <cellStyle name="標準 3 3 3 3 2 2" xfId="306"/>
+    <cellStyle name="標準 3 3 3 3 2 3" xfId="484"/>
+    <cellStyle name="標準 3 3 3 3 2 4" xfId="664"/>
+    <cellStyle name="標準 3 3 3 3 3" xfId="224"/>
+    <cellStyle name="標準 3 3 3 3 4" xfId="401"/>
+    <cellStyle name="標準 3 3 3 3 5" xfId="581"/>
+    <cellStyle name="標準 3 3 3 4" xfId="81"/>
+    <cellStyle name="標準 3 3 3 4 2" xfId="164"/>
+    <cellStyle name="標準 3 3 3 4 2 2" xfId="328"/>
+    <cellStyle name="標準 3 3 3 4 2 3" xfId="506"/>
+    <cellStyle name="標準 3 3 3 4 2 4" xfId="686"/>
+    <cellStyle name="標準 3 3 3 4 3" xfId="245"/>
+    <cellStyle name="標準 3 3 3 4 4" xfId="423"/>
+    <cellStyle name="標準 3 3 3 4 5" xfId="603"/>
+    <cellStyle name="標準 3 3 3 5" xfId="116"/>
+    <cellStyle name="標準 3 3 3 5 2" xfId="280"/>
+    <cellStyle name="標準 3 3 3 5 3" xfId="458"/>
+    <cellStyle name="標準 3 3 3 5 4" xfId="638"/>
+    <cellStyle name="標準 3 3 3 6" xfId="33"/>
+    <cellStyle name="標準 3 3 3 6 2" xfId="375"/>
+    <cellStyle name="標準 3 3 3 6 3" xfId="555"/>
+    <cellStyle name="標準 3 3 3 7" xfId="189"/>
+    <cellStyle name="標準 3 3 3 8" xfId="354"/>
+    <cellStyle name="標準 3 3 3 9" xfId="534"/>
+    <cellStyle name="標準 3 3 4" xfId="29"/>
+    <cellStyle name="標準 3 3 4 2" xfId="77"/>
+    <cellStyle name="標準 3 3 4 2 2" xfId="160"/>
+    <cellStyle name="標準 3 3 4 2 2 2" xfId="324"/>
+    <cellStyle name="標準 3 3 4 2 2 3" xfId="502"/>
+    <cellStyle name="標準 3 3 4 2 2 4" xfId="682"/>
+    <cellStyle name="標準 3 3 4 2 3" xfId="241"/>
+    <cellStyle name="標準 3 3 4 2 4" xfId="419"/>
+    <cellStyle name="標準 3 3 4 2 5" xfId="599"/>
+    <cellStyle name="標準 3 3 4 3" xfId="112"/>
+    <cellStyle name="標準 3 3 4 3 2" xfId="276"/>
+    <cellStyle name="標準 3 3 4 3 3" xfId="454"/>
+    <cellStyle name="標準 3 3 4 3 4" xfId="634"/>
+    <cellStyle name="標準 3 3 4 4" xfId="199"/>
+    <cellStyle name="標準 3 3 4 5" xfId="371"/>
+    <cellStyle name="標準 3 3 4 6" xfId="551"/>
+    <cellStyle name="標準 3 3 5" xfId="42"/>
+    <cellStyle name="標準 3 3 5 2" xfId="90"/>
+    <cellStyle name="標準 3 3 5 2 2" xfId="173"/>
+    <cellStyle name="標準 3 3 5 2 2 2" xfId="337"/>
+    <cellStyle name="標準 3 3 5 2 2 3" xfId="515"/>
+    <cellStyle name="標準 3 3 5 2 2 4" xfId="695"/>
+    <cellStyle name="標準 3 3 5 2 3" xfId="254"/>
+    <cellStyle name="標準 3 3 5 2 4" xfId="432"/>
+    <cellStyle name="標準 3 3 5 2 5" xfId="612"/>
+    <cellStyle name="標準 3 3 5 3" xfId="125"/>
+    <cellStyle name="標準 3 3 5 3 2" xfId="289"/>
+    <cellStyle name="標準 3 3 5 3 3" xfId="467"/>
+    <cellStyle name="標準 3 3 5 3 4" xfId="647"/>
+    <cellStyle name="標準 3 3 5 4" xfId="207"/>
+    <cellStyle name="標準 3 3 5 5" xfId="384"/>
+    <cellStyle name="標準 3 3 5 6" xfId="564"/>
+    <cellStyle name="標準 3 3 6" xfId="55"/>
+    <cellStyle name="標準 3 3 6 2" xfId="138"/>
+    <cellStyle name="標準 3 3 6 2 2" xfId="302"/>
+    <cellStyle name="標準 3 3 6 2 3" xfId="480"/>
+    <cellStyle name="標準 3 3 6 2 4" xfId="660"/>
+    <cellStyle name="標準 3 3 6 3" xfId="220"/>
+    <cellStyle name="標準 3 3 6 4" xfId="397"/>
+    <cellStyle name="標準 3 3 6 5" xfId="577"/>
+    <cellStyle name="標準 3 3 7" xfId="68"/>
+    <cellStyle name="標準 3 3 7 2" xfId="151"/>
+    <cellStyle name="標準 3 3 7 2 2" xfId="315"/>
+    <cellStyle name="標準 3 3 7 2 3" xfId="493"/>
+    <cellStyle name="標準 3 3 7 2 4" xfId="673"/>
+    <cellStyle name="標準 3 3 7 3" xfId="232"/>
+    <cellStyle name="標準 3 3 7 4" xfId="410"/>
+    <cellStyle name="標準 3 3 7 5" xfId="590"/>
+    <cellStyle name="標準 3 3 8" xfId="103"/>
+    <cellStyle name="標準 3 3 8 2" xfId="267"/>
+    <cellStyle name="標準 3 3 8 3" xfId="445"/>
+    <cellStyle name="標準 3 3 8 4" xfId="625"/>
+    <cellStyle name="標準 3 3 9" xfId="20"/>
+    <cellStyle name="標準 3 3 9 2" xfId="362"/>
+    <cellStyle name="標準 3 3 9 3" xfId="542"/>
+    <cellStyle name="標準 3 4" xfId="9"/>
+    <cellStyle name="標準 3 4 10" xfId="187"/>
+    <cellStyle name="標準 3 4 11" xfId="352"/>
+    <cellStyle name="標準 3 4 12" xfId="532"/>
+    <cellStyle name="標準 3 4 2" xfId="17"/>
+    <cellStyle name="標準 3 4 2 10" xfId="540"/>
+    <cellStyle name="標準 3 4 2 2" xfId="39"/>
+    <cellStyle name="標準 3 4 2 2 2" xfId="87"/>
+    <cellStyle name="標準 3 4 2 2 2 2" xfId="170"/>
+    <cellStyle name="標準 3 4 2 2 2 2 2" xfId="334"/>
+    <cellStyle name="標準 3 4 2 2 2 2 3" xfId="512"/>
+    <cellStyle name="標準 3 4 2 2 2 2 4" xfId="692"/>
+    <cellStyle name="標準 3 4 2 2 2 3" xfId="251"/>
+    <cellStyle name="標準 3 4 2 2 2 4" xfId="429"/>
+    <cellStyle name="標準 3 4 2 2 2 5" xfId="609"/>
+    <cellStyle name="標準 3 4 2 2 3" xfId="122"/>
+    <cellStyle name="標準 3 4 2 2 3 2" xfId="286"/>
+    <cellStyle name="標準 3 4 2 2 3 3" xfId="464"/>
+    <cellStyle name="標準 3 4 2 2 3 4" xfId="644"/>
+    <cellStyle name="標準 3 4 2 2 4" xfId="204"/>
+    <cellStyle name="標準 3 4 2 2 5" xfId="381"/>
+    <cellStyle name="標準 3 4 2 2 6" xfId="561"/>
+    <cellStyle name="標準 3 4 2 3" xfId="52"/>
+    <cellStyle name="標準 3 4 2 3 2" xfId="100"/>
+    <cellStyle name="標準 3 4 2 3 2 2" xfId="183"/>
+    <cellStyle name="標準 3 4 2 3 2 2 2" xfId="347"/>
+    <cellStyle name="標準 3 4 2 3 2 2 3" xfId="525"/>
+    <cellStyle name="標準 3 4 2 3 2 2 4" xfId="705"/>
+    <cellStyle name="標準 3 4 2 3 2 3" xfId="264"/>
+    <cellStyle name="標準 3 4 2 3 2 4" xfId="442"/>
+    <cellStyle name="標準 3 4 2 3 2 5" xfId="622"/>
+    <cellStyle name="標準 3 4 2 3 3" xfId="135"/>
+    <cellStyle name="標準 3 4 2 3 3 2" xfId="299"/>
+    <cellStyle name="標準 3 4 2 3 3 3" xfId="477"/>
+    <cellStyle name="標準 3 4 2 3 3 4" xfId="657"/>
+    <cellStyle name="標準 3 4 2 3 4" xfId="217"/>
+    <cellStyle name="標準 3 4 2 3 5" xfId="394"/>
+    <cellStyle name="標準 3 4 2 3 6" xfId="574"/>
+    <cellStyle name="標準 3 4 2 4" xfId="65"/>
+    <cellStyle name="標準 3 4 2 4 2" xfId="148"/>
+    <cellStyle name="標準 3 4 2 4 2 2" xfId="312"/>
+    <cellStyle name="標準 3 4 2 4 2 3" xfId="490"/>
+    <cellStyle name="標準 3 4 2 4 2 4" xfId="670"/>
+    <cellStyle name="標準 3 4 2 4 3" xfId="230"/>
+    <cellStyle name="標準 3 4 2 4 4" xfId="407"/>
+    <cellStyle name="標準 3 4 2 4 5" xfId="587"/>
+    <cellStyle name="標準 3 4 2 5" xfId="74"/>
+    <cellStyle name="標準 3 4 2 5 2" xfId="157"/>
+    <cellStyle name="標準 3 4 2 5 2 2" xfId="321"/>
+    <cellStyle name="標準 3 4 2 5 2 3" xfId="499"/>
+    <cellStyle name="標準 3 4 2 5 2 4" xfId="679"/>
+    <cellStyle name="標準 3 4 2 5 3" xfId="238"/>
+    <cellStyle name="標準 3 4 2 5 4" xfId="416"/>
+    <cellStyle name="標準 3 4 2 5 5" xfId="596"/>
+    <cellStyle name="標準 3 4 2 6" xfId="109"/>
+    <cellStyle name="標準 3 4 2 6 2" xfId="273"/>
+    <cellStyle name="標準 3 4 2 6 3" xfId="451"/>
+    <cellStyle name="標準 3 4 2 6 4" xfId="631"/>
+    <cellStyle name="標準 3 4 2 7" xfId="26"/>
+    <cellStyle name="標準 3 4 2 7 2" xfId="368"/>
+    <cellStyle name="標準 3 4 2 7 3" xfId="548"/>
+    <cellStyle name="標準 3 4 2 8" xfId="195"/>
+    <cellStyle name="標準 3 4 2 9" xfId="360"/>
+    <cellStyle name="標準 3 4 3" xfId="13"/>
+    <cellStyle name="標準 3 4 3 2" xfId="48"/>
+    <cellStyle name="標準 3 4 3 2 2" xfId="96"/>
+    <cellStyle name="標準 3 4 3 2 2 2" xfId="179"/>
+    <cellStyle name="標準 3 4 3 2 2 2 2" xfId="343"/>
+    <cellStyle name="標準 3 4 3 2 2 2 3" xfId="521"/>
+    <cellStyle name="標準 3 4 3 2 2 2 4" xfId="701"/>
+    <cellStyle name="標準 3 4 3 2 2 3" xfId="260"/>
+    <cellStyle name="標準 3 4 3 2 2 4" xfId="438"/>
+    <cellStyle name="標準 3 4 3 2 2 5" xfId="618"/>
+    <cellStyle name="標準 3 4 3 2 3" xfId="131"/>
+    <cellStyle name="標準 3 4 3 2 3 2" xfId="295"/>
+    <cellStyle name="標準 3 4 3 2 3 3" xfId="473"/>
+    <cellStyle name="標準 3 4 3 2 3 4" xfId="653"/>
+    <cellStyle name="標準 3 4 3 2 4" xfId="213"/>
+    <cellStyle name="標準 3 4 3 2 5" xfId="390"/>
+    <cellStyle name="標準 3 4 3 2 6" xfId="570"/>
+    <cellStyle name="標準 3 4 3 3" xfId="61"/>
+    <cellStyle name="標準 3 4 3 3 2" xfId="144"/>
+    <cellStyle name="標準 3 4 3 3 2 2" xfId="308"/>
+    <cellStyle name="標準 3 4 3 3 2 3" xfId="486"/>
+    <cellStyle name="標準 3 4 3 3 2 4" xfId="666"/>
+    <cellStyle name="標準 3 4 3 3 3" xfId="226"/>
+    <cellStyle name="標準 3 4 3 3 4" xfId="403"/>
+    <cellStyle name="標準 3 4 3 3 5" xfId="583"/>
+    <cellStyle name="標準 3 4 3 4" xfId="83"/>
+    <cellStyle name="標準 3 4 3 4 2" xfId="166"/>
+    <cellStyle name="標準 3 4 3 4 2 2" xfId="330"/>
+    <cellStyle name="標準 3 4 3 4 2 3" xfId="508"/>
+    <cellStyle name="標準 3 4 3 4 2 4" xfId="688"/>
+    <cellStyle name="標準 3 4 3 4 3" xfId="247"/>
+    <cellStyle name="標準 3 4 3 4 4" xfId="425"/>
+    <cellStyle name="標準 3 4 3 4 5" xfId="605"/>
+    <cellStyle name="標準 3 4 3 5" xfId="118"/>
+    <cellStyle name="標準 3 4 3 5 2" xfId="282"/>
+    <cellStyle name="標準 3 4 3 5 3" xfId="460"/>
+    <cellStyle name="標準 3 4 3 5 4" xfId="640"/>
+    <cellStyle name="標準 3 4 3 6" xfId="35"/>
+    <cellStyle name="標準 3 4 3 6 2" xfId="377"/>
+    <cellStyle name="標準 3 4 3 6 3" xfId="557"/>
+    <cellStyle name="標準 3 4 3 7" xfId="191"/>
+    <cellStyle name="標準 3 4 3 8" xfId="356"/>
+    <cellStyle name="標準 3 4 3 9" xfId="536"/>
+    <cellStyle name="標準 3 4 4" xfId="31"/>
+    <cellStyle name="標準 3 4 4 2" xfId="79"/>
+    <cellStyle name="標準 3 4 4 2 2" xfId="162"/>
+    <cellStyle name="標準 3 4 4 2 2 2" xfId="326"/>
+    <cellStyle name="標準 3 4 4 2 2 3" xfId="504"/>
+    <cellStyle name="標準 3 4 4 2 2 4" xfId="684"/>
+    <cellStyle name="標準 3 4 4 2 3" xfId="243"/>
+    <cellStyle name="標準 3 4 4 2 4" xfId="421"/>
+    <cellStyle name="標準 3 4 4 2 5" xfId="601"/>
+    <cellStyle name="標準 3 4 4 3" xfId="114"/>
+    <cellStyle name="標準 3 4 4 3 2" xfId="278"/>
+    <cellStyle name="標準 3 4 4 3 3" xfId="456"/>
+    <cellStyle name="標準 3 4 4 3 4" xfId="636"/>
+    <cellStyle name="標準 3 4 4 4" xfId="201"/>
+    <cellStyle name="標準 3 4 4 5" xfId="373"/>
+    <cellStyle name="標準 3 4 4 6" xfId="553"/>
+    <cellStyle name="標準 3 4 5" xfId="44"/>
+    <cellStyle name="標準 3 4 5 2" xfId="92"/>
+    <cellStyle name="標準 3 4 5 2 2" xfId="175"/>
+    <cellStyle name="標準 3 4 5 2 2 2" xfId="339"/>
+    <cellStyle name="標準 3 4 5 2 2 3" xfId="517"/>
+    <cellStyle name="標準 3 4 5 2 2 4" xfId="697"/>
+    <cellStyle name="標準 3 4 5 2 3" xfId="256"/>
+    <cellStyle name="標準 3 4 5 2 4" xfId="434"/>
+    <cellStyle name="標準 3 4 5 2 5" xfId="614"/>
+    <cellStyle name="標準 3 4 5 3" xfId="127"/>
+    <cellStyle name="標準 3 4 5 3 2" xfId="291"/>
+    <cellStyle name="標準 3 4 5 3 3" xfId="469"/>
+    <cellStyle name="標準 3 4 5 3 4" xfId="649"/>
+    <cellStyle name="標準 3 4 5 4" xfId="209"/>
+    <cellStyle name="標準 3 4 5 5" xfId="386"/>
+    <cellStyle name="標準 3 4 5 6" xfId="566"/>
+    <cellStyle name="標準 3 4 6" xfId="57"/>
+    <cellStyle name="標準 3 4 6 2" xfId="140"/>
+    <cellStyle name="標準 3 4 6 2 2" xfId="304"/>
+    <cellStyle name="標準 3 4 6 2 3" xfId="482"/>
+    <cellStyle name="標準 3 4 6 2 4" xfId="662"/>
+    <cellStyle name="標準 3 4 6 3" xfId="222"/>
+    <cellStyle name="標準 3 4 6 4" xfId="399"/>
+    <cellStyle name="標準 3 4 6 5" xfId="579"/>
+    <cellStyle name="標準 3 4 7" xfId="70"/>
+    <cellStyle name="標準 3 4 7 2" xfId="153"/>
+    <cellStyle name="標準 3 4 7 2 2" xfId="317"/>
+    <cellStyle name="標準 3 4 7 2 3" xfId="495"/>
+    <cellStyle name="標準 3 4 7 2 4" xfId="675"/>
+    <cellStyle name="標準 3 4 7 3" xfId="234"/>
+    <cellStyle name="標準 3 4 7 4" xfId="412"/>
+    <cellStyle name="標準 3 4 7 5" xfId="592"/>
+    <cellStyle name="標準 3 4 8" xfId="105"/>
+    <cellStyle name="標準 3 4 8 2" xfId="269"/>
+    <cellStyle name="標準 3 4 8 3" xfId="447"/>
+    <cellStyle name="標準 3 4 8 4" xfId="627"/>
+    <cellStyle name="標準 3 4 9" xfId="22"/>
+    <cellStyle name="標準 3 4 9 2" xfId="364"/>
+    <cellStyle name="標準 3 4 9 3" xfId="544"/>
+    <cellStyle name="標準 3 5" xfId="6"/>
+    <cellStyle name="標準 3 5 10" xfId="349"/>
+    <cellStyle name="標準 3 5 11" xfId="529"/>
+    <cellStyle name="標準 3 5 2" xfId="14"/>
+    <cellStyle name="標準 3 5 2 2" xfId="49"/>
+    <cellStyle name="標準 3 5 2 2 2" xfId="97"/>
+    <cellStyle name="標準 3 5 2 2 2 2" xfId="180"/>
+    <cellStyle name="標準 3 5 2 2 2 2 2" xfId="344"/>
+    <cellStyle name="標準 3 5 2 2 2 2 3" xfId="522"/>
+    <cellStyle name="標準 3 5 2 2 2 2 4" xfId="702"/>
+    <cellStyle name="標準 3 5 2 2 2 3" xfId="261"/>
+    <cellStyle name="標準 3 5 2 2 2 4" xfId="439"/>
+    <cellStyle name="標準 3 5 2 2 2 5" xfId="619"/>
+    <cellStyle name="標準 3 5 2 2 3" xfId="132"/>
+    <cellStyle name="標準 3 5 2 2 3 2" xfId="296"/>
+    <cellStyle name="標準 3 5 2 2 3 3" xfId="474"/>
+    <cellStyle name="標準 3 5 2 2 3 4" xfId="654"/>
+    <cellStyle name="標準 3 5 2 2 4" xfId="214"/>
+    <cellStyle name="標準 3 5 2 2 5" xfId="391"/>
+    <cellStyle name="標準 3 5 2 2 6" xfId="571"/>
+    <cellStyle name="標準 3 5 2 3" xfId="62"/>
+    <cellStyle name="標準 3 5 2 3 2" xfId="145"/>
+    <cellStyle name="標準 3 5 2 3 2 2" xfId="309"/>
+    <cellStyle name="標準 3 5 2 3 2 3" xfId="487"/>
+    <cellStyle name="標準 3 5 2 3 2 4" xfId="667"/>
+    <cellStyle name="標準 3 5 2 3 3" xfId="227"/>
+    <cellStyle name="標準 3 5 2 3 4" xfId="404"/>
+    <cellStyle name="標準 3 5 2 3 5" xfId="584"/>
+    <cellStyle name="標準 3 5 2 4" xfId="84"/>
+    <cellStyle name="標準 3 5 2 4 2" xfId="167"/>
+    <cellStyle name="標準 3 5 2 4 2 2" xfId="331"/>
+    <cellStyle name="標準 3 5 2 4 2 3" xfId="509"/>
+    <cellStyle name="標準 3 5 2 4 2 4" xfId="689"/>
+    <cellStyle name="標準 3 5 2 4 3" xfId="248"/>
+    <cellStyle name="標準 3 5 2 4 4" xfId="426"/>
+    <cellStyle name="標準 3 5 2 4 5" xfId="606"/>
+    <cellStyle name="標準 3 5 2 5" xfId="119"/>
+    <cellStyle name="標準 3 5 2 5 2" xfId="283"/>
+    <cellStyle name="標準 3 5 2 5 3" xfId="461"/>
+    <cellStyle name="標準 3 5 2 5 4" xfId="641"/>
+    <cellStyle name="標準 3 5 2 6" xfId="36"/>
+    <cellStyle name="標準 3 5 2 6 2" xfId="378"/>
+    <cellStyle name="標準 3 5 2 6 3" xfId="558"/>
+    <cellStyle name="標準 3 5 2 7" xfId="192"/>
+    <cellStyle name="標準 3 5 2 8" xfId="357"/>
+    <cellStyle name="標準 3 5 2 9" xfId="537"/>
+    <cellStyle name="標準 3 5 3" xfId="28"/>
+    <cellStyle name="標準 3 5 3 2" xfId="76"/>
+    <cellStyle name="標準 3 5 3 2 2" xfId="159"/>
+    <cellStyle name="標準 3 5 3 2 2 2" xfId="323"/>
+    <cellStyle name="標準 3 5 3 2 2 3" xfId="501"/>
+    <cellStyle name="標準 3 5 3 2 2 4" xfId="681"/>
+    <cellStyle name="標準 3 5 3 2 3" xfId="240"/>
+    <cellStyle name="標準 3 5 3 2 4" xfId="418"/>
+    <cellStyle name="標準 3 5 3 2 5" xfId="598"/>
+    <cellStyle name="標準 3 5 3 3" xfId="111"/>
+    <cellStyle name="標準 3 5 3 3 2" xfId="275"/>
+    <cellStyle name="標準 3 5 3 3 3" xfId="453"/>
+    <cellStyle name="標準 3 5 3 3 4" xfId="633"/>
+    <cellStyle name="標準 3 5 3 4" xfId="198"/>
+    <cellStyle name="標準 3 5 3 5" xfId="370"/>
+    <cellStyle name="標準 3 5 3 6" xfId="550"/>
+    <cellStyle name="標準 3 5 4" xfId="41"/>
+    <cellStyle name="標準 3 5 4 2" xfId="89"/>
+    <cellStyle name="標準 3 5 4 2 2" xfId="172"/>
+    <cellStyle name="標準 3 5 4 2 2 2" xfId="336"/>
+    <cellStyle name="標準 3 5 4 2 2 3" xfId="514"/>
+    <cellStyle name="標準 3 5 4 2 2 4" xfId="694"/>
+    <cellStyle name="標準 3 5 4 2 3" xfId="253"/>
+    <cellStyle name="標準 3 5 4 2 4" xfId="431"/>
+    <cellStyle name="標準 3 5 4 2 5" xfId="611"/>
+    <cellStyle name="標準 3 5 4 3" xfId="124"/>
+    <cellStyle name="標準 3 5 4 3 2" xfId="288"/>
+    <cellStyle name="標準 3 5 4 3 3" xfId="466"/>
+    <cellStyle name="標準 3 5 4 3 4" xfId="646"/>
+    <cellStyle name="標準 3 5 4 4" xfId="206"/>
+    <cellStyle name="標準 3 5 4 5" xfId="383"/>
+    <cellStyle name="標準 3 5 4 6" xfId="563"/>
+    <cellStyle name="標準 3 5 5" xfId="54"/>
+    <cellStyle name="標準 3 5 5 2" xfId="137"/>
+    <cellStyle name="標準 3 5 5 2 2" xfId="301"/>
+    <cellStyle name="標準 3 5 5 2 3" xfId="479"/>
+    <cellStyle name="標準 3 5 5 2 4" xfId="659"/>
+    <cellStyle name="標準 3 5 5 3" xfId="219"/>
+    <cellStyle name="標準 3 5 5 4" xfId="396"/>
+    <cellStyle name="標準 3 5 5 5" xfId="576"/>
+    <cellStyle name="標準 3 5 6" xfId="71"/>
+    <cellStyle name="標準 3 5 6 2" xfId="154"/>
+    <cellStyle name="標準 3 5 6 2 2" xfId="318"/>
+    <cellStyle name="標準 3 5 6 2 3" xfId="496"/>
+    <cellStyle name="標準 3 5 6 2 4" xfId="676"/>
+    <cellStyle name="標準 3 5 6 3" xfId="235"/>
+    <cellStyle name="標準 3 5 6 4" xfId="413"/>
+    <cellStyle name="標準 3 5 6 5" xfId="593"/>
+    <cellStyle name="標準 3 5 7" xfId="106"/>
+    <cellStyle name="標準 3 5 7 2" xfId="270"/>
+    <cellStyle name="標準 3 5 7 3" xfId="448"/>
+    <cellStyle name="標準 3 5 7 4" xfId="628"/>
+    <cellStyle name="標準 3 5 8" xfId="23"/>
+    <cellStyle name="標準 3 5 8 2" xfId="365"/>
+    <cellStyle name="標準 3 5 8 3" xfId="545"/>
+    <cellStyle name="標準 3 5 9" xfId="186"/>
+    <cellStyle name="標準 3 6" xfId="10"/>
+    <cellStyle name="標準 3 6 2" xfId="45"/>
+    <cellStyle name="標準 3 6 2 2" xfId="93"/>
+    <cellStyle name="標準 3 6 2 2 2" xfId="176"/>
+    <cellStyle name="標準 3 6 2 2 2 2" xfId="340"/>
+    <cellStyle name="標準 3 6 2 2 2 3" xfId="518"/>
+    <cellStyle name="標準 3 6 2 2 2 4" xfId="698"/>
+    <cellStyle name="標準 3 6 2 2 3" xfId="257"/>
+    <cellStyle name="標準 3 6 2 2 4" xfId="435"/>
+    <cellStyle name="標準 3 6 2 2 5" xfId="615"/>
+    <cellStyle name="標準 3 6 2 3" xfId="128"/>
+    <cellStyle name="標準 3 6 2 3 2" xfId="292"/>
+    <cellStyle name="標準 3 6 2 3 3" xfId="470"/>
+    <cellStyle name="標準 3 6 2 3 4" xfId="650"/>
+    <cellStyle name="標準 3 6 2 4" xfId="210"/>
+    <cellStyle name="標準 3 6 2 5" xfId="387"/>
+    <cellStyle name="標準 3 6 2 6" xfId="567"/>
+    <cellStyle name="標準 3 6 3" xfId="58"/>
+    <cellStyle name="標準 3 6 3 2" xfId="141"/>
+    <cellStyle name="標準 3 6 3 2 2" xfId="305"/>
+    <cellStyle name="標準 3 6 3 2 3" xfId="483"/>
+    <cellStyle name="標準 3 6 3 2 4" xfId="663"/>
+    <cellStyle name="標準 3 6 3 3" xfId="223"/>
+    <cellStyle name="標準 3 6 3 4" xfId="400"/>
+    <cellStyle name="標準 3 6 3 5" xfId="580"/>
+    <cellStyle name="標準 3 6 4" xfId="80"/>
+    <cellStyle name="標準 3 6 4 2" xfId="163"/>
+    <cellStyle name="標準 3 6 4 2 2" xfId="327"/>
+    <cellStyle name="標準 3 6 4 2 3" xfId="505"/>
+    <cellStyle name="標準 3 6 4 2 4" xfId="685"/>
+    <cellStyle name="標準 3 6 4 3" xfId="244"/>
+    <cellStyle name="標準 3 6 4 4" xfId="422"/>
+    <cellStyle name="標準 3 6 4 5" xfId="602"/>
+    <cellStyle name="標準 3 6 5" xfId="115"/>
+    <cellStyle name="標準 3 6 5 2" xfId="279"/>
+    <cellStyle name="標準 3 6 5 3" xfId="457"/>
+    <cellStyle name="標準 3 6 5 4" xfId="637"/>
+    <cellStyle name="標準 3 6 6" xfId="32"/>
+    <cellStyle name="標準 3 6 6 2" xfId="374"/>
+    <cellStyle name="標準 3 6 6 3" xfId="554"/>
+    <cellStyle name="標準 3 6 7" xfId="188"/>
+    <cellStyle name="標準 3 6 8" xfId="353"/>
+    <cellStyle name="標準 3 6 9" xfId="533"/>
+    <cellStyle name="標準 3 7" xfId="27"/>
+    <cellStyle name="標準 3 7 2" xfId="75"/>
+    <cellStyle name="標準 3 7 2 2" xfId="158"/>
+    <cellStyle name="標準 3 7 2 2 2" xfId="322"/>
+    <cellStyle name="標準 3 7 2 2 3" xfId="500"/>
+    <cellStyle name="標準 3 7 2 2 4" xfId="680"/>
+    <cellStyle name="標準 3 7 2 3" xfId="239"/>
+    <cellStyle name="標準 3 7 2 4" xfId="417"/>
+    <cellStyle name="標準 3 7 2 5" xfId="597"/>
+    <cellStyle name="標準 3 7 3" xfId="110"/>
+    <cellStyle name="標準 3 7 3 2" xfId="274"/>
+    <cellStyle name="標準 3 7 3 3" xfId="452"/>
+    <cellStyle name="標準 3 7 3 4" xfId="632"/>
+    <cellStyle name="標準 3 7 4" xfId="197"/>
+    <cellStyle name="標準 3 7 5" xfId="369"/>
+    <cellStyle name="標準 3 7 6" xfId="549"/>
+    <cellStyle name="標準 3 8" xfId="40"/>
+    <cellStyle name="標準 3 8 2" xfId="88"/>
+    <cellStyle name="標準 3 8 2 2" xfId="171"/>
+    <cellStyle name="標準 3 8 2 2 2" xfId="335"/>
+    <cellStyle name="標準 3 8 2 2 3" xfId="513"/>
+    <cellStyle name="標準 3 8 2 2 4" xfId="693"/>
+    <cellStyle name="標準 3 8 2 3" xfId="252"/>
+    <cellStyle name="標準 3 8 2 4" xfId="430"/>
+    <cellStyle name="標準 3 8 2 5" xfId="610"/>
+    <cellStyle name="標準 3 8 3" xfId="123"/>
+    <cellStyle name="標準 3 8 3 2" xfId="287"/>
+    <cellStyle name="標準 3 8 3 3" xfId="465"/>
+    <cellStyle name="標準 3 8 3 4" xfId="645"/>
+    <cellStyle name="標準 3 8 4" xfId="205"/>
+    <cellStyle name="標準 3 8 5" xfId="382"/>
+    <cellStyle name="標準 3 8 6" xfId="562"/>
+    <cellStyle name="標準 3 9" xfId="53"/>
+    <cellStyle name="標準 3 9 2" xfId="136"/>
+    <cellStyle name="標準 3 9 2 2" xfId="300"/>
+    <cellStyle name="標準 3 9 2 3" xfId="478"/>
+    <cellStyle name="標準 3 9 2 4" xfId="658"/>
+    <cellStyle name="標準 3 9 3" xfId="218"/>
+    <cellStyle name="標準 3 9 4" xfId="395"/>
+    <cellStyle name="標準 3 9 5" xfId="575"/>
+    <cellStyle name="標準 4" xfId="18"/>
+    <cellStyle name="標準 4 2" xfId="149"/>
+    <cellStyle name="標準 4 2 2" xfId="313"/>
+    <cellStyle name="標準 4 2 3" xfId="491"/>
+    <cellStyle name="標準 4 2 4" xfId="671"/>
+    <cellStyle name="標準 4 3" xfId="66"/>
+    <cellStyle name="標準 4 3 2" xfId="408"/>
+    <cellStyle name="標準 4 3 3" xfId="588"/>
+    <cellStyle name="標準 4 4" xfId="196"/>
+    <cellStyle name="標準 5" xfId="101"/>
+    <cellStyle name="標準 5 2" xfId="265"/>
+    <cellStyle name="標準 5 2 2" xfId="184"/>
+    <cellStyle name="標準 5 2 2 2" xfId="526"/>
+    <cellStyle name="標準 5 2 2 3" xfId="706"/>
+    <cellStyle name="標準 5 2 3" xfId="185"/>
+    <cellStyle name="標準 5 2 3 2" xfId="527"/>
+    <cellStyle name="標準 5 2 3 3" xfId="707"/>
+    <cellStyle name="標準 5 3" xfId="443"/>
+    <cellStyle name="標準 5 4" xfId="623"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -21840,7 +21847,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21911,6 +21918,10 @@
             </a:rPr>
             <a:t>の投票数・的中率調査</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
           </a:br>
@@ -21922,6 +21933,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
@@ -21951,6 +21966,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
@@ -22059,6 +22078,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
@@ -22277,6 +22300,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
@@ -22832,6 +22859,14 @@
             </a:rPr>
             <a:t>'cf_lgbm-1_py'</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
               <a:solidFill>
@@ -22904,6 +22939,10 @@
             </a:rPr>
             <a:t>20210601</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
           </a:br>
@@ -22961,6 +23000,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
@@ -23060,6 +23103,10 @@
             </a:rPr>
             <a:t>desc;</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
           </a:br>
@@ -23098,7 +23145,7 @@
         <xdr:cNvPr id="60417" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001EC0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000001EC0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23169,6 +23216,10 @@
             </a:rPr>
             <a:t>の投票数・的中率調査</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="en-US"/>
           </a:br>
@@ -23180,6 +23231,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -23209,6 +23264,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -23317,6 +23376,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -23535,6 +23598,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -24066,6 +24133,10 @@
             </a:rPr>
             <a:t>'cf_lgbm-1_py'</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
           </a:br>
@@ -24134,6 +24205,10 @@
             </a:rPr>
             <a:t>20210601</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
           </a:br>
@@ -24191,6 +24266,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -24290,6 +24369,10 @@
             </a:rPr>
             <a:t>desc;</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP"/>
           </a:br>
@@ -24309,9 +24392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -24349,9 +24432,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24386,7 +24469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24421,7 +24504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -24594,40 +24677,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.23046875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.84375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.53515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.3046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.07421875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.23046875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.69140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.84375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.84375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.07421875" style="2" customWidth="1"/>
     <col min="19" max="19" width="8" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -28607,10 +28690,10 @@
         <v>39104</v>
       </c>
       <c r="B111" s="46" t="s">
-        <v>640</v>
+        <v>793</v>
       </c>
       <c r="C111" s="46" t="s">
-        <v>640</v>
+        <v>794</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>108</v>
@@ -28665,7 +28748,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T1"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28674,23 +28757,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="1.69140625" customWidth="1"/>
+    <col min="12" max="12" width="13.07421875" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="14.07421875" customWidth="1"/>
+    <col min="22" max="22" width="13.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -38006,7 +38089,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A24:H132" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A24:H132"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38015,14 +38098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1">
@@ -38414,19 +38497,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" customWidth="1"/>
     <col min="8" max="8" width="9"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -42064,7 +42147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -42075,25 +42158,25 @@
       <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="2" customWidth="1"/>
     <col min="11" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.07421875" style="2" customWidth="1"/>
     <col min="16" max="16" width="8" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -44355,7 +44438,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Q2"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44364,7 +44447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -44377,25 +44460,25 @@
       <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="40"/>
     <col min="2" max="2" width="7" style="44" customWidth="1"/>
     <col min="3" max="3" width="7" style="103" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="103" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="7.3046875" style="103" customWidth="1"/>
     <col min="6" max="8" width="9" style="40"/>
-    <col min="9" max="9" width="11.33203125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="40" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="7.765625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="7.69140625" style="40" customWidth="1"/>
     <col min="13" max="15" width="9" style="40"/>
     <col min="16" max="18" width="0" style="40" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0.77734375" style="40" customWidth="1"/>
+    <col min="19" max="19" width="0.765625" style="40" customWidth="1"/>
     <col min="20" max="25" width="9" style="40"/>
     <col min="26" max="28" width="0" style="40" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="40"/>
-    <col min="30" max="30" width="9.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.4609375" style="40" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
@@ -44444,7 +44527,7 @@
       <c r="AA1" s="129"/>
       <c r="AB1" s="130"/>
     </row>
-    <row r="2" spans="2:28" s="1" customFormat="1" ht="52.5" thickBot="1">
+    <row r="2" spans="2:28" s="1" customFormat="1" ht="53" thickBot="1">
       <c r="B2" s="68" t="s">
         <v>540</v>
       </c>
@@ -47222,7 +47305,7 @@
       <c r="AB63" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:R34" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B2:R34"/>
   <mergeCells count="8">
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="F1:H1"/>
@@ -47241,7 +47324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -47251,7 +47334,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
     <col min="3" max="3" width="9"/>
     <col min="5" max="6" width="9"/>
@@ -48127,7 +48210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -48138,29 +48221,29 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.69140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.84375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.53515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.3046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.07421875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.23046875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.69140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.84375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.84375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.07421875" style="2" customWidth="1"/>
     <col min="19" max="19" width="8" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -54565,7 +54648,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T13" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:T13"/>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54574,7 +54657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -54585,25 +54668,25 @@
       <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="2" customWidth="1"/>
     <col min="11" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.07421875" style="2" customWidth="1"/>
     <col min="16" max="16" width="8" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -60021,7 +60104,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q13" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:Q13"/>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60030,7 +60113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -60041,28 +60124,28 @@
       <selection pane="bottomLeft" activeCell="A168" sqref="A168:T168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" style="2" customWidth="1"/>
     <col min="11" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="1.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.84375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.4609375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.4609375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.69140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="1.07421875" style="2" customWidth="1"/>
     <col min="19" max="19" width="8" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -71602,7 +71685,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T170" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A1:T170">
     <filterColumn colId="6">
       <filters>
         <filter val="cf_lgbm-1_py"/>
@@ -71617,17 +71700,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.07421875" customWidth="1"/>
+    <col min="5" max="5" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130">
@@ -73170,7 +73253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
@@ -73180,9 +73263,9 @@
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
+    <col min="9" max="9" width="1.69140625" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -73197,7 +73280,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="35">
       <c r="A2" s="26" t="s">
         <v>244</v>
       </c>
@@ -73652,7 +73735,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="34.5">
+    <row r="12" spans="1:26" ht="35">
       <c r="A12" s="26" t="s">
         <v>244</v>
       </c>
@@ -76391,7 +76474,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J12:Q48" xr:uid="{00000000-0009-0000-0000-000008000000}">
+  <autoFilter ref="J12:Q48">
     <filterColumn colId="2">
       <filters>
         <filter val="2"/>
